--- a/Scripts/copacentroamericana/copacentroamericana.xlsx
+++ b/Scripts/copacentroamericana/copacentroamericana.xlsx
@@ -4,19 +4,22 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" tabRatio="666" activeTab="2"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" tabRatio="666" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="1991" sheetId="1" r:id="rId1"/>
     <sheet name="1993" sheetId="48" r:id="rId2"/>
     <sheet name="1995" sheetId="89" r:id="rId3"/>
+    <sheet name="1997" sheetId="90" r:id="rId4"/>
+    <sheet name="1999" sheetId="91" r:id="rId5"/>
+    <sheet name="2001" sheetId="92" r:id="rId6"/>
   </sheets>
   <calcPr calcId="145621"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="14">
   <si>
     <t>id</t>
   </si>
@@ -3030,7 +3033,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G73"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -3085,6 +3088,7 @@
         <v>2</v>
       </c>
       <c r="B3">
+        <f>B2</f>
         <v>1995</v>
       </c>
       <c r="C3" t="s">
@@ -3104,6 +3108,7 @@
         <v>3</v>
       </c>
       <c r="B4">
+        <f t="shared" ref="B4:B7" si="1">B3</f>
         <v>1995</v>
       </c>
       <c r="C4" t="s">
@@ -3123,6 +3128,7 @@
         <v>4</v>
       </c>
       <c r="B5">
+        <f t="shared" si="1"/>
         <v>1995</v>
       </c>
       <c r="C5" t="s">
@@ -3142,6 +3148,7 @@
         <v>5</v>
       </c>
       <c r="B6">
+        <f t="shared" si="1"/>
         <v>1995</v>
       </c>
       <c r="C6" t="s">
@@ -3161,6 +3168,7 @@
         <v>6</v>
       </c>
       <c r="B7">
+        <f t="shared" si="1"/>
         <v>1995</v>
       </c>
       <c r="C7" t="s">
@@ -3208,7 +3216,7 @@
         <v>507</v>
       </c>
       <c r="G10" t="str">
-        <f t="shared" ref="G10:G21" si="1">"insert into game (matchid, matchdate, game_type, country) values (" &amp; A10 &amp; ", '" &amp; B10 &amp; "', " &amp; C10 &amp; ", " &amp; D10 &amp;  ");"</f>
+        <f t="shared" ref="G10:G21" si="2">"insert into game (matchid, matchdate, game_type, country) values (" &amp; A10 &amp; ", '" &amp; B10 &amp; "', " &amp; C10 &amp; ", " &amp; D10 &amp;  ");"</f>
         <v>insert into game (matchid, matchdate, game_type, country) values (21, '1995-10-22', 1, 507);</v>
       </c>
     </row>
@@ -3228,13 +3236,13 @@
         <v>505</v>
       </c>
       <c r="G11" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>insert into game (matchid, matchdate, game_type, country) values (22, '1995-10-29', 1, 505);</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12">
-        <f t="shared" ref="A12:A21" si="2">A11+1</f>
+        <f t="shared" ref="A12:A21" si="3">A11+1</f>
         <v>23</v>
       </c>
       <c r="B12" s="2" t="str">
@@ -3248,13 +3256,13 @@
         <v>503</v>
       </c>
       <c r="G12" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>insert into game (matchid, matchdate, game_type, country) values (23, '1995-11-29', 2, 503);</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>24</v>
       </c>
       <c r="B13" s="2" t="str">
@@ -3268,13 +3276,13 @@
         <v>503</v>
       </c>
       <c r="G13" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>insert into game (matchid, matchdate, game_type, country) values (24, '1995-12-01', 2, 503);</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>25</v>
       </c>
       <c r="B14" s="2" t="str">
@@ -3288,13 +3296,13 @@
         <v>503</v>
       </c>
       <c r="G14" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>insert into game (matchid, matchdate, game_type, country) values (25, '1995-12-03', 2, 503);</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>26</v>
       </c>
       <c r="B15" s="2" t="str">
@@ -3308,13 +3316,13 @@
         <v>503</v>
       </c>
       <c r="G15" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>insert into game (matchid, matchdate, game_type, country) values (26, '1995-11-29', 2, 503);</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>27</v>
       </c>
       <c r="B16" s="2" t="str">
@@ -3328,13 +3336,13 @@
         <v>503</v>
       </c>
       <c r="G16" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>insert into game (matchid, matchdate, game_type, country) values (27, '1995-12-01', 2, 503);</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>28</v>
       </c>
       <c r="B17" s="2" t="str">
@@ -3348,13 +3356,13 @@
         <v>503</v>
       </c>
       <c r="G17" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>insert into game (matchid, matchdate, game_type, country) values (28, '1995-12-03', 2, 503);</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>29</v>
       </c>
       <c r="B18" s="2" t="str">
@@ -3368,13 +3376,13 @@
         <v>503</v>
       </c>
       <c r="G18" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>insert into game (matchid, matchdate, game_type, country) values (29, '1995-12-07', 4, 503);</v>
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A19">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>30</v>
       </c>
       <c r="B19" s="2" t="str">
@@ -3388,13 +3396,13 @@
         <v>503</v>
       </c>
       <c r="G19" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>insert into game (matchid, matchdate, game_type, country) values (30, '1995-12-07', 4, 503);</v>
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A20">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>31</v>
       </c>
       <c r="B20" s="2" t="str">
@@ -3408,13 +3416,13 @@
         <v>503</v>
       </c>
       <c r="G20" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>insert into game (matchid, matchdate, game_type, country) values (31, '1995-12-10', 5, 503);</v>
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A21">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>32</v>
       </c>
       <c r="B21" s="2" t="str">
@@ -3428,7 +3436,7 @@
         <v>503</v>
       </c>
       <c r="G21" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>insert into game (matchid, matchdate, game_type, country) values (32, '1995-12-10', 6, 503);</v>
       </c>
     </row>
@@ -3478,7 +3486,7 @@
         <v>2</v>
       </c>
       <c r="G24" s="3" t="str">
-        <f t="shared" ref="G24:G35" si="3">"insert into game_score (id, matchid, squad, goals, points, time_type) values (" &amp; A24 &amp; ", " &amp; B24 &amp; ", " &amp; C24 &amp; ", " &amp; D24 &amp; ", " &amp; E24 &amp; ", " &amp; F24 &amp; ");"</f>
+        <f t="shared" ref="G24:G35" si="4">"insert into game_score (id, matchid, squad, goals, points, time_type) values (" &amp; A24 &amp; ", " &amp; B24 &amp; ", " &amp; C24 &amp; ", " &amp; D24 &amp; ", " &amp; E24 &amp; ", " &amp; F24 &amp; ");"</f>
         <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (81, 21, 507, 2, 3, 2);</v>
       </c>
     </row>
@@ -3504,13 +3512,13 @@
         <v>1</v>
       </c>
       <c r="G25" s="3" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (82, 21, 507, 0, 0, 1);</v>
       </c>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A26" s="3">
-        <f t="shared" ref="A26:A73" si="4">A25+1</f>
+        <f t="shared" ref="A26:A73" si="5">A25+1</f>
         <v>83</v>
       </c>
       <c r="B26" s="3">
@@ -3530,13 +3538,13 @@
         <v>2</v>
       </c>
       <c r="G26" s="3" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (83, 21, 505, 0, 0, 2);</v>
       </c>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A27" s="3">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>84</v>
       </c>
       <c r="B27" s="3">
@@ -3556,7 +3564,7 @@
         <v>1</v>
       </c>
       <c r="G27" s="3" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (84, 21, 505, 0, 0, 1);</v>
       </c>
     </row>
@@ -3582,13 +3590,13 @@
         <v>2</v>
       </c>
       <c r="G28" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (85, 22, 505, 0, 0, 2);</v>
       </c>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A29" s="4">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>86</v>
       </c>
       <c r="B29" s="4">
@@ -3608,13 +3616,13 @@
         <v>1</v>
       </c>
       <c r="G29" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (86, 22, 505, 0, 0, 1);</v>
       </c>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A30" s="4">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>87</v>
       </c>
       <c r="B30" s="4">
@@ -3634,13 +3642,13 @@
         <v>2</v>
       </c>
       <c r="G30" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (87, 22, 507, 5, 3, 2);</v>
       </c>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A31" s="4">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>88</v>
       </c>
       <c r="B31" s="4">
@@ -3660,13 +3668,13 @@
         <v>1</v>
       </c>
       <c r="G31" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (88, 22, 507, 1, 0, 1);</v>
       </c>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A32" s="3">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>89</v>
       </c>
       <c r="B32" s="3">
@@ -3686,13 +3694,13 @@
         <v>2</v>
       </c>
       <c r="G32" s="3" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (89, 23, 503, 3, 3, 2);</v>
       </c>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A33" s="3">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>90</v>
       </c>
       <c r="B33" s="3">
@@ -3712,13 +3720,13 @@
         <v>1</v>
       </c>
       <c r="G33" s="3" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (90, 23, 503, 0, 0, 1);</v>
       </c>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A34" s="3">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>91</v>
       </c>
       <c r="B34" s="3">
@@ -3738,17 +3746,17 @@
         <v>2</v>
       </c>
       <c r="G34" s="3" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (91, 23, 501, 0, 0, 2);</v>
       </c>
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A35" s="3">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>92</v>
       </c>
       <c r="B35" s="3">
-        <f t="shared" ref="B35" si="5">B32</f>
+        <f t="shared" ref="B35" si="6">B32</f>
         <v>23</v>
       </c>
       <c r="C35" s="3">
@@ -3764,13 +3772,13 @@
         <v>1</v>
       </c>
       <c r="G35" s="3" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (92, 23, 501, 0, 0, 1);</v>
       </c>
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A36" s="4">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>93</v>
       </c>
       <c r="B36" s="4">
@@ -3790,13 +3798,13 @@
         <v>2</v>
       </c>
       <c r="G36" s="4" t="str">
-        <f t="shared" ref="G36:G43" si="6">"insert into game_score (id, matchid, squad, goals, points, time_type) values (" &amp; A36 &amp; ", " &amp; B36 &amp; ", " &amp; C36 &amp; ", " &amp; D36 &amp; ", " &amp; E36 &amp; ", " &amp; F36 &amp; ");"</f>
+        <f t="shared" ref="G36:G43" si="7">"insert into game_score (id, matchid, squad, goals, points, time_type) values (" &amp; A36 &amp; ", " &amp; B36 &amp; ", " &amp; C36 &amp; ", " &amp; D36 &amp; ", " &amp; E36 &amp; ", " &amp; F36 &amp; ");"</f>
         <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (93, 24, 506, 2, 3, 2);</v>
       </c>
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A37" s="4">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>94</v>
       </c>
       <c r="B37" s="4">
@@ -3816,13 +3824,13 @@
         <v>1</v>
       </c>
       <c r="G37" s="4" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (94, 24, 506, 1, 0, 1);</v>
       </c>
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A38" s="4">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>95</v>
       </c>
       <c r="B38" s="4">
@@ -3842,17 +3850,17 @@
         <v>2</v>
       </c>
       <c r="G38" s="4" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (95, 24, 501, 1, 0, 2);</v>
       </c>
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A39" s="4">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>96</v>
       </c>
       <c r="B39" s="4">
-        <f t="shared" ref="B39:B43" si="7">B36</f>
+        <f t="shared" ref="B39" si="8">B36</f>
         <v>24</v>
       </c>
       <c r="C39" s="4">
@@ -3868,13 +3876,13 @@
         <v>1</v>
       </c>
       <c r="G39" s="4" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (96, 24, 501, 1, 0, 1);</v>
       </c>
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A40" s="3">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>97</v>
       </c>
       <c r="B40" s="3">
@@ -3894,13 +3902,13 @@
         <v>2</v>
       </c>
       <c r="G40" s="3" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (97, 25, 503, 2, 3, 2);</v>
       </c>
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A41" s="3">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>98</v>
       </c>
       <c r="B41" s="3">
@@ -3920,13 +3928,13 @@
         <v>1</v>
       </c>
       <c r="G41" s="3" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (98, 25, 503, 0, 0, 1);</v>
       </c>
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A42" s="3">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>99</v>
       </c>
       <c r="B42" s="3">
@@ -3946,17 +3954,17 @@
         <v>2</v>
       </c>
       <c r="G42" s="3" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (99, 25, 506, 1, 0, 2);</v>
       </c>
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A43" s="3">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>100</v>
       </c>
       <c r="B43" s="3">
-        <f t="shared" ref="B43" si="8">B40</f>
+        <f t="shared" ref="B43" si="9">B40</f>
         <v>25</v>
       </c>
       <c r="C43" s="3">
@@ -3972,13 +3980,13 @@
         <v>1</v>
       </c>
       <c r="G43" s="3" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (100, 25, 506, 1, 0, 1);</v>
       </c>
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A44" s="4">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>101</v>
       </c>
       <c r="B44" s="4">
@@ -3998,13 +4006,13 @@
         <v>2</v>
       </c>
       <c r="G44" s="4" t="str">
-        <f t="shared" ref="G44:G73" si="9">"insert into game_score (id, matchid, squad, goals, points, time_type) values (" &amp; A44 &amp; ", " &amp; B44 &amp; ", " &amp; C44 &amp; ", " &amp; D44 &amp; ", " &amp; E44 &amp; ", " &amp; F44 &amp; ");"</f>
+        <f t="shared" ref="G44:G73" si="10">"insert into game_score (id, matchid, squad, goals, points, time_type) values (" &amp; A44 &amp; ", " &amp; B44 &amp; ", " &amp; C44 &amp; ", " &amp; D44 &amp; ", " &amp; E44 &amp; ", " &amp; F44 &amp; ");"</f>
         <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (101, 26, 504, 2, 3, 2);</v>
       </c>
     </row>
     <row r="45" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A45" s="4">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>102</v>
       </c>
       <c r="B45" s="4">
@@ -4024,13 +4032,13 @@
         <v>1</v>
       </c>
       <c r="G45" s="4" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (102, 26, 504, 1, 0, 1);</v>
       </c>
     </row>
     <row r="46" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A46" s="4">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>103</v>
       </c>
       <c r="B46" s="4">
@@ -4050,17 +4058,17 @@
         <v>2</v>
       </c>
       <c r="G46" s="4" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (103, 26, 507, 0, 0, 2);</v>
       </c>
     </row>
     <row r="47" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A47" s="4">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>104</v>
       </c>
       <c r="B47" s="4">
-        <f t="shared" ref="B47" si="10">B44</f>
+        <f t="shared" ref="B47" si="11">B44</f>
         <v>26</v>
       </c>
       <c r="C47" s="4">
@@ -4076,13 +4084,13 @@
         <v>1</v>
       </c>
       <c r="G47" s="4" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (104, 26, 507, 0, 0, 1);</v>
       </c>
     </row>
     <row r="48" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A48" s="3">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>105</v>
       </c>
       <c r="B48" s="3">
@@ -4102,13 +4110,13 @@
         <v>2</v>
       </c>
       <c r="G48" s="3" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (105, 27, 502, 1, 3, 2);</v>
       </c>
     </row>
     <row r="49" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A49" s="3">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>106</v>
       </c>
       <c r="B49" s="3">
@@ -4128,13 +4136,13 @@
         <v>1</v>
       </c>
       <c r="G49" s="3" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (106, 27, 502, 1, 0, 1);</v>
       </c>
     </row>
     <row r="50" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A50" s="3">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>107</v>
       </c>
       <c r="B50" s="3">
@@ -4154,17 +4162,17 @@
         <v>2</v>
       </c>
       <c r="G50" s="3" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (107, 27, 507, 0, 0, 2);</v>
       </c>
     </row>
     <row r="51" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A51" s="3">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>108</v>
       </c>
       <c r="B51" s="3">
-        <f t="shared" ref="B51" si="11">B48</f>
+        <f t="shared" ref="B51" si="12">B48</f>
         <v>27</v>
       </c>
       <c r="C51" s="3">
@@ -4180,13 +4188,13 @@
         <v>1</v>
       </c>
       <c r="G51" s="3" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (108, 27, 507, 0, 0, 1);</v>
       </c>
     </row>
     <row r="52" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A52" s="4">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>109</v>
       </c>
       <c r="B52" s="4">
@@ -4206,13 +4214,13 @@
         <v>2</v>
       </c>
       <c r="G52" s="4" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (109, 28, 504, 2, 3, 2);</v>
       </c>
     </row>
     <row r="53" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A53" s="4">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>110</v>
       </c>
       <c r="B53" s="4">
@@ -4232,13 +4240,13 @@
         <v>1</v>
       </c>
       <c r="G53" s="4" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (110, 28, 504, 0, 0, 1);</v>
       </c>
     </row>
     <row r="54" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A54" s="4">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>111</v>
       </c>
       <c r="B54" s="4">
@@ -4258,17 +4266,17 @@
         <v>2</v>
       </c>
       <c r="G54" s="4" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (111, 28, 507, 0, 0, 2);</v>
       </c>
     </row>
     <row r="55" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A55" s="4">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>112</v>
       </c>
       <c r="B55" s="4">
-        <f t="shared" ref="B55" si="12">B52</f>
+        <f t="shared" ref="B55" si="13">B52</f>
         <v>28</v>
       </c>
       <c r="C55" s="4">
@@ -4284,13 +4292,13 @@
         <v>1</v>
       </c>
       <c r="G55" s="4" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (112, 28, 507, 0, 0, 1);</v>
       </c>
     </row>
     <row r="56" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A56" s="3">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>113</v>
       </c>
       <c r="B56" s="3">
@@ -4310,13 +4318,13 @@
         <v>2</v>
       </c>
       <c r="G56" s="3" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (113, 29, 504, 1, 1, 2);</v>
       </c>
     </row>
     <row r="57" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A57" s="3">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>114</v>
       </c>
       <c r="B57" s="3">
@@ -4336,13 +4344,13 @@
         <v>1</v>
       </c>
       <c r="G57" s="3" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (114, 29, 504, 0, 0, 1);</v>
       </c>
     </row>
     <row r="58" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A58" s="3">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>115</v>
       </c>
       <c r="B58" s="3">
@@ -4362,17 +4370,17 @@
         <v>2</v>
       </c>
       <c r="G58" s="3" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (115, 29, 506, 1, 1, 2);</v>
       </c>
     </row>
     <row r="59" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A59" s="3">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>116</v>
       </c>
       <c r="B59" s="3">
-        <f t="shared" ref="B59:B61" si="13">B56</f>
+        <f t="shared" ref="B59:B61" si="14">B56</f>
         <v>29</v>
       </c>
       <c r="C59" s="3">
@@ -4388,17 +4396,17 @@
         <v>1</v>
       </c>
       <c r="G59" s="3" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (116, 29, 506, 0, 0, 1);</v>
       </c>
     </row>
     <row r="60" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A60" s="3">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>117</v>
       </c>
       <c r="B60" s="3">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>29</v>
       </c>
       <c r="C60" s="3">
@@ -4414,17 +4422,17 @@
         <v>7</v>
       </c>
       <c r="G60" s="3" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (117, 29, 504, 4, 0, 7);</v>
       </c>
     </row>
     <row r="61" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A61" s="3">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>118</v>
       </c>
       <c r="B61" s="3">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>29</v>
       </c>
       <c r="C61" s="3">
@@ -4440,13 +4448,13 @@
         <v>7</v>
       </c>
       <c r="G61" s="3" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (118, 29, 506, 2, 0, 7);</v>
       </c>
     </row>
     <row r="62" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A62" s="4">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>119</v>
       </c>
       <c r="B62" s="4">
@@ -4466,13 +4474,13 @@
         <v>2</v>
       </c>
       <c r="G62" s="4" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (119, 30, 503, 0, 0, 2);</v>
       </c>
     </row>
     <row r="63" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A63" s="4">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>120</v>
       </c>
       <c r="B63" s="4">
@@ -4492,13 +4500,13 @@
         <v>1</v>
       </c>
       <c r="G63" s="4" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (120, 30, 503, 0, 0, 1);</v>
       </c>
     </row>
     <row r="64" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A64" s="4">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>121</v>
       </c>
       <c r="B64" s="4">
@@ -4518,17 +4526,17 @@
         <v>2</v>
       </c>
       <c r="G64" s="4" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (121, 30, 502, 1, 3, 2);</v>
       </c>
     </row>
     <row r="65" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A65" s="4">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>122</v>
       </c>
       <c r="B65" s="4">
-        <f t="shared" ref="B65" si="14">B62</f>
+        <f t="shared" ref="B65" si="15">B62</f>
         <v>30</v>
       </c>
       <c r="C65" s="4">
@@ -4544,13 +4552,13 @@
         <v>1</v>
       </c>
       <c r="G65" s="4" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (122, 30, 502, 1, 0, 1);</v>
       </c>
     </row>
     <row r="66" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A66" s="3">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>123</v>
       </c>
       <c r="B66" s="3">
@@ -4570,13 +4578,13 @@
         <v>2</v>
       </c>
       <c r="G66" s="3" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (123, 31, 503, 2, 3, 2);</v>
       </c>
     </row>
     <row r="67" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A67" s="3">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>124</v>
       </c>
       <c r="B67" s="3">
@@ -4596,13 +4604,13 @@
         <v>1</v>
       </c>
       <c r="G67" s="3" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (124, 31, 503, 2, 0, 1);</v>
       </c>
     </row>
     <row r="68" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A68" s="3">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>125</v>
       </c>
       <c r="B68" s="3">
@@ -4622,17 +4630,17 @@
         <v>2</v>
       </c>
       <c r="G68" s="3" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (125, 31, 506, 1, 0, 2);</v>
       </c>
     </row>
     <row r="69" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A69" s="3">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>126</v>
       </c>
       <c r="B69" s="3">
-        <f t="shared" ref="B69" si="15">B66</f>
+        <f t="shared" ref="B69" si="16">B66</f>
         <v>31</v>
       </c>
       <c r="C69" s="3">
@@ -4648,13 +4656,13 @@
         <v>1</v>
       </c>
       <c r="G69" s="3" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (126, 31, 506, 0, 0, 1);</v>
       </c>
     </row>
     <row r="70" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A70" s="4">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>127</v>
       </c>
       <c r="B70" s="4">
@@ -4674,13 +4682,13 @@
         <v>2</v>
       </c>
       <c r="G70" s="4" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (127, 32, 504, 3, 3, 2);</v>
       </c>
     </row>
     <row r="71" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A71" s="4">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>128</v>
       </c>
       <c r="B71" s="4">
@@ -4700,13 +4708,13 @@
         <v>1</v>
       </c>
       <c r="G71" s="4" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (128, 32, 504, 2, 0, 1);</v>
       </c>
     </row>
     <row r="72" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A72" s="4">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>129</v>
       </c>
       <c r="B72" s="4">
@@ -4726,17 +4734,17 @@
         <v>2</v>
       </c>
       <c r="G72" s="4" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (129, 32, 502, 0, 0, 2);</v>
       </c>
     </row>
     <row r="73" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A73" s="4">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>130</v>
       </c>
       <c r="B73" s="4">
-        <f t="shared" ref="B73" si="16">B70</f>
+        <f t="shared" ref="B73" si="17">B70</f>
         <v>32</v>
       </c>
       <c r="C73" s="4">
@@ -4752,8 +4760,5715 @@
         <v>1</v>
       </c>
       <c r="G73" s="4" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (130, 32, 502, 0, 0, 1);</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:G81"/>
+  <sheetViews>
+    <sheetView zoomScaleNormal="100" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="9.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.85546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="7.42578125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="6.5703125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="111.140625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D1" t="s">
+        <v>2</v>
+      </c>
+      <c r="G1" t="str">
+        <f>"insert into group_stage (id, tournament, group_code, squad) values (" &amp; A1 &amp; ", " &amp; B1 &amp; ", '" &amp; C1 &amp; "', " &amp; D1 &amp;  ");"</f>
+        <v>insert into group_stage (id, tournament, group_code, squad) values (id, tournament, 'group_code', squad);</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <f>'1995'!A7+1</f>
+        <v>7</v>
+      </c>
+      <c r="B2">
+        <v>1997</v>
+      </c>
+      <c r="C2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D2">
+        <v>502</v>
+      </c>
+      <c r="G2" t="str">
+        <f t="shared" ref="G2:G7" si="0">"insert into group_stage (id, tournament, group_code, squad) values (" &amp; A2 &amp; ", " &amp; B2 &amp; ", '" &amp; C2 &amp; "', " &amp; D2 &amp;  ");"</f>
+        <v>insert into group_stage (id, tournament, group_code, squad) values (7, 1997, 'A', 502);</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <f>A2+1</f>
+        <v>8</v>
+      </c>
+      <c r="B3">
+        <f>B2</f>
+        <v>1997</v>
+      </c>
+      <c r="C3" t="s">
+        <v>12</v>
+      </c>
+      <c r="D3">
+        <v>506</v>
+      </c>
+      <c r="G3" t="str">
+        <f t="shared" si="0"/>
+        <v>insert into group_stage (id, tournament, group_code, squad) values (8, 1997, 'A', 506);</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <f>A3+1</f>
+        <v>9</v>
+      </c>
+      <c r="B4">
+        <f>B3</f>
+        <v>1997</v>
+      </c>
+      <c r="C4" t="s">
+        <v>12</v>
+      </c>
+      <c r="D4">
+        <v>505</v>
+      </c>
+      <c r="G4" t="str">
+        <f t="shared" si="0"/>
+        <v>insert into group_stage (id, tournament, group_code, squad) values (9, 1997, 'A', 505);</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <f>A4+1</f>
+        <v>10</v>
+      </c>
+      <c r="B5">
+        <f>B4</f>
+        <v>1997</v>
+      </c>
+      <c r="C5" t="s">
+        <v>13</v>
+      </c>
+      <c r="D5">
+        <v>504</v>
+      </c>
+      <c r="G5" t="str">
+        <f t="shared" si="0"/>
+        <v>insert into group_stage (id, tournament, group_code, squad) values (10, 1997, 'B', 504);</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <f>A5+1</f>
+        <v>11</v>
+      </c>
+      <c r="B6">
+        <f>B5</f>
+        <v>1997</v>
+      </c>
+      <c r="C6" t="s">
+        <v>13</v>
+      </c>
+      <c r="D6">
+        <v>503</v>
+      </c>
+      <c r="G6" t="str">
+        <f t="shared" si="0"/>
+        <v>insert into group_stage (id, tournament, group_code, squad) values (11, 1997, 'B', 503);</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <f>A6+1</f>
+        <v>12</v>
+      </c>
+      <c r="B7">
+        <f>B6</f>
+        <v>1997</v>
+      </c>
+      <c r="C7" t="s">
+        <v>13</v>
+      </c>
+      <c r="D7">
+        <v>507</v>
+      </c>
+      <c r="G7" t="str">
+        <f t="shared" si="0"/>
+        <v>insert into group_stage (id, tournament, group_code, squad) values (12, 1997, 'B', 507);</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A9" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="G9" t="str">
+        <f>"insert into game (matchid, matchdate, game_type, country) values (" &amp; A9 &amp; ", '" &amp; B9 &amp; "', " &amp; C9 &amp; ", " &amp; D9 &amp;  ");"</f>
+        <v>insert into game (matchid, matchdate, game_type, country) values (matchid, 'matchdate', game_type, country);</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <f>'1995'!A21+1</f>
+        <v>33</v>
+      </c>
+      <c r="B10" s="2" t="str">
+        <f>"1997-03-28"</f>
+        <v>1997-03-28</v>
+      </c>
+      <c r="C10">
+        <v>1</v>
+      </c>
+      <c r="D10">
+        <v>507</v>
+      </c>
+      <c r="G10" t="str">
+        <f t="shared" ref="G10:G23" si="1">"insert into game (matchid, matchdate, game_type, country) values (" &amp; A10 &amp; ", '" &amp; B10 &amp; "', " &amp; C10 &amp; ", " &amp; D10 &amp;  ");"</f>
+        <v>insert into game (matchid, matchdate, game_type, country) values (33, '1997-03-28', 1, 507);</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <f>A10+1</f>
+        <v>34</v>
+      </c>
+      <c r="B11" s="2" t="str">
+        <f>"1997-03-30"</f>
+        <v>1997-03-30</v>
+      </c>
+      <c r="C11">
+        <v>1</v>
+      </c>
+      <c r="D11">
+        <v>501</v>
+      </c>
+      <c r="G11" t="str">
+        <f t="shared" si="1"/>
+        <v>insert into game (matchid, matchdate, game_type, country) values (34, '1997-03-30', 1, 501);</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <f t="shared" ref="A12:A23" si="2">A11+1</f>
+        <v>35</v>
+      </c>
+      <c r="B12" s="2" t="str">
+        <f>"1997-04-16"</f>
+        <v>1997-04-16</v>
+      </c>
+      <c r="C12">
+        <v>2</v>
+      </c>
+      <c r="D12">
+        <v>502</v>
+      </c>
+      <c r="G12" t="str">
+        <f t="shared" si="1"/>
+        <v>insert into game (matchid, matchdate, game_type, country) values (35, '1997-04-16', 2, 502);</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <f t="shared" si="2"/>
+        <v>36</v>
+      </c>
+      <c r="B13" s="2" t="str">
+        <f>"1997-04-18"</f>
+        <v>1997-04-18</v>
+      </c>
+      <c r="C13">
+        <v>2</v>
+      </c>
+      <c r="D13">
+        <v>502</v>
+      </c>
+      <c r="G13" t="str">
+        <f t="shared" si="1"/>
+        <v>insert into game (matchid, matchdate, game_type, country) values (36, '1997-04-18', 2, 502);</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <f t="shared" si="2"/>
+        <v>37</v>
+      </c>
+      <c r="B14" s="2" t="str">
+        <f>"1997-04-20"</f>
+        <v>1997-04-20</v>
+      </c>
+      <c r="C14">
+        <v>2</v>
+      </c>
+      <c r="D14">
+        <v>502</v>
+      </c>
+      <c r="G14" t="str">
+        <f t="shared" si="1"/>
+        <v>insert into game (matchid, matchdate, game_type, country) values (37, '1997-04-20', 2, 502);</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <f t="shared" si="2"/>
+        <v>38</v>
+      </c>
+      <c r="B15" s="2" t="str">
+        <f>"1997-04-16"</f>
+        <v>1997-04-16</v>
+      </c>
+      <c r="C15">
+        <v>2</v>
+      </c>
+      <c r="D15">
+        <v>502</v>
+      </c>
+      <c r="G15" t="str">
+        <f t="shared" si="1"/>
+        <v>insert into game (matchid, matchdate, game_type, country) values (38, '1997-04-16', 2, 502);</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <f t="shared" si="2"/>
+        <v>39</v>
+      </c>
+      <c r="B16" s="2" t="str">
+        <f>"1997-04-18"</f>
+        <v>1997-04-18</v>
+      </c>
+      <c r="C16">
+        <v>2</v>
+      </c>
+      <c r="D16">
+        <v>502</v>
+      </c>
+      <c r="G16" t="str">
+        <f t="shared" si="1"/>
+        <v>insert into game (matchid, matchdate, game_type, country) values (39, '1997-04-18', 2, 502);</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <f t="shared" si="2"/>
+        <v>40</v>
+      </c>
+      <c r="B17" s="2" t="str">
+        <f>"1997-04-20"</f>
+        <v>1997-04-20</v>
+      </c>
+      <c r="C17">
+        <v>2</v>
+      </c>
+      <c r="D17">
+        <v>502</v>
+      </c>
+      <c r="G17" t="str">
+        <f t="shared" si="1"/>
+        <v>insert into game (matchid, matchdate, game_type, country) values (40, '1997-04-20', 2, 502);</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A18">
+        <f t="shared" si="2"/>
+        <v>41</v>
+      </c>
+      <c r="B18" s="2" t="str">
+        <f>"1997-04-23"</f>
+        <v>1997-04-23</v>
+      </c>
+      <c r="C18">
+        <v>8</v>
+      </c>
+      <c r="D18">
+        <v>502</v>
+      </c>
+      <c r="G18" t="str">
+        <f t="shared" si="1"/>
+        <v>insert into game (matchid, matchdate, game_type, country) values (41, '1997-04-23', 8, 502);</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A19">
+        <f t="shared" si="2"/>
+        <v>42</v>
+      </c>
+      <c r="B19" s="2" t="str">
+        <f>"1997-04-23"</f>
+        <v>1997-04-23</v>
+      </c>
+      <c r="C19">
+        <v>8</v>
+      </c>
+      <c r="D19">
+        <v>502</v>
+      </c>
+      <c r="G19" t="str">
+        <f t="shared" si="1"/>
+        <v>insert into game (matchid, matchdate, game_type, country) values (42, '1997-04-23', 8, 502);</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A20">
+        <f t="shared" si="2"/>
+        <v>43</v>
+      </c>
+      <c r="B20" s="2" t="str">
+        <f>"1997-04-25"</f>
+        <v>1997-04-25</v>
+      </c>
+      <c r="C20">
+        <v>8</v>
+      </c>
+      <c r="D20">
+        <v>502</v>
+      </c>
+      <c r="G20" t="str">
+        <f t="shared" si="1"/>
+        <v>insert into game (matchid, matchdate, game_type, country) values (43, '1997-04-25', 8, 502);</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A21">
+        <f t="shared" si="2"/>
+        <v>44</v>
+      </c>
+      <c r="B21" s="2" t="str">
+        <f>"1997-04-25"</f>
+        <v>1997-04-25</v>
+      </c>
+      <c r="C21">
+        <v>8</v>
+      </c>
+      <c r="D21">
+        <v>502</v>
+      </c>
+      <c r="G21" t="str">
+        <f t="shared" si="1"/>
+        <v>insert into game (matchid, matchdate, game_type, country) values (44, '1997-04-25', 8, 502);</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A22">
+        <f t="shared" si="2"/>
+        <v>45</v>
+      </c>
+      <c r="B22" s="2" t="str">
+        <f>"1997-04-27"</f>
+        <v>1997-04-27</v>
+      </c>
+      <c r="C22">
+        <v>8</v>
+      </c>
+      <c r="D22">
+        <v>502</v>
+      </c>
+      <c r="G22" t="str">
+        <f t="shared" si="1"/>
+        <v>insert into game (matchid, matchdate, game_type, country) values (45, '1997-04-27', 8, 502);</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A23">
+        <f t="shared" si="2"/>
+        <v>46</v>
+      </c>
+      <c r="B23" s="2" t="str">
+        <f>"1997-04-27"</f>
+        <v>1997-04-27</v>
+      </c>
+      <c r="C23">
+        <v>8</v>
+      </c>
+      <c r="D23">
+        <v>502</v>
+      </c>
+      <c r="G23" t="str">
+        <f t="shared" si="1"/>
+        <v>insert into game (matchid, matchdate, game_type, country) values (46, '1997-04-27', 8, 502);</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A25" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C25" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D25" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E25" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F25" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G25" t="str">
+        <f>"insert into game_score (id, matchid, squad, goals, points, time_type) values (" &amp; A25 &amp; ", " &amp; B25 &amp; ", " &amp; C25 &amp; ", " &amp; D25 &amp; ", " &amp; E25 &amp; ", " &amp; F25 &amp; ");"</f>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (id, matchid, squad, goals, points, time_type);</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A26" s="3">
+        <f>'1995'!A73 + 1</f>
+        <v>131</v>
+      </c>
+      <c r="B26" s="3">
+        <f>A10</f>
+        <v>33</v>
+      </c>
+      <c r="C26" s="3">
+        <v>507</v>
+      </c>
+      <c r="D26" s="3">
+        <v>1</v>
+      </c>
+      <c r="E26" s="3">
+        <v>1</v>
+      </c>
+      <c r="F26" s="3">
+        <v>2</v>
+      </c>
+      <c r="G26" s="3" t="str">
+        <f t="shared" ref="G26:G73" si="3">"insert into game_score (id, matchid, squad, goals, points, time_type) values (" &amp; A26 &amp; ", " &amp; B26 &amp; ", " &amp; C26 &amp; ", " &amp; D26 &amp; ", " &amp; E26 &amp; ", " &amp; F26 &amp; ");"</f>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (131, 33, 507, 1, 1, 2);</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A27" s="3">
+        <f>A26+1</f>
+        <v>132</v>
+      </c>
+      <c r="B27" s="3">
+        <f>B26</f>
+        <v>33</v>
+      </c>
+      <c r="C27" s="3">
+        <v>507</v>
+      </c>
+      <c r="D27" s="3">
+        <v>0</v>
+      </c>
+      <c r="E27" s="3">
+        <v>0</v>
+      </c>
+      <c r="F27" s="3">
+        <v>1</v>
+      </c>
+      <c r="G27" s="3" t="str">
+        <f t="shared" si="3"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (132, 33, 507, 0, 0, 1);</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A28" s="3">
+        <f t="shared" ref="A28:A81" si="4">A27+1</f>
+        <v>133</v>
+      </c>
+      <c r="B28" s="3">
+        <f>B26</f>
+        <v>33</v>
+      </c>
+      <c r="C28" s="3">
+        <v>501</v>
+      </c>
+      <c r="D28" s="3">
+        <v>1</v>
+      </c>
+      <c r="E28" s="3">
+        <v>1</v>
+      </c>
+      <c r="F28" s="3">
+        <v>2</v>
+      </c>
+      <c r="G28" s="3" t="str">
+        <f t="shared" si="3"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (133, 33, 501, 1, 1, 2);</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A29" s="3">
+        <f t="shared" si="4"/>
+        <v>134</v>
+      </c>
+      <c r="B29" s="3">
+        <f>B26</f>
+        <v>33</v>
+      </c>
+      <c r="C29" s="3">
+        <v>501</v>
+      </c>
+      <c r="D29" s="3">
+        <v>0</v>
+      </c>
+      <c r="E29" s="3">
+        <v>0</v>
+      </c>
+      <c r="F29" s="3">
+        <v>1</v>
+      </c>
+      <c r="G29" s="3" t="str">
+        <f t="shared" si="3"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (134, 33, 501, 0, 0, 1);</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A30" s="4">
+        <f>A29+1</f>
+        <v>135</v>
+      </c>
+      <c r="B30" s="4">
+        <f>B26+1</f>
+        <v>34</v>
+      </c>
+      <c r="C30" s="4">
+        <v>501</v>
+      </c>
+      <c r="D30" s="4">
+        <v>0</v>
+      </c>
+      <c r="E30" s="4">
+        <v>0</v>
+      </c>
+      <c r="F30" s="4">
+        <v>2</v>
+      </c>
+      <c r="G30" t="str">
+        <f t="shared" si="3"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (135, 34, 501, 0, 0, 2);</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A31" s="4">
+        <f t="shared" si="4"/>
+        <v>136</v>
+      </c>
+      <c r="B31" s="4">
+        <f>B30</f>
+        <v>34</v>
+      </c>
+      <c r="C31" s="4">
+        <v>501</v>
+      </c>
+      <c r="D31" s="4">
+        <v>0</v>
+      </c>
+      <c r="E31" s="4">
+        <v>0</v>
+      </c>
+      <c r="F31" s="4">
+        <v>1</v>
+      </c>
+      <c r="G31" t="str">
+        <f t="shared" si="3"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (136, 34, 501, 0, 0, 1);</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A32" s="4">
+        <f t="shared" si="4"/>
+        <v>137</v>
+      </c>
+      <c r="B32" s="4">
+        <f>B30</f>
+        <v>34</v>
+      </c>
+      <c r="C32" s="4">
+        <v>507</v>
+      </c>
+      <c r="D32" s="4">
+        <v>1</v>
+      </c>
+      <c r="E32" s="4">
+        <v>3</v>
+      </c>
+      <c r="F32" s="4">
+        <v>2</v>
+      </c>
+      <c r="G32" t="str">
+        <f t="shared" si="3"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (137, 34, 507, 1, 3, 2);</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A33" s="4">
+        <f t="shared" si="4"/>
+        <v>138</v>
+      </c>
+      <c r="B33" s="4">
+        <f>B30</f>
+        <v>34</v>
+      </c>
+      <c r="C33" s="4">
+        <v>507</v>
+      </c>
+      <c r="D33" s="4">
+        <v>0</v>
+      </c>
+      <c r="E33" s="4">
+        <v>0</v>
+      </c>
+      <c r="F33" s="4">
+        <v>1</v>
+      </c>
+      <c r="G33" t="str">
+        <f t="shared" si="3"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (138, 34, 507, 0, 0, 1);</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A34" s="3">
+        <f t="shared" si="4"/>
+        <v>139</v>
+      </c>
+      <c r="B34" s="3">
+        <f>B30+1</f>
+        <v>35</v>
+      </c>
+      <c r="C34" s="3">
+        <v>502</v>
+      </c>
+      <c r="D34" s="3">
+        <v>1</v>
+      </c>
+      <c r="E34" s="3">
+        <v>1</v>
+      </c>
+      <c r="F34" s="3">
+        <v>2</v>
+      </c>
+      <c r="G34" s="3" t="str">
+        <f t="shared" si="3"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (139, 35, 502, 1, 1, 2);</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A35" s="3">
+        <f t="shared" si="4"/>
+        <v>140</v>
+      </c>
+      <c r="B35" s="3">
+        <f>B34</f>
+        <v>35</v>
+      </c>
+      <c r="C35" s="3">
+        <v>502</v>
+      </c>
+      <c r="D35" s="3">
+        <v>1</v>
+      </c>
+      <c r="E35" s="3">
+        <v>0</v>
+      </c>
+      <c r="F35" s="3">
+        <v>1</v>
+      </c>
+      <c r="G35" s="3" t="str">
+        <f t="shared" si="3"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (140, 35, 502, 1, 0, 1);</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A36" s="3">
+        <f t="shared" si="4"/>
+        <v>141</v>
+      </c>
+      <c r="B36" s="3">
+        <f>B34</f>
+        <v>35</v>
+      </c>
+      <c r="C36" s="3">
+        <v>506</v>
+      </c>
+      <c r="D36" s="3">
+        <v>1</v>
+      </c>
+      <c r="E36" s="3">
+        <v>1</v>
+      </c>
+      <c r="F36" s="3">
+        <v>2</v>
+      </c>
+      <c r="G36" s="3" t="str">
+        <f t="shared" si="3"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (141, 35, 506, 1, 1, 2);</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A37" s="3">
+        <f t="shared" si="4"/>
+        <v>142</v>
+      </c>
+      <c r="B37" s="3">
+        <f t="shared" ref="B37" si="5">B34</f>
+        <v>35</v>
+      </c>
+      <c r="C37" s="3">
+        <v>506</v>
+      </c>
+      <c r="D37" s="3">
+        <v>1</v>
+      </c>
+      <c r="E37" s="3">
+        <v>0</v>
+      </c>
+      <c r="F37" s="3">
+        <v>1</v>
+      </c>
+      <c r="G37" s="3" t="str">
+        <f t="shared" si="3"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (142, 35, 506, 1, 0, 1);</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A38" s="4">
+        <f t="shared" si="4"/>
+        <v>143</v>
+      </c>
+      <c r="B38" s="4">
+        <f>B34+1</f>
+        <v>36</v>
+      </c>
+      <c r="C38" s="4">
+        <v>506</v>
+      </c>
+      <c r="D38" s="4">
+        <v>5</v>
+      </c>
+      <c r="E38" s="4">
+        <v>3</v>
+      </c>
+      <c r="F38" s="4">
+        <v>2</v>
+      </c>
+      <c r="G38" s="4" t="str">
+        <f t="shared" si="3"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (143, 36, 506, 5, 3, 2);</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A39" s="4">
+        <f t="shared" si="4"/>
+        <v>144</v>
+      </c>
+      <c r="B39" s="4">
+        <f>B38</f>
+        <v>36</v>
+      </c>
+      <c r="C39" s="4">
+        <v>506</v>
+      </c>
+      <c r="D39" s="4">
+        <v>4</v>
+      </c>
+      <c r="E39" s="4">
+        <v>0</v>
+      </c>
+      <c r="F39" s="4">
+        <v>1</v>
+      </c>
+      <c r="G39" s="4" t="str">
+        <f t="shared" si="3"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (144, 36, 506, 4, 0, 1);</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A40" s="4">
+        <f t="shared" si="4"/>
+        <v>145</v>
+      </c>
+      <c r="B40" s="4">
+        <f>B38</f>
+        <v>36</v>
+      </c>
+      <c r="C40" s="4">
+        <v>505</v>
+      </c>
+      <c r="D40" s="4">
+        <v>1</v>
+      </c>
+      <c r="E40" s="4">
+        <v>0</v>
+      </c>
+      <c r="F40" s="4">
+        <v>2</v>
+      </c>
+      <c r="G40" s="4" t="str">
+        <f t="shared" si="3"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (145, 36, 505, 1, 0, 2);</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A41" s="4">
+        <f t="shared" si="4"/>
+        <v>146</v>
+      </c>
+      <c r="B41" s="4">
+        <f t="shared" ref="B41" si="6">B38</f>
+        <v>36</v>
+      </c>
+      <c r="C41" s="4">
+        <v>505</v>
+      </c>
+      <c r="D41" s="4">
+        <v>0</v>
+      </c>
+      <c r="E41" s="4">
+        <v>0</v>
+      </c>
+      <c r="F41" s="4">
+        <v>1</v>
+      </c>
+      <c r="G41" s="4" t="str">
+        <f t="shared" si="3"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (146, 36, 505, 0, 0, 1);</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A42" s="3">
+        <f t="shared" si="4"/>
+        <v>147</v>
+      </c>
+      <c r="B42" s="3">
+        <f>B38+1</f>
+        <v>37</v>
+      </c>
+      <c r="C42" s="3">
+        <v>502</v>
+      </c>
+      <c r="D42" s="3">
+        <v>6</v>
+      </c>
+      <c r="E42" s="3">
+        <v>3</v>
+      </c>
+      <c r="F42" s="3">
+        <v>2</v>
+      </c>
+      <c r="G42" s="3" t="str">
+        <f t="shared" si="3"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (147, 37, 502, 6, 3, 2);</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A43" s="3">
+        <f t="shared" si="4"/>
+        <v>148</v>
+      </c>
+      <c r="B43" s="3">
+        <f>B42</f>
+        <v>37</v>
+      </c>
+      <c r="C43" s="3">
+        <v>502</v>
+      </c>
+      <c r="D43" s="3">
+        <v>4</v>
+      </c>
+      <c r="E43" s="3">
+        <v>0</v>
+      </c>
+      <c r="F43" s="3">
+        <v>1</v>
+      </c>
+      <c r="G43" s="3" t="str">
+        <f t="shared" si="3"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (148, 37, 502, 4, 0, 1);</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A44" s="3">
+        <f t="shared" si="4"/>
+        <v>149</v>
+      </c>
+      <c r="B44" s="3">
+        <f>B42</f>
+        <v>37</v>
+      </c>
+      <c r="C44" s="3">
+        <v>505</v>
+      </c>
+      <c r="D44" s="3">
+        <v>1</v>
+      </c>
+      <c r="E44" s="3">
+        <v>0</v>
+      </c>
+      <c r="F44" s="3">
+        <v>2</v>
+      </c>
+      <c r="G44" s="3" t="str">
+        <f t="shared" si="3"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (149, 37, 505, 1, 0, 2);</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A45" s="3">
+        <f t="shared" si="4"/>
+        <v>150</v>
+      </c>
+      <c r="B45" s="3">
+        <f t="shared" ref="B45" si="7">B42</f>
+        <v>37</v>
+      </c>
+      <c r="C45" s="3">
+        <v>505</v>
+      </c>
+      <c r="D45" s="3">
+        <v>0</v>
+      </c>
+      <c r="E45" s="3">
+        <v>0</v>
+      </c>
+      <c r="F45" s="3">
+        <v>1</v>
+      </c>
+      <c r="G45" s="3" t="str">
+        <f t="shared" si="3"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (150, 37, 505, 0, 0, 1);</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A46" s="4">
+        <f t="shared" si="4"/>
+        <v>151</v>
+      </c>
+      <c r="B46" s="4">
+        <f>B42+1</f>
+        <v>38</v>
+      </c>
+      <c r="C46" s="4">
+        <v>504</v>
+      </c>
+      <c r="D46" s="4">
+        <v>5</v>
+      </c>
+      <c r="E46" s="4">
+        <v>3</v>
+      </c>
+      <c r="F46" s="4">
+        <v>2</v>
+      </c>
+      <c r="G46" s="4" t="str">
+        <f t="shared" si="3"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (151, 38, 504, 5, 3, 2);</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A47" s="4">
+        <f t="shared" si="4"/>
+        <v>152</v>
+      </c>
+      <c r="B47" s="4">
+        <f>B46</f>
+        <v>38</v>
+      </c>
+      <c r="C47" s="4">
+        <v>504</v>
+      </c>
+      <c r="D47" s="4">
+        <v>4</v>
+      </c>
+      <c r="E47" s="4">
+        <v>0</v>
+      </c>
+      <c r="F47" s="4">
+        <v>1</v>
+      </c>
+      <c r="G47" s="4" t="str">
+        <f t="shared" si="3"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (152, 38, 504, 4, 0, 1);</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A48" s="4">
+        <f t="shared" si="4"/>
+        <v>153</v>
+      </c>
+      <c r="B48" s="4">
+        <f>B46</f>
+        <v>38</v>
+      </c>
+      <c r="C48" s="4">
+        <v>507</v>
+      </c>
+      <c r="D48" s="4">
+        <v>0</v>
+      </c>
+      <c r="E48" s="4">
+        <v>0</v>
+      </c>
+      <c r="F48" s="4">
+        <v>2</v>
+      </c>
+      <c r="G48" s="4" t="str">
+        <f t="shared" si="3"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (153, 38, 507, 0, 0, 2);</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A49" s="4">
+        <f t="shared" si="4"/>
+        <v>154</v>
+      </c>
+      <c r="B49" s="4">
+        <f t="shared" ref="B49" si="8">B46</f>
+        <v>38</v>
+      </c>
+      <c r="C49" s="4">
+        <v>507</v>
+      </c>
+      <c r="D49" s="4">
+        <v>0</v>
+      </c>
+      <c r="E49" s="4">
+        <v>0</v>
+      </c>
+      <c r="F49" s="4">
+        <v>1</v>
+      </c>
+      <c r="G49" s="4" t="str">
+        <f t="shared" si="3"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (154, 38, 507, 0, 0, 1);</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A50" s="3">
+        <f t="shared" si="4"/>
+        <v>155</v>
+      </c>
+      <c r="B50" s="3">
+        <f>B46+1</f>
+        <v>39</v>
+      </c>
+      <c r="C50" s="3">
+        <v>504</v>
+      </c>
+      <c r="D50" s="3">
+        <v>3</v>
+      </c>
+      <c r="E50" s="3">
+        <v>3</v>
+      </c>
+      <c r="F50" s="3">
+        <v>2</v>
+      </c>
+      <c r="G50" s="3" t="str">
+        <f t="shared" si="3"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (155, 39, 504, 3, 3, 2);</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A51" s="3">
+        <f t="shared" si="4"/>
+        <v>156</v>
+      </c>
+      <c r="B51" s="3">
+        <f>B50</f>
+        <v>39</v>
+      </c>
+      <c r="C51" s="3">
+        <v>504</v>
+      </c>
+      <c r="D51" s="3">
+        <v>2</v>
+      </c>
+      <c r="E51" s="3">
+        <v>0</v>
+      </c>
+      <c r="F51" s="3">
+        <v>1</v>
+      </c>
+      <c r="G51" s="3" t="str">
+        <f t="shared" si="3"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (156, 39, 504, 2, 0, 1);</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A52" s="3">
+        <f t="shared" si="4"/>
+        <v>157</v>
+      </c>
+      <c r="B52" s="3">
+        <f>B50</f>
+        <v>39</v>
+      </c>
+      <c r="C52" s="3">
+        <v>503</v>
+      </c>
+      <c r="D52" s="3">
+        <v>0</v>
+      </c>
+      <c r="E52" s="3">
+        <v>0</v>
+      </c>
+      <c r="F52" s="3">
+        <v>2</v>
+      </c>
+      <c r="G52" s="3" t="str">
+        <f t="shared" si="3"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (157, 39, 503, 0, 0, 2);</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A53" s="3">
+        <f t="shared" si="4"/>
+        <v>158</v>
+      </c>
+      <c r="B53" s="3">
+        <f t="shared" ref="B53" si="9">B50</f>
+        <v>39</v>
+      </c>
+      <c r="C53" s="3">
+        <v>503</v>
+      </c>
+      <c r="D53" s="3">
+        <v>0</v>
+      </c>
+      <c r="E53" s="3">
+        <v>0</v>
+      </c>
+      <c r="F53" s="3">
+        <v>1</v>
+      </c>
+      <c r="G53" s="3" t="str">
+        <f t="shared" si="3"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (158, 39, 503, 0, 0, 1);</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A54" s="4">
+        <f t="shared" si="4"/>
+        <v>159</v>
+      </c>
+      <c r="B54" s="4">
+        <f>B50+1</f>
+        <v>40</v>
+      </c>
+      <c r="C54" s="4">
+        <v>503</v>
+      </c>
+      <c r="D54" s="4">
+        <v>2</v>
+      </c>
+      <c r="E54" s="4">
+        <v>3</v>
+      </c>
+      <c r="F54" s="4">
+        <v>2</v>
+      </c>
+      <c r="G54" s="4" t="str">
+        <f t="shared" si="3"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (159, 40, 503, 2, 3, 2);</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A55" s="4">
+        <f t="shared" si="4"/>
+        <v>160</v>
+      </c>
+      <c r="B55" s="4">
+        <f>B54</f>
+        <v>40</v>
+      </c>
+      <c r="C55" s="4">
+        <v>503</v>
+      </c>
+      <c r="D55" s="4">
+        <v>0</v>
+      </c>
+      <c r="E55" s="4">
+        <v>0</v>
+      </c>
+      <c r="F55" s="4">
+        <v>1</v>
+      </c>
+      <c r="G55" s="4" t="str">
+        <f t="shared" si="3"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (160, 40, 503, 0, 0, 1);</v>
+      </c>
+    </row>
+    <row r="56" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A56" s="4">
+        <f t="shared" si="4"/>
+        <v>161</v>
+      </c>
+      <c r="B56" s="4">
+        <f>B54</f>
+        <v>40</v>
+      </c>
+      <c r="C56" s="4">
+        <v>507</v>
+      </c>
+      <c r="D56" s="4">
+        <v>0</v>
+      </c>
+      <c r="E56" s="4">
+        <v>0</v>
+      </c>
+      <c r="F56" s="4">
+        <v>2</v>
+      </c>
+      <c r="G56" s="4" t="str">
+        <f t="shared" si="3"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (161, 40, 507, 0, 0, 2);</v>
+      </c>
+    </row>
+    <row r="57" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A57" s="4">
+        <f t="shared" si="4"/>
+        <v>162</v>
+      </c>
+      <c r="B57" s="4">
+        <f t="shared" ref="B57" si="10">B54</f>
+        <v>40</v>
+      </c>
+      <c r="C57" s="4">
+        <v>507</v>
+      </c>
+      <c r="D57" s="4">
+        <v>0</v>
+      </c>
+      <c r="E57" s="4">
+        <v>0</v>
+      </c>
+      <c r="F57" s="4">
+        <v>1</v>
+      </c>
+      <c r="G57" s="4" t="str">
+        <f t="shared" si="3"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (162, 40, 507, 0, 0, 1);</v>
+      </c>
+    </row>
+    <row r="58" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A58" s="3">
+        <f t="shared" si="4"/>
+        <v>163</v>
+      </c>
+      <c r="B58" s="3">
+        <f>B54+1</f>
+        <v>41</v>
+      </c>
+      <c r="C58" s="3">
+        <v>504</v>
+      </c>
+      <c r="D58" s="3">
+        <v>0</v>
+      </c>
+      <c r="E58" s="3">
+        <v>0</v>
+      </c>
+      <c r="F58" s="3">
+        <v>2</v>
+      </c>
+      <c r="G58" s="3" t="str">
+        <f t="shared" si="3"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (163, 41, 504, 0, 0, 2);</v>
+      </c>
+    </row>
+    <row r="59" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A59" s="3">
+        <f t="shared" si="4"/>
+        <v>164</v>
+      </c>
+      <c r="B59" s="3">
+        <f>B58</f>
+        <v>41</v>
+      </c>
+      <c r="C59" s="3">
+        <v>504</v>
+      </c>
+      <c r="D59" s="3">
+        <v>0</v>
+      </c>
+      <c r="E59" s="3">
+        <v>0</v>
+      </c>
+      <c r="F59" s="3">
+        <v>1</v>
+      </c>
+      <c r="G59" s="3" t="str">
+        <f t="shared" si="3"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (164, 41, 504, 0, 0, 1);</v>
+      </c>
+    </row>
+    <row r="60" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A60" s="3">
+        <f t="shared" si="4"/>
+        <v>165</v>
+      </c>
+      <c r="B60" s="3">
+        <f>B58</f>
+        <v>41</v>
+      </c>
+      <c r="C60" s="3">
+        <v>506</v>
+      </c>
+      <c r="D60" s="3">
+        <v>4</v>
+      </c>
+      <c r="E60" s="3">
+        <v>3</v>
+      </c>
+      <c r="F60" s="3">
+        <v>2</v>
+      </c>
+      <c r="G60" s="3" t="str">
+        <f t="shared" si="3"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (165, 41, 506, 4, 3, 2);</v>
+      </c>
+    </row>
+    <row r="61" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A61" s="3">
+        <f t="shared" si="4"/>
+        <v>166</v>
+      </c>
+      <c r="B61" s="3">
+        <f t="shared" ref="B61" si="11">B58</f>
+        <v>41</v>
+      </c>
+      <c r="C61" s="3">
+        <v>506</v>
+      </c>
+      <c r="D61" s="3">
+        <v>3</v>
+      </c>
+      <c r="E61" s="3">
+        <v>0</v>
+      </c>
+      <c r="F61" s="3">
+        <v>1</v>
+      </c>
+      <c r="G61" s="3" t="str">
+        <f t="shared" si="3"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (166, 41, 506, 3, 0, 1);</v>
+      </c>
+    </row>
+    <row r="62" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A62" s="4">
+        <f t="shared" si="4"/>
+        <v>167</v>
+      </c>
+      <c r="B62" s="4">
+        <f>B58+1</f>
+        <v>42</v>
+      </c>
+      <c r="C62" s="4">
+        <v>502</v>
+      </c>
+      <c r="D62" s="4">
+        <v>1</v>
+      </c>
+      <c r="E62" s="4">
+        <v>3</v>
+      </c>
+      <c r="F62" s="4">
+        <v>2</v>
+      </c>
+      <c r="G62" s="4" t="str">
+        <f t="shared" si="3"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (167, 42, 502, 1, 3, 2);</v>
+      </c>
+    </row>
+    <row r="63" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A63" s="4">
+        <f t="shared" si="4"/>
+        <v>168</v>
+      </c>
+      <c r="B63" s="4">
+        <f>B62</f>
+        <v>42</v>
+      </c>
+      <c r="C63" s="4">
+        <v>502</v>
+      </c>
+      <c r="D63" s="4">
+        <v>0</v>
+      </c>
+      <c r="E63" s="4">
+        <v>0</v>
+      </c>
+      <c r="F63" s="4">
+        <v>1</v>
+      </c>
+      <c r="G63" s="4" t="str">
+        <f t="shared" si="3"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (168, 42, 502, 0, 0, 1);</v>
+      </c>
+    </row>
+    <row r="64" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A64" s="4">
+        <f t="shared" si="4"/>
+        <v>169</v>
+      </c>
+      <c r="B64" s="4">
+        <f>B62</f>
+        <v>42</v>
+      </c>
+      <c r="C64" s="4">
+        <v>503</v>
+      </c>
+      <c r="D64" s="4">
+        <v>0</v>
+      </c>
+      <c r="E64" s="4">
+        <v>0</v>
+      </c>
+      <c r="F64" s="4">
+        <v>2</v>
+      </c>
+      <c r="G64" s="4" t="str">
+        <f t="shared" si="3"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (169, 42, 503, 0, 0, 2);</v>
+      </c>
+    </row>
+    <row r="65" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A65" s="4">
+        <f t="shared" si="4"/>
+        <v>170</v>
+      </c>
+      <c r="B65" s="4">
+        <f t="shared" ref="B65" si="12">B62</f>
+        <v>42</v>
+      </c>
+      <c r="C65" s="4">
+        <v>503</v>
+      </c>
+      <c r="D65" s="4">
+        <v>0</v>
+      </c>
+      <c r="E65" s="4">
+        <v>0</v>
+      </c>
+      <c r="F65" s="4">
+        <v>1</v>
+      </c>
+      <c r="G65" s="4" t="str">
+        <f t="shared" si="3"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (170, 42, 503, 0, 0, 1);</v>
+      </c>
+    </row>
+    <row r="66" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A66" s="3">
+        <f t="shared" si="4"/>
+        <v>171</v>
+      </c>
+      <c r="B66" s="3">
+        <f>B62+1</f>
+        <v>43</v>
+      </c>
+      <c r="C66" s="3">
+        <v>502</v>
+      </c>
+      <c r="D66" s="3">
+        <v>1</v>
+      </c>
+      <c r="E66" s="3">
+        <v>3</v>
+      </c>
+      <c r="F66" s="3">
+        <v>2</v>
+      </c>
+      <c r="G66" s="3" t="str">
+        <f t="shared" si="3"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (171, 43, 502, 1, 3, 2);</v>
+      </c>
+    </row>
+    <row r="67" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A67" s="3">
+        <f t="shared" si="4"/>
+        <v>172</v>
+      </c>
+      <c r="B67" s="3">
+        <f>B66</f>
+        <v>43</v>
+      </c>
+      <c r="C67" s="3">
+        <v>502</v>
+      </c>
+      <c r="D67" s="3">
+        <v>0</v>
+      </c>
+      <c r="E67" s="3">
+        <v>0</v>
+      </c>
+      <c r="F67" s="3">
+        <v>1</v>
+      </c>
+      <c r="G67" s="3" t="str">
+        <f t="shared" si="3"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (172, 43, 502, 0, 0, 1);</v>
+      </c>
+    </row>
+    <row r="68" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A68" s="3">
+        <f t="shared" si="4"/>
+        <v>173</v>
+      </c>
+      <c r="B68" s="3">
+        <f>B66</f>
+        <v>43</v>
+      </c>
+      <c r="C68" s="3">
+        <v>504</v>
+      </c>
+      <c r="D68" s="3">
+        <v>0</v>
+      </c>
+      <c r="E68" s="3">
+        <v>0</v>
+      </c>
+      <c r="F68" s="3">
+        <v>2</v>
+      </c>
+      <c r="G68" s="3" t="str">
+        <f t="shared" si="3"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (173, 43, 504, 0, 0, 2);</v>
+      </c>
+    </row>
+    <row r="69" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A69" s="3">
+        <f t="shared" si="4"/>
+        <v>174</v>
+      </c>
+      <c r="B69" s="3">
+        <f t="shared" ref="B69" si="13">B66</f>
+        <v>43</v>
+      </c>
+      <c r="C69" s="3">
+        <v>504</v>
+      </c>
+      <c r="D69" s="3">
+        <v>0</v>
+      </c>
+      <c r="E69" s="3">
+        <v>0</v>
+      </c>
+      <c r="F69" s="3">
+        <v>1</v>
+      </c>
+      <c r="G69" s="3" t="str">
+        <f t="shared" si="3"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (174, 43, 504, 0, 0, 1);</v>
+      </c>
+    </row>
+    <row r="70" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A70" s="4">
+        <f t="shared" si="4"/>
+        <v>175</v>
+      </c>
+      <c r="B70" s="4">
+        <f>B66+1</f>
+        <v>44</v>
+      </c>
+      <c r="C70" s="4">
+        <v>506</v>
+      </c>
+      <c r="D70" s="4">
+        <v>1</v>
+      </c>
+      <c r="E70" s="4">
+        <v>3</v>
+      </c>
+      <c r="F70" s="4">
+        <v>2</v>
+      </c>
+      <c r="G70" s="4" t="str">
+        <f t="shared" si="3"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (175, 44, 506, 1, 3, 2);</v>
+      </c>
+    </row>
+    <row r="71" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A71" s="4">
+        <f t="shared" si="4"/>
+        <v>176</v>
+      </c>
+      <c r="B71" s="4">
+        <f>B70</f>
+        <v>44</v>
+      </c>
+      <c r="C71" s="4">
+        <v>506</v>
+      </c>
+      <c r="D71" s="4">
+        <v>0</v>
+      </c>
+      <c r="E71" s="4">
+        <v>0</v>
+      </c>
+      <c r="F71" s="4">
+        <v>1</v>
+      </c>
+      <c r="G71" s="4" t="str">
+        <f t="shared" si="3"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (176, 44, 506, 0, 0, 1);</v>
+      </c>
+    </row>
+    <row r="72" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A72" s="4">
+        <f t="shared" si="4"/>
+        <v>177</v>
+      </c>
+      <c r="B72" s="4">
+        <f>B70</f>
+        <v>44</v>
+      </c>
+      <c r="C72" s="4">
+        <v>503</v>
+      </c>
+      <c r="D72" s="4">
+        <v>0</v>
+      </c>
+      <c r="E72" s="4">
+        <v>0</v>
+      </c>
+      <c r="F72" s="4">
+        <v>2</v>
+      </c>
+      <c r="G72" s="4" t="str">
+        <f t="shared" si="3"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (177, 44, 503, 0, 0, 2);</v>
+      </c>
+    </row>
+    <row r="73" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A73" s="4">
+        <f t="shared" si="4"/>
+        <v>178</v>
+      </c>
+      <c r="B73" s="4">
+        <f t="shared" ref="B73" si="14">B70</f>
+        <v>44</v>
+      </c>
+      <c r="C73" s="4">
+        <v>503</v>
+      </c>
+      <c r="D73" s="4">
+        <v>0</v>
+      </c>
+      <c r="E73" s="4">
+        <v>0</v>
+      </c>
+      <c r="F73" s="4">
+        <v>1</v>
+      </c>
+      <c r="G73" s="4" t="str">
+        <f t="shared" si="3"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (178, 44, 503, 0, 0, 1);</v>
+      </c>
+    </row>
+    <row r="74" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A74" s="3">
+        <f t="shared" si="4"/>
+        <v>179</v>
+      </c>
+      <c r="B74" s="3">
+        <f>B70+1</f>
+        <v>45</v>
+      </c>
+      <c r="C74" s="3">
+        <v>504</v>
+      </c>
+      <c r="D74" s="3">
+        <v>0</v>
+      </c>
+      <c r="E74" s="3">
+        <v>1</v>
+      </c>
+      <c r="F74" s="3">
+        <v>2</v>
+      </c>
+      <c r="G74" s="3" t="str">
+        <f t="shared" ref="G74:G81" si="15">"insert into game_score (id, matchid, squad, goals, points, time_type) values (" &amp; A74 &amp; ", " &amp; B74 &amp; ", " &amp; C74 &amp; ", " &amp; D74 &amp; ", " &amp; E74 &amp; ", " &amp; F74 &amp; ");"</f>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (179, 45, 504, 0, 1, 2);</v>
+      </c>
+    </row>
+    <row r="75" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A75" s="3">
+        <f t="shared" si="4"/>
+        <v>180</v>
+      </c>
+      <c r="B75" s="3">
+        <f>B74</f>
+        <v>45</v>
+      </c>
+      <c r="C75" s="3">
+        <v>504</v>
+      </c>
+      <c r="D75" s="3">
+        <v>0</v>
+      </c>
+      <c r="E75" s="3">
+        <v>0</v>
+      </c>
+      <c r="F75" s="3">
+        <v>1</v>
+      </c>
+      <c r="G75" s="3" t="str">
+        <f t="shared" si="15"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (180, 45, 504, 0, 0, 1);</v>
+      </c>
+    </row>
+    <row r="76" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A76" s="3">
+        <f t="shared" si="4"/>
+        <v>181</v>
+      </c>
+      <c r="B76" s="3">
+        <f>B74</f>
+        <v>45</v>
+      </c>
+      <c r="C76" s="3">
+        <v>503</v>
+      </c>
+      <c r="D76" s="3">
+        <v>0</v>
+      </c>
+      <c r="E76" s="3">
+        <v>1</v>
+      </c>
+      <c r="F76" s="3">
+        <v>2</v>
+      </c>
+      <c r="G76" s="3" t="str">
+        <f t="shared" si="15"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (181, 45, 503, 0, 1, 2);</v>
+      </c>
+    </row>
+    <row r="77" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A77" s="3">
+        <f t="shared" si="4"/>
+        <v>182</v>
+      </c>
+      <c r="B77" s="3">
+        <f t="shared" ref="B77" si="16">B74</f>
+        <v>45</v>
+      </c>
+      <c r="C77" s="3">
+        <v>503</v>
+      </c>
+      <c r="D77" s="3">
+        <v>0</v>
+      </c>
+      <c r="E77" s="3">
+        <v>0</v>
+      </c>
+      <c r="F77" s="3">
+        <v>1</v>
+      </c>
+      <c r="G77" s="3" t="str">
+        <f t="shared" si="15"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (182, 45, 503, 0, 0, 1);</v>
+      </c>
+    </row>
+    <row r="78" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A78" s="4">
+        <f t="shared" si="4"/>
+        <v>183</v>
+      </c>
+      <c r="B78" s="4">
+        <f>B74+1</f>
+        <v>46</v>
+      </c>
+      <c r="C78" s="4">
+        <v>502</v>
+      </c>
+      <c r="D78" s="4">
+        <v>1</v>
+      </c>
+      <c r="E78" s="4">
+        <v>1</v>
+      </c>
+      <c r="F78" s="4">
+        <v>2</v>
+      </c>
+      <c r="G78" s="4" t="str">
+        <f t="shared" si="15"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (183, 46, 502, 1, 1, 2);</v>
+      </c>
+    </row>
+    <row r="79" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A79" s="4">
+        <f t="shared" si="4"/>
+        <v>184</v>
+      </c>
+      <c r="B79" s="4">
+        <f>B78</f>
+        <v>46</v>
+      </c>
+      <c r="C79" s="4">
+        <v>502</v>
+      </c>
+      <c r="D79" s="4">
+        <v>1</v>
+      </c>
+      <c r="E79" s="4">
+        <v>0</v>
+      </c>
+      <c r="F79" s="4">
+        <v>1</v>
+      </c>
+      <c r="G79" s="4" t="str">
+        <f t="shared" si="15"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (184, 46, 502, 1, 0, 1);</v>
+      </c>
+    </row>
+    <row r="80" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A80" s="4">
+        <f t="shared" si="4"/>
+        <v>185</v>
+      </c>
+      <c r="B80" s="4">
+        <f>B78</f>
+        <v>46</v>
+      </c>
+      <c r="C80" s="4">
+        <v>506</v>
+      </c>
+      <c r="D80" s="4">
+        <v>1</v>
+      </c>
+      <c r="E80" s="4">
+        <v>1</v>
+      </c>
+      <c r="F80" s="4">
+        <v>2</v>
+      </c>
+      <c r="G80" s="4" t="str">
+        <f t="shared" si="15"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (185, 46, 506, 1, 1, 2);</v>
+      </c>
+    </row>
+    <row r="81" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A81" s="4">
+        <f t="shared" si="4"/>
+        <v>186</v>
+      </c>
+      <c r="B81" s="4">
+        <f t="shared" ref="B81" si="17">B78</f>
+        <v>46</v>
+      </c>
+      <c r="C81" s="4">
+        <v>506</v>
+      </c>
+      <c r="D81" s="4">
+        <v>0</v>
+      </c>
+      <c r="E81" s="4">
+        <v>0</v>
+      </c>
+      <c r="F81" s="4">
+        <v>1</v>
+      </c>
+      <c r="G81" s="4" t="str">
+        <f t="shared" si="15"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (186, 46, 506, 0, 0, 1);</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:G71"/>
+  <sheetViews>
+    <sheetView zoomScaleNormal="100" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="9.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.85546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="7.42578125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="6.5703125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="111.140625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D1" t="s">
+        <v>2</v>
+      </c>
+      <c r="G1" t="str">
+        <f>"insert into group_stage (id, tournament, group_code, squad) values (" &amp; A1 &amp; ", " &amp; B1 &amp; ", '" &amp; C1 &amp; "', " &amp; D1 &amp;  ");"</f>
+        <v>insert into group_stage (id, tournament, group_code, squad) values (id, tournament, 'group_code', squad);</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <f>'1997'!A7+1</f>
+        <v>13</v>
+      </c>
+      <c r="B2">
+        <v>1999</v>
+      </c>
+      <c r="C2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D2">
+        <v>504</v>
+      </c>
+      <c r="G2" t="str">
+        <f t="shared" ref="G2:G7" si="0">"insert into group_stage (id, tournament, group_code, squad) values (" &amp; A2 &amp; ", " &amp; B2 &amp; ", '" &amp; C2 &amp; "', " &amp; D2 &amp;  ");"</f>
+        <v>insert into group_stage (id, tournament, group_code, squad) values (13, 1999, 'A', 504);</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <f>A2+1</f>
+        <v>14</v>
+      </c>
+      <c r="B3">
+        <f>B2</f>
+        <v>1999</v>
+      </c>
+      <c r="C3" t="s">
+        <v>12</v>
+      </c>
+      <c r="D3">
+        <v>506</v>
+      </c>
+      <c r="G3" t="str">
+        <f t="shared" si="0"/>
+        <v>insert into group_stage (id, tournament, group_code, squad) values (14, 1999, 'A', 506);</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <f>A3+1</f>
+        <v>15</v>
+      </c>
+      <c r="B4">
+        <f>B3</f>
+        <v>1999</v>
+      </c>
+      <c r="C4" t="s">
+        <v>12</v>
+      </c>
+      <c r="D4">
+        <v>501</v>
+      </c>
+      <c r="G4" t="str">
+        <f t="shared" si="0"/>
+        <v>insert into group_stage (id, tournament, group_code, squad) values (15, 1999, 'A', 501);</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <f>A4+1</f>
+        <v>16</v>
+      </c>
+      <c r="B5">
+        <f>B4</f>
+        <v>1999</v>
+      </c>
+      <c r="C5" t="s">
+        <v>13</v>
+      </c>
+      <c r="D5">
+        <v>502</v>
+      </c>
+      <c r="G5" t="str">
+        <f t="shared" si="0"/>
+        <v>insert into group_stage (id, tournament, group_code, squad) values (16, 1999, 'B', 502);</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <f>A5+1</f>
+        <v>17</v>
+      </c>
+      <c r="B6">
+        <f>B5</f>
+        <v>1999</v>
+      </c>
+      <c r="C6" t="s">
+        <v>13</v>
+      </c>
+      <c r="D6">
+        <v>503</v>
+      </c>
+      <c r="G6" t="str">
+        <f t="shared" si="0"/>
+        <v>insert into group_stage (id, tournament, group_code, squad) values (17, 1999, 'B', 503);</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <f>A6+1</f>
+        <v>18</v>
+      </c>
+      <c r="B7">
+        <f>B6</f>
+        <v>1999</v>
+      </c>
+      <c r="C7" t="s">
+        <v>13</v>
+      </c>
+      <c r="D7">
+        <v>505</v>
+      </c>
+      <c r="G7" t="str">
+        <f t="shared" si="0"/>
+        <v>insert into group_stage (id, tournament, group_code, squad) values (18, 1999, 'B', 505);</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A9" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="G9" t="str">
+        <f>"insert into game (matchid, matchdate, game_type, country) values (" &amp; A9 &amp; ", '" &amp; B9 &amp; "', " &amp; C9 &amp; ", " &amp; D9 &amp;  ");"</f>
+        <v>insert into game (matchid, matchdate, game_type, country) values (matchid, 'matchdate', game_type, country);</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <f>'1997'!A23+1</f>
+        <v>47</v>
+      </c>
+      <c r="B10" s="2" t="str">
+        <f>"1999-03-17"</f>
+        <v>1999-03-17</v>
+      </c>
+      <c r="C10">
+        <v>2</v>
+      </c>
+      <c r="D10">
+        <v>506</v>
+      </c>
+      <c r="G10" t="str">
+        <f t="shared" ref="G10:G21" si="1">"insert into game (matchid, matchdate, game_type, country) values (" &amp; A10 &amp; ", '" &amp; B10 &amp; "', " &amp; C10 &amp; ", " &amp; D10 &amp;  ");"</f>
+        <v>insert into game (matchid, matchdate, game_type, country) values (47, '1999-03-17', 2, 506);</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <f>A10+1</f>
+        <v>48</v>
+      </c>
+      <c r="B11" s="2" t="str">
+        <f>"1999-03-19"</f>
+        <v>1999-03-19</v>
+      </c>
+      <c r="C11">
+        <v>2</v>
+      </c>
+      <c r="D11">
+        <v>506</v>
+      </c>
+      <c r="G11" t="str">
+        <f t="shared" si="1"/>
+        <v>insert into game (matchid, matchdate, game_type, country) values (48, '1999-03-19', 2, 506);</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <f t="shared" ref="A12:A21" si="2">A11+1</f>
+        <v>49</v>
+      </c>
+      <c r="B12" s="2" t="str">
+        <f>"1999-03-21"</f>
+        <v>1999-03-21</v>
+      </c>
+      <c r="C12">
+        <v>2</v>
+      </c>
+      <c r="D12">
+        <v>506</v>
+      </c>
+      <c r="G12" t="str">
+        <f t="shared" si="1"/>
+        <v>insert into game (matchid, matchdate, game_type, country) values (49, '1999-03-21', 2, 506);</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <f t="shared" si="2"/>
+        <v>50</v>
+      </c>
+      <c r="B13" s="2" t="str">
+        <f>"1999-03-17"</f>
+        <v>1999-03-17</v>
+      </c>
+      <c r="C13">
+        <v>2</v>
+      </c>
+      <c r="D13">
+        <v>506</v>
+      </c>
+      <c r="G13" t="str">
+        <f t="shared" si="1"/>
+        <v>insert into game (matchid, matchdate, game_type, country) values (50, '1999-03-17', 2, 506);</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <f t="shared" si="2"/>
+        <v>51</v>
+      </c>
+      <c r="B14" s="2" t="str">
+        <f>"1999-03-19"</f>
+        <v>1999-03-19</v>
+      </c>
+      <c r="C14">
+        <v>2</v>
+      </c>
+      <c r="D14">
+        <v>506</v>
+      </c>
+      <c r="G14" t="str">
+        <f t="shared" si="1"/>
+        <v>insert into game (matchid, matchdate, game_type, country) values (51, '1999-03-19', 2, 506);</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <f t="shared" si="2"/>
+        <v>52</v>
+      </c>
+      <c r="B15" s="2" t="str">
+        <f>"1999-03-21"</f>
+        <v>1999-03-21</v>
+      </c>
+      <c r="C15">
+        <v>2</v>
+      </c>
+      <c r="D15">
+        <v>506</v>
+      </c>
+      <c r="G15" t="str">
+        <f t="shared" si="1"/>
+        <v>insert into game (matchid, matchdate, game_type, country) values (52, '1999-03-21', 2, 506);</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <f t="shared" si="2"/>
+        <v>53</v>
+      </c>
+      <c r="B16" s="2" t="str">
+        <f>"1999-03-24"</f>
+        <v>1999-03-24</v>
+      </c>
+      <c r="C16">
+        <v>8</v>
+      </c>
+      <c r="D16">
+        <v>506</v>
+      </c>
+      <c r="G16" t="str">
+        <f t="shared" si="1"/>
+        <v>insert into game (matchid, matchdate, game_type, country) values (53, '1999-03-24', 8, 506);</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <f t="shared" si="2"/>
+        <v>54</v>
+      </c>
+      <c r="B17" s="2" t="str">
+        <f>"1999-03-24"</f>
+        <v>1999-03-24</v>
+      </c>
+      <c r="C17">
+        <v>8</v>
+      </c>
+      <c r="D17">
+        <v>506</v>
+      </c>
+      <c r="G17" t="str">
+        <f t="shared" si="1"/>
+        <v>insert into game (matchid, matchdate, game_type, country) values (54, '1999-03-24', 8, 506);</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A18">
+        <f t="shared" si="2"/>
+        <v>55</v>
+      </c>
+      <c r="B18" s="2" t="str">
+        <f>"1999-03-26"</f>
+        <v>1999-03-26</v>
+      </c>
+      <c r="C18">
+        <v>8</v>
+      </c>
+      <c r="D18">
+        <v>506</v>
+      </c>
+      <c r="G18" t="str">
+        <f t="shared" si="1"/>
+        <v>insert into game (matchid, matchdate, game_type, country) values (55, '1999-03-26', 8, 506);</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A19">
+        <f t="shared" si="2"/>
+        <v>56</v>
+      </c>
+      <c r="B19" s="2" t="str">
+        <f>"1999-03-26"</f>
+        <v>1999-03-26</v>
+      </c>
+      <c r="C19">
+        <v>8</v>
+      </c>
+      <c r="D19">
+        <v>506</v>
+      </c>
+      <c r="G19" t="str">
+        <f t="shared" si="1"/>
+        <v>insert into game (matchid, matchdate, game_type, country) values (56, '1999-03-26', 8, 506);</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A20">
+        <f t="shared" si="2"/>
+        <v>57</v>
+      </c>
+      <c r="B20" s="2" t="str">
+        <f>"1999-03-28"</f>
+        <v>1999-03-28</v>
+      </c>
+      <c r="C20">
+        <v>8</v>
+      </c>
+      <c r="D20">
+        <v>506</v>
+      </c>
+      <c r="G20" t="str">
+        <f t="shared" si="1"/>
+        <v>insert into game (matchid, matchdate, game_type, country) values (57, '1999-03-28', 8, 506);</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A21">
+        <f t="shared" si="2"/>
+        <v>58</v>
+      </c>
+      <c r="B21" s="2" t="str">
+        <f>"1999-03-28"</f>
+        <v>1999-03-28</v>
+      </c>
+      <c r="C21">
+        <v>8</v>
+      </c>
+      <c r="D21">
+        <v>506</v>
+      </c>
+      <c r="G21" t="str">
+        <f t="shared" si="1"/>
+        <v>insert into game (matchid, matchdate, game_type, country) values (58, '1999-03-28', 8, 506);</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A23" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D23" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E23" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F23" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G23" t="str">
+        <f>"insert into game_score (id, matchid, squad, goals, points, time_type) values (" &amp; A23 &amp; ", " &amp; B23 &amp; ", " &amp; C23 &amp; ", " &amp; D23 &amp; ", " &amp; E23 &amp; ", " &amp; F23 &amp; ");"</f>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (id, matchid, squad, goals, points, time_type);</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A24" s="3">
+        <f>'1997'!A81 + 1</f>
+        <v>187</v>
+      </c>
+      <c r="B24" s="3">
+        <f>A10</f>
+        <v>47</v>
+      </c>
+      <c r="C24" s="3">
+        <v>506</v>
+      </c>
+      <c r="D24" s="3">
+        <v>7</v>
+      </c>
+      <c r="E24" s="3">
+        <v>3</v>
+      </c>
+      <c r="F24" s="3">
+        <v>2</v>
+      </c>
+      <c r="G24" s="3" t="str">
+        <f t="shared" ref="G24:G71" si="3">"insert into game_score (id, matchid, squad, goals, points, time_type) values (" &amp; A24 &amp; ", " &amp; B24 &amp; ", " &amp; C24 &amp; ", " &amp; D24 &amp; ", " &amp; E24 &amp; ", " &amp; F24 &amp; ");"</f>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (187, 47, 506, 7, 3, 2);</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A25" s="3">
+        <f>A24+1</f>
+        <v>188</v>
+      </c>
+      <c r="B25" s="3">
+        <f>B24</f>
+        <v>47</v>
+      </c>
+      <c r="C25" s="3">
+        <v>506</v>
+      </c>
+      <c r="D25" s="3">
+        <v>4</v>
+      </c>
+      <c r="E25" s="3">
+        <v>0</v>
+      </c>
+      <c r="F25" s="3">
+        <v>1</v>
+      </c>
+      <c r="G25" s="3" t="str">
+        <f t="shared" si="3"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (188, 47, 506, 4, 0, 1);</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A26" s="3">
+        <f t="shared" ref="A26:A71" si="4">A25+1</f>
+        <v>189</v>
+      </c>
+      <c r="B26" s="3">
+        <f>B24</f>
+        <v>47</v>
+      </c>
+      <c r="C26" s="3">
+        <v>501</v>
+      </c>
+      <c r="D26" s="3">
+        <v>0</v>
+      </c>
+      <c r="E26" s="3">
+        <v>0</v>
+      </c>
+      <c r="F26" s="3">
+        <v>2</v>
+      </c>
+      <c r="G26" s="3" t="str">
+        <f t="shared" si="3"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (189, 47, 501, 0, 0, 2);</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A27" s="3">
+        <f t="shared" si="4"/>
+        <v>190</v>
+      </c>
+      <c r="B27" s="3">
+        <f>B24</f>
+        <v>47</v>
+      </c>
+      <c r="C27" s="3">
+        <v>501</v>
+      </c>
+      <c r="D27" s="3">
+        <v>0</v>
+      </c>
+      <c r="E27" s="3">
+        <v>0</v>
+      </c>
+      <c r="F27" s="3">
+        <v>1</v>
+      </c>
+      <c r="G27" s="3" t="str">
+        <f t="shared" si="3"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (190, 47, 501, 0, 0, 1);</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A28" s="4">
+        <f>A27+1</f>
+        <v>191</v>
+      </c>
+      <c r="B28" s="4">
+        <f>B24+1</f>
+        <v>48</v>
+      </c>
+      <c r="C28" s="4">
+        <v>504</v>
+      </c>
+      <c r="D28" s="4">
+        <v>5</v>
+      </c>
+      <c r="E28" s="4">
+        <v>3</v>
+      </c>
+      <c r="F28" s="4">
+        <v>2</v>
+      </c>
+      <c r="G28" t="str">
+        <f t="shared" si="3"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (191, 48, 504, 5, 3, 2);</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A29" s="4">
+        <f t="shared" si="4"/>
+        <v>192</v>
+      </c>
+      <c r="B29" s="4">
+        <f>B28</f>
+        <v>48</v>
+      </c>
+      <c r="C29" s="4">
+        <v>504</v>
+      </c>
+      <c r="D29" s="4">
+        <v>2</v>
+      </c>
+      <c r="E29" s="4">
+        <v>0</v>
+      </c>
+      <c r="F29" s="4">
+        <v>1</v>
+      </c>
+      <c r="G29" t="str">
+        <f t="shared" si="3"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (192, 48, 504, 2, 0, 1);</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A30" s="4">
+        <f t="shared" si="4"/>
+        <v>193</v>
+      </c>
+      <c r="B30" s="4">
+        <f>B28</f>
+        <v>48</v>
+      </c>
+      <c r="C30" s="4">
+        <v>501</v>
+      </c>
+      <c r="D30" s="4">
+        <v>1</v>
+      </c>
+      <c r="E30" s="4">
+        <v>0</v>
+      </c>
+      <c r="F30" s="4">
+        <v>2</v>
+      </c>
+      <c r="G30" t="str">
+        <f t="shared" si="3"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (193, 48, 501, 1, 0, 2);</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A31" s="4">
+        <f t="shared" si="4"/>
+        <v>194</v>
+      </c>
+      <c r="B31" s="4">
+        <f>B28</f>
+        <v>48</v>
+      </c>
+      <c r="C31" s="4">
+        <v>501</v>
+      </c>
+      <c r="D31" s="4">
+        <v>0</v>
+      </c>
+      <c r="E31" s="4">
+        <v>0</v>
+      </c>
+      <c r="F31" s="4">
+        <v>1</v>
+      </c>
+      <c r="G31" t="str">
+        <f t="shared" si="3"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (194, 48, 501, 0, 0, 1);</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A32" s="3">
+        <f t="shared" si="4"/>
+        <v>195</v>
+      </c>
+      <c r="B32" s="3">
+        <f>B28+1</f>
+        <v>49</v>
+      </c>
+      <c r="C32" s="3">
+        <v>506</v>
+      </c>
+      <c r="D32" s="3">
+        <v>0</v>
+      </c>
+      <c r="E32" s="3">
+        <v>0</v>
+      </c>
+      <c r="F32" s="3">
+        <v>2</v>
+      </c>
+      <c r="G32" s="3" t="str">
+        <f t="shared" si="3"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (195, 49, 506, 0, 0, 2);</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A33" s="3">
+        <f t="shared" si="4"/>
+        <v>196</v>
+      </c>
+      <c r="B33" s="3">
+        <f>B32</f>
+        <v>49</v>
+      </c>
+      <c r="C33" s="3">
+        <v>506</v>
+      </c>
+      <c r="D33" s="3">
+        <v>0</v>
+      </c>
+      <c r="E33" s="3">
+        <v>0</v>
+      </c>
+      <c r="F33" s="3">
+        <v>1</v>
+      </c>
+      <c r="G33" s="3" t="str">
+        <f t="shared" si="3"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (196, 49, 506, 0, 0, 1);</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A34" s="3">
+        <f t="shared" si="4"/>
+        <v>197</v>
+      </c>
+      <c r="B34" s="3">
+        <f>B32</f>
+        <v>49</v>
+      </c>
+      <c r="C34" s="3">
+        <v>504</v>
+      </c>
+      <c r="D34" s="3">
+        <v>1</v>
+      </c>
+      <c r="E34" s="3">
+        <v>3</v>
+      </c>
+      <c r="F34" s="3">
+        <v>2</v>
+      </c>
+      <c r="G34" s="3" t="str">
+        <f t="shared" si="3"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (197, 49, 504, 1, 3, 2);</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A35" s="3">
+        <f t="shared" si="4"/>
+        <v>198</v>
+      </c>
+      <c r="B35" s="3">
+        <f t="shared" ref="B35" si="5">B32</f>
+        <v>49</v>
+      </c>
+      <c r="C35" s="3">
+        <v>504</v>
+      </c>
+      <c r="D35" s="3">
+        <v>0</v>
+      </c>
+      <c r="E35" s="3">
+        <v>0</v>
+      </c>
+      <c r="F35" s="3">
+        <v>1</v>
+      </c>
+      <c r="G35" s="3" t="str">
+        <f t="shared" si="3"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (198, 49, 504, 0, 0, 1);</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A36" s="4">
+        <f t="shared" si="4"/>
+        <v>199</v>
+      </c>
+      <c r="B36" s="4">
+        <f>B32+1</f>
+        <v>50</v>
+      </c>
+      <c r="C36" s="4">
+        <v>502</v>
+      </c>
+      <c r="D36" s="4">
+        <v>1</v>
+      </c>
+      <c r="E36" s="4">
+        <v>3</v>
+      </c>
+      <c r="F36" s="4">
+        <v>2</v>
+      </c>
+      <c r="G36" s="4" t="str">
+        <f t="shared" si="3"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (199, 50, 502, 1, 3, 2);</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A37" s="4">
+        <f t="shared" si="4"/>
+        <v>200</v>
+      </c>
+      <c r="B37" s="4">
+        <f>B36</f>
+        <v>50</v>
+      </c>
+      <c r="C37" s="4">
+        <v>502</v>
+      </c>
+      <c r="D37" s="4">
+        <v>0</v>
+      </c>
+      <c r="E37" s="4">
+        <v>0</v>
+      </c>
+      <c r="F37" s="4">
+        <v>1</v>
+      </c>
+      <c r="G37" s="4" t="str">
+        <f t="shared" si="3"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (200, 50, 502, 0, 0, 1);</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A38" s="4">
+        <f t="shared" si="4"/>
+        <v>201</v>
+      </c>
+      <c r="B38" s="4">
+        <f>B36</f>
+        <v>50</v>
+      </c>
+      <c r="C38" s="4">
+        <v>505</v>
+      </c>
+      <c r="D38" s="4">
+        <v>0</v>
+      </c>
+      <c r="E38" s="4">
+        <v>0</v>
+      </c>
+      <c r="F38" s="4">
+        <v>2</v>
+      </c>
+      <c r="G38" s="4" t="str">
+        <f t="shared" si="3"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (201, 50, 505, 0, 0, 2);</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A39" s="4">
+        <f t="shared" si="4"/>
+        <v>202</v>
+      </c>
+      <c r="B39" s="4">
+        <f t="shared" ref="B39" si="6">B36</f>
+        <v>50</v>
+      </c>
+      <c r="C39" s="4">
+        <v>505</v>
+      </c>
+      <c r="D39" s="4">
+        <v>0</v>
+      </c>
+      <c r="E39" s="4">
+        <v>0</v>
+      </c>
+      <c r="F39" s="4">
+        <v>1</v>
+      </c>
+      <c r="G39" s="4" t="str">
+        <f t="shared" si="3"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (202, 50, 505, 0, 0, 1);</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A40" s="3">
+        <f t="shared" si="4"/>
+        <v>203</v>
+      </c>
+      <c r="B40" s="3">
+        <f>B36+1</f>
+        <v>51</v>
+      </c>
+      <c r="C40" s="3">
+        <v>502</v>
+      </c>
+      <c r="D40" s="3">
+        <v>1</v>
+      </c>
+      <c r="E40" s="3">
+        <v>1</v>
+      </c>
+      <c r="F40" s="3">
+        <v>2</v>
+      </c>
+      <c r="G40" s="3" t="str">
+        <f t="shared" si="3"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (203, 51, 502, 1, 1, 2);</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A41" s="3">
+        <f t="shared" si="4"/>
+        <v>204</v>
+      </c>
+      <c r="B41" s="3">
+        <f>B40</f>
+        <v>51</v>
+      </c>
+      <c r="C41" s="3">
+        <v>502</v>
+      </c>
+      <c r="D41" s="3">
+        <v>1</v>
+      </c>
+      <c r="E41" s="3">
+        <v>0</v>
+      </c>
+      <c r="F41" s="3">
+        <v>1</v>
+      </c>
+      <c r="G41" s="3" t="str">
+        <f t="shared" si="3"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (204, 51, 502, 1, 0, 1);</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A42" s="3">
+        <f t="shared" si="4"/>
+        <v>205</v>
+      </c>
+      <c r="B42" s="3">
+        <f>B40</f>
+        <v>51</v>
+      </c>
+      <c r="C42" s="3">
+        <v>503</v>
+      </c>
+      <c r="D42" s="3">
+        <v>1</v>
+      </c>
+      <c r="E42" s="3">
+        <v>1</v>
+      </c>
+      <c r="F42" s="3">
+        <v>2</v>
+      </c>
+      <c r="G42" s="3" t="str">
+        <f t="shared" si="3"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (205, 51, 503, 1, 1, 2);</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A43" s="3">
+        <f t="shared" si="4"/>
+        <v>206</v>
+      </c>
+      <c r="B43" s="3">
+        <f t="shared" ref="B43" si="7">B40</f>
+        <v>51</v>
+      </c>
+      <c r="C43" s="3">
+        <v>503</v>
+      </c>
+      <c r="D43" s="3">
+        <v>1</v>
+      </c>
+      <c r="E43" s="3">
+        <v>0</v>
+      </c>
+      <c r="F43" s="3">
+        <v>1</v>
+      </c>
+      <c r="G43" s="3" t="str">
+        <f t="shared" si="3"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (206, 51, 503, 1, 0, 1);</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A44" s="4">
+        <f t="shared" si="4"/>
+        <v>207</v>
+      </c>
+      <c r="B44" s="4">
+        <f>B40+1</f>
+        <v>52</v>
+      </c>
+      <c r="C44" s="4">
+        <v>503</v>
+      </c>
+      <c r="D44" s="4">
+        <v>1</v>
+      </c>
+      <c r="E44" s="4">
+        <v>3</v>
+      </c>
+      <c r="F44" s="4">
+        <v>2</v>
+      </c>
+      <c r="G44" s="4" t="str">
+        <f t="shared" si="3"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (207, 52, 503, 1, 3, 2);</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A45" s="4">
+        <f t="shared" si="4"/>
+        <v>208</v>
+      </c>
+      <c r="B45" s="4">
+        <f>B44</f>
+        <v>52</v>
+      </c>
+      <c r="C45" s="4">
+        <v>503</v>
+      </c>
+      <c r="D45" s="4">
+        <v>0</v>
+      </c>
+      <c r="E45" s="4">
+        <v>0</v>
+      </c>
+      <c r="F45" s="4">
+        <v>1</v>
+      </c>
+      <c r="G45" s="4" t="str">
+        <f t="shared" si="3"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (208, 52, 503, 0, 0, 1);</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A46" s="4">
+        <f t="shared" si="4"/>
+        <v>209</v>
+      </c>
+      <c r="B46" s="4">
+        <f>B44</f>
+        <v>52</v>
+      </c>
+      <c r="C46" s="4">
+        <v>505</v>
+      </c>
+      <c r="D46" s="4">
+        <v>0</v>
+      </c>
+      <c r="E46" s="4">
+        <v>0</v>
+      </c>
+      <c r="F46" s="4">
+        <v>2</v>
+      </c>
+      <c r="G46" s="4" t="str">
+        <f t="shared" si="3"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (209, 52, 505, 0, 0, 2);</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A47" s="4">
+        <f t="shared" si="4"/>
+        <v>210</v>
+      </c>
+      <c r="B47" s="4">
+        <f t="shared" ref="B47" si="8">B44</f>
+        <v>52</v>
+      </c>
+      <c r="C47" s="4">
+        <v>505</v>
+      </c>
+      <c r="D47" s="4">
+        <v>0</v>
+      </c>
+      <c r="E47" s="4">
+        <v>0</v>
+      </c>
+      <c r="F47" s="4">
+        <v>1</v>
+      </c>
+      <c r="G47" s="4" t="str">
+        <f t="shared" si="3"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (210, 52, 505, 0, 0, 1);</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A48" s="3">
+        <f t="shared" si="4"/>
+        <v>211</v>
+      </c>
+      <c r="B48" s="3">
+        <f>B44+1</f>
+        <v>53</v>
+      </c>
+      <c r="C48" s="3">
+        <v>506</v>
+      </c>
+      <c r="D48" s="3">
+        <v>1</v>
+      </c>
+      <c r="E48" s="3">
+        <v>3</v>
+      </c>
+      <c r="F48" s="3">
+        <v>2</v>
+      </c>
+      <c r="G48" s="3" t="str">
+        <f t="shared" si="3"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (211, 53, 506, 1, 3, 2);</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A49" s="3">
+        <f t="shared" si="4"/>
+        <v>212</v>
+      </c>
+      <c r="B49" s="3">
+        <f>B48</f>
+        <v>53</v>
+      </c>
+      <c r="C49" s="3">
+        <v>506</v>
+      </c>
+      <c r="D49" s="3">
+        <v>1</v>
+      </c>
+      <c r="E49" s="3">
+        <v>0</v>
+      </c>
+      <c r="F49" s="3">
+        <v>1</v>
+      </c>
+      <c r="G49" s="3" t="str">
+        <f t="shared" si="3"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (212, 53, 506, 1, 0, 1);</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A50" s="3">
+        <f t="shared" si="4"/>
+        <v>213</v>
+      </c>
+      <c r="B50" s="3">
+        <f>B48</f>
+        <v>53</v>
+      </c>
+      <c r="C50" s="3">
+        <v>502</v>
+      </c>
+      <c r="D50" s="3">
+        <v>0</v>
+      </c>
+      <c r="E50" s="3">
+        <v>0</v>
+      </c>
+      <c r="F50" s="3">
+        <v>2</v>
+      </c>
+      <c r="G50" s="3" t="str">
+        <f t="shared" si="3"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (213, 53, 502, 0, 0, 2);</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A51" s="3">
+        <f t="shared" si="4"/>
+        <v>214</v>
+      </c>
+      <c r="B51" s="3">
+        <f t="shared" ref="B51" si="9">B48</f>
+        <v>53</v>
+      </c>
+      <c r="C51" s="3">
+        <v>502</v>
+      </c>
+      <c r="D51" s="3">
+        <v>0</v>
+      </c>
+      <c r="E51" s="3">
+        <v>0</v>
+      </c>
+      <c r="F51" s="3">
+        <v>1</v>
+      </c>
+      <c r="G51" s="3" t="str">
+        <f t="shared" si="3"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (214, 53, 502, 0, 0, 1);</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A52" s="4">
+        <f t="shared" si="4"/>
+        <v>215</v>
+      </c>
+      <c r="B52" s="4">
+        <f>B48+1</f>
+        <v>54</v>
+      </c>
+      <c r="C52" s="4">
+        <v>504</v>
+      </c>
+      <c r="D52" s="4">
+        <v>3</v>
+      </c>
+      <c r="E52" s="4">
+        <v>3</v>
+      </c>
+      <c r="F52" s="4">
+        <v>2</v>
+      </c>
+      <c r="G52" s="4" t="str">
+        <f t="shared" si="3"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (215, 54, 504, 3, 3, 2);</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A53" s="4">
+        <f t="shared" si="4"/>
+        <v>216</v>
+      </c>
+      <c r="B53" s="4">
+        <f>B52</f>
+        <v>54</v>
+      </c>
+      <c r="C53" s="4">
+        <v>504</v>
+      </c>
+      <c r="D53" s="4">
+        <v>1</v>
+      </c>
+      <c r="E53" s="4">
+        <v>0</v>
+      </c>
+      <c r="F53" s="4">
+        <v>1</v>
+      </c>
+      <c r="G53" s="4" t="str">
+        <f t="shared" si="3"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (216, 54, 504, 1, 0, 1);</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A54" s="4">
+        <f t="shared" si="4"/>
+        <v>217</v>
+      </c>
+      <c r="B54" s="4">
+        <f>B52</f>
+        <v>54</v>
+      </c>
+      <c r="C54" s="4">
+        <v>503</v>
+      </c>
+      <c r="D54" s="4">
+        <v>1</v>
+      </c>
+      <c r="E54" s="4">
+        <v>0</v>
+      </c>
+      <c r="F54" s="4">
+        <v>2</v>
+      </c>
+      <c r="G54" s="4" t="str">
+        <f t="shared" si="3"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (217, 54, 503, 1, 0, 2);</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A55" s="4">
+        <f t="shared" si="4"/>
+        <v>218</v>
+      </c>
+      <c r="B55" s="4">
+        <f t="shared" ref="B55" si="10">B52</f>
+        <v>54</v>
+      </c>
+      <c r="C55" s="4">
+        <v>503</v>
+      </c>
+      <c r="D55" s="4">
+        <v>0</v>
+      </c>
+      <c r="E55" s="4">
+        <v>0</v>
+      </c>
+      <c r="F55" s="4">
+        <v>1</v>
+      </c>
+      <c r="G55" s="4" t="str">
+        <f t="shared" si="3"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (218, 54, 503, 0, 0, 1);</v>
+      </c>
+    </row>
+    <row r="56" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A56" s="3">
+        <f t="shared" si="4"/>
+        <v>219</v>
+      </c>
+      <c r="B56" s="3">
+        <f>B52+1</f>
+        <v>55</v>
+      </c>
+      <c r="C56" s="3">
+        <v>502</v>
+      </c>
+      <c r="D56" s="3">
+        <v>1</v>
+      </c>
+      <c r="E56" s="3">
+        <v>3</v>
+      </c>
+      <c r="F56" s="3">
+        <v>2</v>
+      </c>
+      <c r="G56" s="3" t="str">
+        <f t="shared" si="3"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (219, 55, 502, 1, 3, 2);</v>
+      </c>
+    </row>
+    <row r="57" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A57" s="3">
+        <f t="shared" si="4"/>
+        <v>220</v>
+      </c>
+      <c r="B57" s="3">
+        <f>B56</f>
+        <v>55</v>
+      </c>
+      <c r="C57" s="3">
+        <v>502</v>
+      </c>
+      <c r="D57" s="3">
+        <v>0</v>
+      </c>
+      <c r="E57" s="3">
+        <v>0</v>
+      </c>
+      <c r="F57" s="3">
+        <v>1</v>
+      </c>
+      <c r="G57" s="3" t="str">
+        <f t="shared" si="3"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (220, 55, 502, 0, 0, 1);</v>
+      </c>
+    </row>
+    <row r="58" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A58" s="3">
+        <f t="shared" si="4"/>
+        <v>221</v>
+      </c>
+      <c r="B58" s="3">
+        <f>B56</f>
+        <v>55</v>
+      </c>
+      <c r="C58" s="3">
+        <v>503</v>
+      </c>
+      <c r="D58" s="3">
+        <v>0</v>
+      </c>
+      <c r="E58" s="3">
+        <v>0</v>
+      </c>
+      <c r="F58" s="3">
+        <v>2</v>
+      </c>
+      <c r="G58" s="3" t="str">
+        <f t="shared" si="3"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (221, 55, 503, 0, 0, 2);</v>
+      </c>
+    </row>
+    <row r="59" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A59" s="3">
+        <f t="shared" si="4"/>
+        <v>222</v>
+      </c>
+      <c r="B59" s="3">
+        <f t="shared" ref="B59" si="11">B56</f>
+        <v>55</v>
+      </c>
+      <c r="C59" s="3">
+        <v>503</v>
+      </c>
+      <c r="D59" s="3">
+        <v>0</v>
+      </c>
+      <c r="E59" s="3">
+        <v>0</v>
+      </c>
+      <c r="F59" s="3">
+        <v>1</v>
+      </c>
+      <c r="G59" s="3" t="str">
+        <f t="shared" si="3"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (222, 55, 503, 0, 0, 1);</v>
+      </c>
+    </row>
+    <row r="60" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A60" s="4">
+        <f t="shared" si="4"/>
+        <v>223</v>
+      </c>
+      <c r="B60" s="4">
+        <f>B56+1</f>
+        <v>56</v>
+      </c>
+      <c r="C60" s="4">
+        <v>506</v>
+      </c>
+      <c r="D60" s="4">
+        <v>1</v>
+      </c>
+      <c r="E60" s="4">
+        <v>0</v>
+      </c>
+      <c r="F60" s="4">
+        <v>2</v>
+      </c>
+      <c r="G60" s="4" t="str">
+        <f t="shared" si="3"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (223, 56, 506, 1, 0, 2);</v>
+      </c>
+    </row>
+    <row r="61" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A61" s="4">
+        <f t="shared" si="4"/>
+        <v>224</v>
+      </c>
+      <c r="B61" s="4">
+        <f>B60</f>
+        <v>56</v>
+      </c>
+      <c r="C61" s="4">
+        <v>506</v>
+      </c>
+      <c r="D61" s="4">
+        <v>1</v>
+      </c>
+      <c r="E61" s="4">
+        <v>0</v>
+      </c>
+      <c r="F61" s="4">
+        <v>1</v>
+      </c>
+      <c r="G61" s="4" t="str">
+        <f t="shared" si="3"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (224, 56, 506, 1, 0, 1);</v>
+      </c>
+    </row>
+    <row r="62" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A62" s="4">
+        <f t="shared" si="4"/>
+        <v>225</v>
+      </c>
+      <c r="B62" s="4">
+        <f>B60</f>
+        <v>56</v>
+      </c>
+      <c r="C62" s="4">
+        <v>504</v>
+      </c>
+      <c r="D62" s="4">
+        <v>2</v>
+      </c>
+      <c r="E62" s="4">
+        <v>3</v>
+      </c>
+      <c r="F62" s="4">
+        <v>2</v>
+      </c>
+      <c r="G62" s="4" t="str">
+        <f t="shared" si="3"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (225, 56, 504, 2, 3, 2);</v>
+      </c>
+    </row>
+    <row r="63" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A63" s="4">
+        <f t="shared" si="4"/>
+        <v>226</v>
+      </c>
+      <c r="B63" s="4">
+        <f t="shared" ref="B63" si="12">B60</f>
+        <v>56</v>
+      </c>
+      <c r="C63" s="4">
+        <v>504</v>
+      </c>
+      <c r="D63" s="4">
+        <v>1</v>
+      </c>
+      <c r="E63" s="4">
+        <v>0</v>
+      </c>
+      <c r="F63" s="4">
+        <v>1</v>
+      </c>
+      <c r="G63" s="4" t="str">
+        <f t="shared" si="3"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (226, 56, 504, 1, 0, 1);</v>
+      </c>
+    </row>
+    <row r="64" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A64" s="3">
+        <f t="shared" si="4"/>
+        <v>227</v>
+      </c>
+      <c r="B64" s="3">
+        <f>B60+1</f>
+        <v>57</v>
+      </c>
+      <c r="C64" s="3">
+        <v>506</v>
+      </c>
+      <c r="D64" s="3">
+        <v>4</v>
+      </c>
+      <c r="E64" s="3">
+        <v>3</v>
+      </c>
+      <c r="F64" s="3">
+        <v>2</v>
+      </c>
+      <c r="G64" s="3" t="str">
+        <f t="shared" si="3"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (227, 57, 506, 4, 3, 2);</v>
+      </c>
+    </row>
+    <row r="65" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A65" s="3">
+        <f t="shared" si="4"/>
+        <v>228</v>
+      </c>
+      <c r="B65" s="3">
+        <f>B64</f>
+        <v>57</v>
+      </c>
+      <c r="C65" s="3">
+        <v>506</v>
+      </c>
+      <c r="D65" s="3">
+        <v>2</v>
+      </c>
+      <c r="E65" s="3">
+        <v>0</v>
+      </c>
+      <c r="F65" s="3">
+        <v>1</v>
+      </c>
+      <c r="G65" s="3" t="str">
+        <f t="shared" si="3"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (228, 57, 506, 2, 0, 1);</v>
+      </c>
+    </row>
+    <row r="66" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A66" s="3">
+        <f t="shared" si="4"/>
+        <v>229</v>
+      </c>
+      <c r="B66" s="3">
+        <f>B64</f>
+        <v>57</v>
+      </c>
+      <c r="C66" s="3">
+        <v>503</v>
+      </c>
+      <c r="D66" s="3">
+        <v>0</v>
+      </c>
+      <c r="E66" s="3">
+        <v>0</v>
+      </c>
+      <c r="F66" s="3">
+        <v>2</v>
+      </c>
+      <c r="G66" s="3" t="str">
+        <f t="shared" si="3"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (229, 57, 503, 0, 0, 2);</v>
+      </c>
+    </row>
+    <row r="67" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A67" s="3">
+        <f t="shared" si="4"/>
+        <v>230</v>
+      </c>
+      <c r="B67" s="3">
+        <f t="shared" ref="B67" si="13">B64</f>
+        <v>57</v>
+      </c>
+      <c r="C67" s="3">
+        <v>503</v>
+      </c>
+      <c r="D67" s="3">
+        <v>0</v>
+      </c>
+      <c r="E67" s="3">
+        <v>0</v>
+      </c>
+      <c r="F67" s="3">
+        <v>1</v>
+      </c>
+      <c r="G67" s="3" t="str">
+        <f t="shared" si="3"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (230, 57, 503, 0, 0, 1);</v>
+      </c>
+    </row>
+    <row r="68" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A68" s="4">
+        <f t="shared" si="4"/>
+        <v>231</v>
+      </c>
+      <c r="B68" s="4">
+        <f>B64+1</f>
+        <v>58</v>
+      </c>
+      <c r="C68" s="4">
+        <v>504</v>
+      </c>
+      <c r="D68" s="4">
+        <v>0</v>
+      </c>
+      <c r="E68" s="4">
+        <v>0</v>
+      </c>
+      <c r="F68" s="4">
+        <v>2</v>
+      </c>
+      <c r="G68" s="4" t="str">
+        <f t="shared" si="3"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (231, 58, 504, 0, 0, 2);</v>
+      </c>
+    </row>
+    <row r="69" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A69" s="4">
+        <f t="shared" si="4"/>
+        <v>232</v>
+      </c>
+      <c r="B69" s="4">
+        <f>B68</f>
+        <v>58</v>
+      </c>
+      <c r="C69" s="4">
+        <v>504</v>
+      </c>
+      <c r="D69" s="4">
+        <v>0</v>
+      </c>
+      <c r="E69" s="4">
+        <v>0</v>
+      </c>
+      <c r="F69" s="4">
+        <v>1</v>
+      </c>
+      <c r="G69" s="4" t="str">
+        <f t="shared" si="3"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (232, 58, 504, 0, 0, 1);</v>
+      </c>
+    </row>
+    <row r="70" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A70" s="4">
+        <f t="shared" si="4"/>
+        <v>233</v>
+      </c>
+      <c r="B70" s="4">
+        <f>B68</f>
+        <v>58</v>
+      </c>
+      <c r="C70" s="4">
+        <v>502</v>
+      </c>
+      <c r="D70" s="4">
+        <v>2</v>
+      </c>
+      <c r="E70" s="4">
+        <v>3</v>
+      </c>
+      <c r="F70" s="4">
+        <v>2</v>
+      </c>
+      <c r="G70" s="4" t="str">
+        <f t="shared" si="3"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (233, 58, 502, 2, 3, 2);</v>
+      </c>
+    </row>
+    <row r="71" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A71" s="4">
+        <f t="shared" si="4"/>
+        <v>234</v>
+      </c>
+      <c r="B71" s="4">
+        <f t="shared" ref="B71" si="14">B68</f>
+        <v>58</v>
+      </c>
+      <c r="C71" s="4">
+        <v>502</v>
+      </c>
+      <c r="D71" s="4">
+        <v>1</v>
+      </c>
+      <c r="E71" s="4">
+        <v>0</v>
+      </c>
+      <c r="F71" s="4">
+        <v>1</v>
+      </c>
+      <c r="G71" s="4" t="str">
+        <f t="shared" si="3"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (234, 58, 502, 1, 0, 1);</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:G87"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="9.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.85546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="7.42578125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="6.5703125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="111.140625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D1" t="s">
+        <v>2</v>
+      </c>
+      <c r="G1" t="str">
+        <f>"insert into group_stage (id, tournament, group_code, squad) values (" &amp; A1 &amp; ", " &amp; B1 &amp; ", '" &amp; C1 &amp; "', " &amp; D1 &amp;  ");"</f>
+        <v>insert into group_stage (id, tournament, group_code, squad) values (id, tournament, 'group_code', squad);</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <f>'1999'!A7+1</f>
+        <v>19</v>
+      </c>
+      <c r="B2">
+        <v>2001</v>
+      </c>
+      <c r="C2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D2">
+        <v>503</v>
+      </c>
+      <c r="G2" t="str">
+        <f t="shared" ref="G2:G8" si="0">"insert into group_stage (id, tournament, group_code, squad) values (" &amp; A2 &amp; ", " &amp; B2 &amp; ", '" &amp; C2 &amp; "', " &amp; D2 &amp;  ");"</f>
+        <v>insert into group_stage (id, tournament, group_code, squad) values (19, 2001, 'A', 503);</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <f>A2+1</f>
+        <v>20</v>
+      </c>
+      <c r="B3">
+        <f>B2</f>
+        <v>2001</v>
+      </c>
+      <c r="C3" t="s">
+        <v>12</v>
+      </c>
+      <c r="D3">
+        <v>507</v>
+      </c>
+      <c r="G3" t="str">
+        <f t="shared" si="0"/>
+        <v>insert into group_stage (id, tournament, group_code, squad) values (20, 2001, 'A', 507);</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <f>A3+1</f>
+        <v>21</v>
+      </c>
+      <c r="B4">
+        <f>B3</f>
+        <v>2001</v>
+      </c>
+      <c r="C4" t="s">
+        <v>12</v>
+      </c>
+      <c r="D4">
+        <v>504</v>
+      </c>
+      <c r="G4" t="str">
+        <f t="shared" si="0"/>
+        <v>insert into group_stage (id, tournament, group_code, squad) values (21, 2001, 'A', 504);</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <f>A4+1</f>
+        <v>22</v>
+      </c>
+      <c r="B5">
+        <f>B4</f>
+        <v>2001</v>
+      </c>
+      <c r="C5" t="s">
+        <v>12</v>
+      </c>
+      <c r="D5">
+        <v>505</v>
+      </c>
+      <c r="G5" t="str">
+        <f t="shared" si="0"/>
+        <v>insert into group_stage (id, tournament, group_code, squad) values (22, 2001, 'A', 505);</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <f>A5+1</f>
+        <v>23</v>
+      </c>
+      <c r="B6">
+        <f>B5</f>
+        <v>2001</v>
+      </c>
+      <c r="C6" t="s">
+        <v>13</v>
+      </c>
+      <c r="D6">
+        <v>506</v>
+      </c>
+      <c r="G6" t="str">
+        <f t="shared" si="0"/>
+        <v>insert into group_stage (id, tournament, group_code, squad) values (23, 2001, 'B', 506);</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <f>A6+1</f>
+        <v>24</v>
+      </c>
+      <c r="B7">
+        <f>B6</f>
+        <v>2001</v>
+      </c>
+      <c r="C7" t="s">
+        <v>13</v>
+      </c>
+      <c r="D7">
+        <v>502</v>
+      </c>
+      <c r="G7" t="str">
+        <f t="shared" si="0"/>
+        <v>insert into group_stage (id, tournament, group_code, squad) values (24, 2001, 'B', 502);</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <f>A7+1</f>
+        <v>25</v>
+      </c>
+      <c r="B8">
+        <f>B7</f>
+        <v>2001</v>
+      </c>
+      <c r="C8" t="s">
+        <v>13</v>
+      </c>
+      <c r="D8">
+        <v>501</v>
+      </c>
+      <c r="G8" t="str">
+        <f t="shared" si="0"/>
+        <v>insert into group_stage (id, tournament, group_code, squad) values (25, 2001, 'B', 501);</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A10" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="G10" t="str">
+        <f>"insert into game (matchid, matchdate, game_type, country) values (" &amp; A10 &amp; ", '" &amp; B10 &amp; "', " &amp; C10 &amp; ", " &amp; D10 &amp;  ");"</f>
+        <v>insert into game (matchid, matchdate, game_type, country) values (matchid, 'matchdate', game_type, country);</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <f>'1999'!A21+1</f>
+        <v>59</v>
+      </c>
+      <c r="B11" s="2" t="str">
+        <f>"2001-05-23"</f>
+        <v>2001-05-23</v>
+      </c>
+      <c r="C11">
+        <v>2</v>
+      </c>
+      <c r="D11">
+        <v>504</v>
+      </c>
+      <c r="G11" t="str">
+        <f t="shared" ref="G11:G25" si="1">"insert into game (matchid, matchdate, game_type, country) values (" &amp; A11 &amp; ", '" &amp; B11 &amp; "', " &amp; C11 &amp; ", " &amp; D11 &amp;  ");"</f>
+        <v>insert into game (matchid, matchdate, game_type, country) values (59, '2001-05-23', 2, 504);</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <f>A11+1</f>
+        <v>60</v>
+      </c>
+      <c r="B12" s="2" t="str">
+        <f>"2001-05-23"</f>
+        <v>2001-05-23</v>
+      </c>
+      <c r="C12">
+        <v>2</v>
+      </c>
+      <c r="D12">
+        <v>504</v>
+      </c>
+      <c r="G12" t="str">
+        <f t="shared" si="1"/>
+        <v>insert into game (matchid, matchdate, game_type, country) values (60, '2001-05-23', 2, 504);</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <f t="shared" ref="A13:A25" si="2">A12+1</f>
+        <v>61</v>
+      </c>
+      <c r="B13" s="2" t="str">
+        <f>"2001-05-25"</f>
+        <v>2001-05-25</v>
+      </c>
+      <c r="C13">
+        <v>2</v>
+      </c>
+      <c r="D13">
+        <v>504</v>
+      </c>
+      <c r="G13" t="str">
+        <f t="shared" si="1"/>
+        <v>insert into game (matchid, matchdate, game_type, country) values (61, '2001-05-25', 2, 504);</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <f t="shared" si="2"/>
+        <v>62</v>
+      </c>
+      <c r="B14" s="2" t="str">
+        <f>"2001-05-25"</f>
+        <v>2001-05-25</v>
+      </c>
+      <c r="C14">
+        <v>2</v>
+      </c>
+      <c r="D14">
+        <v>504</v>
+      </c>
+      <c r="G14" t="str">
+        <f t="shared" si="1"/>
+        <v>insert into game (matchid, matchdate, game_type, country) values (62, '2001-05-25', 2, 504);</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <f t="shared" si="2"/>
+        <v>63</v>
+      </c>
+      <c r="B15" s="2" t="str">
+        <f>"2001-05-27"</f>
+        <v>2001-05-27</v>
+      </c>
+      <c r="C15">
+        <v>2</v>
+      </c>
+      <c r="D15">
+        <v>504</v>
+      </c>
+      <c r="G15" t="str">
+        <f t="shared" si="1"/>
+        <v>insert into game (matchid, matchdate, game_type, country) values (63, '2001-05-27', 2, 504);</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <f t="shared" si="2"/>
+        <v>64</v>
+      </c>
+      <c r="B16" s="2" t="str">
+        <f>"2001-05-27"</f>
+        <v>2001-05-27</v>
+      </c>
+      <c r="C16">
+        <v>2</v>
+      </c>
+      <c r="D16">
+        <v>504</v>
+      </c>
+      <c r="G16" t="str">
+        <f t="shared" si="1"/>
+        <v>insert into game (matchid, matchdate, game_type, country) values (64, '2001-05-27', 2, 504);</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <f t="shared" si="2"/>
+        <v>65</v>
+      </c>
+      <c r="B17" s="2" t="str">
+        <f>"2001-05-23"</f>
+        <v>2001-05-23</v>
+      </c>
+      <c r="C17">
+        <v>2</v>
+      </c>
+      <c r="D17">
+        <v>504</v>
+      </c>
+      <c r="G17" t="str">
+        <f t="shared" si="1"/>
+        <v>insert into game (matchid, matchdate, game_type, country) values (65, '2001-05-23', 2, 504);</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A18">
+        <f t="shared" si="2"/>
+        <v>66</v>
+      </c>
+      <c r="B18" s="2" t="str">
+        <f>"2001-05-25"</f>
+        <v>2001-05-25</v>
+      </c>
+      <c r="C18">
+        <v>2</v>
+      </c>
+      <c r="D18">
+        <v>504</v>
+      </c>
+      <c r="G18" t="str">
+        <f t="shared" si="1"/>
+        <v>insert into game (matchid, matchdate, game_type, country) values (66, '2001-05-25', 2, 504);</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A19">
+        <f t="shared" si="2"/>
+        <v>67</v>
+      </c>
+      <c r="B19" s="2" t="str">
+        <f>"2001-05-27"</f>
+        <v>2001-05-27</v>
+      </c>
+      <c r="C19">
+        <v>2</v>
+      </c>
+      <c r="D19">
+        <v>504</v>
+      </c>
+      <c r="G19" t="str">
+        <f t="shared" si="1"/>
+        <v>insert into game (matchid, matchdate, game_type, country) values (67, '2001-05-27', 2, 504);</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A20">
+        <f t="shared" si="2"/>
+        <v>68</v>
+      </c>
+      <c r="B20" s="2" t="str">
+        <f>"2001-05-30"</f>
+        <v>2001-05-30</v>
+      </c>
+      <c r="C20">
+        <v>8</v>
+      </c>
+      <c r="D20">
+        <v>504</v>
+      </c>
+      <c r="G20" t="str">
+        <f t="shared" si="1"/>
+        <v>insert into game (matchid, matchdate, game_type, country) values (68, '2001-05-30', 8, 504);</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A21">
+        <f t="shared" si="2"/>
+        <v>69</v>
+      </c>
+      <c r="B21" s="2" t="str">
+        <f>"2001-05-30"</f>
+        <v>2001-05-30</v>
+      </c>
+      <c r="C21">
+        <v>8</v>
+      </c>
+      <c r="D21">
+        <v>504</v>
+      </c>
+      <c r="G21" t="str">
+        <f t="shared" si="1"/>
+        <v>insert into game (matchid, matchdate, game_type, country) values (69, '2001-05-30', 8, 504);</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A22">
+        <f t="shared" si="2"/>
+        <v>70</v>
+      </c>
+      <c r="B22" s="2" t="str">
+        <f>"2001-06-01"</f>
+        <v>2001-06-01</v>
+      </c>
+      <c r="C22">
+        <v>8</v>
+      </c>
+      <c r="D22">
+        <v>504</v>
+      </c>
+      <c r="G22" t="str">
+        <f t="shared" si="1"/>
+        <v>insert into game (matchid, matchdate, game_type, country) values (70, '2001-06-01', 8, 504);</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A23">
+        <f t="shared" si="2"/>
+        <v>71</v>
+      </c>
+      <c r="B23" s="2" t="str">
+        <f>"2001-06-01"</f>
+        <v>2001-06-01</v>
+      </c>
+      <c r="C23">
+        <v>8</v>
+      </c>
+      <c r="D23">
+        <v>504</v>
+      </c>
+      <c r="G23" t="str">
+        <f t="shared" si="1"/>
+        <v>insert into game (matchid, matchdate, game_type, country) values (71, '2001-06-01', 8, 504);</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A24">
+        <f t="shared" si="2"/>
+        <v>72</v>
+      </c>
+      <c r="B24" s="2" t="str">
+        <f>"2001-06-03"</f>
+        <v>2001-06-03</v>
+      </c>
+      <c r="C24">
+        <v>8</v>
+      </c>
+      <c r="D24">
+        <v>504</v>
+      </c>
+      <c r="G24" t="str">
+        <f t="shared" si="1"/>
+        <v>insert into game (matchid, matchdate, game_type, country) values (72, '2001-06-03', 8, 504);</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A25">
+        <f t="shared" si="2"/>
+        <v>73</v>
+      </c>
+      <c r="B25" s="2" t="str">
+        <f>"2001-06-03"</f>
+        <v>2001-06-03</v>
+      </c>
+      <c r="C25">
+        <v>8</v>
+      </c>
+      <c r="D25">
+        <v>504</v>
+      </c>
+      <c r="G25" t="str">
+        <f t="shared" si="1"/>
+        <v>insert into game (matchid, matchdate, game_type, country) values (73, '2001-06-03', 8, 504);</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A27" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B27" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C27" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D27" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E27" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F27" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G27" t="str">
+        <f>"insert into game_score (id, matchid, squad, goals, points, time_type) values (" &amp; A27 &amp; ", " &amp; B27 &amp; ", " &amp; C27 &amp; ", " &amp; D27 &amp; ", " &amp; E27 &amp; ", " &amp; F27 &amp; ");"</f>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (id, matchid, squad, goals, points, time_type);</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A28" s="3">
+        <f>'1999'!A71 + 1</f>
+        <v>235</v>
+      </c>
+      <c r="B28" s="3">
+        <f>A11</f>
+        <v>59</v>
+      </c>
+      <c r="C28" s="3">
+        <v>503</v>
+      </c>
+      <c r="D28" s="3">
+        <v>3</v>
+      </c>
+      <c r="E28" s="3">
+        <v>3</v>
+      </c>
+      <c r="F28" s="3">
+        <v>2</v>
+      </c>
+      <c r="G28" s="3" t="str">
+        <f t="shared" ref="G28:G75" si="3">"insert into game_score (id, matchid, squad, goals, points, time_type) values (" &amp; A28 &amp; ", " &amp; B28 &amp; ", " &amp; C28 &amp; ", " &amp; D28 &amp; ", " &amp; E28 &amp; ", " &amp; F28 &amp; ");"</f>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (235, 59, 503, 3, 3, 2);</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A29" s="3">
+        <f>A28+1</f>
+        <v>236</v>
+      </c>
+      <c r="B29" s="3">
+        <f>B28</f>
+        <v>59</v>
+      </c>
+      <c r="C29" s="3">
+        <v>503</v>
+      </c>
+      <c r="D29" s="3">
+        <v>3</v>
+      </c>
+      <c r="E29" s="3">
+        <v>0</v>
+      </c>
+      <c r="F29" s="3">
+        <v>1</v>
+      </c>
+      <c r="G29" s="3" t="str">
+        <f t="shared" si="3"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (236, 59, 503, 3, 0, 1);</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A30" s="3">
+        <f t="shared" ref="A30:A87" si="4">A29+1</f>
+        <v>237</v>
+      </c>
+      <c r="B30" s="3">
+        <f>B28</f>
+        <v>59</v>
+      </c>
+      <c r="C30" s="3">
+        <v>505</v>
+      </c>
+      <c r="D30" s="3">
+        <v>0</v>
+      </c>
+      <c r="E30" s="3">
+        <v>0</v>
+      </c>
+      <c r="F30" s="3">
+        <v>2</v>
+      </c>
+      <c r="G30" s="3" t="str">
+        <f t="shared" si="3"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (237, 59, 505, 0, 0, 2);</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A31" s="3">
+        <f t="shared" si="4"/>
+        <v>238</v>
+      </c>
+      <c r="B31" s="3">
+        <f>B28</f>
+        <v>59</v>
+      </c>
+      <c r="C31" s="3">
+        <v>505</v>
+      </c>
+      <c r="D31" s="3">
+        <v>0</v>
+      </c>
+      <c r="E31" s="3">
+        <v>0</v>
+      </c>
+      <c r="F31" s="3">
+        <v>1</v>
+      </c>
+      <c r="G31" s="3" t="str">
+        <f t="shared" si="3"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (238, 59, 505, 0, 0, 1);</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A32" s="4">
+        <f>A31+1</f>
+        <v>239</v>
+      </c>
+      <c r="B32" s="4">
+        <f>B28+1</f>
+        <v>60</v>
+      </c>
+      <c r="C32" s="4">
+        <v>504</v>
+      </c>
+      <c r="D32" s="4">
+        <v>1</v>
+      </c>
+      <c r="E32" s="4">
+        <v>0</v>
+      </c>
+      <c r="F32" s="4">
+        <v>2</v>
+      </c>
+      <c r="G32" t="str">
+        <f t="shared" si="3"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (239, 60, 504, 1, 0, 2);</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A33" s="4">
+        <f t="shared" si="4"/>
+        <v>240</v>
+      </c>
+      <c r="B33" s="4">
+        <f>B32</f>
+        <v>60</v>
+      </c>
+      <c r="C33" s="4">
+        <v>504</v>
+      </c>
+      <c r="D33" s="4">
+        <v>1</v>
+      </c>
+      <c r="E33" s="4">
+        <v>0</v>
+      </c>
+      <c r="F33" s="4">
+        <v>1</v>
+      </c>
+      <c r="G33" t="str">
+        <f t="shared" si="3"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (240, 60, 504, 1, 0, 1);</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A34" s="4">
+        <f t="shared" si="4"/>
+        <v>241</v>
+      </c>
+      <c r="B34" s="4">
+        <f>B32</f>
+        <v>60</v>
+      </c>
+      <c r="C34" s="4">
+        <v>507</v>
+      </c>
+      <c r="D34" s="4">
+        <v>2</v>
+      </c>
+      <c r="E34" s="4">
+        <v>3</v>
+      </c>
+      <c r="F34" s="4">
+        <v>2</v>
+      </c>
+      <c r="G34" t="str">
+        <f t="shared" si="3"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (241, 60, 507, 2, 3, 2);</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A35" s="4">
+        <f t="shared" si="4"/>
+        <v>242</v>
+      </c>
+      <c r="B35" s="4">
+        <f>B32</f>
+        <v>60</v>
+      </c>
+      <c r="C35" s="4">
+        <v>507</v>
+      </c>
+      <c r="D35" s="4">
+        <v>1</v>
+      </c>
+      <c r="E35" s="4">
+        <v>0</v>
+      </c>
+      <c r="F35" s="4">
+        <v>1</v>
+      </c>
+      <c r="G35" t="str">
+        <f t="shared" si="3"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (242, 60, 507, 1, 0, 1);</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A36" s="3">
+        <f t="shared" si="4"/>
+        <v>243</v>
+      </c>
+      <c r="B36" s="3">
+        <f>B32+1</f>
+        <v>61</v>
+      </c>
+      <c r="C36" s="3">
+        <v>503</v>
+      </c>
+      <c r="D36" s="3">
+        <v>2</v>
+      </c>
+      <c r="E36" s="3">
+        <v>3</v>
+      </c>
+      <c r="F36" s="3">
+        <v>2</v>
+      </c>
+      <c r="G36" s="3" t="str">
+        <f t="shared" si="3"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (243, 61, 503, 2, 3, 2);</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A37" s="3">
+        <f t="shared" si="4"/>
+        <v>244</v>
+      </c>
+      <c r="B37" s="3">
+        <f>B36</f>
+        <v>61</v>
+      </c>
+      <c r="C37" s="3">
+        <v>503</v>
+      </c>
+      <c r="D37" s="3">
+        <v>0</v>
+      </c>
+      <c r="E37" s="3">
+        <v>0</v>
+      </c>
+      <c r="F37" s="3">
+        <v>1</v>
+      </c>
+      <c r="G37" s="3" t="str">
+        <f t="shared" si="3"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (244, 61, 503, 0, 0, 1);</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A38" s="3">
+        <f t="shared" si="4"/>
+        <v>245</v>
+      </c>
+      <c r="B38" s="3">
+        <f>B36</f>
+        <v>61</v>
+      </c>
+      <c r="C38" s="3">
+        <v>507</v>
+      </c>
+      <c r="D38" s="3">
+        <v>1</v>
+      </c>
+      <c r="E38" s="3">
+        <v>0</v>
+      </c>
+      <c r="F38" s="3">
+        <v>2</v>
+      </c>
+      <c r="G38" s="3" t="str">
+        <f t="shared" si="3"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (245, 61, 507, 1, 0, 2);</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A39" s="3">
+        <f t="shared" si="4"/>
+        <v>246</v>
+      </c>
+      <c r="B39" s="3">
+        <f t="shared" ref="B39" si="5">B36</f>
+        <v>61</v>
+      </c>
+      <c r="C39" s="3">
+        <v>507</v>
+      </c>
+      <c r="D39" s="3">
+        <v>0</v>
+      </c>
+      <c r="E39" s="3">
+        <v>0</v>
+      </c>
+      <c r="F39" s="3">
+        <v>1</v>
+      </c>
+      <c r="G39" s="3" t="str">
+        <f t="shared" si="3"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (246, 61, 507, 0, 0, 1);</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A40" s="4">
+        <f t="shared" si="4"/>
+        <v>247</v>
+      </c>
+      <c r="B40" s="4">
+        <f>B36+1</f>
+        <v>62</v>
+      </c>
+      <c r="C40" s="4">
+        <v>504</v>
+      </c>
+      <c r="D40" s="4">
+        <v>10</v>
+      </c>
+      <c r="E40" s="4">
+        <v>3</v>
+      </c>
+      <c r="F40" s="4">
+        <v>2</v>
+      </c>
+      <c r="G40" s="4" t="str">
+        <f t="shared" si="3"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (247, 62, 504, 10, 3, 2);</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A41" s="4">
+        <f t="shared" si="4"/>
+        <v>248</v>
+      </c>
+      <c r="B41" s="4">
+        <f>B40</f>
+        <v>62</v>
+      </c>
+      <c r="C41" s="4">
+        <v>504</v>
+      </c>
+      <c r="D41" s="4">
+        <v>4</v>
+      </c>
+      <c r="E41" s="4">
+        <v>0</v>
+      </c>
+      <c r="F41" s="4">
+        <v>1</v>
+      </c>
+      <c r="G41" s="4" t="str">
+        <f t="shared" si="3"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (248, 62, 504, 4, 0, 1);</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A42" s="4">
+        <f t="shared" si="4"/>
+        <v>249</v>
+      </c>
+      <c r="B42" s="4">
+        <f>B40</f>
+        <v>62</v>
+      </c>
+      <c r="C42" s="4">
+        <v>505</v>
+      </c>
+      <c r="D42" s="4">
+        <v>2</v>
+      </c>
+      <c r="E42" s="4">
+        <v>0</v>
+      </c>
+      <c r="F42" s="4">
+        <v>2</v>
+      </c>
+      <c r="G42" s="4" t="str">
+        <f t="shared" si="3"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (249, 62, 505, 2, 0, 2);</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A43" s="4">
+        <f t="shared" si="4"/>
+        <v>250</v>
+      </c>
+      <c r="B43" s="4">
+        <f t="shared" ref="B43" si="6">B40</f>
+        <v>62</v>
+      </c>
+      <c r="C43" s="4">
+        <v>505</v>
+      </c>
+      <c r="D43" s="4">
+        <v>1</v>
+      </c>
+      <c r="E43" s="4">
+        <v>0</v>
+      </c>
+      <c r="F43" s="4">
+        <v>1</v>
+      </c>
+      <c r="G43" s="4" t="str">
+        <f t="shared" si="3"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (250, 62, 505, 1, 0, 1);</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A44" s="3">
+        <f t="shared" si="4"/>
+        <v>251</v>
+      </c>
+      <c r="B44" s="3">
+        <f>B40+1</f>
+        <v>63</v>
+      </c>
+      <c r="C44" s="3">
+        <v>505</v>
+      </c>
+      <c r="D44" s="3">
+        <v>0</v>
+      </c>
+      <c r="E44" s="3">
+        <v>0</v>
+      </c>
+      <c r="F44" s="3">
+        <v>2</v>
+      </c>
+      <c r="G44" s="3" t="str">
+        <f t="shared" si="3"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (251, 63, 505, 0, 0, 2);</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A45" s="3">
+        <f t="shared" si="4"/>
+        <v>252</v>
+      </c>
+      <c r="B45" s="3">
+        <f>B44</f>
+        <v>63</v>
+      </c>
+      <c r="C45" s="3">
+        <v>505</v>
+      </c>
+      <c r="D45" s="3">
+        <v>0</v>
+      </c>
+      <c r="E45" s="3">
+        <v>0</v>
+      </c>
+      <c r="F45" s="3">
+        <v>1</v>
+      </c>
+      <c r="G45" s="3" t="str">
+        <f t="shared" si="3"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (252, 63, 505, 0, 0, 1);</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A46" s="3">
+        <f t="shared" si="4"/>
+        <v>253</v>
+      </c>
+      <c r="B46" s="3">
+        <f>B44</f>
+        <v>63</v>
+      </c>
+      <c r="C46" s="3">
+        <v>507</v>
+      </c>
+      <c r="D46" s="3">
+        <v>6</v>
+      </c>
+      <c r="E46" s="3">
+        <v>3</v>
+      </c>
+      <c r="F46" s="3">
+        <v>2</v>
+      </c>
+      <c r="G46" s="3" t="str">
+        <f t="shared" si="3"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (253, 63, 507, 6, 3, 2);</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A47" s="3">
+        <f t="shared" si="4"/>
+        <v>254</v>
+      </c>
+      <c r="B47" s="3">
+        <f t="shared" ref="B47" si="7">B44</f>
+        <v>63</v>
+      </c>
+      <c r="C47" s="3">
+        <v>507</v>
+      </c>
+      <c r="D47" s="3">
+        <v>4</v>
+      </c>
+      <c r="E47" s="3">
+        <v>0</v>
+      </c>
+      <c r="F47" s="3">
+        <v>1</v>
+      </c>
+      <c r="G47" s="3" t="str">
+        <f t="shared" si="3"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (254, 63, 507, 4, 0, 1);</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A48" s="4">
+        <f t="shared" si="4"/>
+        <v>255</v>
+      </c>
+      <c r="B48" s="4">
+        <f>B44+1</f>
+        <v>64</v>
+      </c>
+      <c r="C48" s="4">
+        <v>504</v>
+      </c>
+      <c r="D48" s="4">
+        <v>1</v>
+      </c>
+      <c r="E48" s="4">
+        <v>1</v>
+      </c>
+      <c r="F48" s="4">
+        <v>2</v>
+      </c>
+      <c r="G48" s="4" t="str">
+        <f t="shared" si="3"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (255, 64, 504, 1, 1, 2);</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A49" s="4">
+        <f t="shared" si="4"/>
+        <v>256</v>
+      </c>
+      <c r="B49" s="4">
+        <f>B48</f>
+        <v>64</v>
+      </c>
+      <c r="C49" s="4">
+        <v>504</v>
+      </c>
+      <c r="D49" s="4">
+        <v>1</v>
+      </c>
+      <c r="E49" s="4">
+        <v>0</v>
+      </c>
+      <c r="F49" s="4">
+        <v>1</v>
+      </c>
+      <c r="G49" s="4" t="str">
+        <f t="shared" si="3"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (256, 64, 504, 1, 0, 1);</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A50" s="4">
+        <f t="shared" si="4"/>
+        <v>257</v>
+      </c>
+      <c r="B50" s="4">
+        <f>B48</f>
+        <v>64</v>
+      </c>
+      <c r="C50" s="4">
+        <v>503</v>
+      </c>
+      <c r="D50" s="4">
+        <v>1</v>
+      </c>
+      <c r="E50" s="4">
+        <v>1</v>
+      </c>
+      <c r="F50" s="4">
+        <v>2</v>
+      </c>
+      <c r="G50" s="4" t="str">
+        <f t="shared" si="3"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (257, 64, 503, 1, 1, 2);</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A51" s="4">
+        <f t="shared" si="4"/>
+        <v>258</v>
+      </c>
+      <c r="B51" s="4">
+        <f t="shared" ref="B51" si="8">B48</f>
+        <v>64</v>
+      </c>
+      <c r="C51" s="4">
+        <v>503</v>
+      </c>
+      <c r="D51" s="4">
+        <v>0</v>
+      </c>
+      <c r="E51" s="4">
+        <v>0</v>
+      </c>
+      <c r="F51" s="4">
+        <v>1</v>
+      </c>
+      <c r="G51" s="4" t="str">
+        <f t="shared" si="3"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (258, 64, 503, 0, 0, 1);</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A52" s="3">
+        <f t="shared" si="4"/>
+        <v>259</v>
+      </c>
+      <c r="B52" s="3">
+        <f>B48+1</f>
+        <v>65</v>
+      </c>
+      <c r="C52" s="3">
+        <v>506</v>
+      </c>
+      <c r="D52" s="3">
+        <v>4</v>
+      </c>
+      <c r="E52" s="3">
+        <v>3</v>
+      </c>
+      <c r="F52" s="3">
+        <v>2</v>
+      </c>
+      <c r="G52" s="3" t="str">
+        <f t="shared" si="3"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (259, 65, 506, 4, 3, 2);</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A53" s="3">
+        <f t="shared" si="4"/>
+        <v>260</v>
+      </c>
+      <c r="B53" s="3">
+        <f>B52</f>
+        <v>65</v>
+      </c>
+      <c r="C53" s="3">
+        <v>506</v>
+      </c>
+      <c r="D53" s="3">
+        <v>2</v>
+      </c>
+      <c r="E53" s="3">
+        <v>0</v>
+      </c>
+      <c r="F53" s="3">
+        <v>1</v>
+      </c>
+      <c r="G53" s="3" t="str">
+        <f t="shared" si="3"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (260, 65, 506, 2, 0, 1);</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A54" s="3">
+        <f t="shared" si="4"/>
+        <v>261</v>
+      </c>
+      <c r="B54" s="3">
+        <f>B52</f>
+        <v>65</v>
+      </c>
+      <c r="C54" s="3">
+        <v>501</v>
+      </c>
+      <c r="D54" s="3">
+        <v>0</v>
+      </c>
+      <c r="E54" s="3">
+        <v>0</v>
+      </c>
+      <c r="F54" s="3">
+        <v>2</v>
+      </c>
+      <c r="G54" s="3" t="str">
+        <f t="shared" si="3"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (261, 65, 501, 0, 0, 2);</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A55" s="3">
+        <f t="shared" si="4"/>
+        <v>262</v>
+      </c>
+      <c r="B55" s="3">
+        <f t="shared" ref="B55" si="9">B52</f>
+        <v>65</v>
+      </c>
+      <c r="C55" s="3">
+        <v>501</v>
+      </c>
+      <c r="D55" s="3">
+        <v>0</v>
+      </c>
+      <c r="E55" s="3">
+        <v>0</v>
+      </c>
+      <c r="F55" s="3">
+        <v>1</v>
+      </c>
+      <c r="G55" s="3" t="str">
+        <f t="shared" si="3"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (262, 65, 501, 0, 0, 1);</v>
+      </c>
+    </row>
+    <row r="56" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A56" s="4">
+        <f t="shared" si="4"/>
+        <v>263</v>
+      </c>
+      <c r="B56" s="4">
+        <f>B52+1</f>
+        <v>66</v>
+      </c>
+      <c r="C56" s="4">
+        <v>502</v>
+      </c>
+      <c r="D56" s="4">
+        <v>3</v>
+      </c>
+      <c r="E56" s="4">
+        <v>1</v>
+      </c>
+      <c r="F56" s="4">
+        <v>2</v>
+      </c>
+      <c r="G56" s="4" t="str">
+        <f t="shared" si="3"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (263, 66, 502, 3, 1, 2);</v>
+      </c>
+    </row>
+    <row r="57" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A57" s="4">
+        <f t="shared" si="4"/>
+        <v>264</v>
+      </c>
+      <c r="B57" s="4">
+        <f>B56</f>
+        <v>66</v>
+      </c>
+      <c r="C57" s="4">
+        <v>502</v>
+      </c>
+      <c r="D57" s="4">
+        <v>2</v>
+      </c>
+      <c r="E57" s="4">
+        <v>0</v>
+      </c>
+      <c r="F57" s="4">
+        <v>1</v>
+      </c>
+      <c r="G57" s="4" t="str">
+        <f t="shared" si="3"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (264, 66, 502, 2, 0, 1);</v>
+      </c>
+    </row>
+    <row r="58" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A58" s="4">
+        <f t="shared" si="4"/>
+        <v>265</v>
+      </c>
+      <c r="B58" s="4">
+        <f>B56</f>
+        <v>66</v>
+      </c>
+      <c r="C58" s="4">
+        <v>501</v>
+      </c>
+      <c r="D58" s="4">
+        <v>3</v>
+      </c>
+      <c r="E58" s="4">
+        <v>1</v>
+      </c>
+      <c r="F58" s="4">
+        <v>2</v>
+      </c>
+      <c r="G58" s="4" t="str">
+        <f t="shared" si="3"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (265, 66, 501, 3, 1, 2);</v>
+      </c>
+    </row>
+    <row r="59" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A59" s="4">
+        <f t="shared" si="4"/>
+        <v>266</v>
+      </c>
+      <c r="B59" s="4">
+        <f t="shared" ref="B59" si="10">B56</f>
+        <v>66</v>
+      </c>
+      <c r="C59" s="4">
+        <v>501</v>
+      </c>
+      <c r="D59" s="4">
+        <v>2</v>
+      </c>
+      <c r="E59" s="4">
+        <v>0</v>
+      </c>
+      <c r="F59" s="4">
+        <v>1</v>
+      </c>
+      <c r="G59" s="4" t="str">
+        <f t="shared" si="3"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (266, 66, 501, 2, 0, 1);</v>
+      </c>
+    </row>
+    <row r="60" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A60" s="3">
+        <f t="shared" si="4"/>
+        <v>267</v>
+      </c>
+      <c r="B60" s="3">
+        <f>B56+1</f>
+        <v>67</v>
+      </c>
+      <c r="C60" s="3">
+        <v>506</v>
+      </c>
+      <c r="D60" s="3">
+        <v>1</v>
+      </c>
+      <c r="E60" s="3">
+        <v>1</v>
+      </c>
+      <c r="F60" s="3">
+        <v>2</v>
+      </c>
+      <c r="G60" s="3" t="str">
+        <f t="shared" si="3"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (267, 67, 506, 1, 1, 2);</v>
+      </c>
+    </row>
+    <row r="61" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A61" s="3">
+        <f t="shared" si="4"/>
+        <v>268</v>
+      </c>
+      <c r="B61" s="3">
+        <f>B60</f>
+        <v>67</v>
+      </c>
+      <c r="C61" s="3">
+        <v>506</v>
+      </c>
+      <c r="D61" s="3">
+        <v>1</v>
+      </c>
+      <c r="E61" s="3">
+        <v>0</v>
+      </c>
+      <c r="F61" s="3">
+        <v>1</v>
+      </c>
+      <c r="G61" s="3" t="str">
+        <f t="shared" si="3"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (268, 67, 506, 1, 0, 1);</v>
+      </c>
+    </row>
+    <row r="62" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A62" s="3">
+        <f t="shared" si="4"/>
+        <v>269</v>
+      </c>
+      <c r="B62" s="3">
+        <f>B60</f>
+        <v>67</v>
+      </c>
+      <c r="C62" s="3">
+        <v>502</v>
+      </c>
+      <c r="D62" s="3">
+        <v>1</v>
+      </c>
+      <c r="E62" s="3">
+        <v>1</v>
+      </c>
+      <c r="F62" s="3">
+        <v>2</v>
+      </c>
+      <c r="G62" s="3" t="str">
+        <f t="shared" si="3"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (269, 67, 502, 1, 1, 2);</v>
+      </c>
+    </row>
+    <row r="63" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A63" s="3">
+        <f t="shared" si="4"/>
+        <v>270</v>
+      </c>
+      <c r="B63" s="3">
+        <f t="shared" ref="B63" si="11">B60</f>
+        <v>67</v>
+      </c>
+      <c r="C63" s="3">
+        <v>502</v>
+      </c>
+      <c r="D63" s="3">
+        <v>0</v>
+      </c>
+      <c r="E63" s="3">
+        <v>0</v>
+      </c>
+      <c r="F63" s="3">
+        <v>1</v>
+      </c>
+      <c r="G63" s="3" t="str">
+        <f t="shared" si="3"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (270, 67, 502, 0, 0, 1);</v>
+      </c>
+    </row>
+    <row r="64" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A64" s="4">
+        <f t="shared" si="4"/>
+        <v>271</v>
+      </c>
+      <c r="B64" s="4">
+        <f>B60+1</f>
+        <v>68</v>
+      </c>
+      <c r="C64" s="4">
+        <v>506</v>
+      </c>
+      <c r="D64" s="4">
+        <v>2</v>
+      </c>
+      <c r="E64" s="4">
+        <v>3</v>
+      </c>
+      <c r="F64" s="4">
+        <v>2</v>
+      </c>
+      <c r="G64" s="4" t="str">
+        <f t="shared" si="3"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (271, 68, 506, 2, 3, 2);</v>
+      </c>
+    </row>
+    <row r="65" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A65" s="4">
+        <f t="shared" si="4"/>
+        <v>272</v>
+      </c>
+      <c r="B65" s="4">
+        <f>B64</f>
+        <v>68</v>
+      </c>
+      <c r="C65" s="4">
+        <v>506</v>
+      </c>
+      <c r="D65" s="4">
+        <v>1</v>
+      </c>
+      <c r="E65" s="4">
+        <v>0</v>
+      </c>
+      <c r="F65" s="4">
+        <v>1</v>
+      </c>
+      <c r="G65" s="4" t="str">
+        <f t="shared" si="3"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (272, 68, 506, 1, 0, 1);</v>
+      </c>
+    </row>
+    <row r="66" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A66" s="4">
+        <f t="shared" si="4"/>
+        <v>273</v>
+      </c>
+      <c r="B66" s="4">
+        <f>B64</f>
+        <v>68</v>
+      </c>
+      <c r="C66" s="4">
+        <v>507</v>
+      </c>
+      <c r="D66" s="4">
+        <v>1</v>
+      </c>
+      <c r="E66" s="4">
+        <v>0</v>
+      </c>
+      <c r="F66" s="4">
+        <v>2</v>
+      </c>
+      <c r="G66" s="4" t="str">
+        <f t="shared" si="3"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (273, 68, 507, 1, 0, 2);</v>
+      </c>
+    </row>
+    <row r="67" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A67" s="4">
+        <f t="shared" si="4"/>
+        <v>274</v>
+      </c>
+      <c r="B67" s="4">
+        <f t="shared" ref="B67" si="12">B64</f>
+        <v>68</v>
+      </c>
+      <c r="C67" s="4">
+        <v>507</v>
+      </c>
+      <c r="D67" s="4">
+        <v>0</v>
+      </c>
+      <c r="E67" s="4">
+        <v>0</v>
+      </c>
+      <c r="F67" s="4">
+        <v>1</v>
+      </c>
+      <c r="G67" s="4" t="str">
+        <f t="shared" si="3"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (274, 68, 507, 0, 0, 1);</v>
+      </c>
+    </row>
+    <row r="68" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A68" s="3">
+        <f t="shared" si="4"/>
+        <v>275</v>
+      </c>
+      <c r="B68" s="3">
+        <f>B64+1</f>
+        <v>69</v>
+      </c>
+      <c r="C68" s="3">
+        <v>503</v>
+      </c>
+      <c r="D68" s="3">
+        <v>0</v>
+      </c>
+      <c r="E68" s="3">
+        <v>1</v>
+      </c>
+      <c r="F68" s="3">
+        <v>2</v>
+      </c>
+      <c r="G68" s="3" t="str">
+        <f t="shared" si="3"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (275, 69, 503, 0, 1, 2);</v>
+      </c>
+    </row>
+    <row r="69" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A69" s="3">
+        <f t="shared" si="4"/>
+        <v>276</v>
+      </c>
+      <c r="B69" s="3">
+        <f>B68</f>
+        <v>69</v>
+      </c>
+      <c r="C69" s="3">
+        <v>503</v>
+      </c>
+      <c r="D69" s="3">
+        <v>0</v>
+      </c>
+      <c r="E69" s="3">
+        <v>0</v>
+      </c>
+      <c r="F69" s="3">
+        <v>1</v>
+      </c>
+      <c r="G69" s="3" t="str">
+        <f t="shared" si="3"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (276, 69, 503, 0, 0, 1);</v>
+      </c>
+    </row>
+    <row r="70" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A70" s="3">
+        <f t="shared" si="4"/>
+        <v>277</v>
+      </c>
+      <c r="B70" s="3">
+        <f>B68</f>
+        <v>69</v>
+      </c>
+      <c r="C70" s="3">
+        <v>502</v>
+      </c>
+      <c r="D70" s="3">
+        <v>0</v>
+      </c>
+      <c r="E70" s="3">
+        <v>1</v>
+      </c>
+      <c r="F70" s="3">
+        <v>2</v>
+      </c>
+      <c r="G70" s="3" t="str">
+        <f t="shared" si="3"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (277, 69, 502, 0, 1, 2);</v>
+      </c>
+    </row>
+    <row r="71" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A71" s="3">
+        <f t="shared" si="4"/>
+        <v>278</v>
+      </c>
+      <c r="B71" s="3">
+        <f t="shared" ref="B71" si="13">B68</f>
+        <v>69</v>
+      </c>
+      <c r="C71" s="3">
+        <v>502</v>
+      </c>
+      <c r="D71" s="3">
+        <v>0</v>
+      </c>
+      <c r="E71" s="3">
+        <v>0</v>
+      </c>
+      <c r="F71" s="3">
+        <v>1</v>
+      </c>
+      <c r="G71" s="3" t="str">
+        <f t="shared" si="3"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (278, 69, 502, 0, 0, 1);</v>
+      </c>
+    </row>
+    <row r="72" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A72" s="4">
+        <f t="shared" si="4"/>
+        <v>279</v>
+      </c>
+      <c r="B72" s="4">
+        <f>B68+1</f>
+        <v>70</v>
+      </c>
+      <c r="C72" s="4">
+        <v>506</v>
+      </c>
+      <c r="D72" s="4">
+        <v>0</v>
+      </c>
+      <c r="E72" s="4">
+        <v>0</v>
+      </c>
+      <c r="F72" s="4">
+        <v>2</v>
+      </c>
+      <c r="G72" s="4" t="str">
+        <f t="shared" si="3"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (279, 70, 506, 0, 0, 2);</v>
+      </c>
+    </row>
+    <row r="73" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A73" s="4">
+        <f t="shared" si="4"/>
+        <v>280</v>
+      </c>
+      <c r="B73" s="4">
+        <f>B72</f>
+        <v>70</v>
+      </c>
+      <c r="C73" s="4">
+        <v>506</v>
+      </c>
+      <c r="D73" s="4">
+        <v>0</v>
+      </c>
+      <c r="E73" s="4">
+        <v>0</v>
+      </c>
+      <c r="F73" s="4">
+        <v>1</v>
+      </c>
+      <c r="G73" s="4" t="str">
+        <f t="shared" si="3"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (280, 70, 506, 0, 0, 1);</v>
+      </c>
+    </row>
+    <row r="74" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A74" s="4">
+        <f t="shared" si="4"/>
+        <v>281</v>
+      </c>
+      <c r="B74" s="4">
+        <f>B72</f>
+        <v>70</v>
+      </c>
+      <c r="C74" s="4">
+        <v>502</v>
+      </c>
+      <c r="D74" s="4">
+        <v>2</v>
+      </c>
+      <c r="E74" s="4">
+        <v>3</v>
+      </c>
+      <c r="F74" s="4">
+        <v>2</v>
+      </c>
+      <c r="G74" s="4" t="str">
+        <f t="shared" si="3"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (281, 70, 502, 2, 3, 2);</v>
+      </c>
+    </row>
+    <row r="75" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A75" s="4">
+        <f t="shared" si="4"/>
+        <v>282</v>
+      </c>
+      <c r="B75" s="4">
+        <f t="shared" ref="B75" si="14">B72</f>
+        <v>70</v>
+      </c>
+      <c r="C75" s="4">
+        <v>502</v>
+      </c>
+      <c r="D75" s="4">
+        <v>1</v>
+      </c>
+      <c r="E75" s="4">
+        <v>0</v>
+      </c>
+      <c r="F75" s="4">
+        <v>1</v>
+      </c>
+      <c r="G75" s="4" t="str">
+        <f t="shared" si="3"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (282, 70, 502, 1, 0, 1);</v>
+      </c>
+    </row>
+    <row r="76" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A76" s="3">
+        <f t="shared" si="4"/>
+        <v>283</v>
+      </c>
+      <c r="B76" s="3">
+        <f>B72+1</f>
+        <v>71</v>
+      </c>
+      <c r="C76" s="3">
+        <v>503</v>
+      </c>
+      <c r="D76" s="3">
+        <v>1</v>
+      </c>
+      <c r="E76" s="3">
+        <v>1</v>
+      </c>
+      <c r="F76" s="3">
+        <v>2</v>
+      </c>
+      <c r="G76" s="3" t="str">
+        <f t="shared" ref="G76:G83" si="15">"insert into game_score (id, matchid, squad, goals, points, time_type) values (" &amp; A76 &amp; ", " &amp; B76 &amp; ", " &amp; C76 &amp; ", " &amp; D76 &amp; ", " &amp; E76 &amp; ", " &amp; F76 &amp; ");"</f>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (283, 71, 503, 1, 1, 2);</v>
+      </c>
+    </row>
+    <row r="77" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A77" s="3">
+        <f t="shared" si="4"/>
+        <v>284</v>
+      </c>
+      <c r="B77" s="3">
+        <f>B76</f>
+        <v>71</v>
+      </c>
+      <c r="C77" s="3">
+        <v>503</v>
+      </c>
+      <c r="D77" s="3">
+        <v>1</v>
+      </c>
+      <c r="E77" s="3">
+        <v>0</v>
+      </c>
+      <c r="F77" s="3">
+        <v>1</v>
+      </c>
+      <c r="G77" s="3" t="str">
+        <f t="shared" si="15"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (284, 71, 503, 1, 0, 1);</v>
+      </c>
+    </row>
+    <row r="78" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A78" s="3">
+        <f t="shared" si="4"/>
+        <v>285</v>
+      </c>
+      <c r="B78" s="3">
+        <f>B76</f>
+        <v>71</v>
+      </c>
+      <c r="C78" s="3">
+        <v>507</v>
+      </c>
+      <c r="D78" s="3">
+        <v>1</v>
+      </c>
+      <c r="E78" s="3">
+        <v>1</v>
+      </c>
+      <c r="F78" s="3">
+        <v>2</v>
+      </c>
+      <c r="G78" s="3" t="str">
+        <f t="shared" si="15"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (285, 71, 507, 1, 1, 2);</v>
+      </c>
+    </row>
+    <row r="79" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A79" s="3">
+        <f t="shared" si="4"/>
+        <v>286</v>
+      </c>
+      <c r="B79" s="3">
+        <f t="shared" ref="B79" si="16">B76</f>
+        <v>71</v>
+      </c>
+      <c r="C79" s="3">
+        <v>507</v>
+      </c>
+      <c r="D79" s="3">
+        <v>0</v>
+      </c>
+      <c r="E79" s="3">
+        <v>0</v>
+      </c>
+      <c r="F79" s="3">
+        <v>1</v>
+      </c>
+      <c r="G79" s="3" t="str">
+        <f t="shared" si="15"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (286, 71, 507, 0, 0, 1);</v>
+      </c>
+    </row>
+    <row r="80" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A80" s="4">
+        <f t="shared" si="4"/>
+        <v>287</v>
+      </c>
+      <c r="B80" s="4">
+        <f>B76+1</f>
+        <v>72</v>
+      </c>
+      <c r="C80" s="4">
+        <v>506</v>
+      </c>
+      <c r="D80" s="4">
+        <v>1</v>
+      </c>
+      <c r="E80" s="4">
+        <v>1</v>
+      </c>
+      <c r="F80" s="4">
+        <v>2</v>
+      </c>
+      <c r="G80" s="4" t="str">
+        <f t="shared" si="15"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (287, 72, 506, 1, 1, 2);</v>
+      </c>
+    </row>
+    <row r="81" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A81" s="4">
+        <f t="shared" si="4"/>
+        <v>288</v>
+      </c>
+      <c r="B81" s="4">
+        <f>B80</f>
+        <v>72</v>
+      </c>
+      <c r="C81" s="4">
+        <v>506</v>
+      </c>
+      <c r="D81" s="4">
+        <v>0</v>
+      </c>
+      <c r="E81" s="4">
+        <v>0</v>
+      </c>
+      <c r="F81" s="4">
+        <v>1</v>
+      </c>
+      <c r="G81" s="4" t="str">
+        <f t="shared" si="15"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (288, 72, 506, 0, 0, 1);</v>
+      </c>
+    </row>
+    <row r="82" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A82" s="4">
+        <f t="shared" si="4"/>
+        <v>289</v>
+      </c>
+      <c r="B82" s="4">
+        <f>B80</f>
+        <v>72</v>
+      </c>
+      <c r="C82" s="4">
+        <v>503</v>
+      </c>
+      <c r="D82" s="4">
+        <v>1</v>
+      </c>
+      <c r="E82" s="4">
+        <v>1</v>
+      </c>
+      <c r="F82" s="4">
+        <v>2</v>
+      </c>
+      <c r="G82" s="4" t="str">
+        <f t="shared" si="15"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (289, 72, 503, 1, 1, 2);</v>
+      </c>
+    </row>
+    <row r="83" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A83" s="4">
+        <f t="shared" si="4"/>
+        <v>290</v>
+      </c>
+      <c r="B83" s="4">
+        <f t="shared" ref="B83" si="17">B80</f>
+        <v>72</v>
+      </c>
+      <c r="C83" s="4">
+        <v>503</v>
+      </c>
+      <c r="D83" s="4">
+        <v>1</v>
+      </c>
+      <c r="E83" s="4">
+        <v>0</v>
+      </c>
+      <c r="F83" s="4">
+        <v>1</v>
+      </c>
+      <c r="G83" s="4" t="str">
+        <f t="shared" si="15"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (290, 72, 503, 1, 0, 1);</v>
+      </c>
+    </row>
+    <row r="84" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A84" s="3">
+        <f t="shared" si="4"/>
+        <v>291</v>
+      </c>
+      <c r="B84" s="3">
+        <f>B80+1</f>
+        <v>73</v>
+      </c>
+      <c r="C84" s="3">
+        <v>502</v>
+      </c>
+      <c r="D84" s="3">
+        <v>3</v>
+      </c>
+      <c r="E84" s="3">
+        <v>3</v>
+      </c>
+      <c r="F84" s="3">
+        <v>2</v>
+      </c>
+      <c r="G84" s="3" t="str">
+        <f t="shared" ref="G84:G87" si="18">"insert into game_score (id, matchid, squad, goals, points, time_type) values (" &amp; A84 &amp; ", " &amp; B84 &amp; ", " &amp; C84 &amp; ", " &amp; D84 &amp; ", " &amp; E84 &amp; ", " &amp; F84 &amp; ");"</f>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (291, 73, 502, 3, 3, 2);</v>
+      </c>
+    </row>
+    <row r="85" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A85" s="3">
+        <f t="shared" si="4"/>
+        <v>292</v>
+      </c>
+      <c r="B85" s="3">
+        <f>B84</f>
+        <v>73</v>
+      </c>
+      <c r="C85" s="3">
+        <v>502</v>
+      </c>
+      <c r="D85" s="3">
+        <v>2</v>
+      </c>
+      <c r="E85" s="3">
+        <v>0</v>
+      </c>
+      <c r="F85" s="3">
+        <v>1</v>
+      </c>
+      <c r="G85" s="3" t="str">
+        <f t="shared" si="18"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (292, 73, 502, 2, 0, 1);</v>
+      </c>
+    </row>
+    <row r="86" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A86" s="3">
+        <f t="shared" si="4"/>
+        <v>293</v>
+      </c>
+      <c r="B86" s="3">
+        <f>B84</f>
+        <v>73</v>
+      </c>
+      <c r="C86" s="3">
+        <v>507</v>
+      </c>
+      <c r="D86" s="3">
+        <v>1</v>
+      </c>
+      <c r="E86" s="3">
+        <v>0</v>
+      </c>
+      <c r="F86" s="3">
+        <v>2</v>
+      </c>
+      <c r="G86" s="3" t="str">
+        <f t="shared" si="18"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (293, 73, 507, 1, 0, 2);</v>
+      </c>
+    </row>
+    <row r="87" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A87" s="3">
+        <f t="shared" si="4"/>
+        <v>294</v>
+      </c>
+      <c r="B87" s="3">
+        <f t="shared" ref="B87" si="19">B84</f>
+        <v>73</v>
+      </c>
+      <c r="C87" s="3">
+        <v>507</v>
+      </c>
+      <c r="D87" s="3">
+        <v>0</v>
+      </c>
+      <c r="E87" s="3">
+        <v>0</v>
+      </c>
+      <c r="F87" s="3">
+        <v>1</v>
+      </c>
+      <c r="G87" s="3" t="str">
+        <f t="shared" si="18"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (294, 73, 507, 0, 0, 1);</v>
       </c>
     </row>
   </sheetData>

--- a/Scripts/copacentroamericana/copacentroamericana.xlsx
+++ b/Scripts/copacentroamericana/copacentroamericana.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" tabRatio="666" activeTab="5"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" tabRatio="666" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="1991" sheetId="1" r:id="rId1"/>
@@ -13,13 +13,14 @@
     <sheet name="1997" sheetId="90" r:id="rId4"/>
     <sheet name="1999" sheetId="91" r:id="rId5"/>
     <sheet name="2001" sheetId="92" r:id="rId6"/>
+    <sheet name="2003" sheetId="93" r:id="rId7"/>
   </sheets>
   <calcPr calcId="145621"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="119" uniqueCount="14">
   <si>
     <t>id</t>
   </si>
@@ -8399,6 +8400,2087 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G87"/>
   <sheetViews>
+    <sheetView zoomScaleNormal="100" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="9.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.85546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="7.42578125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="6.5703125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="111.140625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D1" t="s">
+        <v>2</v>
+      </c>
+      <c r="G1" t="str">
+        <f>"insert into group_stage (id, tournament, group_code, squad) values (" &amp; A1 &amp; ", " &amp; B1 &amp; ", '" &amp; C1 &amp; "', " &amp; D1 &amp;  ");"</f>
+        <v>insert into group_stage (id, tournament, group_code, squad) values (id, tournament, 'group_code', squad);</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <f>'1999'!A7+1</f>
+        <v>19</v>
+      </c>
+      <c r="B2">
+        <v>2001</v>
+      </c>
+      <c r="C2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D2">
+        <v>503</v>
+      </c>
+      <c r="G2" t="str">
+        <f t="shared" ref="G2:G8" si="0">"insert into group_stage (id, tournament, group_code, squad) values (" &amp; A2 &amp; ", " &amp; B2 &amp; ", '" &amp; C2 &amp; "', " &amp; D2 &amp;  ");"</f>
+        <v>insert into group_stage (id, tournament, group_code, squad) values (19, 2001, 'A', 503);</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <f t="shared" ref="A3:A8" si="1">A2+1</f>
+        <v>20</v>
+      </c>
+      <c r="B3">
+        <f t="shared" ref="B3:B8" si="2">B2</f>
+        <v>2001</v>
+      </c>
+      <c r="C3" t="s">
+        <v>12</v>
+      </c>
+      <c r="D3">
+        <v>507</v>
+      </c>
+      <c r="G3" t="str">
+        <f t="shared" si="0"/>
+        <v>insert into group_stage (id, tournament, group_code, squad) values (20, 2001, 'A', 507);</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <f t="shared" si="1"/>
+        <v>21</v>
+      </c>
+      <c r="B4">
+        <f t="shared" si="2"/>
+        <v>2001</v>
+      </c>
+      <c r="C4" t="s">
+        <v>12</v>
+      </c>
+      <c r="D4">
+        <v>504</v>
+      </c>
+      <c r="G4" t="str">
+        <f t="shared" si="0"/>
+        <v>insert into group_stage (id, tournament, group_code, squad) values (21, 2001, 'A', 504);</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <f t="shared" si="1"/>
+        <v>22</v>
+      </c>
+      <c r="B5">
+        <f t="shared" si="2"/>
+        <v>2001</v>
+      </c>
+      <c r="C5" t="s">
+        <v>12</v>
+      </c>
+      <c r="D5">
+        <v>505</v>
+      </c>
+      <c r="G5" t="str">
+        <f t="shared" si="0"/>
+        <v>insert into group_stage (id, tournament, group_code, squad) values (22, 2001, 'A', 505);</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <f t="shared" si="1"/>
+        <v>23</v>
+      </c>
+      <c r="B6">
+        <f t="shared" si="2"/>
+        <v>2001</v>
+      </c>
+      <c r="C6" t="s">
+        <v>13</v>
+      </c>
+      <c r="D6">
+        <v>506</v>
+      </c>
+      <c r="G6" t="str">
+        <f t="shared" si="0"/>
+        <v>insert into group_stage (id, tournament, group_code, squad) values (23, 2001, 'B', 506);</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <f t="shared" si="1"/>
+        <v>24</v>
+      </c>
+      <c r="B7">
+        <f t="shared" si="2"/>
+        <v>2001</v>
+      </c>
+      <c r="C7" t="s">
+        <v>13</v>
+      </c>
+      <c r="D7">
+        <v>502</v>
+      </c>
+      <c r="G7" t="str">
+        <f t="shared" si="0"/>
+        <v>insert into group_stage (id, tournament, group_code, squad) values (24, 2001, 'B', 502);</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <f t="shared" si="1"/>
+        <v>25</v>
+      </c>
+      <c r="B8">
+        <f t="shared" si="2"/>
+        <v>2001</v>
+      </c>
+      <c r="C8" t="s">
+        <v>13</v>
+      </c>
+      <c r="D8">
+        <v>501</v>
+      </c>
+      <c r="G8" t="str">
+        <f t="shared" si="0"/>
+        <v>insert into group_stage (id, tournament, group_code, squad) values (25, 2001, 'B', 501);</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A10" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="G10" t="str">
+        <f>"insert into game (matchid, matchdate, game_type, country) values (" &amp; A10 &amp; ", '" &amp; B10 &amp; "', " &amp; C10 &amp; ", " &amp; D10 &amp;  ");"</f>
+        <v>insert into game (matchid, matchdate, game_type, country) values (matchid, 'matchdate', game_type, country);</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <f>'1999'!A21+1</f>
+        <v>59</v>
+      </c>
+      <c r="B11" s="2" t="str">
+        <f>"2001-05-23"</f>
+        <v>2001-05-23</v>
+      </c>
+      <c r="C11">
+        <v>2</v>
+      </c>
+      <c r="D11">
+        <v>504</v>
+      </c>
+      <c r="G11" t="str">
+        <f t="shared" ref="G11:G25" si="3">"insert into game (matchid, matchdate, game_type, country) values (" &amp; A11 &amp; ", '" &amp; B11 &amp; "', " &amp; C11 &amp; ", " &amp; D11 &amp;  ");"</f>
+        <v>insert into game (matchid, matchdate, game_type, country) values (59, '2001-05-23', 2, 504);</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <f>A11+1</f>
+        <v>60</v>
+      </c>
+      <c r="B12" s="2" t="str">
+        <f>"2001-05-23"</f>
+        <v>2001-05-23</v>
+      </c>
+      <c r="C12">
+        <v>2</v>
+      </c>
+      <c r="D12">
+        <v>504</v>
+      </c>
+      <c r="G12" t="str">
+        <f t="shared" si="3"/>
+        <v>insert into game (matchid, matchdate, game_type, country) values (60, '2001-05-23', 2, 504);</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <f t="shared" ref="A13:A25" si="4">A12+1</f>
+        <v>61</v>
+      </c>
+      <c r="B13" s="2" t="str">
+        <f>"2001-05-25"</f>
+        <v>2001-05-25</v>
+      </c>
+      <c r="C13">
+        <v>2</v>
+      </c>
+      <c r="D13">
+        <v>504</v>
+      </c>
+      <c r="G13" t="str">
+        <f t="shared" si="3"/>
+        <v>insert into game (matchid, matchdate, game_type, country) values (61, '2001-05-25', 2, 504);</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <f t="shared" si="4"/>
+        <v>62</v>
+      </c>
+      <c r="B14" s="2" t="str">
+        <f>"2001-05-25"</f>
+        <v>2001-05-25</v>
+      </c>
+      <c r="C14">
+        <v>2</v>
+      </c>
+      <c r="D14">
+        <v>504</v>
+      </c>
+      <c r="G14" t="str">
+        <f t="shared" si="3"/>
+        <v>insert into game (matchid, matchdate, game_type, country) values (62, '2001-05-25', 2, 504);</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <f t="shared" si="4"/>
+        <v>63</v>
+      </c>
+      <c r="B15" s="2" t="str">
+        <f>"2001-05-27"</f>
+        <v>2001-05-27</v>
+      </c>
+      <c r="C15">
+        <v>2</v>
+      </c>
+      <c r="D15">
+        <v>504</v>
+      </c>
+      <c r="G15" t="str">
+        <f t="shared" si="3"/>
+        <v>insert into game (matchid, matchdate, game_type, country) values (63, '2001-05-27', 2, 504);</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <f t="shared" si="4"/>
+        <v>64</v>
+      </c>
+      <c r="B16" s="2" t="str">
+        <f>"2001-05-27"</f>
+        <v>2001-05-27</v>
+      </c>
+      <c r="C16">
+        <v>2</v>
+      </c>
+      <c r="D16">
+        <v>504</v>
+      </c>
+      <c r="G16" t="str">
+        <f t="shared" si="3"/>
+        <v>insert into game (matchid, matchdate, game_type, country) values (64, '2001-05-27', 2, 504);</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <f t="shared" si="4"/>
+        <v>65</v>
+      </c>
+      <c r="B17" s="2" t="str">
+        <f>"2001-05-23"</f>
+        <v>2001-05-23</v>
+      </c>
+      <c r="C17">
+        <v>2</v>
+      </c>
+      <c r="D17">
+        <v>504</v>
+      </c>
+      <c r="G17" t="str">
+        <f t="shared" si="3"/>
+        <v>insert into game (matchid, matchdate, game_type, country) values (65, '2001-05-23', 2, 504);</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A18">
+        <f t="shared" si="4"/>
+        <v>66</v>
+      </c>
+      <c r="B18" s="2" t="str">
+        <f>"2001-05-25"</f>
+        <v>2001-05-25</v>
+      </c>
+      <c r="C18">
+        <v>2</v>
+      </c>
+      <c r="D18">
+        <v>504</v>
+      </c>
+      <c r="G18" t="str">
+        <f t="shared" si="3"/>
+        <v>insert into game (matchid, matchdate, game_type, country) values (66, '2001-05-25', 2, 504);</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A19">
+        <f t="shared" si="4"/>
+        <v>67</v>
+      </c>
+      <c r="B19" s="2" t="str">
+        <f>"2001-05-27"</f>
+        <v>2001-05-27</v>
+      </c>
+      <c r="C19">
+        <v>2</v>
+      </c>
+      <c r="D19">
+        <v>504</v>
+      </c>
+      <c r="G19" t="str">
+        <f t="shared" si="3"/>
+        <v>insert into game (matchid, matchdate, game_type, country) values (67, '2001-05-27', 2, 504);</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A20">
+        <f t="shared" si="4"/>
+        <v>68</v>
+      </c>
+      <c r="B20" s="2" t="str">
+        <f>"2001-05-30"</f>
+        <v>2001-05-30</v>
+      </c>
+      <c r="C20">
+        <v>8</v>
+      </c>
+      <c r="D20">
+        <v>504</v>
+      </c>
+      <c r="G20" t="str">
+        <f t="shared" si="3"/>
+        <v>insert into game (matchid, matchdate, game_type, country) values (68, '2001-05-30', 8, 504);</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A21">
+        <f t="shared" si="4"/>
+        <v>69</v>
+      </c>
+      <c r="B21" s="2" t="str">
+        <f>"2001-05-30"</f>
+        <v>2001-05-30</v>
+      </c>
+      <c r="C21">
+        <v>8</v>
+      </c>
+      <c r="D21">
+        <v>504</v>
+      </c>
+      <c r="G21" t="str">
+        <f t="shared" si="3"/>
+        <v>insert into game (matchid, matchdate, game_type, country) values (69, '2001-05-30', 8, 504);</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A22">
+        <f t="shared" si="4"/>
+        <v>70</v>
+      </c>
+      <c r="B22" s="2" t="str">
+        <f>"2001-06-01"</f>
+        <v>2001-06-01</v>
+      </c>
+      <c r="C22">
+        <v>8</v>
+      </c>
+      <c r="D22">
+        <v>504</v>
+      </c>
+      <c r="G22" t="str">
+        <f t="shared" si="3"/>
+        <v>insert into game (matchid, matchdate, game_type, country) values (70, '2001-06-01', 8, 504);</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A23">
+        <f t="shared" si="4"/>
+        <v>71</v>
+      </c>
+      <c r="B23" s="2" t="str">
+        <f>"2001-06-01"</f>
+        <v>2001-06-01</v>
+      </c>
+      <c r="C23">
+        <v>8</v>
+      </c>
+      <c r="D23">
+        <v>504</v>
+      </c>
+      <c r="G23" t="str">
+        <f t="shared" si="3"/>
+        <v>insert into game (matchid, matchdate, game_type, country) values (71, '2001-06-01', 8, 504);</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A24">
+        <f t="shared" si="4"/>
+        <v>72</v>
+      </c>
+      <c r="B24" s="2" t="str">
+        <f>"2001-06-03"</f>
+        <v>2001-06-03</v>
+      </c>
+      <c r="C24">
+        <v>8</v>
+      </c>
+      <c r="D24">
+        <v>504</v>
+      </c>
+      <c r="G24" t="str">
+        <f t="shared" si="3"/>
+        <v>insert into game (matchid, matchdate, game_type, country) values (72, '2001-06-03', 8, 504);</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A25">
+        <f t="shared" si="4"/>
+        <v>73</v>
+      </c>
+      <c r="B25" s="2" t="str">
+        <f>"2001-06-03"</f>
+        <v>2001-06-03</v>
+      </c>
+      <c r="C25">
+        <v>8</v>
+      </c>
+      <c r="D25">
+        <v>504</v>
+      </c>
+      <c r="G25" t="str">
+        <f t="shared" si="3"/>
+        <v>insert into game (matchid, matchdate, game_type, country) values (73, '2001-06-03', 8, 504);</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A27" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B27" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C27" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D27" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E27" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F27" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G27" t="str">
+        <f>"insert into game_score (id, matchid, squad, goals, points, time_type) values (" &amp; A27 &amp; ", " &amp; B27 &amp; ", " &amp; C27 &amp; ", " &amp; D27 &amp; ", " &amp; E27 &amp; ", " &amp; F27 &amp; ");"</f>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (id, matchid, squad, goals, points, time_type);</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A28" s="3">
+        <f>'1999'!A71 + 1</f>
+        <v>235</v>
+      </c>
+      <c r="B28" s="3">
+        <f>A11</f>
+        <v>59</v>
+      </c>
+      <c r="C28" s="3">
+        <v>503</v>
+      </c>
+      <c r="D28" s="3">
+        <v>3</v>
+      </c>
+      <c r="E28" s="3">
+        <v>3</v>
+      </c>
+      <c r="F28" s="3">
+        <v>2</v>
+      </c>
+      <c r="G28" s="3" t="str">
+        <f t="shared" ref="G28:G75" si="5">"insert into game_score (id, matchid, squad, goals, points, time_type) values (" &amp; A28 &amp; ", " &amp; B28 &amp; ", " &amp; C28 &amp; ", " &amp; D28 &amp; ", " &amp; E28 &amp; ", " &amp; F28 &amp; ");"</f>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (235, 59, 503, 3, 3, 2);</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A29" s="3">
+        <f>A28+1</f>
+        <v>236</v>
+      </c>
+      <c r="B29" s="3">
+        <f>B28</f>
+        <v>59</v>
+      </c>
+      <c r="C29" s="3">
+        <v>503</v>
+      </c>
+      <c r="D29" s="3">
+        <v>3</v>
+      </c>
+      <c r="E29" s="3">
+        <v>0</v>
+      </c>
+      <c r="F29" s="3">
+        <v>1</v>
+      </c>
+      <c r="G29" s="3" t="str">
+        <f t="shared" si="5"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (236, 59, 503, 3, 0, 1);</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A30" s="3">
+        <f t="shared" ref="A30:A87" si="6">A29+1</f>
+        <v>237</v>
+      </c>
+      <c r="B30" s="3">
+        <f>B28</f>
+        <v>59</v>
+      </c>
+      <c r="C30" s="3">
+        <v>505</v>
+      </c>
+      <c r="D30" s="3">
+        <v>0</v>
+      </c>
+      <c r="E30" s="3">
+        <v>0</v>
+      </c>
+      <c r="F30" s="3">
+        <v>2</v>
+      </c>
+      <c r="G30" s="3" t="str">
+        <f t="shared" si="5"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (237, 59, 505, 0, 0, 2);</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A31" s="3">
+        <f t="shared" si="6"/>
+        <v>238</v>
+      </c>
+      <c r="B31" s="3">
+        <f>B28</f>
+        <v>59</v>
+      </c>
+      <c r="C31" s="3">
+        <v>505</v>
+      </c>
+      <c r="D31" s="3">
+        <v>0</v>
+      </c>
+      <c r="E31" s="3">
+        <v>0</v>
+      </c>
+      <c r="F31" s="3">
+        <v>1</v>
+      </c>
+      <c r="G31" s="3" t="str">
+        <f t="shared" si="5"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (238, 59, 505, 0, 0, 1);</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A32" s="4">
+        <f>A31+1</f>
+        <v>239</v>
+      </c>
+      <c r="B32" s="4">
+        <f>B28+1</f>
+        <v>60</v>
+      </c>
+      <c r="C32" s="4">
+        <v>504</v>
+      </c>
+      <c r="D32" s="4">
+        <v>1</v>
+      </c>
+      <c r="E32" s="4">
+        <v>0</v>
+      </c>
+      <c r="F32" s="4">
+        <v>2</v>
+      </c>
+      <c r="G32" t="str">
+        <f t="shared" si="5"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (239, 60, 504, 1, 0, 2);</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A33" s="4">
+        <f t="shared" si="6"/>
+        <v>240</v>
+      </c>
+      <c r="B33" s="4">
+        <f>B32</f>
+        <v>60</v>
+      </c>
+      <c r="C33" s="4">
+        <v>504</v>
+      </c>
+      <c r="D33" s="4">
+        <v>1</v>
+      </c>
+      <c r="E33" s="4">
+        <v>0</v>
+      </c>
+      <c r="F33" s="4">
+        <v>1</v>
+      </c>
+      <c r="G33" t="str">
+        <f t="shared" si="5"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (240, 60, 504, 1, 0, 1);</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A34" s="4">
+        <f t="shared" si="6"/>
+        <v>241</v>
+      </c>
+      <c r="B34" s="4">
+        <f>B32</f>
+        <v>60</v>
+      </c>
+      <c r="C34" s="4">
+        <v>507</v>
+      </c>
+      <c r="D34" s="4">
+        <v>2</v>
+      </c>
+      <c r="E34" s="4">
+        <v>3</v>
+      </c>
+      <c r="F34" s="4">
+        <v>2</v>
+      </c>
+      <c r="G34" t="str">
+        <f t="shared" si="5"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (241, 60, 507, 2, 3, 2);</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A35" s="4">
+        <f t="shared" si="6"/>
+        <v>242</v>
+      </c>
+      <c r="B35" s="4">
+        <f>B32</f>
+        <v>60</v>
+      </c>
+      <c r="C35" s="4">
+        <v>507</v>
+      </c>
+      <c r="D35" s="4">
+        <v>1</v>
+      </c>
+      <c r="E35" s="4">
+        <v>0</v>
+      </c>
+      <c r="F35" s="4">
+        <v>1</v>
+      </c>
+      <c r="G35" t="str">
+        <f t="shared" si="5"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (242, 60, 507, 1, 0, 1);</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A36" s="3">
+        <f t="shared" si="6"/>
+        <v>243</v>
+      </c>
+      <c r="B36" s="3">
+        <f>B32+1</f>
+        <v>61</v>
+      </c>
+      <c r="C36" s="3">
+        <v>503</v>
+      </c>
+      <c r="D36" s="3">
+        <v>2</v>
+      </c>
+      <c r="E36" s="3">
+        <v>3</v>
+      </c>
+      <c r="F36" s="3">
+        <v>2</v>
+      </c>
+      <c r="G36" s="3" t="str">
+        <f t="shared" si="5"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (243, 61, 503, 2, 3, 2);</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A37" s="3">
+        <f t="shared" si="6"/>
+        <v>244</v>
+      </c>
+      <c r="B37" s="3">
+        <f>B36</f>
+        <v>61</v>
+      </c>
+      <c r="C37" s="3">
+        <v>503</v>
+      </c>
+      <c r="D37" s="3">
+        <v>0</v>
+      </c>
+      <c r="E37" s="3">
+        <v>0</v>
+      </c>
+      <c r="F37" s="3">
+        <v>1</v>
+      </c>
+      <c r="G37" s="3" t="str">
+        <f t="shared" si="5"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (244, 61, 503, 0, 0, 1);</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A38" s="3">
+        <f t="shared" si="6"/>
+        <v>245</v>
+      </c>
+      <c r="B38" s="3">
+        <f>B36</f>
+        <v>61</v>
+      </c>
+      <c r="C38" s="3">
+        <v>507</v>
+      </c>
+      <c r="D38" s="3">
+        <v>1</v>
+      </c>
+      <c r="E38" s="3">
+        <v>0</v>
+      </c>
+      <c r="F38" s="3">
+        <v>2</v>
+      </c>
+      <c r="G38" s="3" t="str">
+        <f t="shared" si="5"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (245, 61, 507, 1, 0, 2);</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A39" s="3">
+        <f t="shared" si="6"/>
+        <v>246</v>
+      </c>
+      <c r="B39" s="3">
+        <f t="shared" ref="B39" si="7">B36</f>
+        <v>61</v>
+      </c>
+      <c r="C39" s="3">
+        <v>507</v>
+      </c>
+      <c r="D39" s="3">
+        <v>0</v>
+      </c>
+      <c r="E39" s="3">
+        <v>0</v>
+      </c>
+      <c r="F39" s="3">
+        <v>1</v>
+      </c>
+      <c r="G39" s="3" t="str">
+        <f t="shared" si="5"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (246, 61, 507, 0, 0, 1);</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A40" s="4">
+        <f t="shared" si="6"/>
+        <v>247</v>
+      </c>
+      <c r="B40" s="4">
+        <f>B36+1</f>
+        <v>62</v>
+      </c>
+      <c r="C40" s="4">
+        <v>504</v>
+      </c>
+      <c r="D40" s="4">
+        <v>10</v>
+      </c>
+      <c r="E40" s="4">
+        <v>3</v>
+      </c>
+      <c r="F40" s="4">
+        <v>2</v>
+      </c>
+      <c r="G40" s="4" t="str">
+        <f t="shared" si="5"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (247, 62, 504, 10, 3, 2);</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A41" s="4">
+        <f t="shared" si="6"/>
+        <v>248</v>
+      </c>
+      <c r="B41" s="4">
+        <f>B40</f>
+        <v>62</v>
+      </c>
+      <c r="C41" s="4">
+        <v>504</v>
+      </c>
+      <c r="D41" s="4">
+        <v>4</v>
+      </c>
+      <c r="E41" s="4">
+        <v>0</v>
+      </c>
+      <c r="F41" s="4">
+        <v>1</v>
+      </c>
+      <c r="G41" s="4" t="str">
+        <f t="shared" si="5"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (248, 62, 504, 4, 0, 1);</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A42" s="4">
+        <f t="shared" si="6"/>
+        <v>249</v>
+      </c>
+      <c r="B42" s="4">
+        <f>B40</f>
+        <v>62</v>
+      </c>
+      <c r="C42" s="4">
+        <v>505</v>
+      </c>
+      <c r="D42" s="4">
+        <v>2</v>
+      </c>
+      <c r="E42" s="4">
+        <v>0</v>
+      </c>
+      <c r="F42" s="4">
+        <v>2</v>
+      </c>
+      <c r="G42" s="4" t="str">
+        <f t="shared" si="5"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (249, 62, 505, 2, 0, 2);</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A43" s="4">
+        <f t="shared" si="6"/>
+        <v>250</v>
+      </c>
+      <c r="B43" s="4">
+        <f t="shared" ref="B43" si="8">B40</f>
+        <v>62</v>
+      </c>
+      <c r="C43" s="4">
+        <v>505</v>
+      </c>
+      <c r="D43" s="4">
+        <v>1</v>
+      </c>
+      <c r="E43" s="4">
+        <v>0</v>
+      </c>
+      <c r="F43" s="4">
+        <v>1</v>
+      </c>
+      <c r="G43" s="4" t="str">
+        <f t="shared" si="5"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (250, 62, 505, 1, 0, 1);</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A44" s="3">
+        <f t="shared" si="6"/>
+        <v>251</v>
+      </c>
+      <c r="B44" s="3">
+        <f>B40+1</f>
+        <v>63</v>
+      </c>
+      <c r="C44" s="3">
+        <v>505</v>
+      </c>
+      <c r="D44" s="3">
+        <v>0</v>
+      </c>
+      <c r="E44" s="3">
+        <v>0</v>
+      </c>
+      <c r="F44" s="3">
+        <v>2</v>
+      </c>
+      <c r="G44" s="3" t="str">
+        <f t="shared" si="5"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (251, 63, 505, 0, 0, 2);</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A45" s="3">
+        <f t="shared" si="6"/>
+        <v>252</v>
+      </c>
+      <c r="B45" s="3">
+        <f>B44</f>
+        <v>63</v>
+      </c>
+      <c r="C45" s="3">
+        <v>505</v>
+      </c>
+      <c r="D45" s="3">
+        <v>0</v>
+      </c>
+      <c r="E45" s="3">
+        <v>0</v>
+      </c>
+      <c r="F45" s="3">
+        <v>1</v>
+      </c>
+      <c r="G45" s="3" t="str">
+        <f t="shared" si="5"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (252, 63, 505, 0, 0, 1);</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A46" s="3">
+        <f t="shared" si="6"/>
+        <v>253</v>
+      </c>
+      <c r="B46" s="3">
+        <f>B44</f>
+        <v>63</v>
+      </c>
+      <c r="C46" s="3">
+        <v>507</v>
+      </c>
+      <c r="D46" s="3">
+        <v>6</v>
+      </c>
+      <c r="E46" s="3">
+        <v>3</v>
+      </c>
+      <c r="F46" s="3">
+        <v>2</v>
+      </c>
+      <c r="G46" s="3" t="str">
+        <f t="shared" si="5"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (253, 63, 507, 6, 3, 2);</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A47" s="3">
+        <f t="shared" si="6"/>
+        <v>254</v>
+      </c>
+      <c r="B47" s="3">
+        <f t="shared" ref="B47" si="9">B44</f>
+        <v>63</v>
+      </c>
+      <c r="C47" s="3">
+        <v>507</v>
+      </c>
+      <c r="D47" s="3">
+        <v>4</v>
+      </c>
+      <c r="E47" s="3">
+        <v>0</v>
+      </c>
+      <c r="F47" s="3">
+        <v>1</v>
+      </c>
+      <c r="G47" s="3" t="str">
+        <f t="shared" si="5"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (254, 63, 507, 4, 0, 1);</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A48" s="4">
+        <f t="shared" si="6"/>
+        <v>255</v>
+      </c>
+      <c r="B48" s="4">
+        <f>B44+1</f>
+        <v>64</v>
+      </c>
+      <c r="C48" s="4">
+        <v>504</v>
+      </c>
+      <c r="D48" s="4">
+        <v>1</v>
+      </c>
+      <c r="E48" s="4">
+        <v>1</v>
+      </c>
+      <c r="F48" s="4">
+        <v>2</v>
+      </c>
+      <c r="G48" s="4" t="str">
+        <f t="shared" si="5"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (255, 64, 504, 1, 1, 2);</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A49" s="4">
+        <f t="shared" si="6"/>
+        <v>256</v>
+      </c>
+      <c r="B49" s="4">
+        <f>B48</f>
+        <v>64</v>
+      </c>
+      <c r="C49" s="4">
+        <v>504</v>
+      </c>
+      <c r="D49" s="4">
+        <v>1</v>
+      </c>
+      <c r="E49" s="4">
+        <v>0</v>
+      </c>
+      <c r="F49" s="4">
+        <v>1</v>
+      </c>
+      <c r="G49" s="4" t="str">
+        <f t="shared" si="5"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (256, 64, 504, 1, 0, 1);</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A50" s="4">
+        <f t="shared" si="6"/>
+        <v>257</v>
+      </c>
+      <c r="B50" s="4">
+        <f>B48</f>
+        <v>64</v>
+      </c>
+      <c r="C50" s="4">
+        <v>503</v>
+      </c>
+      <c r="D50" s="4">
+        <v>1</v>
+      </c>
+      <c r="E50" s="4">
+        <v>1</v>
+      </c>
+      <c r="F50" s="4">
+        <v>2</v>
+      </c>
+      <c r="G50" s="4" t="str">
+        <f t="shared" si="5"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (257, 64, 503, 1, 1, 2);</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A51" s="4">
+        <f t="shared" si="6"/>
+        <v>258</v>
+      </c>
+      <c r="B51" s="4">
+        <f t="shared" ref="B51" si="10">B48</f>
+        <v>64</v>
+      </c>
+      <c r="C51" s="4">
+        <v>503</v>
+      </c>
+      <c r="D51" s="4">
+        <v>0</v>
+      </c>
+      <c r="E51" s="4">
+        <v>0</v>
+      </c>
+      <c r="F51" s="4">
+        <v>1</v>
+      </c>
+      <c r="G51" s="4" t="str">
+        <f t="shared" si="5"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (258, 64, 503, 0, 0, 1);</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A52" s="3">
+        <f t="shared" si="6"/>
+        <v>259</v>
+      </c>
+      <c r="B52" s="3">
+        <f>B48+1</f>
+        <v>65</v>
+      </c>
+      <c r="C52" s="3">
+        <v>506</v>
+      </c>
+      <c r="D52" s="3">
+        <v>4</v>
+      </c>
+      <c r="E52" s="3">
+        <v>3</v>
+      </c>
+      <c r="F52" s="3">
+        <v>2</v>
+      </c>
+      <c r="G52" s="3" t="str">
+        <f t="shared" si="5"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (259, 65, 506, 4, 3, 2);</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A53" s="3">
+        <f t="shared" si="6"/>
+        <v>260</v>
+      </c>
+      <c r="B53" s="3">
+        <f>B52</f>
+        <v>65</v>
+      </c>
+      <c r="C53" s="3">
+        <v>506</v>
+      </c>
+      <c r="D53" s="3">
+        <v>2</v>
+      </c>
+      <c r="E53" s="3">
+        <v>0</v>
+      </c>
+      <c r="F53" s="3">
+        <v>1</v>
+      </c>
+      <c r="G53" s="3" t="str">
+        <f t="shared" si="5"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (260, 65, 506, 2, 0, 1);</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A54" s="3">
+        <f t="shared" si="6"/>
+        <v>261</v>
+      </c>
+      <c r="B54" s="3">
+        <f>B52</f>
+        <v>65</v>
+      </c>
+      <c r="C54" s="3">
+        <v>501</v>
+      </c>
+      <c r="D54" s="3">
+        <v>0</v>
+      </c>
+      <c r="E54" s="3">
+        <v>0</v>
+      </c>
+      <c r="F54" s="3">
+        <v>2</v>
+      </c>
+      <c r="G54" s="3" t="str">
+        <f t="shared" si="5"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (261, 65, 501, 0, 0, 2);</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A55" s="3">
+        <f t="shared" si="6"/>
+        <v>262</v>
+      </c>
+      <c r="B55" s="3">
+        <f t="shared" ref="B55" si="11">B52</f>
+        <v>65</v>
+      </c>
+      <c r="C55" s="3">
+        <v>501</v>
+      </c>
+      <c r="D55" s="3">
+        <v>0</v>
+      </c>
+      <c r="E55" s="3">
+        <v>0</v>
+      </c>
+      <c r="F55" s="3">
+        <v>1</v>
+      </c>
+      <c r="G55" s="3" t="str">
+        <f t="shared" si="5"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (262, 65, 501, 0, 0, 1);</v>
+      </c>
+    </row>
+    <row r="56" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A56" s="4">
+        <f t="shared" si="6"/>
+        <v>263</v>
+      </c>
+      <c r="B56" s="4">
+        <f>B52+1</f>
+        <v>66</v>
+      </c>
+      <c r="C56" s="4">
+        <v>502</v>
+      </c>
+      <c r="D56" s="4">
+        <v>3</v>
+      </c>
+      <c r="E56" s="4">
+        <v>1</v>
+      </c>
+      <c r="F56" s="4">
+        <v>2</v>
+      </c>
+      <c r="G56" s="4" t="str">
+        <f t="shared" si="5"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (263, 66, 502, 3, 1, 2);</v>
+      </c>
+    </row>
+    <row r="57" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A57" s="4">
+        <f t="shared" si="6"/>
+        <v>264</v>
+      </c>
+      <c r="B57" s="4">
+        <f>B56</f>
+        <v>66</v>
+      </c>
+      <c r="C57" s="4">
+        <v>502</v>
+      </c>
+      <c r="D57" s="4">
+        <v>2</v>
+      </c>
+      <c r="E57" s="4">
+        <v>0</v>
+      </c>
+      <c r="F57" s="4">
+        <v>1</v>
+      </c>
+      <c r="G57" s="4" t="str">
+        <f t="shared" si="5"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (264, 66, 502, 2, 0, 1);</v>
+      </c>
+    </row>
+    <row r="58" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A58" s="4">
+        <f t="shared" si="6"/>
+        <v>265</v>
+      </c>
+      <c r="B58" s="4">
+        <f>B56</f>
+        <v>66</v>
+      </c>
+      <c r="C58" s="4">
+        <v>501</v>
+      </c>
+      <c r="D58" s="4">
+        <v>3</v>
+      </c>
+      <c r="E58" s="4">
+        <v>1</v>
+      </c>
+      <c r="F58" s="4">
+        <v>2</v>
+      </c>
+      <c r="G58" s="4" t="str">
+        <f t="shared" si="5"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (265, 66, 501, 3, 1, 2);</v>
+      </c>
+    </row>
+    <row r="59" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A59" s="4">
+        <f t="shared" si="6"/>
+        <v>266</v>
+      </c>
+      <c r="B59" s="4">
+        <f t="shared" ref="B59" si="12">B56</f>
+        <v>66</v>
+      </c>
+      <c r="C59" s="4">
+        <v>501</v>
+      </c>
+      <c r="D59" s="4">
+        <v>2</v>
+      </c>
+      <c r="E59" s="4">
+        <v>0</v>
+      </c>
+      <c r="F59" s="4">
+        <v>1</v>
+      </c>
+      <c r="G59" s="4" t="str">
+        <f t="shared" si="5"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (266, 66, 501, 2, 0, 1);</v>
+      </c>
+    </row>
+    <row r="60" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A60" s="3">
+        <f t="shared" si="6"/>
+        <v>267</v>
+      </c>
+      <c r="B60" s="3">
+        <f>B56+1</f>
+        <v>67</v>
+      </c>
+      <c r="C60" s="3">
+        <v>506</v>
+      </c>
+      <c r="D60" s="3">
+        <v>1</v>
+      </c>
+      <c r="E60" s="3">
+        <v>1</v>
+      </c>
+      <c r="F60" s="3">
+        <v>2</v>
+      </c>
+      <c r="G60" s="3" t="str">
+        <f t="shared" si="5"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (267, 67, 506, 1, 1, 2);</v>
+      </c>
+    </row>
+    <row r="61" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A61" s="3">
+        <f t="shared" si="6"/>
+        <v>268</v>
+      </c>
+      <c r="B61" s="3">
+        <f>B60</f>
+        <v>67</v>
+      </c>
+      <c r="C61" s="3">
+        <v>506</v>
+      </c>
+      <c r="D61" s="3">
+        <v>1</v>
+      </c>
+      <c r="E61" s="3">
+        <v>0</v>
+      </c>
+      <c r="F61" s="3">
+        <v>1</v>
+      </c>
+      <c r="G61" s="3" t="str">
+        <f t="shared" si="5"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (268, 67, 506, 1, 0, 1);</v>
+      </c>
+    </row>
+    <row r="62" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A62" s="3">
+        <f t="shared" si="6"/>
+        <v>269</v>
+      </c>
+      <c r="B62" s="3">
+        <f>B60</f>
+        <v>67</v>
+      </c>
+      <c r="C62" s="3">
+        <v>502</v>
+      </c>
+      <c r="D62" s="3">
+        <v>1</v>
+      </c>
+      <c r="E62" s="3">
+        <v>1</v>
+      </c>
+      <c r="F62" s="3">
+        <v>2</v>
+      </c>
+      <c r="G62" s="3" t="str">
+        <f t="shared" si="5"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (269, 67, 502, 1, 1, 2);</v>
+      </c>
+    </row>
+    <row r="63" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A63" s="3">
+        <f t="shared" si="6"/>
+        <v>270</v>
+      </c>
+      <c r="B63" s="3">
+        <f t="shared" ref="B63" si="13">B60</f>
+        <v>67</v>
+      </c>
+      <c r="C63" s="3">
+        <v>502</v>
+      </c>
+      <c r="D63" s="3">
+        <v>0</v>
+      </c>
+      <c r="E63" s="3">
+        <v>0</v>
+      </c>
+      <c r="F63" s="3">
+        <v>1</v>
+      </c>
+      <c r="G63" s="3" t="str">
+        <f t="shared" si="5"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (270, 67, 502, 0, 0, 1);</v>
+      </c>
+    </row>
+    <row r="64" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A64" s="4">
+        <f t="shared" si="6"/>
+        <v>271</v>
+      </c>
+      <c r="B64" s="4">
+        <f>B60+1</f>
+        <v>68</v>
+      </c>
+      <c r="C64" s="4">
+        <v>506</v>
+      </c>
+      <c r="D64" s="4">
+        <v>2</v>
+      </c>
+      <c r="E64" s="4">
+        <v>3</v>
+      </c>
+      <c r="F64" s="4">
+        <v>2</v>
+      </c>
+      <c r="G64" s="4" t="str">
+        <f t="shared" si="5"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (271, 68, 506, 2, 3, 2);</v>
+      </c>
+    </row>
+    <row r="65" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A65" s="4">
+        <f t="shared" si="6"/>
+        <v>272</v>
+      </c>
+      <c r="B65" s="4">
+        <f>B64</f>
+        <v>68</v>
+      </c>
+      <c r="C65" s="4">
+        <v>506</v>
+      </c>
+      <c r="D65" s="4">
+        <v>1</v>
+      </c>
+      <c r="E65" s="4">
+        <v>0</v>
+      </c>
+      <c r="F65" s="4">
+        <v>1</v>
+      </c>
+      <c r="G65" s="4" t="str">
+        <f t="shared" si="5"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (272, 68, 506, 1, 0, 1);</v>
+      </c>
+    </row>
+    <row r="66" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A66" s="4">
+        <f t="shared" si="6"/>
+        <v>273</v>
+      </c>
+      <c r="B66" s="4">
+        <f>B64</f>
+        <v>68</v>
+      </c>
+      <c r="C66" s="4">
+        <v>507</v>
+      </c>
+      <c r="D66" s="4">
+        <v>1</v>
+      </c>
+      <c r="E66" s="4">
+        <v>0</v>
+      </c>
+      <c r="F66" s="4">
+        <v>2</v>
+      </c>
+      <c r="G66" s="4" t="str">
+        <f t="shared" si="5"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (273, 68, 507, 1, 0, 2);</v>
+      </c>
+    </row>
+    <row r="67" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A67" s="4">
+        <f t="shared" si="6"/>
+        <v>274</v>
+      </c>
+      <c r="B67" s="4">
+        <f t="shared" ref="B67" si="14">B64</f>
+        <v>68</v>
+      </c>
+      <c r="C67" s="4">
+        <v>507</v>
+      </c>
+      <c r="D67" s="4">
+        <v>0</v>
+      </c>
+      <c r="E67" s="4">
+        <v>0</v>
+      </c>
+      <c r="F67" s="4">
+        <v>1</v>
+      </c>
+      <c r="G67" s="4" t="str">
+        <f t="shared" si="5"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (274, 68, 507, 0, 0, 1);</v>
+      </c>
+    </row>
+    <row r="68" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A68" s="3">
+        <f t="shared" si="6"/>
+        <v>275</v>
+      </c>
+      <c r="B68" s="3">
+        <f>B64+1</f>
+        <v>69</v>
+      </c>
+      <c r="C68" s="3">
+        <v>503</v>
+      </c>
+      <c r="D68" s="3">
+        <v>0</v>
+      </c>
+      <c r="E68" s="3">
+        <v>1</v>
+      </c>
+      <c r="F68" s="3">
+        <v>2</v>
+      </c>
+      <c r="G68" s="3" t="str">
+        <f t="shared" si="5"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (275, 69, 503, 0, 1, 2);</v>
+      </c>
+    </row>
+    <row r="69" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A69" s="3">
+        <f t="shared" si="6"/>
+        <v>276</v>
+      </c>
+      <c r="B69" s="3">
+        <f>B68</f>
+        <v>69</v>
+      </c>
+      <c r="C69" s="3">
+        <v>503</v>
+      </c>
+      <c r="D69" s="3">
+        <v>0</v>
+      </c>
+      <c r="E69" s="3">
+        <v>0</v>
+      </c>
+      <c r="F69" s="3">
+        <v>1</v>
+      </c>
+      <c r="G69" s="3" t="str">
+        <f t="shared" si="5"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (276, 69, 503, 0, 0, 1);</v>
+      </c>
+    </row>
+    <row r="70" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A70" s="3">
+        <f t="shared" si="6"/>
+        <v>277</v>
+      </c>
+      <c r="B70" s="3">
+        <f>B68</f>
+        <v>69</v>
+      </c>
+      <c r="C70" s="3">
+        <v>502</v>
+      </c>
+      <c r="D70" s="3">
+        <v>0</v>
+      </c>
+      <c r="E70" s="3">
+        <v>1</v>
+      </c>
+      <c r="F70" s="3">
+        <v>2</v>
+      </c>
+      <c r="G70" s="3" t="str">
+        <f t="shared" si="5"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (277, 69, 502, 0, 1, 2);</v>
+      </c>
+    </row>
+    <row r="71" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A71" s="3">
+        <f t="shared" si="6"/>
+        <v>278</v>
+      </c>
+      <c r="B71" s="3">
+        <f t="shared" ref="B71" si="15">B68</f>
+        <v>69</v>
+      </c>
+      <c r="C71" s="3">
+        <v>502</v>
+      </c>
+      <c r="D71" s="3">
+        <v>0</v>
+      </c>
+      <c r="E71" s="3">
+        <v>0</v>
+      </c>
+      <c r="F71" s="3">
+        <v>1</v>
+      </c>
+      <c r="G71" s="3" t="str">
+        <f t="shared" si="5"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (278, 69, 502, 0, 0, 1);</v>
+      </c>
+    </row>
+    <row r="72" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A72" s="4">
+        <f t="shared" si="6"/>
+        <v>279</v>
+      </c>
+      <c r="B72" s="4">
+        <f>B68+1</f>
+        <v>70</v>
+      </c>
+      <c r="C72" s="4">
+        <v>506</v>
+      </c>
+      <c r="D72" s="4">
+        <v>0</v>
+      </c>
+      <c r="E72" s="4">
+        <v>0</v>
+      </c>
+      <c r="F72" s="4">
+        <v>2</v>
+      </c>
+      <c r="G72" s="4" t="str">
+        <f t="shared" si="5"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (279, 70, 506, 0, 0, 2);</v>
+      </c>
+    </row>
+    <row r="73" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A73" s="4">
+        <f t="shared" si="6"/>
+        <v>280</v>
+      </c>
+      <c r="B73" s="4">
+        <f>B72</f>
+        <v>70</v>
+      </c>
+      <c r="C73" s="4">
+        <v>506</v>
+      </c>
+      <c r="D73" s="4">
+        <v>0</v>
+      </c>
+      <c r="E73" s="4">
+        <v>0</v>
+      </c>
+      <c r="F73" s="4">
+        <v>1</v>
+      </c>
+      <c r="G73" s="4" t="str">
+        <f t="shared" si="5"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (280, 70, 506, 0, 0, 1);</v>
+      </c>
+    </row>
+    <row r="74" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A74" s="4">
+        <f t="shared" si="6"/>
+        <v>281</v>
+      </c>
+      <c r="B74" s="4">
+        <f>B72</f>
+        <v>70</v>
+      </c>
+      <c r="C74" s="4">
+        <v>502</v>
+      </c>
+      <c r="D74" s="4">
+        <v>2</v>
+      </c>
+      <c r="E74" s="4">
+        <v>3</v>
+      </c>
+      <c r="F74" s="4">
+        <v>2</v>
+      </c>
+      <c r="G74" s="4" t="str">
+        <f t="shared" si="5"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (281, 70, 502, 2, 3, 2);</v>
+      </c>
+    </row>
+    <row r="75" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A75" s="4">
+        <f t="shared" si="6"/>
+        <v>282</v>
+      </c>
+      <c r="B75" s="4">
+        <f t="shared" ref="B75" si="16">B72</f>
+        <v>70</v>
+      </c>
+      <c r="C75" s="4">
+        <v>502</v>
+      </c>
+      <c r="D75" s="4">
+        <v>1</v>
+      </c>
+      <c r="E75" s="4">
+        <v>0</v>
+      </c>
+      <c r="F75" s="4">
+        <v>1</v>
+      </c>
+      <c r="G75" s="4" t="str">
+        <f t="shared" si="5"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (282, 70, 502, 1, 0, 1);</v>
+      </c>
+    </row>
+    <row r="76" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A76" s="3">
+        <f t="shared" si="6"/>
+        <v>283</v>
+      </c>
+      <c r="B76" s="3">
+        <f>B72+1</f>
+        <v>71</v>
+      </c>
+      <c r="C76" s="3">
+        <v>503</v>
+      </c>
+      <c r="D76" s="3">
+        <v>1</v>
+      </c>
+      <c r="E76" s="3">
+        <v>1</v>
+      </c>
+      <c r="F76" s="3">
+        <v>2</v>
+      </c>
+      <c r="G76" s="3" t="str">
+        <f t="shared" ref="G76:G83" si="17">"insert into game_score (id, matchid, squad, goals, points, time_type) values (" &amp; A76 &amp; ", " &amp; B76 &amp; ", " &amp; C76 &amp; ", " &amp; D76 &amp; ", " &amp; E76 &amp; ", " &amp; F76 &amp; ");"</f>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (283, 71, 503, 1, 1, 2);</v>
+      </c>
+    </row>
+    <row r="77" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A77" s="3">
+        <f t="shared" si="6"/>
+        <v>284</v>
+      </c>
+      <c r="B77" s="3">
+        <f>B76</f>
+        <v>71</v>
+      </c>
+      <c r="C77" s="3">
+        <v>503</v>
+      </c>
+      <c r="D77" s="3">
+        <v>1</v>
+      </c>
+      <c r="E77" s="3">
+        <v>0</v>
+      </c>
+      <c r="F77" s="3">
+        <v>1</v>
+      </c>
+      <c r="G77" s="3" t="str">
+        <f t="shared" si="17"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (284, 71, 503, 1, 0, 1);</v>
+      </c>
+    </row>
+    <row r="78" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A78" s="3">
+        <f t="shared" si="6"/>
+        <v>285</v>
+      </c>
+      <c r="B78" s="3">
+        <f>B76</f>
+        <v>71</v>
+      </c>
+      <c r="C78" s="3">
+        <v>507</v>
+      </c>
+      <c r="D78" s="3">
+        <v>1</v>
+      </c>
+      <c r="E78" s="3">
+        <v>1</v>
+      </c>
+      <c r="F78" s="3">
+        <v>2</v>
+      </c>
+      <c r="G78" s="3" t="str">
+        <f t="shared" si="17"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (285, 71, 507, 1, 1, 2);</v>
+      </c>
+    </row>
+    <row r="79" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A79" s="3">
+        <f t="shared" si="6"/>
+        <v>286</v>
+      </c>
+      <c r="B79" s="3">
+        <f t="shared" ref="B79" si="18">B76</f>
+        <v>71</v>
+      </c>
+      <c r="C79" s="3">
+        <v>507</v>
+      </c>
+      <c r="D79" s="3">
+        <v>0</v>
+      </c>
+      <c r="E79" s="3">
+        <v>0</v>
+      </c>
+      <c r="F79" s="3">
+        <v>1</v>
+      </c>
+      <c r="G79" s="3" t="str">
+        <f t="shared" si="17"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (286, 71, 507, 0, 0, 1);</v>
+      </c>
+    </row>
+    <row r="80" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A80" s="4">
+        <f t="shared" si="6"/>
+        <v>287</v>
+      </c>
+      <c r="B80" s="4">
+        <f>B76+1</f>
+        <v>72</v>
+      </c>
+      <c r="C80" s="4">
+        <v>506</v>
+      </c>
+      <c r="D80" s="4">
+        <v>1</v>
+      </c>
+      <c r="E80" s="4">
+        <v>1</v>
+      </c>
+      <c r="F80" s="4">
+        <v>2</v>
+      </c>
+      <c r="G80" s="4" t="str">
+        <f t="shared" si="17"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (287, 72, 506, 1, 1, 2);</v>
+      </c>
+    </row>
+    <row r="81" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A81" s="4">
+        <f t="shared" si="6"/>
+        <v>288</v>
+      </c>
+      <c r="B81" s="4">
+        <f>B80</f>
+        <v>72</v>
+      </c>
+      <c r="C81" s="4">
+        <v>506</v>
+      </c>
+      <c r="D81" s="4">
+        <v>0</v>
+      </c>
+      <c r="E81" s="4">
+        <v>0</v>
+      </c>
+      <c r="F81" s="4">
+        <v>1</v>
+      </c>
+      <c r="G81" s="4" t="str">
+        <f t="shared" si="17"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (288, 72, 506, 0, 0, 1);</v>
+      </c>
+    </row>
+    <row r="82" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A82" s="4">
+        <f t="shared" si="6"/>
+        <v>289</v>
+      </c>
+      <c r="B82" s="4">
+        <f>B80</f>
+        <v>72</v>
+      </c>
+      <c r="C82" s="4">
+        <v>503</v>
+      </c>
+      <c r="D82" s="4">
+        <v>1</v>
+      </c>
+      <c r="E82" s="4">
+        <v>1</v>
+      </c>
+      <c r="F82" s="4">
+        <v>2</v>
+      </c>
+      <c r="G82" s="4" t="str">
+        <f t="shared" si="17"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (289, 72, 503, 1, 1, 2);</v>
+      </c>
+    </row>
+    <row r="83" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A83" s="4">
+        <f t="shared" si="6"/>
+        <v>290</v>
+      </c>
+      <c r="B83" s="4">
+        <f t="shared" ref="B83" si="19">B80</f>
+        <v>72</v>
+      </c>
+      <c r="C83" s="4">
+        <v>503</v>
+      </c>
+      <c r="D83" s="4">
+        <v>1</v>
+      </c>
+      <c r="E83" s="4">
+        <v>0</v>
+      </c>
+      <c r="F83" s="4">
+        <v>1</v>
+      </c>
+      <c r="G83" s="4" t="str">
+        <f t="shared" si="17"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (290, 72, 503, 1, 0, 1);</v>
+      </c>
+    </row>
+    <row r="84" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A84" s="3">
+        <f t="shared" si="6"/>
+        <v>291</v>
+      </c>
+      <c r="B84" s="3">
+        <f>B80+1</f>
+        <v>73</v>
+      </c>
+      <c r="C84" s="3">
+        <v>502</v>
+      </c>
+      <c r="D84" s="3">
+        <v>3</v>
+      </c>
+      <c r="E84" s="3">
+        <v>3</v>
+      </c>
+      <c r="F84" s="3">
+        <v>2</v>
+      </c>
+      <c r="G84" s="3" t="str">
+        <f t="shared" ref="G84:G87" si="20">"insert into game_score (id, matchid, squad, goals, points, time_type) values (" &amp; A84 &amp; ", " &amp; B84 &amp; ", " &amp; C84 &amp; ", " &amp; D84 &amp; ", " &amp; E84 &amp; ", " &amp; F84 &amp; ");"</f>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (291, 73, 502, 3, 3, 2);</v>
+      </c>
+    </row>
+    <row r="85" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A85" s="3">
+        <f t="shared" si="6"/>
+        <v>292</v>
+      </c>
+      <c r="B85" s="3">
+        <f>B84</f>
+        <v>73</v>
+      </c>
+      <c r="C85" s="3">
+        <v>502</v>
+      </c>
+      <c r="D85" s="3">
+        <v>2</v>
+      </c>
+      <c r="E85" s="3">
+        <v>0</v>
+      </c>
+      <c r="F85" s="3">
+        <v>1</v>
+      </c>
+      <c r="G85" s="3" t="str">
+        <f t="shared" si="20"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (292, 73, 502, 2, 0, 1);</v>
+      </c>
+    </row>
+    <row r="86" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A86" s="3">
+        <f t="shared" si="6"/>
+        <v>293</v>
+      </c>
+      <c r="B86" s="3">
+        <f>B84</f>
+        <v>73</v>
+      </c>
+      <c r="C86" s="3">
+        <v>507</v>
+      </c>
+      <c r="D86" s="3">
+        <v>1</v>
+      </c>
+      <c r="E86" s="3">
+        <v>0</v>
+      </c>
+      <c r="F86" s="3">
+        <v>2</v>
+      </c>
+      <c r="G86" s="3" t="str">
+        <f t="shared" si="20"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (293, 73, 507, 1, 0, 2);</v>
+      </c>
+    </row>
+    <row r="87" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A87" s="3">
+        <f t="shared" si="6"/>
+        <v>294</v>
+      </c>
+      <c r="B87" s="3">
+        <f t="shared" ref="B87" si="21">B84</f>
+        <v>73</v>
+      </c>
+      <c r="C87" s="3">
+        <v>507</v>
+      </c>
+      <c r="D87" s="3">
+        <v>0</v>
+      </c>
+      <c r="E87" s="3">
+        <v>0</v>
+      </c>
+      <c r="F87" s="3">
+        <v>1</v>
+      </c>
+      <c r="G87" s="3" t="str">
+        <f t="shared" si="20"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (294, 73, 507, 0, 0, 1);</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:G78"/>
+  <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8413,567 +10495,644 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A1" s="7" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s">
-        <v>10</v>
-      </c>
-      <c r="C1" t="s">
-        <v>11</v>
-      </c>
-      <c r="D1" t="s">
-        <v>2</v>
+      <c r="A1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>8</v>
       </c>
       <c r="G1" t="str">
-        <f>"insert into group_stage (id, tournament, group_code, squad) values (" &amp; A1 &amp; ", " &amp; B1 &amp; ", '" &amp; C1 &amp; "', " &amp; D1 &amp;  ");"</f>
-        <v>insert into group_stage (id, tournament, group_code, squad) values (id, tournament, 'group_code', squad);</v>
+        <f>"insert into game (matchid, matchdate, game_type, country) values (" &amp; A1 &amp; ", '" &amp; B1 &amp; "', " &amp; C1 &amp; ", " &amp; D1 &amp;  ");"</f>
+        <v>insert into game (matchid, matchdate, game_type, country) values (matchid, 'matchdate', game_type, country);</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2">
-        <f>'1999'!A7+1</f>
-        <v>19</v>
-      </c>
-      <c r="B2">
-        <v>2001</v>
-      </c>
-      <c r="C2" t="s">
-        <v>12</v>
+        <f>'2001'!A25+1</f>
+        <v>74</v>
+      </c>
+      <c r="B2" s="2" t="str">
+        <f>"2003-02-09"</f>
+        <v>2003-02-09</v>
+      </c>
+      <c r="C2">
+        <v>2</v>
       </c>
       <c r="D2">
-        <v>503</v>
+        <v>507</v>
       </c>
       <c r="G2" t="str">
-        <f t="shared" ref="G2:G8" si="0">"insert into group_stage (id, tournament, group_code, squad) values (" &amp; A2 &amp; ", " &amp; B2 &amp; ", '" &amp; C2 &amp; "', " &amp; D2 &amp;  ");"</f>
-        <v>insert into group_stage (id, tournament, group_code, squad) values (19, 2001, 'A', 503);</v>
+        <f t="shared" ref="G2:G16" si="0">"insert into game (matchid, matchdate, game_type, country) values (" &amp; A2 &amp; ", '" &amp; B2 &amp; "', " &amp; C2 &amp; ", " &amp; D2 &amp;  ");"</f>
+        <v>insert into game (matchid, matchdate, game_type, country) values (74, '2003-02-09', 2, 507);</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3">
         <f>A2+1</f>
-        <v>20</v>
-      </c>
-      <c r="B3">
-        <f>B2</f>
-        <v>2001</v>
-      </c>
-      <c r="C3" t="s">
-        <v>12</v>
+        <v>75</v>
+      </c>
+      <c r="B3" s="2" t="str">
+        <f>"2003-02-11"</f>
+        <v>2003-02-11</v>
+      </c>
+      <c r="C3">
+        <v>2</v>
       </c>
       <c r="D3">
         <v>507</v>
       </c>
       <c r="G3" t="str">
         <f t="shared" si="0"/>
-        <v>insert into group_stage (id, tournament, group_code, squad) values (20, 2001, 'A', 507);</v>
+        <v>insert into game (matchid, matchdate, game_type, country) values (75, '2003-02-11', 2, 507);</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4">
-        <f>A3+1</f>
-        <v>21</v>
-      </c>
-      <c r="B4">
-        <f>B3</f>
-        <v>2001</v>
-      </c>
-      <c r="C4" t="s">
-        <v>12</v>
+        <f t="shared" ref="A4:A16" si="1">A3+1</f>
+        <v>76</v>
+      </c>
+      <c r="B4" s="2" t="str">
+        <f>"2003-02-11"</f>
+        <v>2003-02-11</v>
+      </c>
+      <c r="C4">
+        <v>2</v>
       </c>
       <c r="D4">
-        <v>504</v>
+        <v>507</v>
       </c>
       <c r="G4" t="str">
         <f t="shared" si="0"/>
-        <v>insert into group_stage (id, tournament, group_code, squad) values (21, 2001, 'A', 504);</v>
+        <v>insert into game (matchid, matchdate, game_type, country) values (76, '2003-02-11', 2, 507);</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5">
-        <f>A4+1</f>
-        <v>22</v>
-      </c>
-      <c r="B5">
-        <f>B4</f>
-        <v>2001</v>
-      </c>
-      <c r="C5" t="s">
-        <v>12</v>
+        <f t="shared" si="1"/>
+        <v>77</v>
+      </c>
+      <c r="B5" s="2" t="str">
+        <f>"2003-02-13"</f>
+        <v>2003-02-13</v>
+      </c>
+      <c r="C5">
+        <v>2</v>
       </c>
       <c r="D5">
-        <v>505</v>
+        <v>507</v>
       </c>
       <c r="G5" t="str">
         <f t="shared" si="0"/>
-        <v>insert into group_stage (id, tournament, group_code, squad) values (22, 2001, 'A', 505);</v>
+        <v>insert into game (matchid, matchdate, game_type, country) values (77, '2003-02-13', 2, 507);</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6">
-        <f>A5+1</f>
-        <v>23</v>
-      </c>
-      <c r="B6">
-        <f>B5</f>
-        <v>2001</v>
-      </c>
-      <c r="C6" t="s">
-        <v>13</v>
+        <f t="shared" si="1"/>
+        <v>78</v>
+      </c>
+      <c r="B6" s="2" t="str">
+        <f>"2003-02-13"</f>
+        <v>2003-02-13</v>
+      </c>
+      <c r="C6">
+        <v>2</v>
       </c>
       <c r="D6">
-        <v>506</v>
+        <v>507</v>
       </c>
       <c r="G6" t="str">
         <f t="shared" si="0"/>
-        <v>insert into group_stage (id, tournament, group_code, squad) values (23, 2001, 'B', 506);</v>
+        <v>insert into game (matchid, matchdate, game_type, country) values (78, '2003-02-13', 2, 507);</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7">
-        <f>A6+1</f>
-        <v>24</v>
-      </c>
-      <c r="B7">
-        <f>B6</f>
-        <v>2001</v>
-      </c>
-      <c r="C7" t="s">
-        <v>13</v>
+        <f t="shared" si="1"/>
+        <v>79</v>
+      </c>
+      <c r="B7" s="2" t="str">
+        <f>"2003-02-15"</f>
+        <v>2003-02-15</v>
+      </c>
+      <c r="C7">
+        <v>2</v>
       </c>
       <c r="D7">
-        <v>502</v>
+        <v>507</v>
       </c>
       <c r="G7" t="str">
         <f t="shared" si="0"/>
-        <v>insert into group_stage (id, tournament, group_code, squad) values (24, 2001, 'B', 502);</v>
+        <v>insert into game (matchid, matchdate, game_type, country) values (79, '2003-02-15', 2, 507);</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8">
-        <f>A7+1</f>
-        <v>25</v>
-      </c>
-      <c r="B8">
-        <f>B7</f>
-        <v>2001</v>
-      </c>
-      <c r="C8" t="s">
-        <v>13</v>
+        <f t="shared" si="1"/>
+        <v>80</v>
+      </c>
+      <c r="B8" s="2" t="str">
+        <f>"2003-02-15"</f>
+        <v>2003-02-15</v>
+      </c>
+      <c r="C8">
+        <v>2</v>
       </c>
       <c r="D8">
-        <v>501</v>
+        <v>507</v>
       </c>
       <c r="G8" t="str">
         <f t="shared" si="0"/>
-        <v>insert into group_stage (id, tournament, group_code, squad) values (25, 2001, 'B', 501);</v>
+        <v>insert into game (matchid, matchdate, game_type, country) values (80, '2003-02-15', 2, 507);</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <f t="shared" si="1"/>
+        <v>81</v>
+      </c>
+      <c r="B9" s="2" t="str">
+        <f>"2003-02-16"</f>
+        <v>2003-02-16</v>
+      </c>
+      <c r="C9">
+        <v>2</v>
+      </c>
+      <c r="D9">
+        <v>507</v>
+      </c>
+      <c r="G9" t="str">
+        <f t="shared" si="0"/>
+        <v>insert into game (matchid, matchdate, game_type, country) values (81, '2003-02-16', 2, 507);</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A10" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="B10" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C10" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="D10" s="1" t="s">
-        <v>8</v>
+      <c r="A10">
+        <f t="shared" si="1"/>
+        <v>82</v>
+      </c>
+      <c r="B10" s="2" t="str">
+        <f>"2003-02-18"</f>
+        <v>2003-02-18</v>
+      </c>
+      <c r="C10">
+        <v>2</v>
+      </c>
+      <c r="D10">
+        <v>507</v>
       </c>
       <c r="G10" t="str">
-        <f>"insert into game (matchid, matchdate, game_type, country) values (" &amp; A10 &amp; ", '" &amp; B10 &amp; "', " &amp; C10 &amp; ", " &amp; D10 &amp;  ");"</f>
-        <v>insert into game (matchid, matchdate, game_type, country) values (matchid, 'matchdate', game_type, country);</v>
+        <f t="shared" si="0"/>
+        <v>insert into game (matchid, matchdate, game_type, country) values (82, '2003-02-18', 2, 507);</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11">
-        <f>'1999'!A21+1</f>
-        <v>59</v>
+        <f t="shared" si="1"/>
+        <v>83</v>
       </c>
       <c r="B11" s="2" t="str">
-        <f>"2001-05-23"</f>
-        <v>2001-05-23</v>
+        <f>"2003-02-18"</f>
+        <v>2003-02-18</v>
       </c>
       <c r="C11">
         <v>2</v>
       </c>
       <c r="D11">
-        <v>504</v>
+        <v>507</v>
       </c>
       <c r="G11" t="str">
-        <f t="shared" ref="G11:G25" si="1">"insert into game (matchid, matchdate, game_type, country) values (" &amp; A11 &amp; ", '" &amp; B11 &amp; "', " &amp; C11 &amp; ", " &amp; D11 &amp;  ");"</f>
-        <v>insert into game (matchid, matchdate, game_type, country) values (59, '2001-05-23', 2, 504);</v>
+        <f t="shared" si="0"/>
+        <v>insert into game (matchid, matchdate, game_type, country) values (83, '2003-02-18', 2, 507);</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12">
-        <f>A11+1</f>
-        <v>60</v>
+        <f t="shared" si="1"/>
+        <v>84</v>
       </c>
       <c r="B12" s="2" t="str">
-        <f>"2001-05-23"</f>
-        <v>2001-05-23</v>
+        <f>"2003-02-20"</f>
+        <v>2003-02-20</v>
       </c>
       <c r="C12">
         <v>2</v>
       </c>
       <c r="D12">
-        <v>504</v>
+        <v>507</v>
       </c>
       <c r="G12" t="str">
-        <f t="shared" si="1"/>
-        <v>insert into game (matchid, matchdate, game_type, country) values (60, '2001-05-23', 2, 504);</v>
+        <f t="shared" si="0"/>
+        <v>insert into game (matchid, matchdate, game_type, country) values (84, '2003-02-20', 2, 507);</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13">
-        <f t="shared" ref="A13:A25" si="2">A12+1</f>
-        <v>61</v>
+        <f t="shared" si="1"/>
+        <v>85</v>
       </c>
       <c r="B13" s="2" t="str">
-        <f>"2001-05-25"</f>
-        <v>2001-05-25</v>
+        <f>"2003-02-20"</f>
+        <v>2003-02-20</v>
       </c>
       <c r="C13">
         <v>2</v>
       </c>
       <c r="D13">
-        <v>504</v>
+        <v>507</v>
       </c>
       <c r="G13" t="str">
-        <f t="shared" si="1"/>
-        <v>insert into game (matchid, matchdate, game_type, country) values (61, '2001-05-25', 2, 504);</v>
+        <f t="shared" si="0"/>
+        <v>insert into game (matchid, matchdate, game_type, country) values (85, '2003-02-20', 2, 507);</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14">
-        <f t="shared" si="2"/>
-        <v>62</v>
+        <f t="shared" si="1"/>
+        <v>86</v>
       </c>
       <c r="B14" s="2" t="str">
-        <f>"2001-05-25"</f>
-        <v>2001-05-25</v>
+        <f>"2003-02-21"</f>
+        <v>2003-02-21</v>
       </c>
       <c r="C14">
         <v>2</v>
       </c>
       <c r="D14">
-        <v>504</v>
+        <v>507</v>
       </c>
       <c r="G14" t="str">
-        <f t="shared" si="1"/>
-        <v>insert into game (matchid, matchdate, game_type, country) values (62, '2001-05-25', 2, 504);</v>
+        <f t="shared" si="0"/>
+        <v>insert into game (matchid, matchdate, game_type, country) values (86, '2003-02-21', 2, 507);</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15">
-        <f t="shared" si="2"/>
-        <v>63</v>
+        <f t="shared" si="1"/>
+        <v>87</v>
       </c>
       <c r="B15" s="2" t="str">
-        <f>"2001-05-27"</f>
-        <v>2001-05-27</v>
+        <f>"2003-02-23"</f>
+        <v>2003-02-23</v>
       </c>
       <c r="C15">
         <v>2</v>
       </c>
       <c r="D15">
-        <v>504</v>
+        <v>507</v>
       </c>
       <c r="G15" t="str">
-        <f t="shared" si="1"/>
-        <v>insert into game (matchid, matchdate, game_type, country) values (63, '2001-05-27', 2, 504);</v>
+        <f t="shared" si="0"/>
+        <v>insert into game (matchid, matchdate, game_type, country) values (87, '2003-02-23', 2, 507);</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16">
+        <f t="shared" si="1"/>
+        <v>88</v>
+      </c>
+      <c r="B16" s="2" t="str">
+        <f>"2003-02-23"</f>
+        <v>2003-02-23</v>
+      </c>
+      <c r="C16">
+        <v>2</v>
+      </c>
+      <c r="D16">
+        <v>507</v>
+      </c>
+      <c r="G16" t="str">
+        <f t="shared" si="0"/>
+        <v>insert into game (matchid, matchdate, game_type, country) values (88, '2003-02-23', 2, 507);</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A18" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E18" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F18" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G18" t="str">
+        <f>"insert into game_score (id, matchid, squad, goals, points, time_type) values (" &amp; A18 &amp; ", " &amp; B18 &amp; ", " &amp; C18 &amp; ", " &amp; D18 &amp; ", " &amp; E18 &amp; ", " &amp; F18 &amp; ");"</f>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (id, matchid, squad, goals, points, time_type);</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A19" s="3">
+        <f>'2001'!A87 + 1</f>
+        <v>295</v>
+      </c>
+      <c r="B19" s="3">
+        <f>A2</f>
+        <v>74</v>
+      </c>
+      <c r="C19" s="3">
+        <v>507</v>
+      </c>
+      <c r="D19" s="3">
+        <v>1</v>
+      </c>
+      <c r="E19" s="3">
+        <v>0</v>
+      </c>
+      <c r="F19" s="3">
+        <v>2</v>
+      </c>
+      <c r="G19" s="3" t="str">
+        <f t="shared" ref="G19:G78" si="2">"insert into game_score (id, matchid, squad, goals, points, time_type) values (" &amp; A19 &amp; ", " &amp; B19 &amp; ", " &amp; C19 &amp; ", " &amp; D19 &amp; ", " &amp; E19 &amp; ", " &amp; F19 &amp; ");"</f>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (295, 74, 507, 1, 0, 2);</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A20" s="3">
+        <f>A19+1</f>
+        <v>296</v>
+      </c>
+      <c r="B20" s="3">
+        <f>B19</f>
+        <v>74</v>
+      </c>
+      <c r="C20" s="3">
+        <v>507</v>
+      </c>
+      <c r="D20" s="3">
+        <v>1</v>
+      </c>
+      <c r="E20" s="3">
+        <v>0</v>
+      </c>
+      <c r="F20" s="3">
+        <v>1</v>
+      </c>
+      <c r="G20" s="3" t="str">
         <f t="shared" si="2"/>
-        <v>64</v>
-      </c>
-      <c r="B16" s="2" t="str">
-        <f>"2001-05-27"</f>
-        <v>2001-05-27</v>
-      </c>
-      <c r="C16">
-        <v>2</v>
-      </c>
-      <c r="D16">
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (296, 74, 507, 1, 0, 1);</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A21" s="3">
+        <f t="shared" ref="A21:A78" si="3">A20+1</f>
+        <v>297</v>
+      </c>
+      <c r="B21" s="3">
+        <f>B19</f>
+        <v>74</v>
+      </c>
+      <c r="C21" s="3">
+        <v>503</v>
+      </c>
+      <c r="D21" s="3">
+        <v>2</v>
+      </c>
+      <c r="E21" s="3">
+        <v>3</v>
+      </c>
+      <c r="F21" s="3">
+        <v>2</v>
+      </c>
+      <c r="G21" s="3" t="str">
+        <f t="shared" si="2"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (297, 74, 503, 2, 3, 2);</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A22" s="3">
+        <f t="shared" si="3"/>
+        <v>298</v>
+      </c>
+      <c r="B22" s="3">
+        <f>B19</f>
+        <v>74</v>
+      </c>
+      <c r="C22" s="3">
+        <v>503</v>
+      </c>
+      <c r="D22" s="3">
+        <v>0</v>
+      </c>
+      <c r="E22" s="3">
+        <v>0</v>
+      </c>
+      <c r="F22" s="3">
+        <v>1</v>
+      </c>
+      <c r="G22" s="3" t="str">
+        <f t="shared" si="2"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (298, 74, 503, 0, 0, 1);</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A23" s="4">
+        <f>A22+1</f>
+        <v>299</v>
+      </c>
+      <c r="B23" s="4">
+        <f>B19+1</f>
+        <v>75</v>
+      </c>
+      <c r="C23" s="4">
         <v>504</v>
       </c>
-      <c r="G16" t="str">
-        <f t="shared" si="1"/>
-        <v>insert into game (matchid, matchdate, game_type, country) values (64, '2001-05-27', 2, 504);</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A17">
+      <c r="D23" s="4">
+        <v>2</v>
+      </c>
+      <c r="E23" s="4">
+        <v>3</v>
+      </c>
+      <c r="F23" s="4">
+        <v>2</v>
+      </c>
+      <c r="G23" t="str">
         <f t="shared" si="2"/>
-        <v>65</v>
-      </c>
-      <c r="B17" s="2" t="str">
-        <f>"2001-05-23"</f>
-        <v>2001-05-23</v>
-      </c>
-      <c r="C17">
-        <v>2</v>
-      </c>
-      <c r="D17">
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (299, 75, 504, 2, 3, 2);</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A24" s="4">
+        <f t="shared" si="3"/>
+        <v>300</v>
+      </c>
+      <c r="B24" s="4">
+        <f>B23</f>
+        <v>75</v>
+      </c>
+      <c r="C24" s="4">
         <v>504</v>
       </c>
-      <c r="G17" t="str">
-        <f t="shared" si="1"/>
-        <v>insert into game (matchid, matchdate, game_type, country) values (65, '2001-05-23', 2, 504);</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A18">
+      <c r="D24" s="4">
+        <v>2</v>
+      </c>
+      <c r="E24" s="4">
+        <v>0</v>
+      </c>
+      <c r="F24" s="4">
+        <v>1</v>
+      </c>
+      <c r="G24" t="str">
         <f t="shared" si="2"/>
-        <v>66</v>
-      </c>
-      <c r="B18" s="2" t="str">
-        <f>"2001-05-25"</f>
-        <v>2001-05-25</v>
-      </c>
-      <c r="C18">
-        <v>2</v>
-      </c>
-      <c r="D18">
-        <v>504</v>
-      </c>
-      <c r="G18" t="str">
-        <f t="shared" si="1"/>
-        <v>insert into game (matchid, matchdate, game_type, country) values (66, '2001-05-25', 2, 504);</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A19">
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (300, 75, 504, 2, 0, 1);</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A25" s="4">
+        <f t="shared" si="3"/>
+        <v>301</v>
+      </c>
+      <c r="B25" s="4">
+        <f>B23</f>
+        <v>75</v>
+      </c>
+      <c r="C25" s="4">
+        <v>505</v>
+      </c>
+      <c r="D25" s="4">
+        <v>0</v>
+      </c>
+      <c r="E25" s="4">
+        <v>0</v>
+      </c>
+      <c r="F25" s="4">
+        <v>2</v>
+      </c>
+      <c r="G25" t="str">
         <f t="shared" si="2"/>
-        <v>67</v>
-      </c>
-      <c r="B19" s="2" t="str">
-        <f>"2001-05-27"</f>
-        <v>2001-05-27</v>
-      </c>
-      <c r="C19">
-        <v>2</v>
-      </c>
-      <c r="D19">
-        <v>504</v>
-      </c>
-      <c r="G19" t="str">
-        <f t="shared" si="1"/>
-        <v>insert into game (matchid, matchdate, game_type, country) values (67, '2001-05-27', 2, 504);</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A20">
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (301, 75, 505, 0, 0, 2);</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A26" s="4">
+        <f t="shared" si="3"/>
+        <v>302</v>
+      </c>
+      <c r="B26" s="4">
+        <f>B23</f>
+        <v>75</v>
+      </c>
+      <c r="C26" s="4">
+        <v>505</v>
+      </c>
+      <c r="D26" s="4">
+        <v>0</v>
+      </c>
+      <c r="E26" s="4">
+        <v>0</v>
+      </c>
+      <c r="F26" s="4">
+        <v>1</v>
+      </c>
+      <c r="G26" t="str">
         <f t="shared" si="2"/>
-        <v>68</v>
-      </c>
-      <c r="B20" s="2" t="str">
-        <f>"2001-05-30"</f>
-        <v>2001-05-30</v>
-      </c>
-      <c r="C20">
-        <v>8</v>
-      </c>
-      <c r="D20">
-        <v>504</v>
-      </c>
-      <c r="G20" t="str">
-        <f t="shared" si="1"/>
-        <v>insert into game (matchid, matchdate, game_type, country) values (68, '2001-05-30', 8, 504);</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A21">
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (302, 75, 505, 0, 0, 1);</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A27" s="3">
+        <f t="shared" si="3"/>
+        <v>303</v>
+      </c>
+      <c r="B27" s="3">
+        <f>B23+1</f>
+        <v>76</v>
+      </c>
+      <c r="C27" s="3">
+        <v>506</v>
+      </c>
+      <c r="D27" s="3">
+        <v>1</v>
+      </c>
+      <c r="E27" s="3">
+        <v>3</v>
+      </c>
+      <c r="F27" s="3">
+        <v>2</v>
+      </c>
+      <c r="G27" s="3" t="str">
         <f t="shared" si="2"/>
-        <v>69</v>
-      </c>
-      <c r="B21" s="2" t="str">
-        <f>"2001-05-30"</f>
-        <v>2001-05-30</v>
-      </c>
-      <c r="C21">
-        <v>8</v>
-      </c>
-      <c r="D21">
-        <v>504</v>
-      </c>
-      <c r="G21" t="str">
-        <f t="shared" si="1"/>
-        <v>insert into game (matchid, matchdate, game_type, country) values (69, '2001-05-30', 8, 504);</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A22">
-        <f t="shared" si="2"/>
-        <v>70</v>
-      </c>
-      <c r="B22" s="2" t="str">
-        <f>"2001-06-01"</f>
-        <v>2001-06-01</v>
-      </c>
-      <c r="C22">
-        <v>8</v>
-      </c>
-      <c r="D22">
-        <v>504</v>
-      </c>
-      <c r="G22" t="str">
-        <f t="shared" si="1"/>
-        <v>insert into game (matchid, matchdate, game_type, country) values (70, '2001-06-01', 8, 504);</v>
-      </c>
-    </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A23">
-        <f t="shared" si="2"/>
-        <v>71</v>
-      </c>
-      <c r="B23" s="2" t="str">
-        <f>"2001-06-01"</f>
-        <v>2001-06-01</v>
-      </c>
-      <c r="C23">
-        <v>8</v>
-      </c>
-      <c r="D23">
-        <v>504</v>
-      </c>
-      <c r="G23" t="str">
-        <f t="shared" si="1"/>
-        <v>insert into game (matchid, matchdate, game_type, country) values (71, '2001-06-01', 8, 504);</v>
-      </c>
-    </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A24">
-        <f t="shared" si="2"/>
-        <v>72</v>
-      </c>
-      <c r="B24" s="2" t="str">
-        <f>"2001-06-03"</f>
-        <v>2001-06-03</v>
-      </c>
-      <c r="C24">
-        <v>8</v>
-      </c>
-      <c r="D24">
-        <v>504</v>
-      </c>
-      <c r="G24" t="str">
-        <f t="shared" si="1"/>
-        <v>insert into game (matchid, matchdate, game_type, country) values (72, '2001-06-03', 8, 504);</v>
-      </c>
-    </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A25">
-        <f t="shared" si="2"/>
-        <v>73</v>
-      </c>
-      <c r="B25" s="2" t="str">
-        <f>"2001-06-03"</f>
-        <v>2001-06-03</v>
-      </c>
-      <c r="C25">
-        <v>8</v>
-      </c>
-      <c r="D25">
-        <v>504</v>
-      </c>
-      <c r="G25" t="str">
-        <f t="shared" si="1"/>
-        <v>insert into game (matchid, matchdate, game_type, country) values (73, '2001-06-03', 8, 504);</v>
-      </c>
-    </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A27" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B27" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C27" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D27" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E27" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F27" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="G27" t="str">
-        <f>"insert into game_score (id, matchid, squad, goals, points, time_type) values (" &amp; A27 &amp; ", " &amp; B27 &amp; ", " &amp; C27 &amp; ", " &amp; D27 &amp; ", " &amp; E27 &amp; ", " &amp; F27 &amp; ");"</f>
-        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (id, matchid, squad, goals, points, time_type);</v>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (303, 76, 506, 1, 3, 2);</v>
       </c>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A28" s="3">
-        <f>'1999'!A71 + 1</f>
-        <v>235</v>
+        <f t="shared" si="3"/>
+        <v>304</v>
       </c>
       <c r="B28" s="3">
-        <f>A11</f>
-        <v>59</v>
+        <f>B27</f>
+        <v>76</v>
       </c>
       <c r="C28" s="3">
-        <v>503</v>
+        <v>506</v>
       </c>
       <c r="D28" s="3">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="E28" s="3">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="F28" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G28" s="3" t="str">
-        <f t="shared" ref="G28:G75" si="3">"insert into game_score (id, matchid, squad, goals, points, time_type) values (" &amp; A28 &amp; ", " &amp; B28 &amp; ", " &amp; C28 &amp; ", " &amp; D28 &amp; ", " &amp; E28 &amp; ", " &amp; F28 &amp; ");"</f>
-        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (235, 59, 503, 3, 3, 2);</v>
+        <f t="shared" si="2"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (304, 76, 506, 0, 0, 1);</v>
       </c>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A29" s="3">
-        <f>A28+1</f>
-        <v>236</v>
+        <f t="shared" si="3"/>
+        <v>305</v>
       </c>
       <c r="B29" s="3">
-        <f>B28</f>
-        <v>59</v>
+        <f>B27</f>
+        <v>76</v>
       </c>
       <c r="C29" s="3">
         <v>503</v>
       </c>
       <c r="D29" s="3">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="E29" s="3">
         <v>0</v>
       </c>
       <c r="F29" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G29" s="3" t="str">
-        <f t="shared" si="3"/>
-        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (236, 59, 503, 3, 0, 1);</v>
+        <f t="shared" si="2"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (305, 76, 503, 0, 0, 2);</v>
       </c>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A30" s="3">
-        <f t="shared" ref="A30:A87" si="4">A29+1</f>
-        <v>237</v>
+        <f t="shared" si="3"/>
+        <v>306</v>
       </c>
       <c r="B30" s="3">
-        <f>B28</f>
-        <v>59</v>
+        <f t="shared" ref="B30" si="4">B27</f>
+        <v>76</v>
       </c>
       <c r="C30" s="3">
-        <v>505</v>
+        <v>503</v>
       </c>
       <c r="D30" s="3">
         <v>0</v>
@@ -8982,206 +11141,206 @@
         <v>0</v>
       </c>
       <c r="F30" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G30" s="3" t="str">
-        <f t="shared" si="3"/>
-        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (237, 59, 505, 0, 0, 2);</v>
+        <f t="shared" si="2"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (306, 76, 503, 0, 0, 1);</v>
       </c>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A31" s="3">
-        <f t="shared" si="4"/>
-        <v>238</v>
-      </c>
-      <c r="B31" s="3">
-        <f>B28</f>
-        <v>59</v>
-      </c>
-      <c r="C31" s="3">
-        <v>505</v>
-      </c>
-      <c r="D31" s="3">
-        <v>0</v>
-      </c>
-      <c r="E31" s="3">
-        <v>0</v>
-      </c>
-      <c r="F31" s="3">
-        <v>1</v>
-      </c>
-      <c r="G31" s="3" t="str">
-        <f t="shared" si="3"/>
-        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (238, 59, 505, 0, 0, 1);</v>
+      <c r="A31" s="4">
+        <f t="shared" si="3"/>
+        <v>307</v>
+      </c>
+      <c r="B31" s="4">
+        <f>B27+1</f>
+        <v>77</v>
+      </c>
+      <c r="C31" s="4">
+        <v>503</v>
+      </c>
+      <c r="D31" s="4">
+        <v>3</v>
+      </c>
+      <c r="E31" s="4">
+        <v>3</v>
+      </c>
+      <c r="F31" s="4">
+        <v>2</v>
+      </c>
+      <c r="G31" s="4" t="str">
+        <f t="shared" si="2"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (307, 77, 503, 3, 3, 2);</v>
       </c>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A32" s="4">
-        <f>A31+1</f>
-        <v>239</v>
+        <f t="shared" si="3"/>
+        <v>308</v>
       </c>
       <c r="B32" s="4">
-        <f>B28+1</f>
-        <v>60</v>
+        <f>B31</f>
+        <v>77</v>
       </c>
       <c r="C32" s="4">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="D32" s="4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E32" s="4">
         <v>0</v>
       </c>
       <c r="F32" s="4">
-        <v>2</v>
-      </c>
-      <c r="G32" t="str">
-        <f t="shared" si="3"/>
-        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (239, 60, 504, 1, 0, 2);</v>
+        <v>1</v>
+      </c>
+      <c r="G32" s="4" t="str">
+        <f t="shared" si="2"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (308, 77, 503, 2, 0, 1);</v>
       </c>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A33" s="4">
-        <f t="shared" si="4"/>
-        <v>240</v>
+        <f t="shared" si="3"/>
+        <v>309</v>
       </c>
       <c r="B33" s="4">
-        <f>B32</f>
-        <v>60</v>
+        <f>B31</f>
+        <v>77</v>
       </c>
       <c r="C33" s="4">
-        <v>504</v>
+        <v>505</v>
       </c>
       <c r="D33" s="4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E33" s="4">
         <v>0</v>
       </c>
       <c r="F33" s="4">
-        <v>1</v>
-      </c>
-      <c r="G33" t="str">
-        <f t="shared" si="3"/>
-        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (240, 60, 504, 1, 0, 1);</v>
+        <v>2</v>
+      </c>
+      <c r="G33" s="4" t="str">
+        <f t="shared" si="2"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (309, 77, 505, 0, 0, 2);</v>
       </c>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A34" s="4">
-        <f t="shared" si="4"/>
-        <v>241</v>
+        <f t="shared" si="3"/>
+        <v>310</v>
       </c>
       <c r="B34" s="4">
-        <f>B32</f>
-        <v>60</v>
+        <f t="shared" ref="B34" si="5">B31</f>
+        <v>77</v>
       </c>
       <c r="C34" s="4">
-        <v>507</v>
+        <v>505</v>
       </c>
       <c r="D34" s="4">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E34" s="4">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="F34" s="4">
-        <v>2</v>
-      </c>
-      <c r="G34" t="str">
-        <f t="shared" si="3"/>
-        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (241, 60, 507, 2, 3, 2);</v>
+        <v>1</v>
+      </c>
+      <c r="G34" s="4" t="str">
+        <f t="shared" si="2"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (310, 77, 505, 0, 0, 1);</v>
       </c>
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A35" s="4">
-        <f t="shared" si="4"/>
-        <v>242</v>
-      </c>
-      <c r="B35" s="4">
-        <f>B32</f>
-        <v>60</v>
-      </c>
-      <c r="C35" s="4">
-        <v>507</v>
-      </c>
-      <c r="D35" s="4">
-        <v>1</v>
-      </c>
-      <c r="E35" s="4">
-        <v>0</v>
-      </c>
-      <c r="F35" s="4">
-        <v>1</v>
-      </c>
-      <c r="G35" t="str">
-        <f t="shared" si="3"/>
-        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (242, 60, 507, 1, 0, 1);</v>
+      <c r="A35" s="3">
+        <f t="shared" si="3"/>
+        <v>311</v>
+      </c>
+      <c r="B35" s="3">
+        <f>B31+1</f>
+        <v>78</v>
+      </c>
+      <c r="C35" s="3">
+        <v>502</v>
+      </c>
+      <c r="D35" s="3">
+        <v>1</v>
+      </c>
+      <c r="E35" s="3">
+        <v>1</v>
+      </c>
+      <c r="F35" s="3">
+        <v>2</v>
+      </c>
+      <c r="G35" s="3" t="str">
+        <f t="shared" si="2"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (311, 78, 502, 1, 1, 2);</v>
       </c>
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A36" s="3">
-        <f t="shared" si="4"/>
-        <v>243</v>
+        <f t="shared" si="3"/>
+        <v>312</v>
       </c>
       <c r="B36" s="3">
-        <f>B32+1</f>
-        <v>61</v>
+        <f>B35</f>
+        <v>78</v>
       </c>
       <c r="C36" s="3">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="D36" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E36" s="3">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="F36" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G36" s="3" t="str">
-        <f t="shared" si="3"/>
-        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (243, 61, 503, 2, 3, 2);</v>
+        <f t="shared" si="2"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (312, 78, 502, 1, 0, 1);</v>
       </c>
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A37" s="3">
-        <f t="shared" si="4"/>
-        <v>244</v>
+        <f t="shared" si="3"/>
+        <v>313</v>
       </c>
       <c r="B37" s="3">
-        <f>B36</f>
-        <v>61</v>
+        <f>B35</f>
+        <v>78</v>
       </c>
       <c r="C37" s="3">
-        <v>503</v>
+        <v>506</v>
       </c>
       <c r="D37" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E37" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F37" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G37" s="3" t="str">
-        <f t="shared" si="3"/>
-        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (244, 61, 503, 0, 0, 1);</v>
+        <f t="shared" si="2"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (313, 78, 506, 1, 1, 2);</v>
       </c>
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A38" s="3">
-        <f t="shared" si="4"/>
-        <v>245</v>
+        <f t="shared" si="3"/>
+        <v>314</v>
       </c>
       <c r="B38" s="3">
-        <f>B36</f>
-        <v>61</v>
+        <f t="shared" ref="B38" si="6">B35</f>
+        <v>78</v>
       </c>
       <c r="C38" s="3">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="D38" s="3">
         <v>1</v>
@@ -9190,154 +11349,154 @@
         <v>0</v>
       </c>
       <c r="F38" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G38" s="3" t="str">
-        <f t="shared" si="3"/>
-        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (245, 61, 507, 1, 0, 2);</v>
+        <f t="shared" si="2"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (314, 78, 506, 1, 0, 1);</v>
       </c>
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A39" s="3">
-        <f t="shared" si="4"/>
-        <v>246</v>
-      </c>
-      <c r="B39" s="3">
-        <f t="shared" ref="B39" si="5">B36</f>
-        <v>61</v>
-      </c>
-      <c r="C39" s="3">
-        <v>507</v>
-      </c>
-      <c r="D39" s="3">
-        <v>0</v>
-      </c>
-      <c r="E39" s="3">
-        <v>0</v>
-      </c>
-      <c r="F39" s="3">
-        <v>1</v>
-      </c>
-      <c r="G39" s="3" t="str">
-        <f t="shared" si="3"/>
-        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (246, 61, 507, 0, 0, 1);</v>
+      <c r="A39" s="4">
+        <f t="shared" si="3"/>
+        <v>315</v>
+      </c>
+      <c r="B39" s="4">
+        <f>B35+1</f>
+        <v>79</v>
+      </c>
+      <c r="C39" s="4">
+        <v>506</v>
+      </c>
+      <c r="D39" s="4">
+        <v>1</v>
+      </c>
+      <c r="E39" s="4">
+        <v>3</v>
+      </c>
+      <c r="F39" s="4">
+        <v>2</v>
+      </c>
+      <c r="G39" s="4" t="str">
+        <f t="shared" si="2"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (315, 79, 506, 1, 3, 2);</v>
       </c>
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A40" s="4">
-        <f t="shared" si="4"/>
-        <v>247</v>
+        <f t="shared" si="3"/>
+        <v>316</v>
       </c>
       <c r="B40" s="4">
-        <f>B36+1</f>
-        <v>62</v>
+        <f>B39</f>
+        <v>79</v>
       </c>
       <c r="C40" s="4">
-        <v>504</v>
+        <v>506</v>
       </c>
       <c r="D40" s="4">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="E40" s="4">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="F40" s="4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G40" s="4" t="str">
-        <f t="shared" si="3"/>
-        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (247, 62, 504, 10, 3, 2);</v>
+        <f t="shared" si="2"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (316, 79, 506, 1, 0, 1);</v>
       </c>
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A41" s="4">
-        <f t="shared" si="4"/>
-        <v>248</v>
+        <f t="shared" si="3"/>
+        <v>317</v>
       </c>
       <c r="B41" s="4">
-        <f>B40</f>
-        <v>62</v>
+        <f>B39</f>
+        <v>79</v>
       </c>
       <c r="C41" s="4">
-        <v>504</v>
+        <v>505</v>
       </c>
       <c r="D41" s="4">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="E41" s="4">
         <v>0</v>
       </c>
       <c r="F41" s="4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G41" s="4" t="str">
-        <f t="shared" si="3"/>
-        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (248, 62, 504, 4, 0, 1);</v>
+        <f t="shared" si="2"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (317, 79, 505, 0, 0, 2);</v>
       </c>
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A42" s="4">
-        <f t="shared" si="4"/>
-        <v>249</v>
+        <f t="shared" si="3"/>
+        <v>318</v>
       </c>
       <c r="B42" s="4">
-        <f>B40</f>
-        <v>62</v>
+        <f t="shared" ref="B42" si="7">B39</f>
+        <v>79</v>
       </c>
       <c r="C42" s="4">
         <v>505</v>
       </c>
       <c r="D42" s="4">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E42" s="4">
         <v>0</v>
       </c>
       <c r="F42" s="4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G42" s="4" t="str">
-        <f t="shared" si="3"/>
-        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (249, 62, 505, 2, 0, 2);</v>
+        <f t="shared" si="2"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (318, 79, 505, 0, 0, 1);</v>
       </c>
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A43" s="4">
-        <f t="shared" si="4"/>
-        <v>250</v>
-      </c>
-      <c r="B43" s="4">
-        <f t="shared" ref="B43" si="6">B40</f>
-        <v>62</v>
-      </c>
-      <c r="C43" s="4">
-        <v>505</v>
-      </c>
-      <c r="D43" s="4">
-        <v>1</v>
-      </c>
-      <c r="E43" s="4">
-        <v>0</v>
-      </c>
-      <c r="F43" s="4">
-        <v>1</v>
-      </c>
-      <c r="G43" s="4" t="str">
-        <f t="shared" si="3"/>
-        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (250, 62, 505, 1, 0, 1);</v>
+      <c r="A43" s="3">
+        <f t="shared" si="3"/>
+        <v>319</v>
+      </c>
+      <c r="B43" s="3">
+        <f>B39+1</f>
+        <v>80</v>
+      </c>
+      <c r="C43" s="3">
+        <v>503</v>
+      </c>
+      <c r="D43" s="3">
+        <v>1</v>
+      </c>
+      <c r="E43" s="3">
+        <v>3</v>
+      </c>
+      <c r="F43" s="3">
+        <v>2</v>
+      </c>
+      <c r="G43" s="3" t="str">
+        <f t="shared" si="2"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (319, 80, 503, 1, 3, 2);</v>
       </c>
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A44" s="3">
-        <f t="shared" si="4"/>
-        <v>251</v>
+        <f t="shared" si="3"/>
+        <v>320</v>
       </c>
       <c r="B44" s="3">
-        <f>B40+1</f>
-        <v>63</v>
+        <f>B43</f>
+        <v>80</v>
       </c>
       <c r="C44" s="3">
-        <v>505</v>
+        <v>503</v>
       </c>
       <c r="D44" s="3">
         <v>0</v>
@@ -9346,24 +11505,24 @@
         <v>0</v>
       </c>
       <c r="F44" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G44" s="3" t="str">
-        <f t="shared" si="3"/>
-        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (251, 63, 505, 0, 0, 2);</v>
+        <f t="shared" si="2"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (320, 80, 503, 0, 0, 1);</v>
       </c>
     </row>
     <row r="45" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A45" s="3">
-        <f t="shared" si="4"/>
-        <v>252</v>
+        <f t="shared" si="3"/>
+        <v>321</v>
       </c>
       <c r="B45" s="3">
-        <f>B44</f>
-        <v>63</v>
+        <f>B43</f>
+        <v>80</v>
       </c>
       <c r="C45" s="3">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="D45" s="3">
         <v>0</v>
@@ -9372,232 +11531,232 @@
         <v>0</v>
       </c>
       <c r="F45" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G45" s="3" t="str">
-        <f t="shared" si="3"/>
-        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (252, 63, 505, 0, 0, 1);</v>
+        <f t="shared" si="2"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (321, 80, 504, 0, 0, 2);</v>
       </c>
     </row>
     <row r="46" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A46" s="3">
-        <f t="shared" si="4"/>
-        <v>253</v>
+        <f t="shared" si="3"/>
+        <v>322</v>
       </c>
       <c r="B46" s="3">
-        <f>B44</f>
-        <v>63</v>
+        <f t="shared" ref="B46" si="8">B43</f>
+        <v>80</v>
       </c>
       <c r="C46" s="3">
+        <v>504</v>
+      </c>
+      <c r="D46" s="3">
+        <v>0</v>
+      </c>
+      <c r="E46" s="3">
+        <v>0</v>
+      </c>
+      <c r="F46" s="3">
+        <v>1</v>
+      </c>
+      <c r="G46" s="3" t="str">
+        <f t="shared" si="2"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (322, 80, 504, 0, 0, 1);</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A47" s="4">
+        <f t="shared" si="3"/>
+        <v>323</v>
+      </c>
+      <c r="B47" s="4">
+        <f>B43+1</f>
+        <v>81</v>
+      </c>
+      <c r="C47" s="4">
         <v>507</v>
       </c>
-      <c r="D46" s="3">
-        <v>6</v>
-      </c>
-      <c r="E46" s="3">
+      <c r="D47" s="4">
+        <v>2</v>
+      </c>
+      <c r="E47" s="4">
         <v>3</v>
       </c>
-      <c r="F46" s="3">
-        <v>2</v>
-      </c>
-      <c r="G46" s="3" t="str">
-        <f t="shared" si="3"/>
-        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (253, 63, 507, 6, 3, 2);</v>
-      </c>
-    </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A47" s="3">
-        <f t="shared" si="4"/>
-        <v>254</v>
-      </c>
-      <c r="B47" s="3">
-        <f t="shared" ref="B47" si="7">B44</f>
-        <v>63</v>
-      </c>
-      <c r="C47" s="3">
-        <v>507</v>
-      </c>
-      <c r="D47" s="3">
-        <v>4</v>
-      </c>
-      <c r="E47" s="3">
-        <v>0</v>
-      </c>
-      <c r="F47" s="3">
-        <v>1</v>
-      </c>
-      <c r="G47" s="3" t="str">
-        <f t="shared" si="3"/>
-        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (254, 63, 507, 4, 0, 1);</v>
+      <c r="F47" s="4">
+        <v>2</v>
+      </c>
+      <c r="G47" s="4" t="str">
+        <f t="shared" si="2"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (323, 81, 507, 2, 3, 2);</v>
       </c>
     </row>
     <row r="48" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A48" s="4">
-        <f t="shared" si="4"/>
-        <v>255</v>
+        <f t="shared" si="3"/>
+        <v>324</v>
       </c>
       <c r="B48" s="4">
-        <f>B44+1</f>
-        <v>64</v>
+        <f>B47</f>
+        <v>81</v>
       </c>
       <c r="C48" s="4">
-        <v>504</v>
+        <v>507</v>
       </c>
       <c r="D48" s="4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E48" s="4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F48" s="4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G48" s="4" t="str">
-        <f t="shared" si="3"/>
-        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (255, 64, 504, 1, 1, 2);</v>
+        <f t="shared" si="2"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (324, 81, 507, 2, 0, 1);</v>
       </c>
     </row>
     <row r="49" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A49" s="4">
-        <f t="shared" si="4"/>
-        <v>256</v>
+        <f t="shared" si="3"/>
+        <v>325</v>
       </c>
       <c r="B49" s="4">
-        <f>B48</f>
-        <v>64</v>
+        <f>B47</f>
+        <v>81</v>
       </c>
       <c r="C49" s="4">
-        <v>504</v>
+        <v>502</v>
       </c>
       <c r="D49" s="4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E49" s="4">
         <v>0</v>
       </c>
       <c r="F49" s="4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G49" s="4" t="str">
-        <f t="shared" si="3"/>
-        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (256, 64, 504, 1, 0, 1);</v>
+        <f t="shared" si="2"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (325, 81, 502, 0, 0, 2);</v>
       </c>
     </row>
     <row r="50" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A50" s="4">
-        <f t="shared" si="4"/>
-        <v>257</v>
+        <f t="shared" si="3"/>
+        <v>326</v>
       </c>
       <c r="B50" s="4">
-        <f>B48</f>
-        <v>64</v>
+        <f t="shared" ref="B50" si="9">B47</f>
+        <v>81</v>
       </c>
       <c r="C50" s="4">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="D50" s="4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E50" s="4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F50" s="4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G50" s="4" t="str">
-        <f t="shared" si="3"/>
-        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (257, 64, 503, 1, 1, 2);</v>
+        <f t="shared" si="2"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (326, 81, 502, 0, 0, 1);</v>
       </c>
     </row>
     <row r="51" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A51" s="4">
-        <f t="shared" si="4"/>
-        <v>258</v>
-      </c>
-      <c r="B51" s="4">
-        <f t="shared" ref="B51" si="8">B48</f>
-        <v>64</v>
-      </c>
-      <c r="C51" s="4">
-        <v>503</v>
-      </c>
-      <c r="D51" s="4">
-        <v>0</v>
-      </c>
-      <c r="E51" s="4">
-        <v>0</v>
-      </c>
-      <c r="F51" s="4">
-        <v>1</v>
-      </c>
-      <c r="G51" s="4" t="str">
-        <f t="shared" si="3"/>
-        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (258, 64, 503, 0, 0, 1);</v>
+      <c r="A51" s="3">
+        <f t="shared" si="3"/>
+        <v>327</v>
+      </c>
+      <c r="B51" s="3">
+        <f>B47+1</f>
+        <v>82</v>
+      </c>
+      <c r="C51" s="3">
+        <v>502</v>
+      </c>
+      <c r="D51" s="3">
+        <v>5</v>
+      </c>
+      <c r="E51" s="3">
+        <v>3</v>
+      </c>
+      <c r="F51" s="3">
+        <v>2</v>
+      </c>
+      <c r="G51" s="3" t="str">
+        <f t="shared" si="2"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (327, 82, 502, 5, 3, 2);</v>
       </c>
     </row>
     <row r="52" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A52" s="3">
-        <f t="shared" si="4"/>
-        <v>259</v>
+        <f t="shared" si="3"/>
+        <v>328</v>
       </c>
       <c r="B52" s="3">
-        <f>B48+1</f>
-        <v>65</v>
+        <f>B51</f>
+        <v>82</v>
       </c>
       <c r="C52" s="3">
-        <v>506</v>
+        <v>502</v>
       </c>
       <c r="D52" s="3">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E52" s="3">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="F52" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G52" s="3" t="str">
-        <f t="shared" si="3"/>
-        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (259, 65, 506, 4, 3, 2);</v>
+        <f t="shared" si="2"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (328, 82, 502, 2, 0, 1);</v>
       </c>
     </row>
     <row r="53" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A53" s="3">
-        <f t="shared" si="4"/>
-        <v>260</v>
+        <f t="shared" si="3"/>
+        <v>329</v>
       </c>
       <c r="B53" s="3">
-        <f>B52</f>
-        <v>65</v>
+        <f>B51</f>
+        <v>82</v>
       </c>
       <c r="C53" s="3">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="D53" s="3">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E53" s="3">
         <v>0</v>
       </c>
       <c r="F53" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G53" s="3" t="str">
-        <f t="shared" si="3"/>
-        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (260, 65, 506, 2, 0, 1);</v>
+        <f t="shared" si="2"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (329, 82, 505, 0, 0, 2);</v>
       </c>
     </row>
     <row r="54" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A54" s="3">
-        <f t="shared" si="4"/>
-        <v>261</v>
+        <f t="shared" si="3"/>
+        <v>330</v>
       </c>
       <c r="B54" s="3">
-        <f>B52</f>
-        <v>65</v>
+        <f t="shared" ref="B54" si="10">B51</f>
+        <v>82</v>
       </c>
       <c r="C54" s="3">
-        <v>501</v>
+        <v>505</v>
       </c>
       <c r="D54" s="3">
         <v>0</v>
@@ -9606,869 +11765,635 @@
         <v>0</v>
       </c>
       <c r="F54" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G54" s="3" t="str">
-        <f t="shared" si="3"/>
-        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (261, 65, 501, 0, 0, 2);</v>
+        <f t="shared" si="2"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (330, 82, 505, 0, 0, 1);</v>
       </c>
     </row>
     <row r="55" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A55" s="3">
-        <f t="shared" si="4"/>
-        <v>262</v>
-      </c>
-      <c r="B55" s="3">
-        <f t="shared" ref="B55" si="9">B52</f>
-        <v>65</v>
-      </c>
-      <c r="C55" s="3">
-        <v>501</v>
-      </c>
-      <c r="D55" s="3">
-        <v>0</v>
-      </c>
-      <c r="E55" s="3">
-        <v>0</v>
-      </c>
-      <c r="F55" s="3">
-        <v>1</v>
-      </c>
-      <c r="G55" s="3" t="str">
-        <f t="shared" si="3"/>
-        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (262, 65, 501, 0, 0, 1);</v>
+      <c r="A55" s="4">
+        <f t="shared" si="3"/>
+        <v>331</v>
+      </c>
+      <c r="B55" s="4">
+        <f>B51+1</f>
+        <v>83</v>
+      </c>
+      <c r="C55" s="4">
+        <v>507</v>
+      </c>
+      <c r="D55" s="4">
+        <v>1</v>
+      </c>
+      <c r="E55" s="4">
+        <v>1</v>
+      </c>
+      <c r="F55" s="4">
+        <v>2</v>
+      </c>
+      <c r="G55" s="4" t="str">
+        <f t="shared" si="2"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (331, 83, 507, 1, 1, 2);</v>
       </c>
     </row>
     <row r="56" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A56" s="4">
-        <f t="shared" si="4"/>
-        <v>263</v>
+        <f t="shared" si="3"/>
+        <v>332</v>
       </c>
       <c r="B56" s="4">
-        <f>B52+1</f>
-        <v>66</v>
+        <f>B55</f>
+        <v>83</v>
       </c>
       <c r="C56" s="4">
-        <v>502</v>
+        <v>507</v>
       </c>
       <c r="D56" s="4">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="E56" s="4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F56" s="4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G56" s="4" t="str">
-        <f t="shared" si="3"/>
-        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (263, 66, 502, 3, 1, 2);</v>
+        <f t="shared" si="2"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (332, 83, 507, 0, 0, 1);</v>
       </c>
     </row>
     <row r="57" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A57" s="4">
-        <f t="shared" si="4"/>
-        <v>264</v>
+        <f t="shared" si="3"/>
+        <v>333</v>
       </c>
       <c r="B57" s="4">
-        <f>B56</f>
-        <v>66</v>
+        <f>B55</f>
+        <v>83</v>
       </c>
       <c r="C57" s="4">
-        <v>502</v>
+        <v>504</v>
       </c>
       <c r="D57" s="4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E57" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F57" s="4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G57" s="4" t="str">
-        <f t="shared" si="3"/>
-        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (264, 66, 502, 2, 0, 1);</v>
+        <f t="shared" si="2"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (333, 83, 504, 1, 1, 2);</v>
       </c>
     </row>
     <row r="58" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A58" s="4">
-        <f t="shared" si="4"/>
-        <v>265</v>
+        <f t="shared" si="3"/>
+        <v>334</v>
       </c>
       <c r="B58" s="4">
-        <f>B56</f>
-        <v>66</v>
+        <f t="shared" ref="B58" si="11">B55</f>
+        <v>83</v>
       </c>
       <c r="C58" s="4">
-        <v>501</v>
+        <v>504</v>
       </c>
       <c r="D58" s="4">
+        <v>1</v>
+      </c>
+      <c r="E58" s="4">
+        <v>0</v>
+      </c>
+      <c r="F58" s="4">
+        <v>1</v>
+      </c>
+      <c r="G58" s="4" t="str">
+        <f t="shared" si="2"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (334, 83, 504, 1, 0, 1);</v>
+      </c>
+    </row>
+    <row r="59" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A59" s="3">
+        <f t="shared" si="3"/>
+        <v>335</v>
+      </c>
+      <c r="B59" s="3">
+        <f>B55+1</f>
+        <v>84</v>
+      </c>
+      <c r="C59" s="3">
+        <v>502</v>
+      </c>
+      <c r="D59" s="3">
+        <v>2</v>
+      </c>
+      <c r="E59" s="3">
         <v>3</v>
       </c>
-      <c r="E58" s="4">
-        <v>1</v>
-      </c>
-      <c r="F58" s="4">
-        <v>2</v>
-      </c>
-      <c r="G58" s="4" t="str">
-        <f t="shared" si="3"/>
-        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (265, 66, 501, 3, 1, 2);</v>
-      </c>
-    </row>
-    <row r="59" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A59" s="4">
-        <f t="shared" si="4"/>
-        <v>266</v>
-      </c>
-      <c r="B59" s="4">
-        <f t="shared" ref="B59" si="10">B56</f>
-        <v>66</v>
-      </c>
-      <c r="C59" s="4">
-        <v>501</v>
-      </c>
-      <c r="D59" s="4">
-        <v>2</v>
-      </c>
-      <c r="E59" s="4">
-        <v>0</v>
-      </c>
-      <c r="F59" s="4">
-        <v>1</v>
-      </c>
-      <c r="G59" s="4" t="str">
-        <f t="shared" si="3"/>
-        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (266, 66, 501, 2, 0, 1);</v>
+      <c r="F59" s="3">
+        <v>2</v>
+      </c>
+      <c r="G59" s="3" t="str">
+        <f t="shared" si="2"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (335, 84, 502, 2, 3, 2);</v>
       </c>
     </row>
     <row r="60" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A60" s="3">
-        <f t="shared" si="4"/>
-        <v>267</v>
+        <f t="shared" si="3"/>
+        <v>336</v>
       </c>
       <c r="B60" s="3">
-        <f>B56+1</f>
-        <v>67</v>
+        <f>B59</f>
+        <v>84</v>
       </c>
       <c r="C60" s="3">
-        <v>506</v>
+        <v>502</v>
       </c>
       <c r="D60" s="3">
         <v>1</v>
       </c>
       <c r="E60" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F60" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G60" s="3" t="str">
-        <f t="shared" si="3"/>
-        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (267, 67, 506, 1, 1, 2);</v>
+        <f t="shared" si="2"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (336, 84, 502, 1, 0, 1);</v>
       </c>
     </row>
     <row r="61" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A61" s="3">
-        <f t="shared" si="4"/>
-        <v>268</v>
+        <f t="shared" si="3"/>
+        <v>337</v>
       </c>
       <c r="B61" s="3">
-        <f>B60</f>
-        <v>67</v>
+        <f>B59</f>
+        <v>84</v>
       </c>
       <c r="C61" s="3">
-        <v>506</v>
+        <v>503</v>
       </c>
       <c r="D61" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E61" s="3">
         <v>0</v>
       </c>
       <c r="F61" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G61" s="3" t="str">
-        <f t="shared" si="3"/>
-        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (268, 67, 506, 1, 0, 1);</v>
+        <f t="shared" si="2"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (337, 84, 503, 0, 0, 2);</v>
       </c>
     </row>
     <row r="62" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A62" s="3">
-        <f t="shared" si="4"/>
-        <v>269</v>
+        <f t="shared" si="3"/>
+        <v>338</v>
       </c>
       <c r="B62" s="3">
-        <f>B60</f>
-        <v>67</v>
+        <f t="shared" ref="B62" si="12">B59</f>
+        <v>84</v>
       </c>
       <c r="C62" s="3">
-        <v>502</v>
+        <v>503</v>
       </c>
       <c r="D62" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E62" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F62" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G62" s="3" t="str">
-        <f t="shared" si="3"/>
-        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (269, 67, 502, 1, 1, 2);</v>
+        <f t="shared" si="2"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (338, 84, 503, 0, 0, 1);</v>
       </c>
     </row>
     <row r="63" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A63" s="3">
-        <f t="shared" si="4"/>
-        <v>270</v>
-      </c>
-      <c r="B63" s="3">
-        <f t="shared" ref="B63" si="11">B60</f>
-        <v>67</v>
-      </c>
-      <c r="C63" s="3">
-        <v>502</v>
-      </c>
-      <c r="D63" s="3">
-        <v>0</v>
-      </c>
-      <c r="E63" s="3">
-        <v>0</v>
-      </c>
-      <c r="F63" s="3">
-        <v>1</v>
-      </c>
-      <c r="G63" s="3" t="str">
-        <f t="shared" si="3"/>
-        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (270, 67, 502, 0, 0, 1);</v>
+      <c r="A63" s="4">
+        <f t="shared" si="3"/>
+        <v>339</v>
+      </c>
+      <c r="B63" s="4">
+        <f>B59+1</f>
+        <v>85</v>
+      </c>
+      <c r="C63" s="4">
+        <v>506</v>
+      </c>
+      <c r="D63" s="4">
+        <v>1</v>
+      </c>
+      <c r="E63" s="4">
+        <v>3</v>
+      </c>
+      <c r="F63" s="4">
+        <v>2</v>
+      </c>
+      <c r="G63" s="4" t="str">
+        <f t="shared" si="2"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (339, 85, 506, 1, 3, 2);</v>
       </c>
     </row>
     <row r="64" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A64" s="4">
-        <f t="shared" si="4"/>
-        <v>271</v>
+        <f t="shared" si="3"/>
+        <v>340</v>
       </c>
       <c r="B64" s="4">
-        <f>B60+1</f>
-        <v>68</v>
+        <f>B63</f>
+        <v>85</v>
       </c>
       <c r="C64" s="4">
         <v>506</v>
       </c>
       <c r="D64" s="4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E64" s="4">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="F64" s="4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G64" s="4" t="str">
-        <f t="shared" si="3"/>
-        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (271, 68, 506, 2, 3, 2);</v>
+        <f t="shared" si="2"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (340, 85, 506, 1, 0, 1);</v>
       </c>
     </row>
     <row r="65" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A65" s="4">
-        <f t="shared" si="4"/>
-        <v>272</v>
+        <f t="shared" si="3"/>
+        <v>341</v>
       </c>
       <c r="B65" s="4">
-        <f>B64</f>
-        <v>68</v>
+        <f>B63</f>
+        <v>85</v>
       </c>
       <c r="C65" s="4">
-        <v>506</v>
+        <v>504</v>
       </c>
       <c r="D65" s="4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E65" s="4">
         <v>0</v>
       </c>
       <c r="F65" s="4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G65" s="4" t="str">
-        <f t="shared" si="3"/>
-        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (272, 68, 506, 1, 0, 1);</v>
+        <f t="shared" si="2"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (341, 85, 504, 0, 0, 2);</v>
       </c>
     </row>
     <row r="66" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A66" s="4">
-        <f t="shared" si="4"/>
-        <v>273</v>
+        <f t="shared" si="3"/>
+        <v>342</v>
       </c>
       <c r="B66" s="4">
-        <f>B64</f>
-        <v>68</v>
+        <f t="shared" ref="B66" si="13">B63</f>
+        <v>85</v>
       </c>
       <c r="C66" s="4">
+        <v>504</v>
+      </c>
+      <c r="D66" s="4">
+        <v>0</v>
+      </c>
+      <c r="E66" s="4">
+        <v>0</v>
+      </c>
+      <c r="F66" s="4">
+        <v>1</v>
+      </c>
+      <c r="G66" s="4" t="str">
+        <f t="shared" si="2"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (342, 85, 504, 0, 0, 1);</v>
+      </c>
+    </row>
+    <row r="67" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A67" s="3">
+        <f t="shared" si="3"/>
+        <v>343</v>
+      </c>
+      <c r="B67" s="3">
+        <f>B63+1</f>
+        <v>86</v>
+      </c>
+      <c r="C67" s="3">
         <v>507</v>
       </c>
-      <c r="D66" s="4">
-        <v>1</v>
-      </c>
-      <c r="E66" s="4">
-        <v>0</v>
-      </c>
-      <c r="F66" s="4">
-        <v>2</v>
-      </c>
-      <c r="G66" s="4" t="str">
-        <f t="shared" si="3"/>
-        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (273, 68, 507, 1, 0, 2);</v>
-      </c>
-    </row>
-    <row r="67" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A67" s="4">
-        <f t="shared" si="4"/>
-        <v>274</v>
-      </c>
-      <c r="B67" s="4">
-        <f t="shared" ref="B67" si="12">B64</f>
-        <v>68</v>
-      </c>
-      <c r="C67" s="4">
-        <v>507</v>
-      </c>
-      <c r="D67" s="4">
-        <v>0</v>
-      </c>
-      <c r="E67" s="4">
-        <v>0</v>
-      </c>
-      <c r="F67" s="4">
-        <v>1</v>
-      </c>
-      <c r="G67" s="4" t="str">
-        <f t="shared" si="3"/>
-        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (274, 68, 507, 0, 0, 1);</v>
+      <c r="D67" s="3">
+        <v>0</v>
+      </c>
+      <c r="E67" s="3">
+        <v>0</v>
+      </c>
+      <c r="F67" s="3">
+        <v>2</v>
+      </c>
+      <c r="G67" s="3" t="str">
+        <f t="shared" si="2"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (343, 86, 507, 0, 0, 2);</v>
       </c>
     </row>
     <row r="68" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A68" s="3">
-        <f t="shared" si="4"/>
-        <v>275</v>
+        <f t="shared" si="3"/>
+        <v>344</v>
       </c>
       <c r="B68" s="3">
-        <f>B64+1</f>
-        <v>69</v>
+        <f>B67</f>
+        <v>86</v>
       </c>
       <c r="C68" s="3">
-        <v>503</v>
+        <v>507</v>
       </c>
       <c r="D68" s="3">
         <v>0</v>
       </c>
       <c r="E68" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F68" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G68" s="3" t="str">
-        <f t="shared" si="3"/>
-        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (275, 69, 503, 0, 1, 2);</v>
+        <f t="shared" si="2"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (344, 86, 507, 0, 0, 1);</v>
       </c>
     </row>
     <row r="69" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A69" s="3">
-        <f t="shared" si="4"/>
-        <v>276</v>
+        <f t="shared" si="3"/>
+        <v>345</v>
       </c>
       <c r="B69" s="3">
-        <f>B68</f>
-        <v>69</v>
+        <f>B67</f>
+        <v>86</v>
       </c>
       <c r="C69" s="3">
-        <v>503</v>
+        <v>505</v>
       </c>
       <c r="D69" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E69" s="3">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="F69" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G69" s="3" t="str">
-        <f t="shared" si="3"/>
-        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (276, 69, 503, 0, 0, 1);</v>
+        <f t="shared" si="2"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (345, 86, 505, 1, 3, 2);</v>
       </c>
     </row>
     <row r="70" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A70" s="3">
-        <f t="shared" si="4"/>
-        <v>277</v>
+        <f t="shared" si="3"/>
+        <v>346</v>
       </c>
       <c r="B70" s="3">
-        <f>B68</f>
-        <v>69</v>
+        <f t="shared" ref="B70" si="14">B67</f>
+        <v>86</v>
       </c>
       <c r="C70" s="3">
+        <v>505</v>
+      </c>
+      <c r="D70" s="3">
+        <v>0</v>
+      </c>
+      <c r="E70" s="3">
+        <v>0</v>
+      </c>
+      <c r="F70" s="3">
+        <v>1</v>
+      </c>
+      <c r="G70" s="3" t="str">
+        <f t="shared" si="2"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (346, 86, 505, 0, 0, 1);</v>
+      </c>
+    </row>
+    <row r="71" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A71" s="4">
+        <f t="shared" si="3"/>
+        <v>347</v>
+      </c>
+      <c r="B71" s="4">
+        <f>B67+1</f>
+        <v>87</v>
+      </c>
+      <c r="C71" s="4">
         <v>502</v>
       </c>
-      <c r="D70" s="3">
-        <v>0</v>
-      </c>
-      <c r="E70" s="3">
-        <v>1</v>
-      </c>
-      <c r="F70" s="3">
-        <v>2</v>
-      </c>
-      <c r="G70" s="3" t="str">
-        <f t="shared" si="3"/>
-        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (277, 69, 502, 0, 1, 2);</v>
-      </c>
-    </row>
-    <row r="71" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A71" s="3">
-        <f t="shared" si="4"/>
-        <v>278</v>
-      </c>
-      <c r="B71" s="3">
-        <f t="shared" ref="B71" si="13">B68</f>
-        <v>69</v>
-      </c>
-      <c r="C71" s="3">
-        <v>502</v>
-      </c>
-      <c r="D71" s="3">
-        <v>0</v>
-      </c>
-      <c r="E71" s="3">
-        <v>0</v>
-      </c>
-      <c r="F71" s="3">
-        <v>1</v>
-      </c>
-      <c r="G71" s="3" t="str">
-        <f t="shared" si="3"/>
-        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (278, 69, 502, 0, 0, 1);</v>
+      <c r="D71" s="4">
+        <v>2</v>
+      </c>
+      <c r="E71" s="4">
+        <v>3</v>
+      </c>
+      <c r="F71" s="4">
+        <v>2</v>
+      </c>
+      <c r="G71" s="4" t="str">
+        <f t="shared" si="2"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (347, 87, 502, 2, 3, 2);</v>
       </c>
     </row>
     <row r="72" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A72" s="4">
-        <f t="shared" si="4"/>
-        <v>279</v>
+        <f t="shared" si="3"/>
+        <v>348</v>
       </c>
       <c r="B72" s="4">
-        <f>B68+1</f>
-        <v>70</v>
+        <f>B71</f>
+        <v>87</v>
       </c>
       <c r="C72" s="4">
-        <v>506</v>
+        <v>502</v>
       </c>
       <c r="D72" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E72" s="4">
         <v>0</v>
       </c>
       <c r="F72" s="4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G72" s="4" t="str">
-        <f t="shared" si="3"/>
-        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (279, 70, 506, 0, 0, 2);</v>
+        <f t="shared" si="2"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (348, 87, 502, 1, 0, 1);</v>
       </c>
     </row>
     <row r="73" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A73" s="4">
-        <f t="shared" si="4"/>
-        <v>280</v>
+        <f t="shared" si="3"/>
+        <v>349</v>
       </c>
       <c r="B73" s="4">
-        <f>B72</f>
-        <v>70</v>
+        <f>B71</f>
+        <v>87</v>
       </c>
       <c r="C73" s="4">
-        <v>506</v>
+        <v>504</v>
       </c>
       <c r="D73" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E73" s="4">
         <v>0</v>
       </c>
       <c r="F73" s="4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G73" s="4" t="str">
-        <f t="shared" si="3"/>
-        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (280, 70, 506, 0, 0, 1);</v>
+        <f t="shared" si="2"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (349, 87, 504, 1, 0, 2);</v>
       </c>
     </row>
     <row r="74" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A74" s="4">
-        <f t="shared" si="4"/>
-        <v>281</v>
+        <f t="shared" si="3"/>
+        <v>350</v>
       </c>
       <c r="B74" s="4">
-        <f>B72</f>
-        <v>70</v>
+        <f t="shared" ref="B74" si="15">B71</f>
+        <v>87</v>
       </c>
       <c r="C74" s="4">
-        <v>502</v>
+        <v>504</v>
       </c>
       <c r="D74" s="4">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E74" s="4">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="F74" s="4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G74" s="4" t="str">
-        <f t="shared" si="3"/>
-        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (281, 70, 502, 2, 3, 2);</v>
+        <f t="shared" si="2"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (350, 87, 504, 0, 0, 1);</v>
       </c>
     </row>
     <row r="75" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A75" s="4">
-        <f t="shared" si="4"/>
-        <v>282</v>
-      </c>
-      <c r="B75" s="4">
-        <f t="shared" ref="B75" si="14">B72</f>
-        <v>70</v>
-      </c>
-      <c r="C75" s="4">
-        <v>502</v>
-      </c>
-      <c r="D75" s="4">
-        <v>1</v>
-      </c>
-      <c r="E75" s="4">
-        <v>0</v>
-      </c>
-      <c r="F75" s="4">
-        <v>1</v>
-      </c>
-      <c r="G75" s="4" t="str">
-        <f t="shared" si="3"/>
-        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (282, 70, 502, 1, 0, 1);</v>
+      <c r="A75" s="3">
+        <f t="shared" si="3"/>
+        <v>351</v>
+      </c>
+      <c r="B75" s="3">
+        <f>B71+1</f>
+        <v>88</v>
+      </c>
+      <c r="C75" s="3">
+        <v>507</v>
+      </c>
+      <c r="D75" s="3">
+        <v>0</v>
+      </c>
+      <c r="E75" s="3">
+        <v>0</v>
+      </c>
+      <c r="F75" s="3">
+        <v>2</v>
+      </c>
+      <c r="G75" s="3" t="str">
+        <f t="shared" si="2"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (351, 88, 507, 0, 0, 2);</v>
       </c>
     </row>
     <row r="76" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A76" s="3">
-        <f t="shared" si="4"/>
-        <v>283</v>
+        <f t="shared" si="3"/>
+        <v>352</v>
       </c>
       <c r="B76" s="3">
-        <f>B72+1</f>
-        <v>71</v>
+        <f>B75</f>
+        <v>88</v>
       </c>
       <c r="C76" s="3">
-        <v>503</v>
+        <v>507</v>
       </c>
       <c r="D76" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E76" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F76" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G76" s="3" t="str">
-        <f t="shared" ref="G76:G83" si="15">"insert into game_score (id, matchid, squad, goals, points, time_type) values (" &amp; A76 &amp; ", " &amp; B76 &amp; ", " &amp; C76 &amp; ", " &amp; D76 &amp; ", " &amp; E76 &amp; ", " &amp; F76 &amp; ");"</f>
-        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (283, 71, 503, 1, 1, 2);</v>
+        <f t="shared" si="2"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (352, 88, 507, 0, 0, 1);</v>
       </c>
     </row>
     <row r="77" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A77" s="3">
-        <f t="shared" si="4"/>
-        <v>284</v>
+        <f t="shared" si="3"/>
+        <v>353</v>
       </c>
       <c r="B77" s="3">
-        <f>B76</f>
-        <v>71</v>
+        <f>B75</f>
+        <v>88</v>
       </c>
       <c r="C77" s="3">
-        <v>503</v>
+        <v>506</v>
       </c>
       <c r="D77" s="3">
         <v>1</v>
       </c>
       <c r="E77" s="3">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="F77" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G77" s="3" t="str">
-        <f t="shared" si="15"/>
-        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (284, 71, 503, 1, 0, 1);</v>
+        <f t="shared" si="2"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (353, 88, 506, 1, 3, 2);</v>
       </c>
     </row>
     <row r="78" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A78" s="3">
-        <f t="shared" si="4"/>
-        <v>285</v>
+        <f t="shared" si="3"/>
+        <v>354</v>
       </c>
       <c r="B78" s="3">
-        <f>B76</f>
-        <v>71</v>
+        <f t="shared" ref="B78" si="16">B75</f>
+        <v>88</v>
       </c>
       <c r="C78" s="3">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="D78" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E78" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F78" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G78" s="3" t="str">
-        <f t="shared" si="15"/>
-        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (285, 71, 507, 1, 1, 2);</v>
-      </c>
-    </row>
-    <row r="79" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A79" s="3">
-        <f t="shared" si="4"/>
-        <v>286</v>
-      </c>
-      <c r="B79" s="3">
-        <f t="shared" ref="B79" si="16">B76</f>
-        <v>71</v>
-      </c>
-      <c r="C79" s="3">
-        <v>507</v>
-      </c>
-      <c r="D79" s="3">
-        <v>0</v>
-      </c>
-      <c r="E79" s="3">
-        <v>0</v>
-      </c>
-      <c r="F79" s="3">
-        <v>1</v>
-      </c>
-      <c r="G79" s="3" t="str">
-        <f t="shared" si="15"/>
-        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (286, 71, 507, 0, 0, 1);</v>
-      </c>
-    </row>
-    <row r="80" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A80" s="4">
-        <f t="shared" si="4"/>
-        <v>287</v>
-      </c>
-      <c r="B80" s="4">
-        <f>B76+1</f>
-        <v>72</v>
-      </c>
-      <c r="C80" s="4">
-        <v>506</v>
-      </c>
-      <c r="D80" s="4">
-        <v>1</v>
-      </c>
-      <c r="E80" s="4">
-        <v>1</v>
-      </c>
-      <c r="F80" s="4">
-        <v>2</v>
-      </c>
-      <c r="G80" s="4" t="str">
-        <f t="shared" si="15"/>
-        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (287, 72, 506, 1, 1, 2);</v>
-      </c>
-    </row>
-    <row r="81" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A81" s="4">
-        <f t="shared" si="4"/>
-        <v>288</v>
-      </c>
-      <c r="B81" s="4">
-        <f>B80</f>
-        <v>72</v>
-      </c>
-      <c r="C81" s="4">
-        <v>506</v>
-      </c>
-      <c r="D81" s="4">
-        <v>0</v>
-      </c>
-      <c r="E81" s="4">
-        <v>0</v>
-      </c>
-      <c r="F81" s="4">
-        <v>1</v>
-      </c>
-      <c r="G81" s="4" t="str">
-        <f t="shared" si="15"/>
-        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (288, 72, 506, 0, 0, 1);</v>
-      </c>
-    </row>
-    <row r="82" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A82" s="4">
-        <f t="shared" si="4"/>
-        <v>289</v>
-      </c>
-      <c r="B82" s="4">
-        <f>B80</f>
-        <v>72</v>
-      </c>
-      <c r="C82" s="4">
-        <v>503</v>
-      </c>
-      <c r="D82" s="4">
-        <v>1</v>
-      </c>
-      <c r="E82" s="4">
-        <v>1</v>
-      </c>
-      <c r="F82" s="4">
-        <v>2</v>
-      </c>
-      <c r="G82" s="4" t="str">
-        <f t="shared" si="15"/>
-        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (289, 72, 503, 1, 1, 2);</v>
-      </c>
-    </row>
-    <row r="83" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A83" s="4">
-        <f t="shared" si="4"/>
-        <v>290</v>
-      </c>
-      <c r="B83" s="4">
-        <f t="shared" ref="B83" si="17">B80</f>
-        <v>72</v>
-      </c>
-      <c r="C83" s="4">
-        <v>503</v>
-      </c>
-      <c r="D83" s="4">
-        <v>1</v>
-      </c>
-      <c r="E83" s="4">
-        <v>0</v>
-      </c>
-      <c r="F83" s="4">
-        <v>1</v>
-      </c>
-      <c r="G83" s="4" t="str">
-        <f t="shared" si="15"/>
-        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (290, 72, 503, 1, 0, 1);</v>
-      </c>
-    </row>
-    <row r="84" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A84" s="3">
-        <f t="shared" si="4"/>
-        <v>291</v>
-      </c>
-      <c r="B84" s="3">
-        <f>B80+1</f>
-        <v>73</v>
-      </c>
-      <c r="C84" s="3">
-        <v>502</v>
-      </c>
-      <c r="D84" s="3">
-        <v>3</v>
-      </c>
-      <c r="E84" s="3">
-        <v>3</v>
-      </c>
-      <c r="F84" s="3">
-        <v>2</v>
-      </c>
-      <c r="G84" s="3" t="str">
-        <f t="shared" ref="G84:G87" si="18">"insert into game_score (id, matchid, squad, goals, points, time_type) values (" &amp; A84 &amp; ", " &amp; B84 &amp; ", " &amp; C84 &amp; ", " &amp; D84 &amp; ", " &amp; E84 &amp; ", " &amp; F84 &amp; ");"</f>
-        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (291, 73, 502, 3, 3, 2);</v>
-      </c>
-    </row>
-    <row r="85" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A85" s="3">
-        <f t="shared" si="4"/>
-        <v>292</v>
-      </c>
-      <c r="B85" s="3">
-        <f>B84</f>
-        <v>73</v>
-      </c>
-      <c r="C85" s="3">
-        <v>502</v>
-      </c>
-      <c r="D85" s="3">
-        <v>2</v>
-      </c>
-      <c r="E85" s="3">
-        <v>0</v>
-      </c>
-      <c r="F85" s="3">
-        <v>1</v>
-      </c>
-      <c r="G85" s="3" t="str">
-        <f t="shared" si="18"/>
-        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (292, 73, 502, 2, 0, 1);</v>
-      </c>
-    </row>
-    <row r="86" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A86" s="3">
-        <f t="shared" si="4"/>
-        <v>293</v>
-      </c>
-      <c r="B86" s="3">
-        <f>B84</f>
-        <v>73</v>
-      </c>
-      <c r="C86" s="3">
-        <v>507</v>
-      </c>
-      <c r="D86" s="3">
-        <v>1</v>
-      </c>
-      <c r="E86" s="3">
-        <v>0</v>
-      </c>
-      <c r="F86" s="3">
-        <v>2</v>
-      </c>
-      <c r="G86" s="3" t="str">
-        <f t="shared" si="18"/>
-        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (293, 73, 507, 1, 0, 2);</v>
-      </c>
-    </row>
-    <row r="87" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A87" s="3">
-        <f t="shared" si="4"/>
-        <v>294</v>
-      </c>
-      <c r="B87" s="3">
-        <f t="shared" ref="B87" si="19">B84</f>
-        <v>73</v>
-      </c>
-      <c r="C87" s="3">
-        <v>507</v>
-      </c>
-      <c r="D87" s="3">
-        <v>0</v>
-      </c>
-      <c r="E87" s="3">
-        <v>0</v>
-      </c>
-      <c r="F87" s="3">
-        <v>1</v>
-      </c>
-      <c r="G87" s="3" t="str">
-        <f t="shared" si="18"/>
-        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (294, 73, 507, 0, 0, 1);</v>
+        <f t="shared" si="2"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (354, 88, 506, 0, 0, 1);</v>
       </c>
     </row>
   </sheetData>

--- a/Scripts/copacentroamericana/copacentroamericana.xlsx
+++ b/Scripts/copacentroamericana/copacentroamericana.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" tabRatio="666" activeTab="6"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" tabRatio="666" activeTab="8"/>
   </bookViews>
   <sheets>
     <sheet name="1991" sheetId="1" r:id="rId1"/>
@@ -14,13 +14,15 @@
     <sheet name="1999" sheetId="91" r:id="rId5"/>
     <sheet name="2001" sheetId="92" r:id="rId6"/>
     <sheet name="2003" sheetId="93" r:id="rId7"/>
+    <sheet name="2005" sheetId="94" r:id="rId8"/>
+    <sheet name="2007" sheetId="95" r:id="rId9"/>
   </sheets>
   <calcPr calcId="145621"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="119" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="161" uniqueCount="14">
   <si>
     <t>id</t>
   </si>
@@ -10481,6 +10483,3815 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G78"/>
   <sheetViews>
+    <sheetView zoomScaleNormal="100" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="9.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.85546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="7.42578125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="6.5703125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="111.140625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="G1" t="str">
+        <f>"insert into game (matchid, matchdate, game_type, country) values (" &amp; A1 &amp; ", '" &amp; B1 &amp; "', " &amp; C1 &amp; ", " &amp; D1 &amp;  ");"</f>
+        <v>insert into game (matchid, matchdate, game_type, country) values (matchid, 'matchdate', game_type, country);</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <f>'2001'!A25+1</f>
+        <v>74</v>
+      </c>
+      <c r="B2" s="2" t="str">
+        <f>"2003-02-09"</f>
+        <v>2003-02-09</v>
+      </c>
+      <c r="C2">
+        <v>2</v>
+      </c>
+      <c r="D2">
+        <v>507</v>
+      </c>
+      <c r="G2" t="str">
+        <f t="shared" ref="G2:G16" si="0">"insert into game (matchid, matchdate, game_type, country) values (" &amp; A2 &amp; ", '" &amp; B2 &amp; "', " &amp; C2 &amp; ", " &amp; D2 &amp;  ");"</f>
+        <v>insert into game (matchid, matchdate, game_type, country) values (74, '2003-02-09', 2, 507);</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <f>A2+1</f>
+        <v>75</v>
+      </c>
+      <c r="B3" s="2" t="str">
+        <f>"2003-02-11"</f>
+        <v>2003-02-11</v>
+      </c>
+      <c r="C3">
+        <v>2</v>
+      </c>
+      <c r="D3">
+        <v>507</v>
+      </c>
+      <c r="G3" t="str">
+        <f t="shared" si="0"/>
+        <v>insert into game (matchid, matchdate, game_type, country) values (75, '2003-02-11', 2, 507);</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <f t="shared" ref="A4:A16" si="1">A3+1</f>
+        <v>76</v>
+      </c>
+      <c r="B4" s="2" t="str">
+        <f>"2003-02-11"</f>
+        <v>2003-02-11</v>
+      </c>
+      <c r="C4">
+        <v>2</v>
+      </c>
+      <c r="D4">
+        <v>507</v>
+      </c>
+      <c r="G4" t="str">
+        <f t="shared" si="0"/>
+        <v>insert into game (matchid, matchdate, game_type, country) values (76, '2003-02-11', 2, 507);</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <f t="shared" si="1"/>
+        <v>77</v>
+      </c>
+      <c r="B5" s="2" t="str">
+        <f>"2003-02-13"</f>
+        <v>2003-02-13</v>
+      </c>
+      <c r="C5">
+        <v>2</v>
+      </c>
+      <c r="D5">
+        <v>507</v>
+      </c>
+      <c r="G5" t="str">
+        <f t="shared" si="0"/>
+        <v>insert into game (matchid, matchdate, game_type, country) values (77, '2003-02-13', 2, 507);</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <f t="shared" si="1"/>
+        <v>78</v>
+      </c>
+      <c r="B6" s="2" t="str">
+        <f>"2003-02-13"</f>
+        <v>2003-02-13</v>
+      </c>
+      <c r="C6">
+        <v>2</v>
+      </c>
+      <c r="D6">
+        <v>507</v>
+      </c>
+      <c r="G6" t="str">
+        <f t="shared" si="0"/>
+        <v>insert into game (matchid, matchdate, game_type, country) values (78, '2003-02-13', 2, 507);</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <f t="shared" si="1"/>
+        <v>79</v>
+      </c>
+      <c r="B7" s="2" t="str">
+        <f>"2003-02-15"</f>
+        <v>2003-02-15</v>
+      </c>
+      <c r="C7">
+        <v>2</v>
+      </c>
+      <c r="D7">
+        <v>507</v>
+      </c>
+      <c r="G7" t="str">
+        <f t="shared" si="0"/>
+        <v>insert into game (matchid, matchdate, game_type, country) values (79, '2003-02-15', 2, 507);</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <f t="shared" si="1"/>
+        <v>80</v>
+      </c>
+      <c r="B8" s="2" t="str">
+        <f>"2003-02-15"</f>
+        <v>2003-02-15</v>
+      </c>
+      <c r="C8">
+        <v>2</v>
+      </c>
+      <c r="D8">
+        <v>507</v>
+      </c>
+      <c r="G8" t="str">
+        <f t="shared" si="0"/>
+        <v>insert into game (matchid, matchdate, game_type, country) values (80, '2003-02-15', 2, 507);</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <f t="shared" si="1"/>
+        <v>81</v>
+      </c>
+      <c r="B9" s="2" t="str">
+        <f>"2003-02-16"</f>
+        <v>2003-02-16</v>
+      </c>
+      <c r="C9">
+        <v>2</v>
+      </c>
+      <c r="D9">
+        <v>507</v>
+      </c>
+      <c r="G9" t="str">
+        <f t="shared" si="0"/>
+        <v>insert into game (matchid, matchdate, game_type, country) values (81, '2003-02-16', 2, 507);</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <f t="shared" si="1"/>
+        <v>82</v>
+      </c>
+      <c r="B10" s="2" t="str">
+        <f>"2003-02-18"</f>
+        <v>2003-02-18</v>
+      </c>
+      <c r="C10">
+        <v>2</v>
+      </c>
+      <c r="D10">
+        <v>507</v>
+      </c>
+      <c r="G10" t="str">
+        <f t="shared" si="0"/>
+        <v>insert into game (matchid, matchdate, game_type, country) values (82, '2003-02-18', 2, 507);</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <f t="shared" si="1"/>
+        <v>83</v>
+      </c>
+      <c r="B11" s="2" t="str">
+        <f>"2003-02-18"</f>
+        <v>2003-02-18</v>
+      </c>
+      <c r="C11">
+        <v>2</v>
+      </c>
+      <c r="D11">
+        <v>507</v>
+      </c>
+      <c r="G11" t="str">
+        <f t="shared" si="0"/>
+        <v>insert into game (matchid, matchdate, game_type, country) values (83, '2003-02-18', 2, 507);</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <f t="shared" si="1"/>
+        <v>84</v>
+      </c>
+      <c r="B12" s="2" t="str">
+        <f>"2003-02-20"</f>
+        <v>2003-02-20</v>
+      </c>
+      <c r="C12">
+        <v>2</v>
+      </c>
+      <c r="D12">
+        <v>507</v>
+      </c>
+      <c r="G12" t="str">
+        <f t="shared" si="0"/>
+        <v>insert into game (matchid, matchdate, game_type, country) values (84, '2003-02-20', 2, 507);</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <f t="shared" si="1"/>
+        <v>85</v>
+      </c>
+      <c r="B13" s="2" t="str">
+        <f>"2003-02-20"</f>
+        <v>2003-02-20</v>
+      </c>
+      <c r="C13">
+        <v>2</v>
+      </c>
+      <c r="D13">
+        <v>507</v>
+      </c>
+      <c r="G13" t="str">
+        <f t="shared" si="0"/>
+        <v>insert into game (matchid, matchdate, game_type, country) values (85, '2003-02-20', 2, 507);</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <f t="shared" si="1"/>
+        <v>86</v>
+      </c>
+      <c r="B14" s="2" t="str">
+        <f>"2003-02-21"</f>
+        <v>2003-02-21</v>
+      </c>
+      <c r="C14">
+        <v>2</v>
+      </c>
+      <c r="D14">
+        <v>507</v>
+      </c>
+      <c r="G14" t="str">
+        <f t="shared" si="0"/>
+        <v>insert into game (matchid, matchdate, game_type, country) values (86, '2003-02-21', 2, 507);</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <f t="shared" si="1"/>
+        <v>87</v>
+      </c>
+      <c r="B15" s="2" t="str">
+        <f>"2003-02-23"</f>
+        <v>2003-02-23</v>
+      </c>
+      <c r="C15">
+        <v>2</v>
+      </c>
+      <c r="D15">
+        <v>507</v>
+      </c>
+      <c r="G15" t="str">
+        <f t="shared" si="0"/>
+        <v>insert into game (matchid, matchdate, game_type, country) values (87, '2003-02-23', 2, 507);</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <f t="shared" si="1"/>
+        <v>88</v>
+      </c>
+      <c r="B16" s="2" t="str">
+        <f>"2003-02-23"</f>
+        <v>2003-02-23</v>
+      </c>
+      <c r="C16">
+        <v>2</v>
+      </c>
+      <c r="D16">
+        <v>507</v>
+      </c>
+      <c r="G16" t="str">
+        <f t="shared" si="0"/>
+        <v>insert into game (matchid, matchdate, game_type, country) values (88, '2003-02-23', 2, 507);</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A18" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E18" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F18" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G18" t="str">
+        <f>"insert into game_score (id, matchid, squad, goals, points, time_type) values (" &amp; A18 &amp; ", " &amp; B18 &amp; ", " &amp; C18 &amp; ", " &amp; D18 &amp; ", " &amp; E18 &amp; ", " &amp; F18 &amp; ");"</f>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (id, matchid, squad, goals, points, time_type);</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A19" s="3">
+        <f>'2001'!A87 + 1</f>
+        <v>295</v>
+      </c>
+      <c r="B19" s="3">
+        <f>A2</f>
+        <v>74</v>
+      </c>
+      <c r="C19" s="3">
+        <v>507</v>
+      </c>
+      <c r="D19" s="3">
+        <v>1</v>
+      </c>
+      <c r="E19" s="3">
+        <v>0</v>
+      </c>
+      <c r="F19" s="3">
+        <v>2</v>
+      </c>
+      <c r="G19" s="3" t="str">
+        <f t="shared" ref="G19:G78" si="2">"insert into game_score (id, matchid, squad, goals, points, time_type) values (" &amp; A19 &amp; ", " &amp; B19 &amp; ", " &amp; C19 &amp; ", " &amp; D19 &amp; ", " &amp; E19 &amp; ", " &amp; F19 &amp; ");"</f>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (295, 74, 507, 1, 0, 2);</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A20" s="3">
+        <f>A19+1</f>
+        <v>296</v>
+      </c>
+      <c r="B20" s="3">
+        <f>B19</f>
+        <v>74</v>
+      </c>
+      <c r="C20" s="3">
+        <v>507</v>
+      </c>
+      <c r="D20" s="3">
+        <v>1</v>
+      </c>
+      <c r="E20" s="3">
+        <v>0</v>
+      </c>
+      <c r="F20" s="3">
+        <v>1</v>
+      </c>
+      <c r="G20" s="3" t="str">
+        <f t="shared" si="2"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (296, 74, 507, 1, 0, 1);</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A21" s="3">
+        <f t="shared" ref="A21:A78" si="3">A20+1</f>
+        <v>297</v>
+      </c>
+      <c r="B21" s="3">
+        <f>B19</f>
+        <v>74</v>
+      </c>
+      <c r="C21" s="3">
+        <v>503</v>
+      </c>
+      <c r="D21" s="3">
+        <v>2</v>
+      </c>
+      <c r="E21" s="3">
+        <v>3</v>
+      </c>
+      <c r="F21" s="3">
+        <v>2</v>
+      </c>
+      <c r="G21" s="3" t="str">
+        <f t="shared" si="2"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (297, 74, 503, 2, 3, 2);</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A22" s="3">
+        <f t="shared" si="3"/>
+        <v>298</v>
+      </c>
+      <c r="B22" s="3">
+        <f>B19</f>
+        <v>74</v>
+      </c>
+      <c r="C22" s="3">
+        <v>503</v>
+      </c>
+      <c r="D22" s="3">
+        <v>0</v>
+      </c>
+      <c r="E22" s="3">
+        <v>0</v>
+      </c>
+      <c r="F22" s="3">
+        <v>1</v>
+      </c>
+      <c r="G22" s="3" t="str">
+        <f t="shared" si="2"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (298, 74, 503, 0, 0, 1);</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A23" s="4">
+        <f>A22+1</f>
+        <v>299</v>
+      </c>
+      <c r="B23" s="4">
+        <f>B19+1</f>
+        <v>75</v>
+      </c>
+      <c r="C23" s="4">
+        <v>504</v>
+      </c>
+      <c r="D23" s="4">
+        <v>2</v>
+      </c>
+      <c r="E23" s="4">
+        <v>3</v>
+      </c>
+      <c r="F23" s="4">
+        <v>2</v>
+      </c>
+      <c r="G23" t="str">
+        <f t="shared" si="2"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (299, 75, 504, 2, 3, 2);</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A24" s="4">
+        <f t="shared" si="3"/>
+        <v>300</v>
+      </c>
+      <c r="B24" s="4">
+        <f>B23</f>
+        <v>75</v>
+      </c>
+      <c r="C24" s="4">
+        <v>504</v>
+      </c>
+      <c r="D24" s="4">
+        <v>2</v>
+      </c>
+      <c r="E24" s="4">
+        <v>0</v>
+      </c>
+      <c r="F24" s="4">
+        <v>1</v>
+      </c>
+      <c r="G24" t="str">
+        <f t="shared" si="2"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (300, 75, 504, 2, 0, 1);</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A25" s="4">
+        <f t="shared" si="3"/>
+        <v>301</v>
+      </c>
+      <c r="B25" s="4">
+        <f>B23</f>
+        <v>75</v>
+      </c>
+      <c r="C25" s="4">
+        <v>505</v>
+      </c>
+      <c r="D25" s="4">
+        <v>0</v>
+      </c>
+      <c r="E25" s="4">
+        <v>0</v>
+      </c>
+      <c r="F25" s="4">
+        <v>2</v>
+      </c>
+      <c r="G25" t="str">
+        <f t="shared" si="2"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (301, 75, 505, 0, 0, 2);</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A26" s="4">
+        <f t="shared" si="3"/>
+        <v>302</v>
+      </c>
+      <c r="B26" s="4">
+        <f>B23</f>
+        <v>75</v>
+      </c>
+      <c r="C26" s="4">
+        <v>505</v>
+      </c>
+      <c r="D26" s="4">
+        <v>0</v>
+      </c>
+      <c r="E26" s="4">
+        <v>0</v>
+      </c>
+      <c r="F26" s="4">
+        <v>1</v>
+      </c>
+      <c r="G26" t="str">
+        <f t="shared" si="2"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (302, 75, 505, 0, 0, 1);</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A27" s="3">
+        <f t="shared" si="3"/>
+        <v>303</v>
+      </c>
+      <c r="B27" s="3">
+        <f>B23+1</f>
+        <v>76</v>
+      </c>
+      <c r="C27" s="3">
+        <v>506</v>
+      </c>
+      <c r="D27" s="3">
+        <v>1</v>
+      </c>
+      <c r="E27" s="3">
+        <v>3</v>
+      </c>
+      <c r="F27" s="3">
+        <v>2</v>
+      </c>
+      <c r="G27" s="3" t="str">
+        <f t="shared" si="2"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (303, 76, 506, 1, 3, 2);</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A28" s="3">
+        <f t="shared" si="3"/>
+        <v>304</v>
+      </c>
+      <c r="B28" s="3">
+        <f>B27</f>
+        <v>76</v>
+      </c>
+      <c r="C28" s="3">
+        <v>506</v>
+      </c>
+      <c r="D28" s="3">
+        <v>0</v>
+      </c>
+      <c r="E28" s="3">
+        <v>0</v>
+      </c>
+      <c r="F28" s="3">
+        <v>1</v>
+      </c>
+      <c r="G28" s="3" t="str">
+        <f t="shared" si="2"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (304, 76, 506, 0, 0, 1);</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A29" s="3">
+        <f t="shared" si="3"/>
+        <v>305</v>
+      </c>
+      <c r="B29" s="3">
+        <f>B27</f>
+        <v>76</v>
+      </c>
+      <c r="C29" s="3">
+        <v>503</v>
+      </c>
+      <c r="D29" s="3">
+        <v>0</v>
+      </c>
+      <c r="E29" s="3">
+        <v>0</v>
+      </c>
+      <c r="F29" s="3">
+        <v>2</v>
+      </c>
+      <c r="G29" s="3" t="str">
+        <f t="shared" si="2"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (305, 76, 503, 0, 0, 2);</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A30" s="3">
+        <f t="shared" si="3"/>
+        <v>306</v>
+      </c>
+      <c r="B30" s="3">
+        <f t="shared" ref="B30" si="4">B27</f>
+        <v>76</v>
+      </c>
+      <c r="C30" s="3">
+        <v>503</v>
+      </c>
+      <c r="D30" s="3">
+        <v>0</v>
+      </c>
+      <c r="E30" s="3">
+        <v>0</v>
+      </c>
+      <c r="F30" s="3">
+        <v>1</v>
+      </c>
+      <c r="G30" s="3" t="str">
+        <f t="shared" si="2"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (306, 76, 503, 0, 0, 1);</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A31" s="4">
+        <f t="shared" si="3"/>
+        <v>307</v>
+      </c>
+      <c r="B31" s="4">
+        <f>B27+1</f>
+        <v>77</v>
+      </c>
+      <c r="C31" s="4">
+        <v>503</v>
+      </c>
+      <c r="D31" s="4">
+        <v>3</v>
+      </c>
+      <c r="E31" s="4">
+        <v>3</v>
+      </c>
+      <c r="F31" s="4">
+        <v>2</v>
+      </c>
+      <c r="G31" s="4" t="str">
+        <f t="shared" si="2"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (307, 77, 503, 3, 3, 2);</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A32" s="4">
+        <f t="shared" si="3"/>
+        <v>308</v>
+      </c>
+      <c r="B32" s="4">
+        <f>B31</f>
+        <v>77</v>
+      </c>
+      <c r="C32" s="4">
+        <v>503</v>
+      </c>
+      <c r="D32" s="4">
+        <v>2</v>
+      </c>
+      <c r="E32" s="4">
+        <v>0</v>
+      </c>
+      <c r="F32" s="4">
+        <v>1</v>
+      </c>
+      <c r="G32" s="4" t="str">
+        <f t="shared" si="2"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (308, 77, 503, 2, 0, 1);</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A33" s="4">
+        <f t="shared" si="3"/>
+        <v>309</v>
+      </c>
+      <c r="B33" s="4">
+        <f>B31</f>
+        <v>77</v>
+      </c>
+      <c r="C33" s="4">
+        <v>505</v>
+      </c>
+      <c r="D33" s="4">
+        <v>0</v>
+      </c>
+      <c r="E33" s="4">
+        <v>0</v>
+      </c>
+      <c r="F33" s="4">
+        <v>2</v>
+      </c>
+      <c r="G33" s="4" t="str">
+        <f t="shared" si="2"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (309, 77, 505, 0, 0, 2);</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A34" s="4">
+        <f t="shared" si="3"/>
+        <v>310</v>
+      </c>
+      <c r="B34" s="4">
+        <f t="shared" ref="B34" si="5">B31</f>
+        <v>77</v>
+      </c>
+      <c r="C34" s="4">
+        <v>505</v>
+      </c>
+      <c r="D34" s="4">
+        <v>0</v>
+      </c>
+      <c r="E34" s="4">
+        <v>0</v>
+      </c>
+      <c r="F34" s="4">
+        <v>1</v>
+      </c>
+      <c r="G34" s="4" t="str">
+        <f t="shared" si="2"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (310, 77, 505, 0, 0, 1);</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A35" s="3">
+        <f t="shared" si="3"/>
+        <v>311</v>
+      </c>
+      <c r="B35" s="3">
+        <f>B31+1</f>
+        <v>78</v>
+      </c>
+      <c r="C35" s="3">
+        <v>502</v>
+      </c>
+      <c r="D35" s="3">
+        <v>1</v>
+      </c>
+      <c r="E35" s="3">
+        <v>1</v>
+      </c>
+      <c r="F35" s="3">
+        <v>2</v>
+      </c>
+      <c r="G35" s="3" t="str">
+        <f t="shared" si="2"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (311, 78, 502, 1, 1, 2);</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A36" s="3">
+        <f t="shared" si="3"/>
+        <v>312</v>
+      </c>
+      <c r="B36" s="3">
+        <f>B35</f>
+        <v>78</v>
+      </c>
+      <c r="C36" s="3">
+        <v>502</v>
+      </c>
+      <c r="D36" s="3">
+        <v>1</v>
+      </c>
+      <c r="E36" s="3">
+        <v>0</v>
+      </c>
+      <c r="F36" s="3">
+        <v>1</v>
+      </c>
+      <c r="G36" s="3" t="str">
+        <f t="shared" si="2"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (312, 78, 502, 1, 0, 1);</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A37" s="3">
+        <f t="shared" si="3"/>
+        <v>313</v>
+      </c>
+      <c r="B37" s="3">
+        <f>B35</f>
+        <v>78</v>
+      </c>
+      <c r="C37" s="3">
+        <v>506</v>
+      </c>
+      <c r="D37" s="3">
+        <v>1</v>
+      </c>
+      <c r="E37" s="3">
+        <v>1</v>
+      </c>
+      <c r="F37" s="3">
+        <v>2</v>
+      </c>
+      <c r="G37" s="3" t="str">
+        <f t="shared" si="2"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (313, 78, 506, 1, 1, 2);</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A38" s="3">
+        <f t="shared" si="3"/>
+        <v>314</v>
+      </c>
+      <c r="B38" s="3">
+        <f t="shared" ref="B38" si="6">B35</f>
+        <v>78</v>
+      </c>
+      <c r="C38" s="3">
+        <v>506</v>
+      </c>
+      <c r="D38" s="3">
+        <v>1</v>
+      </c>
+      <c r="E38" s="3">
+        <v>0</v>
+      </c>
+      <c r="F38" s="3">
+        <v>1</v>
+      </c>
+      <c r="G38" s="3" t="str">
+        <f t="shared" si="2"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (314, 78, 506, 1, 0, 1);</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A39" s="4">
+        <f t="shared" si="3"/>
+        <v>315</v>
+      </c>
+      <c r="B39" s="4">
+        <f>B35+1</f>
+        <v>79</v>
+      </c>
+      <c r="C39" s="4">
+        <v>506</v>
+      </c>
+      <c r="D39" s="4">
+        <v>1</v>
+      </c>
+      <c r="E39" s="4">
+        <v>3</v>
+      </c>
+      <c r="F39" s="4">
+        <v>2</v>
+      </c>
+      <c r="G39" s="4" t="str">
+        <f t="shared" si="2"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (315, 79, 506, 1, 3, 2);</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A40" s="4">
+        <f t="shared" si="3"/>
+        <v>316</v>
+      </c>
+      <c r="B40" s="4">
+        <f>B39</f>
+        <v>79</v>
+      </c>
+      <c r="C40" s="4">
+        <v>506</v>
+      </c>
+      <c r="D40" s="4">
+        <v>1</v>
+      </c>
+      <c r="E40" s="4">
+        <v>0</v>
+      </c>
+      <c r="F40" s="4">
+        <v>1</v>
+      </c>
+      <c r="G40" s="4" t="str">
+        <f t="shared" si="2"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (316, 79, 506, 1, 0, 1);</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A41" s="4">
+        <f t="shared" si="3"/>
+        <v>317</v>
+      </c>
+      <c r="B41" s="4">
+        <f>B39</f>
+        <v>79</v>
+      </c>
+      <c r="C41" s="4">
+        <v>505</v>
+      </c>
+      <c r="D41" s="4">
+        <v>0</v>
+      </c>
+      <c r="E41" s="4">
+        <v>0</v>
+      </c>
+      <c r="F41" s="4">
+        <v>2</v>
+      </c>
+      <c r="G41" s="4" t="str">
+        <f t="shared" si="2"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (317, 79, 505, 0, 0, 2);</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A42" s="4">
+        <f t="shared" si="3"/>
+        <v>318</v>
+      </c>
+      <c r="B42" s="4">
+        <f t="shared" ref="B42" si="7">B39</f>
+        <v>79</v>
+      </c>
+      <c r="C42" s="4">
+        <v>505</v>
+      </c>
+      <c r="D42" s="4">
+        <v>0</v>
+      </c>
+      <c r="E42" s="4">
+        <v>0</v>
+      </c>
+      <c r="F42" s="4">
+        <v>1</v>
+      </c>
+      <c r="G42" s="4" t="str">
+        <f t="shared" si="2"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (318, 79, 505, 0, 0, 1);</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A43" s="3">
+        <f t="shared" si="3"/>
+        <v>319</v>
+      </c>
+      <c r="B43" s="3">
+        <f>B39+1</f>
+        <v>80</v>
+      </c>
+      <c r="C43" s="3">
+        <v>503</v>
+      </c>
+      <c r="D43" s="3">
+        <v>1</v>
+      </c>
+      <c r="E43" s="3">
+        <v>3</v>
+      </c>
+      <c r="F43" s="3">
+        <v>2</v>
+      </c>
+      <c r="G43" s="3" t="str">
+        <f t="shared" si="2"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (319, 80, 503, 1, 3, 2);</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A44" s="3">
+        <f t="shared" si="3"/>
+        <v>320</v>
+      </c>
+      <c r="B44" s="3">
+        <f>B43</f>
+        <v>80</v>
+      </c>
+      <c r="C44" s="3">
+        <v>503</v>
+      </c>
+      <c r="D44" s="3">
+        <v>0</v>
+      </c>
+      <c r="E44" s="3">
+        <v>0</v>
+      </c>
+      <c r="F44" s="3">
+        <v>1</v>
+      </c>
+      <c r="G44" s="3" t="str">
+        <f t="shared" si="2"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (320, 80, 503, 0, 0, 1);</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A45" s="3">
+        <f t="shared" si="3"/>
+        <v>321</v>
+      </c>
+      <c r="B45" s="3">
+        <f>B43</f>
+        <v>80</v>
+      </c>
+      <c r="C45" s="3">
+        <v>504</v>
+      </c>
+      <c r="D45" s="3">
+        <v>0</v>
+      </c>
+      <c r="E45" s="3">
+        <v>0</v>
+      </c>
+      <c r="F45" s="3">
+        <v>2</v>
+      </c>
+      <c r="G45" s="3" t="str">
+        <f t="shared" si="2"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (321, 80, 504, 0, 0, 2);</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A46" s="3">
+        <f t="shared" si="3"/>
+        <v>322</v>
+      </c>
+      <c r="B46" s="3">
+        <f t="shared" ref="B46" si="8">B43</f>
+        <v>80</v>
+      </c>
+      <c r="C46" s="3">
+        <v>504</v>
+      </c>
+      <c r="D46" s="3">
+        <v>0</v>
+      </c>
+      <c r="E46" s="3">
+        <v>0</v>
+      </c>
+      <c r="F46" s="3">
+        <v>1</v>
+      </c>
+      <c r="G46" s="3" t="str">
+        <f t="shared" si="2"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (322, 80, 504, 0, 0, 1);</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A47" s="4">
+        <f t="shared" si="3"/>
+        <v>323</v>
+      </c>
+      <c r="B47" s="4">
+        <f>B43+1</f>
+        <v>81</v>
+      </c>
+      <c r="C47" s="4">
+        <v>507</v>
+      </c>
+      <c r="D47" s="4">
+        <v>2</v>
+      </c>
+      <c r="E47" s="4">
+        <v>3</v>
+      </c>
+      <c r="F47" s="4">
+        <v>2</v>
+      </c>
+      <c r="G47" s="4" t="str">
+        <f t="shared" si="2"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (323, 81, 507, 2, 3, 2);</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A48" s="4">
+        <f t="shared" si="3"/>
+        <v>324</v>
+      </c>
+      <c r="B48" s="4">
+        <f>B47</f>
+        <v>81</v>
+      </c>
+      <c r="C48" s="4">
+        <v>507</v>
+      </c>
+      <c r="D48" s="4">
+        <v>2</v>
+      </c>
+      <c r="E48" s="4">
+        <v>0</v>
+      </c>
+      <c r="F48" s="4">
+        <v>1</v>
+      </c>
+      <c r="G48" s="4" t="str">
+        <f t="shared" si="2"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (324, 81, 507, 2, 0, 1);</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A49" s="4">
+        <f t="shared" si="3"/>
+        <v>325</v>
+      </c>
+      <c r="B49" s="4">
+        <f>B47</f>
+        <v>81</v>
+      </c>
+      <c r="C49" s="4">
+        <v>502</v>
+      </c>
+      <c r="D49" s="4">
+        <v>0</v>
+      </c>
+      <c r="E49" s="4">
+        <v>0</v>
+      </c>
+      <c r="F49" s="4">
+        <v>2</v>
+      </c>
+      <c r="G49" s="4" t="str">
+        <f t="shared" si="2"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (325, 81, 502, 0, 0, 2);</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A50" s="4">
+        <f t="shared" si="3"/>
+        <v>326</v>
+      </c>
+      <c r="B50" s="4">
+        <f t="shared" ref="B50" si="9">B47</f>
+        <v>81</v>
+      </c>
+      <c r="C50" s="4">
+        <v>502</v>
+      </c>
+      <c r="D50" s="4">
+        <v>0</v>
+      </c>
+      <c r="E50" s="4">
+        <v>0</v>
+      </c>
+      <c r="F50" s="4">
+        <v>1</v>
+      </c>
+      <c r="G50" s="4" t="str">
+        <f t="shared" si="2"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (326, 81, 502, 0, 0, 1);</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A51" s="3">
+        <f t="shared" si="3"/>
+        <v>327</v>
+      </c>
+      <c r="B51" s="3">
+        <f>B47+1</f>
+        <v>82</v>
+      </c>
+      <c r="C51" s="3">
+        <v>502</v>
+      </c>
+      <c r="D51" s="3">
+        <v>5</v>
+      </c>
+      <c r="E51" s="3">
+        <v>3</v>
+      </c>
+      <c r="F51" s="3">
+        <v>2</v>
+      </c>
+      <c r="G51" s="3" t="str">
+        <f t="shared" si="2"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (327, 82, 502, 5, 3, 2);</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A52" s="3">
+        <f t="shared" si="3"/>
+        <v>328</v>
+      </c>
+      <c r="B52" s="3">
+        <f>B51</f>
+        <v>82</v>
+      </c>
+      <c r="C52" s="3">
+        <v>502</v>
+      </c>
+      <c r="D52" s="3">
+        <v>2</v>
+      </c>
+      <c r="E52" s="3">
+        <v>0</v>
+      </c>
+      <c r="F52" s="3">
+        <v>1</v>
+      </c>
+      <c r="G52" s="3" t="str">
+        <f t="shared" si="2"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (328, 82, 502, 2, 0, 1);</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A53" s="3">
+        <f t="shared" si="3"/>
+        <v>329</v>
+      </c>
+      <c r="B53" s="3">
+        <f>B51</f>
+        <v>82</v>
+      </c>
+      <c r="C53" s="3">
+        <v>505</v>
+      </c>
+      <c r="D53" s="3">
+        <v>0</v>
+      </c>
+      <c r="E53" s="3">
+        <v>0</v>
+      </c>
+      <c r="F53" s="3">
+        <v>2</v>
+      </c>
+      <c r="G53" s="3" t="str">
+        <f t="shared" si="2"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (329, 82, 505, 0, 0, 2);</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A54" s="3">
+        <f t="shared" si="3"/>
+        <v>330</v>
+      </c>
+      <c r="B54" s="3">
+        <f t="shared" ref="B54" si="10">B51</f>
+        <v>82</v>
+      </c>
+      <c r="C54" s="3">
+        <v>505</v>
+      </c>
+      <c r="D54" s="3">
+        <v>0</v>
+      </c>
+      <c r="E54" s="3">
+        <v>0</v>
+      </c>
+      <c r="F54" s="3">
+        <v>1</v>
+      </c>
+      <c r="G54" s="3" t="str">
+        <f t="shared" si="2"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (330, 82, 505, 0, 0, 1);</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A55" s="4">
+        <f t="shared" si="3"/>
+        <v>331</v>
+      </c>
+      <c r="B55" s="4">
+        <f>B51+1</f>
+        <v>83</v>
+      </c>
+      <c r="C55" s="4">
+        <v>507</v>
+      </c>
+      <c r="D55" s="4">
+        <v>1</v>
+      </c>
+      <c r="E55" s="4">
+        <v>1</v>
+      </c>
+      <c r="F55" s="4">
+        <v>2</v>
+      </c>
+      <c r="G55" s="4" t="str">
+        <f t="shared" si="2"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (331, 83, 507, 1, 1, 2);</v>
+      </c>
+    </row>
+    <row r="56" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A56" s="4">
+        <f t="shared" si="3"/>
+        <v>332</v>
+      </c>
+      <c r="B56" s="4">
+        <f>B55</f>
+        <v>83</v>
+      </c>
+      <c r="C56" s="4">
+        <v>507</v>
+      </c>
+      <c r="D56" s="4">
+        <v>0</v>
+      </c>
+      <c r="E56" s="4">
+        <v>0</v>
+      </c>
+      <c r="F56" s="4">
+        <v>1</v>
+      </c>
+      <c r="G56" s="4" t="str">
+        <f t="shared" si="2"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (332, 83, 507, 0, 0, 1);</v>
+      </c>
+    </row>
+    <row r="57" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A57" s="4">
+        <f t="shared" si="3"/>
+        <v>333</v>
+      </c>
+      <c r="B57" s="4">
+        <f>B55</f>
+        <v>83</v>
+      </c>
+      <c r="C57" s="4">
+        <v>504</v>
+      </c>
+      <c r="D57" s="4">
+        <v>1</v>
+      </c>
+      <c r="E57" s="4">
+        <v>1</v>
+      </c>
+      <c r="F57" s="4">
+        <v>2</v>
+      </c>
+      <c r="G57" s="4" t="str">
+        <f t="shared" si="2"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (333, 83, 504, 1, 1, 2);</v>
+      </c>
+    </row>
+    <row r="58" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A58" s="4">
+        <f t="shared" si="3"/>
+        <v>334</v>
+      </c>
+      <c r="B58" s="4">
+        <f t="shared" ref="B58" si="11">B55</f>
+        <v>83</v>
+      </c>
+      <c r="C58" s="4">
+        <v>504</v>
+      </c>
+      <c r="D58" s="4">
+        <v>1</v>
+      </c>
+      <c r="E58" s="4">
+        <v>0</v>
+      </c>
+      <c r="F58" s="4">
+        <v>1</v>
+      </c>
+      <c r="G58" s="4" t="str">
+        <f t="shared" si="2"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (334, 83, 504, 1, 0, 1);</v>
+      </c>
+    </row>
+    <row r="59" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A59" s="3">
+        <f t="shared" si="3"/>
+        <v>335</v>
+      </c>
+      <c r="B59" s="3">
+        <f>B55+1</f>
+        <v>84</v>
+      </c>
+      <c r="C59" s="3">
+        <v>502</v>
+      </c>
+      <c r="D59" s="3">
+        <v>2</v>
+      </c>
+      <c r="E59" s="3">
+        <v>3</v>
+      </c>
+      <c r="F59" s="3">
+        <v>2</v>
+      </c>
+      <c r="G59" s="3" t="str">
+        <f t="shared" si="2"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (335, 84, 502, 2, 3, 2);</v>
+      </c>
+    </row>
+    <row r="60" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A60" s="3">
+        <f t="shared" si="3"/>
+        <v>336</v>
+      </c>
+      <c r="B60" s="3">
+        <f>B59</f>
+        <v>84</v>
+      </c>
+      <c r="C60" s="3">
+        <v>502</v>
+      </c>
+      <c r="D60" s="3">
+        <v>1</v>
+      </c>
+      <c r="E60" s="3">
+        <v>0</v>
+      </c>
+      <c r="F60" s="3">
+        <v>1</v>
+      </c>
+      <c r="G60" s="3" t="str">
+        <f t="shared" si="2"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (336, 84, 502, 1, 0, 1);</v>
+      </c>
+    </row>
+    <row r="61" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A61" s="3">
+        <f t="shared" si="3"/>
+        <v>337</v>
+      </c>
+      <c r="B61" s="3">
+        <f>B59</f>
+        <v>84</v>
+      </c>
+      <c r="C61" s="3">
+        <v>503</v>
+      </c>
+      <c r="D61" s="3">
+        <v>0</v>
+      </c>
+      <c r="E61" s="3">
+        <v>0</v>
+      </c>
+      <c r="F61" s="3">
+        <v>2</v>
+      </c>
+      <c r="G61" s="3" t="str">
+        <f t="shared" si="2"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (337, 84, 503, 0, 0, 2);</v>
+      </c>
+    </row>
+    <row r="62" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A62" s="3">
+        <f t="shared" si="3"/>
+        <v>338</v>
+      </c>
+      <c r="B62" s="3">
+        <f t="shared" ref="B62" si="12">B59</f>
+        <v>84</v>
+      </c>
+      <c r="C62" s="3">
+        <v>503</v>
+      </c>
+      <c r="D62" s="3">
+        <v>0</v>
+      </c>
+      <c r="E62" s="3">
+        <v>0</v>
+      </c>
+      <c r="F62" s="3">
+        <v>1</v>
+      </c>
+      <c r="G62" s="3" t="str">
+        <f t="shared" si="2"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (338, 84, 503, 0, 0, 1);</v>
+      </c>
+    </row>
+    <row r="63" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A63" s="4">
+        <f t="shared" si="3"/>
+        <v>339</v>
+      </c>
+      <c r="B63" s="4">
+        <f>B59+1</f>
+        <v>85</v>
+      </c>
+      <c r="C63" s="4">
+        <v>506</v>
+      </c>
+      <c r="D63" s="4">
+        <v>1</v>
+      </c>
+      <c r="E63" s="4">
+        <v>3</v>
+      </c>
+      <c r="F63" s="4">
+        <v>2</v>
+      </c>
+      <c r="G63" s="4" t="str">
+        <f t="shared" si="2"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (339, 85, 506, 1, 3, 2);</v>
+      </c>
+    </row>
+    <row r="64" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A64" s="4">
+        <f t="shared" si="3"/>
+        <v>340</v>
+      </c>
+      <c r="B64" s="4">
+        <f>B63</f>
+        <v>85</v>
+      </c>
+      <c r="C64" s="4">
+        <v>506</v>
+      </c>
+      <c r="D64" s="4">
+        <v>1</v>
+      </c>
+      <c r="E64" s="4">
+        <v>0</v>
+      </c>
+      <c r="F64" s="4">
+        <v>1</v>
+      </c>
+      <c r="G64" s="4" t="str">
+        <f t="shared" si="2"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (340, 85, 506, 1, 0, 1);</v>
+      </c>
+    </row>
+    <row r="65" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A65" s="4">
+        <f t="shared" si="3"/>
+        <v>341</v>
+      </c>
+      <c r="B65" s="4">
+        <f>B63</f>
+        <v>85</v>
+      </c>
+      <c r="C65" s="4">
+        <v>504</v>
+      </c>
+      <c r="D65" s="4">
+        <v>0</v>
+      </c>
+      <c r="E65" s="4">
+        <v>0</v>
+      </c>
+      <c r="F65" s="4">
+        <v>2</v>
+      </c>
+      <c r="G65" s="4" t="str">
+        <f t="shared" si="2"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (341, 85, 504, 0, 0, 2);</v>
+      </c>
+    </row>
+    <row r="66" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A66" s="4">
+        <f t="shared" si="3"/>
+        <v>342</v>
+      </c>
+      <c r="B66" s="4">
+        <f t="shared" ref="B66" si="13">B63</f>
+        <v>85</v>
+      </c>
+      <c r="C66" s="4">
+        <v>504</v>
+      </c>
+      <c r="D66" s="4">
+        <v>0</v>
+      </c>
+      <c r="E66" s="4">
+        <v>0</v>
+      </c>
+      <c r="F66" s="4">
+        <v>1</v>
+      </c>
+      <c r="G66" s="4" t="str">
+        <f t="shared" si="2"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (342, 85, 504, 0, 0, 1);</v>
+      </c>
+    </row>
+    <row r="67" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A67" s="3">
+        <f t="shared" si="3"/>
+        <v>343</v>
+      </c>
+      <c r="B67" s="3">
+        <f>B63+1</f>
+        <v>86</v>
+      </c>
+      <c r="C67" s="3">
+        <v>507</v>
+      </c>
+      <c r="D67" s="3">
+        <v>0</v>
+      </c>
+      <c r="E67" s="3">
+        <v>0</v>
+      </c>
+      <c r="F67" s="3">
+        <v>2</v>
+      </c>
+      <c r="G67" s="3" t="str">
+        <f t="shared" si="2"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (343, 86, 507, 0, 0, 2);</v>
+      </c>
+    </row>
+    <row r="68" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A68" s="3">
+        <f t="shared" si="3"/>
+        <v>344</v>
+      </c>
+      <c r="B68" s="3">
+        <f>B67</f>
+        <v>86</v>
+      </c>
+      <c r="C68" s="3">
+        <v>507</v>
+      </c>
+      <c r="D68" s="3">
+        <v>0</v>
+      </c>
+      <c r="E68" s="3">
+        <v>0</v>
+      </c>
+      <c r="F68" s="3">
+        <v>1</v>
+      </c>
+      <c r="G68" s="3" t="str">
+        <f t="shared" si="2"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (344, 86, 507, 0, 0, 1);</v>
+      </c>
+    </row>
+    <row r="69" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A69" s="3">
+        <f t="shared" si="3"/>
+        <v>345</v>
+      </c>
+      <c r="B69" s="3">
+        <f>B67</f>
+        <v>86</v>
+      </c>
+      <c r="C69" s="3">
+        <v>505</v>
+      </c>
+      <c r="D69" s="3">
+        <v>1</v>
+      </c>
+      <c r="E69" s="3">
+        <v>3</v>
+      </c>
+      <c r="F69" s="3">
+        <v>2</v>
+      </c>
+      <c r="G69" s="3" t="str">
+        <f t="shared" si="2"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (345, 86, 505, 1, 3, 2);</v>
+      </c>
+    </row>
+    <row r="70" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A70" s="3">
+        <f t="shared" si="3"/>
+        <v>346</v>
+      </c>
+      <c r="B70" s="3">
+        <f t="shared" ref="B70" si="14">B67</f>
+        <v>86</v>
+      </c>
+      <c r="C70" s="3">
+        <v>505</v>
+      </c>
+      <c r="D70" s="3">
+        <v>0</v>
+      </c>
+      <c r="E70" s="3">
+        <v>0</v>
+      </c>
+      <c r="F70" s="3">
+        <v>1</v>
+      </c>
+      <c r="G70" s="3" t="str">
+        <f t="shared" si="2"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (346, 86, 505, 0, 0, 1);</v>
+      </c>
+    </row>
+    <row r="71" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A71" s="4">
+        <f t="shared" si="3"/>
+        <v>347</v>
+      </c>
+      <c r="B71" s="4">
+        <f>B67+1</f>
+        <v>87</v>
+      </c>
+      <c r="C71" s="4">
+        <v>502</v>
+      </c>
+      <c r="D71" s="4">
+        <v>2</v>
+      </c>
+      <c r="E71" s="4">
+        <v>3</v>
+      </c>
+      <c r="F71" s="4">
+        <v>2</v>
+      </c>
+      <c r="G71" s="4" t="str">
+        <f t="shared" si="2"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (347, 87, 502, 2, 3, 2);</v>
+      </c>
+    </row>
+    <row r="72" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A72" s="4">
+        <f t="shared" si="3"/>
+        <v>348</v>
+      </c>
+      <c r="B72" s="4">
+        <f>B71</f>
+        <v>87</v>
+      </c>
+      <c r="C72" s="4">
+        <v>502</v>
+      </c>
+      <c r="D72" s="4">
+        <v>1</v>
+      </c>
+      <c r="E72" s="4">
+        <v>0</v>
+      </c>
+      <c r="F72" s="4">
+        <v>1</v>
+      </c>
+      <c r="G72" s="4" t="str">
+        <f t="shared" si="2"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (348, 87, 502, 1, 0, 1);</v>
+      </c>
+    </row>
+    <row r="73" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A73" s="4">
+        <f t="shared" si="3"/>
+        <v>349</v>
+      </c>
+      <c r="B73" s="4">
+        <f>B71</f>
+        <v>87</v>
+      </c>
+      <c r="C73" s="4">
+        <v>504</v>
+      </c>
+      <c r="D73" s="4">
+        <v>1</v>
+      </c>
+      <c r="E73" s="4">
+        <v>0</v>
+      </c>
+      <c r="F73" s="4">
+        <v>2</v>
+      </c>
+      <c r="G73" s="4" t="str">
+        <f t="shared" si="2"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (349, 87, 504, 1, 0, 2);</v>
+      </c>
+    </row>
+    <row r="74" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A74" s="4">
+        <f t="shared" si="3"/>
+        <v>350</v>
+      </c>
+      <c r="B74" s="4">
+        <f t="shared" ref="B74" si="15">B71</f>
+        <v>87</v>
+      </c>
+      <c r="C74" s="4">
+        <v>504</v>
+      </c>
+      <c r="D74" s="4">
+        <v>0</v>
+      </c>
+      <c r="E74" s="4">
+        <v>0</v>
+      </c>
+      <c r="F74" s="4">
+        <v>1</v>
+      </c>
+      <c r="G74" s="4" t="str">
+        <f t="shared" si="2"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (350, 87, 504, 0, 0, 1);</v>
+      </c>
+    </row>
+    <row r="75" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A75" s="3">
+        <f t="shared" si="3"/>
+        <v>351</v>
+      </c>
+      <c r="B75" s="3">
+        <f>B71+1</f>
+        <v>88</v>
+      </c>
+      <c r="C75" s="3">
+        <v>507</v>
+      </c>
+      <c r="D75" s="3">
+        <v>0</v>
+      </c>
+      <c r="E75" s="3">
+        <v>0</v>
+      </c>
+      <c r="F75" s="3">
+        <v>2</v>
+      </c>
+      <c r="G75" s="3" t="str">
+        <f t="shared" si="2"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (351, 88, 507, 0, 0, 2);</v>
+      </c>
+    </row>
+    <row r="76" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A76" s="3">
+        <f t="shared" si="3"/>
+        <v>352</v>
+      </c>
+      <c r="B76" s="3">
+        <f>B75</f>
+        <v>88</v>
+      </c>
+      <c r="C76" s="3">
+        <v>507</v>
+      </c>
+      <c r="D76" s="3">
+        <v>0</v>
+      </c>
+      <c r="E76" s="3">
+        <v>0</v>
+      </c>
+      <c r="F76" s="3">
+        <v>1</v>
+      </c>
+      <c r="G76" s="3" t="str">
+        <f t="shared" si="2"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (352, 88, 507, 0, 0, 1);</v>
+      </c>
+    </row>
+    <row r="77" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A77" s="3">
+        <f t="shared" si="3"/>
+        <v>353</v>
+      </c>
+      <c r="B77" s="3">
+        <f>B75</f>
+        <v>88</v>
+      </c>
+      <c r="C77" s="3">
+        <v>506</v>
+      </c>
+      <c r="D77" s="3">
+        <v>1</v>
+      </c>
+      <c r="E77" s="3">
+        <v>3</v>
+      </c>
+      <c r="F77" s="3">
+        <v>2</v>
+      </c>
+      <c r="G77" s="3" t="str">
+        <f t="shared" si="2"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (353, 88, 506, 1, 3, 2);</v>
+      </c>
+    </row>
+    <row r="78" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A78" s="3">
+        <f t="shared" si="3"/>
+        <v>354</v>
+      </c>
+      <c r="B78" s="3">
+        <f t="shared" ref="B78" si="16">B75</f>
+        <v>88</v>
+      </c>
+      <c r="C78" s="3">
+        <v>506</v>
+      </c>
+      <c r="D78" s="3">
+        <v>0</v>
+      </c>
+      <c r="E78" s="3">
+        <v>0</v>
+      </c>
+      <c r="F78" s="3">
+        <v>1</v>
+      </c>
+      <c r="G78" s="3" t="str">
+        <f t="shared" si="2"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (354, 88, 506, 0, 0, 1);</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:G79"/>
+  <sheetViews>
+    <sheetView zoomScaleNormal="100" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="9.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.85546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="7.42578125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="6.5703125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="111.140625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D1" t="s">
+        <v>2</v>
+      </c>
+      <c r="G1" t="str">
+        <f>"insert into group_stage (id, tournament, group_code, squad) values (" &amp; A1 &amp; ", " &amp; B1 &amp; ", '" &amp; C1 &amp; "', " &amp; D1 &amp;  ");"</f>
+        <v>insert into group_stage (id, tournament, group_code, squad) values (id, tournament, 'group_code', squad);</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <f>'2001'!A8+1</f>
+        <v>26</v>
+      </c>
+      <c r="B2">
+        <v>2005</v>
+      </c>
+      <c r="C2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D2">
+        <v>504</v>
+      </c>
+      <c r="G2" t="str">
+        <f t="shared" ref="G2:G8" si="0">"insert into group_stage (id, tournament, group_code, squad) values (" &amp; A2 &amp; ", " &amp; B2 &amp; ", '" &amp; C2 &amp; "', " &amp; D2 &amp;  ");"</f>
+        <v>insert into group_stage (id, tournament, group_code, squad) values (26, 2005, 'A', 504);</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <f t="shared" ref="A3:A8" si="1">A2+1</f>
+        <v>27</v>
+      </c>
+      <c r="B3">
+        <f t="shared" ref="B3:B8" si="2">B2</f>
+        <v>2005</v>
+      </c>
+      <c r="C3" t="s">
+        <v>12</v>
+      </c>
+      <c r="D3">
+        <v>502</v>
+      </c>
+      <c r="G3" t="str">
+        <f t="shared" si="0"/>
+        <v>insert into group_stage (id, tournament, group_code, squad) values (27, 2005, 'A', 502);</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <f t="shared" si="1"/>
+        <v>28</v>
+      </c>
+      <c r="B4">
+        <f t="shared" si="2"/>
+        <v>2005</v>
+      </c>
+      <c r="C4" t="s">
+        <v>12</v>
+      </c>
+      <c r="D4">
+        <v>505</v>
+      </c>
+      <c r="G4" t="str">
+        <f t="shared" si="0"/>
+        <v>insert into group_stage (id, tournament, group_code, squad) values (28, 2005, 'A', 505);</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <f t="shared" si="1"/>
+        <v>29</v>
+      </c>
+      <c r="B5">
+        <f t="shared" si="2"/>
+        <v>2005</v>
+      </c>
+      <c r="C5" t="s">
+        <v>12</v>
+      </c>
+      <c r="D5">
+        <v>501</v>
+      </c>
+      <c r="G5" t="str">
+        <f t="shared" si="0"/>
+        <v>insert into group_stage (id, tournament, group_code, squad) values (29, 2005, 'A', 501);</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <f t="shared" si="1"/>
+        <v>30</v>
+      </c>
+      <c r="B6">
+        <f t="shared" si="2"/>
+        <v>2005</v>
+      </c>
+      <c r="C6" t="s">
+        <v>13</v>
+      </c>
+      <c r="D6">
+        <v>506</v>
+      </c>
+      <c r="G6" t="str">
+        <f t="shared" si="0"/>
+        <v>insert into group_stage (id, tournament, group_code, squad) values (30, 2005, 'B', 506);</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <f t="shared" si="1"/>
+        <v>31</v>
+      </c>
+      <c r="B7">
+        <f t="shared" si="2"/>
+        <v>2005</v>
+      </c>
+      <c r="C7" t="s">
+        <v>13</v>
+      </c>
+      <c r="D7">
+        <v>507</v>
+      </c>
+      <c r="G7" t="str">
+        <f t="shared" si="0"/>
+        <v>insert into group_stage (id, tournament, group_code, squad) values (31, 2005, 'B', 507);</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <f t="shared" si="1"/>
+        <v>32</v>
+      </c>
+      <c r="B8">
+        <f t="shared" si="2"/>
+        <v>2005</v>
+      </c>
+      <c r="C8" t="s">
+        <v>13</v>
+      </c>
+      <c r="D8">
+        <v>503</v>
+      </c>
+      <c r="G8" t="str">
+        <f t="shared" si="0"/>
+        <v>insert into group_stage (id, tournament, group_code, squad) values (32, 2005, 'B', 503);</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A10" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="G10" t="str">
+        <f>"insert into game (matchid, matchdate, game_type, country) values (" &amp; A10 &amp; ", '" &amp; B10 &amp; "', " &amp; C10 &amp; ", " &amp; D10 &amp;  ");"</f>
+        <v>insert into game (matchid, matchdate, game_type, country) values (matchid, 'matchdate', game_type, country);</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <f>'2003'!A16+1</f>
+        <v>89</v>
+      </c>
+      <c r="B11" s="2" t="str">
+        <f>"2005-02-19"</f>
+        <v>2005-02-19</v>
+      </c>
+      <c r="C11">
+        <v>2</v>
+      </c>
+      <c r="D11">
+        <v>502</v>
+      </c>
+      <c r="G11" t="str">
+        <f t="shared" ref="G11:G23" si="3">"insert into game (matchid, matchdate, game_type, country) values (" &amp; A11 &amp; ", '" &amp; B11 &amp; "', " &amp; C11 &amp; ", " &amp; D11 &amp;  ");"</f>
+        <v>insert into game (matchid, matchdate, game_type, country) values (89, '2005-02-19', 2, 502);</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <f>A11+1</f>
+        <v>90</v>
+      </c>
+      <c r="B12" s="2" t="str">
+        <f>"2005-02-19"</f>
+        <v>2005-02-19</v>
+      </c>
+      <c r="C12">
+        <v>2</v>
+      </c>
+      <c r="D12">
+        <v>502</v>
+      </c>
+      <c r="G12" t="str">
+        <f t="shared" si="3"/>
+        <v>insert into game (matchid, matchdate, game_type, country) values (90, '2005-02-19', 2, 502);</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <f t="shared" ref="A13:A23" si="4">A12+1</f>
+        <v>91</v>
+      </c>
+      <c r="B13" s="2" t="str">
+        <f>"2005-02-21"</f>
+        <v>2005-02-21</v>
+      </c>
+      <c r="C13">
+        <v>2</v>
+      </c>
+      <c r="D13">
+        <v>502</v>
+      </c>
+      <c r="G13" t="str">
+        <f t="shared" si="3"/>
+        <v>insert into game (matchid, matchdate, game_type, country) values (91, '2005-02-21', 2, 502);</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <f t="shared" si="4"/>
+        <v>92</v>
+      </c>
+      <c r="B14" s="2" t="str">
+        <f>"2005-02-21"</f>
+        <v>2005-02-21</v>
+      </c>
+      <c r="C14">
+        <v>2</v>
+      </c>
+      <c r="D14">
+        <v>502</v>
+      </c>
+      <c r="G14" t="str">
+        <f t="shared" si="3"/>
+        <v>insert into game (matchid, matchdate, game_type, country) values (92, '2005-02-21', 2, 502);</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <f t="shared" si="4"/>
+        <v>93</v>
+      </c>
+      <c r="B15" s="2" t="str">
+        <f>"2005-02-23"</f>
+        <v>2005-02-23</v>
+      </c>
+      <c r="C15">
+        <v>2</v>
+      </c>
+      <c r="D15">
+        <v>502</v>
+      </c>
+      <c r="G15" t="str">
+        <f t="shared" si="3"/>
+        <v>insert into game (matchid, matchdate, game_type, country) values (93, '2005-02-23', 2, 502);</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <f t="shared" si="4"/>
+        <v>94</v>
+      </c>
+      <c r="B16" s="2" t="str">
+        <f>"2005-02-23"</f>
+        <v>2005-02-23</v>
+      </c>
+      <c r="C16">
+        <v>2</v>
+      </c>
+      <c r="D16">
+        <v>502</v>
+      </c>
+      <c r="G16" t="str">
+        <f t="shared" si="3"/>
+        <v>insert into game (matchid, matchdate, game_type, country) values (94, '2005-02-23', 2, 502);</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <f t="shared" si="4"/>
+        <v>95</v>
+      </c>
+      <c r="B17" s="2" t="str">
+        <f>"2005-02-19"</f>
+        <v>2005-02-19</v>
+      </c>
+      <c r="C17">
+        <v>2</v>
+      </c>
+      <c r="D17">
+        <v>502</v>
+      </c>
+      <c r="G17" t="str">
+        <f t="shared" si="3"/>
+        <v>insert into game (matchid, matchdate, game_type, country) values (95, '2005-02-19', 2, 502);</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A18">
+        <f t="shared" si="4"/>
+        <v>96</v>
+      </c>
+      <c r="B18" s="2" t="str">
+        <f>"2005-02-21"</f>
+        <v>2005-02-21</v>
+      </c>
+      <c r="C18">
+        <v>2</v>
+      </c>
+      <c r="D18">
+        <v>502</v>
+      </c>
+      <c r="G18" t="str">
+        <f t="shared" si="3"/>
+        <v>insert into game (matchid, matchdate, game_type, country) values (96, '2005-02-21', 2, 502);</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A19">
+        <f t="shared" si="4"/>
+        <v>97</v>
+      </c>
+      <c r="B19" s="2" t="str">
+        <f>"2005-02-23"</f>
+        <v>2005-02-23</v>
+      </c>
+      <c r="C19">
+        <v>2</v>
+      </c>
+      <c r="D19">
+        <v>502</v>
+      </c>
+      <c r="G19" t="str">
+        <f t="shared" si="3"/>
+        <v>insert into game (matchid, matchdate, game_type, country) values (97, '2005-02-23', 2, 502);</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A20">
+        <f t="shared" si="4"/>
+        <v>98</v>
+      </c>
+      <c r="B20" s="2" t="str">
+        <f>"2005-02-25"</f>
+        <v>2005-02-25</v>
+      </c>
+      <c r="C20">
+        <v>4</v>
+      </c>
+      <c r="D20">
+        <v>502</v>
+      </c>
+      <c r="G20" t="str">
+        <f t="shared" si="3"/>
+        <v>insert into game (matchid, matchdate, game_type, country) values (98, '2005-02-25', 4, 502);</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A21">
+        <f t="shared" si="4"/>
+        <v>99</v>
+      </c>
+      <c r="B21" s="2" t="str">
+        <f>"2005-02-25"</f>
+        <v>2005-02-25</v>
+      </c>
+      <c r="C21">
+        <v>4</v>
+      </c>
+      <c r="D21">
+        <v>502</v>
+      </c>
+      <c r="G21" t="str">
+        <f t="shared" si="3"/>
+        <v>insert into game (matchid, matchdate, game_type, country) values (99, '2005-02-25', 4, 502);</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A22">
+        <f t="shared" si="4"/>
+        <v>100</v>
+      </c>
+      <c r="B22" s="2" t="str">
+        <f>"2005-02-27"</f>
+        <v>2005-02-27</v>
+      </c>
+      <c r="C22">
+        <v>5</v>
+      </c>
+      <c r="D22">
+        <v>502</v>
+      </c>
+      <c r="G22" t="str">
+        <f t="shared" si="3"/>
+        <v>insert into game (matchid, matchdate, game_type, country) values (100, '2005-02-27', 5, 502);</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A23">
+        <f t="shared" si="4"/>
+        <v>101</v>
+      </c>
+      <c r="B23" s="2" t="str">
+        <f>"2005-02-27"</f>
+        <v>2005-02-27</v>
+      </c>
+      <c r="C23">
+        <v>6</v>
+      </c>
+      <c r="D23">
+        <v>502</v>
+      </c>
+      <c r="G23" t="str">
+        <f t="shared" si="3"/>
+        <v>insert into game (matchid, matchdate, game_type, country) values (101, '2005-02-27', 6, 502);</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A25" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C25" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D25" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E25" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F25" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G25" t="str">
+        <f>"insert into game_score (id, matchid, squad, goals, points, time_type) values (" &amp; A25 &amp; ", " &amp; B25 &amp; ", " &amp; C25 &amp; ", " &amp; D25 &amp; ", " &amp; E25 &amp; ", " &amp; F25 &amp; ");"</f>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (id, matchid, squad, goals, points, time_type);</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A26" s="3">
+        <f>'2003'!A78 + 1</f>
+        <v>355</v>
+      </c>
+      <c r="B26" s="3">
+        <f>A11</f>
+        <v>89</v>
+      </c>
+      <c r="C26" s="3">
+        <v>504</v>
+      </c>
+      <c r="D26" s="3">
+        <v>5</v>
+      </c>
+      <c r="E26" s="3">
+        <v>3</v>
+      </c>
+      <c r="F26" s="3">
+        <v>2</v>
+      </c>
+      <c r="G26" s="3" t="str">
+        <f t="shared" ref="G26:G79" si="5">"insert into game_score (id, matchid, squad, goals, points, time_type) values (" &amp; A26 &amp; ", " &amp; B26 &amp; ", " &amp; C26 &amp; ", " &amp; D26 &amp; ", " &amp; E26 &amp; ", " &amp; F26 &amp; ");"</f>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (355, 89, 504, 5, 3, 2);</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A27" s="3">
+        <f>A26+1</f>
+        <v>356</v>
+      </c>
+      <c r="B27" s="3">
+        <f>B26</f>
+        <v>89</v>
+      </c>
+      <c r="C27" s="3">
+        <v>504</v>
+      </c>
+      <c r="D27" s="3">
+        <v>2</v>
+      </c>
+      <c r="E27" s="3">
+        <v>0</v>
+      </c>
+      <c r="F27" s="3">
+        <v>1</v>
+      </c>
+      <c r="G27" s="3" t="str">
+        <f t="shared" si="5"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (356, 89, 504, 2, 0, 1);</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A28" s="3">
+        <f t="shared" ref="A28:A79" si="6">A27+1</f>
+        <v>357</v>
+      </c>
+      <c r="B28" s="3">
+        <f>B26</f>
+        <v>89</v>
+      </c>
+      <c r="C28" s="3">
+        <v>505</v>
+      </c>
+      <c r="D28" s="3">
+        <v>1</v>
+      </c>
+      <c r="E28" s="3">
+        <v>0</v>
+      </c>
+      <c r="F28" s="3">
+        <v>2</v>
+      </c>
+      <c r="G28" s="3" t="str">
+        <f t="shared" si="5"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (357, 89, 505, 1, 0, 2);</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A29" s="3">
+        <f t="shared" si="6"/>
+        <v>358</v>
+      </c>
+      <c r="B29" s="3">
+        <f>B26</f>
+        <v>89</v>
+      </c>
+      <c r="C29" s="3">
+        <v>505</v>
+      </c>
+      <c r="D29" s="3">
+        <v>0</v>
+      </c>
+      <c r="E29" s="3">
+        <v>0</v>
+      </c>
+      <c r="F29" s="3">
+        <v>1</v>
+      </c>
+      <c r="G29" s="3" t="str">
+        <f t="shared" si="5"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (358, 89, 505, 0, 0, 1);</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A30" s="4">
+        <f>A29+1</f>
+        <v>359</v>
+      </c>
+      <c r="B30" s="4">
+        <f>B26+1</f>
+        <v>90</v>
+      </c>
+      <c r="C30" s="4">
+        <v>502</v>
+      </c>
+      <c r="D30" s="4">
+        <v>2</v>
+      </c>
+      <c r="E30" s="4">
+        <v>3</v>
+      </c>
+      <c r="F30" s="4">
+        <v>2</v>
+      </c>
+      <c r="G30" t="str">
+        <f t="shared" si="5"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (359, 90, 502, 2, 3, 2);</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A31" s="4">
+        <f t="shared" si="6"/>
+        <v>360</v>
+      </c>
+      <c r="B31" s="4">
+        <f>B30</f>
+        <v>90</v>
+      </c>
+      <c r="C31" s="4">
+        <v>502</v>
+      </c>
+      <c r="D31" s="4">
+        <v>1</v>
+      </c>
+      <c r="E31" s="4">
+        <v>0</v>
+      </c>
+      <c r="F31" s="4">
+        <v>1</v>
+      </c>
+      <c r="G31" t="str">
+        <f t="shared" si="5"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (360, 90, 502, 1, 0, 1);</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A32" s="4">
+        <f t="shared" si="6"/>
+        <v>361</v>
+      </c>
+      <c r="B32" s="4">
+        <f>B30</f>
+        <v>90</v>
+      </c>
+      <c r="C32" s="4">
+        <v>501</v>
+      </c>
+      <c r="D32" s="4">
+        <v>0</v>
+      </c>
+      <c r="E32" s="4">
+        <v>0</v>
+      </c>
+      <c r="F32" s="4">
+        <v>2</v>
+      </c>
+      <c r="G32" t="str">
+        <f t="shared" si="5"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (361, 90, 501, 0, 0, 2);</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A33" s="4">
+        <f t="shared" si="6"/>
+        <v>362</v>
+      </c>
+      <c r="B33" s="4">
+        <f>B30</f>
+        <v>90</v>
+      </c>
+      <c r="C33" s="4">
+        <v>501</v>
+      </c>
+      <c r="D33" s="4">
+        <v>0</v>
+      </c>
+      <c r="E33" s="4">
+        <v>0</v>
+      </c>
+      <c r="F33" s="4">
+        <v>1</v>
+      </c>
+      <c r="G33" t="str">
+        <f t="shared" si="5"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (362, 90, 501, 0, 0, 1);</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A34" s="3">
+        <f t="shared" si="6"/>
+        <v>363</v>
+      </c>
+      <c r="B34" s="3">
+        <f>B30+1</f>
+        <v>91</v>
+      </c>
+      <c r="C34" s="3">
+        <v>504</v>
+      </c>
+      <c r="D34" s="3">
+        <v>4</v>
+      </c>
+      <c r="E34" s="3">
+        <v>3</v>
+      </c>
+      <c r="F34" s="3">
+        <v>2</v>
+      </c>
+      <c r="G34" s="3" t="str">
+        <f t="shared" si="5"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (363, 91, 504, 4, 3, 2);</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A35" s="3">
+        <f t="shared" si="6"/>
+        <v>364</v>
+      </c>
+      <c r="B35" s="3">
+        <f>B34</f>
+        <v>91</v>
+      </c>
+      <c r="C35" s="3">
+        <v>504</v>
+      </c>
+      <c r="D35" s="3">
+        <v>2</v>
+      </c>
+      <c r="E35" s="3">
+        <v>0</v>
+      </c>
+      <c r="F35" s="3">
+        <v>1</v>
+      </c>
+      <c r="G35" s="3" t="str">
+        <f t="shared" si="5"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (364, 91, 504, 2, 0, 1);</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A36" s="3">
+        <f t="shared" si="6"/>
+        <v>365</v>
+      </c>
+      <c r="B36" s="3">
+        <f>B34</f>
+        <v>91</v>
+      </c>
+      <c r="C36" s="3">
+        <v>501</v>
+      </c>
+      <c r="D36" s="3">
+        <v>0</v>
+      </c>
+      <c r="E36" s="3">
+        <v>0</v>
+      </c>
+      <c r="F36" s="3">
+        <v>2</v>
+      </c>
+      <c r="G36" s="3" t="str">
+        <f t="shared" si="5"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (365, 91, 501, 0, 0, 2);</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A37" s="3">
+        <f t="shared" si="6"/>
+        <v>366</v>
+      </c>
+      <c r="B37" s="3">
+        <f t="shared" ref="B37" si="7">B34</f>
+        <v>91</v>
+      </c>
+      <c r="C37" s="3">
+        <v>501</v>
+      </c>
+      <c r="D37" s="3">
+        <v>0</v>
+      </c>
+      <c r="E37" s="3">
+        <v>0</v>
+      </c>
+      <c r="F37" s="3">
+        <v>1</v>
+      </c>
+      <c r="G37" s="3" t="str">
+        <f t="shared" si="5"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (366, 91, 501, 0, 0, 1);</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A38" s="4">
+        <f t="shared" si="6"/>
+        <v>367</v>
+      </c>
+      <c r="B38" s="4">
+        <f>B34+1</f>
+        <v>92</v>
+      </c>
+      <c r="C38" s="4">
+        <v>502</v>
+      </c>
+      <c r="D38" s="4">
+        <v>4</v>
+      </c>
+      <c r="E38" s="4">
+        <v>3</v>
+      </c>
+      <c r="F38" s="4">
+        <v>2</v>
+      </c>
+      <c r="G38" s="4" t="str">
+        <f t="shared" si="5"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (367, 92, 502, 4, 3, 2);</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A39" s="4">
+        <f t="shared" si="6"/>
+        <v>368</v>
+      </c>
+      <c r="B39" s="4">
+        <f>B38</f>
+        <v>92</v>
+      </c>
+      <c r="C39" s="4">
+        <v>502</v>
+      </c>
+      <c r="D39" s="4">
+        <v>2</v>
+      </c>
+      <c r="E39" s="4">
+        <v>0</v>
+      </c>
+      <c r="F39" s="4">
+        <v>1</v>
+      </c>
+      <c r="G39" s="4" t="str">
+        <f t="shared" si="5"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (368, 92, 502, 2, 0, 1);</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A40" s="4">
+        <f t="shared" si="6"/>
+        <v>369</v>
+      </c>
+      <c r="B40" s="4">
+        <f>B38</f>
+        <v>92</v>
+      </c>
+      <c r="C40" s="4">
+        <v>505</v>
+      </c>
+      <c r="D40" s="4">
+        <v>0</v>
+      </c>
+      <c r="E40" s="4">
+        <v>0</v>
+      </c>
+      <c r="F40" s="4">
+        <v>2</v>
+      </c>
+      <c r="G40" s="4" t="str">
+        <f t="shared" si="5"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (369, 92, 505, 0, 0, 2);</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A41" s="4">
+        <f t="shared" si="6"/>
+        <v>370</v>
+      </c>
+      <c r="B41" s="4">
+        <f t="shared" ref="B41" si="8">B38</f>
+        <v>92</v>
+      </c>
+      <c r="C41" s="4">
+        <v>505</v>
+      </c>
+      <c r="D41" s="4">
+        <v>0</v>
+      </c>
+      <c r="E41" s="4">
+        <v>0</v>
+      </c>
+      <c r="F41" s="4">
+        <v>1</v>
+      </c>
+      <c r="G41" s="4" t="str">
+        <f t="shared" si="5"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (370, 92, 505, 0, 0, 1);</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A42" s="3">
+        <f t="shared" si="6"/>
+        <v>371</v>
+      </c>
+      <c r="B42" s="3">
+        <f>B38+1</f>
+        <v>93</v>
+      </c>
+      <c r="C42" s="3">
+        <v>505</v>
+      </c>
+      <c r="D42" s="3">
+        <v>1</v>
+      </c>
+      <c r="E42" s="3">
+        <v>3</v>
+      </c>
+      <c r="F42" s="3">
+        <v>2</v>
+      </c>
+      <c r="G42" s="3" t="str">
+        <f t="shared" si="5"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (371, 93, 505, 1, 3, 2);</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A43" s="3">
+        <f t="shared" si="6"/>
+        <v>372</v>
+      </c>
+      <c r="B43" s="3">
+        <f>B42</f>
+        <v>93</v>
+      </c>
+      <c r="C43" s="3">
+        <v>505</v>
+      </c>
+      <c r="D43" s="3">
+        <v>0</v>
+      </c>
+      <c r="E43" s="3">
+        <v>0</v>
+      </c>
+      <c r="F43" s="3">
+        <v>1</v>
+      </c>
+      <c r="G43" s="3" t="str">
+        <f t="shared" si="5"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (372, 93, 505, 0, 0, 1);</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A44" s="3">
+        <f t="shared" si="6"/>
+        <v>373</v>
+      </c>
+      <c r="B44" s="3">
+        <f>B42</f>
+        <v>93</v>
+      </c>
+      <c r="C44" s="3">
+        <v>501</v>
+      </c>
+      <c r="D44" s="3">
+        <v>0</v>
+      </c>
+      <c r="E44" s="3">
+        <v>0</v>
+      </c>
+      <c r="F44" s="3">
+        <v>2</v>
+      </c>
+      <c r="G44" s="3" t="str">
+        <f t="shared" si="5"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (373, 93, 501, 0, 0, 2);</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A45" s="3">
+        <f t="shared" si="6"/>
+        <v>374</v>
+      </c>
+      <c r="B45" s="3">
+        <f t="shared" ref="B45" si="9">B42</f>
+        <v>93</v>
+      </c>
+      <c r="C45" s="3">
+        <v>501</v>
+      </c>
+      <c r="D45" s="3">
+        <v>0</v>
+      </c>
+      <c r="E45" s="3">
+        <v>0</v>
+      </c>
+      <c r="F45" s="3">
+        <v>1</v>
+      </c>
+      <c r="G45" s="3" t="str">
+        <f t="shared" si="5"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (374, 93, 501, 0, 0, 1);</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A46" s="4">
+        <f t="shared" si="6"/>
+        <v>375</v>
+      </c>
+      <c r="B46" s="4">
+        <f>B42+1</f>
+        <v>94</v>
+      </c>
+      <c r="C46" s="4">
+        <v>502</v>
+      </c>
+      <c r="D46" s="4">
+        <v>1</v>
+      </c>
+      <c r="E46" s="4">
+        <v>1</v>
+      </c>
+      <c r="F46" s="4">
+        <v>2</v>
+      </c>
+      <c r="G46" s="4" t="str">
+        <f t="shared" si="5"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (375, 94, 502, 1, 1, 2);</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A47" s="4">
+        <f t="shared" si="6"/>
+        <v>376</v>
+      </c>
+      <c r="B47" s="4">
+        <f>B46</f>
+        <v>94</v>
+      </c>
+      <c r="C47" s="4">
+        <v>502</v>
+      </c>
+      <c r="D47" s="4">
+        <v>1</v>
+      </c>
+      <c r="E47" s="4">
+        <v>0</v>
+      </c>
+      <c r="F47" s="4">
+        <v>1</v>
+      </c>
+      <c r="G47" s="4" t="str">
+        <f t="shared" si="5"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (376, 94, 502, 1, 0, 1);</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A48" s="4">
+        <f t="shared" si="6"/>
+        <v>377</v>
+      </c>
+      <c r="B48" s="4">
+        <f>B46</f>
+        <v>94</v>
+      </c>
+      <c r="C48" s="4">
+        <v>504</v>
+      </c>
+      <c r="D48" s="4">
+        <v>1</v>
+      </c>
+      <c r="E48" s="4">
+        <v>1</v>
+      </c>
+      <c r="F48" s="4">
+        <v>2</v>
+      </c>
+      <c r="G48" s="4" t="str">
+        <f t="shared" si="5"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (377, 94, 504, 1, 1, 2);</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A49" s="4">
+        <f t="shared" si="6"/>
+        <v>378</v>
+      </c>
+      <c r="B49" s="4">
+        <f t="shared" ref="B49" si="10">B46</f>
+        <v>94</v>
+      </c>
+      <c r="C49" s="4">
+        <v>504</v>
+      </c>
+      <c r="D49" s="4">
+        <v>0</v>
+      </c>
+      <c r="E49" s="4">
+        <v>0</v>
+      </c>
+      <c r="F49" s="4">
+        <v>1</v>
+      </c>
+      <c r="G49" s="4" t="str">
+        <f t="shared" si="5"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (378, 94, 504, 0, 0, 1);</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A50" s="3">
+        <f t="shared" si="6"/>
+        <v>379</v>
+      </c>
+      <c r="B50" s="3">
+        <f>B46+1</f>
+        <v>95</v>
+      </c>
+      <c r="C50" s="3">
+        <v>503</v>
+      </c>
+      <c r="D50" s="3">
+        <v>0</v>
+      </c>
+      <c r="E50" s="3">
+        <v>0</v>
+      </c>
+      <c r="F50" s="3">
+        <v>2</v>
+      </c>
+      <c r="G50" s="3" t="str">
+        <f t="shared" si="5"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (379, 95, 503, 0, 0, 2);</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A51" s="3">
+        <f t="shared" si="6"/>
+        <v>380</v>
+      </c>
+      <c r="B51" s="3">
+        <f>B50</f>
+        <v>95</v>
+      </c>
+      <c r="C51" s="3">
+        <v>503</v>
+      </c>
+      <c r="D51" s="3">
+        <v>0</v>
+      </c>
+      <c r="E51" s="3">
+        <v>0</v>
+      </c>
+      <c r="F51" s="3">
+        <v>1</v>
+      </c>
+      <c r="G51" s="3" t="str">
+        <f t="shared" si="5"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (380, 95, 503, 0, 0, 1);</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A52" s="3">
+        <f t="shared" si="6"/>
+        <v>381</v>
+      </c>
+      <c r="B52" s="3">
+        <f>B50</f>
+        <v>95</v>
+      </c>
+      <c r="C52" s="3">
+        <v>507</v>
+      </c>
+      <c r="D52" s="3">
+        <v>1</v>
+      </c>
+      <c r="E52" s="3">
+        <v>3</v>
+      </c>
+      <c r="F52" s="3">
+        <v>2</v>
+      </c>
+      <c r="G52" s="3" t="str">
+        <f t="shared" si="5"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (381, 95, 507, 1, 3, 2);</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A53" s="3">
+        <f t="shared" si="6"/>
+        <v>382</v>
+      </c>
+      <c r="B53" s="3">
+        <f t="shared" ref="B53" si="11">B50</f>
+        <v>95</v>
+      </c>
+      <c r="C53" s="3">
+        <v>507</v>
+      </c>
+      <c r="D53" s="3">
+        <v>0</v>
+      </c>
+      <c r="E53" s="3">
+        <v>0</v>
+      </c>
+      <c r="F53" s="3">
+        <v>1</v>
+      </c>
+      <c r="G53" s="3" t="str">
+        <f t="shared" si="5"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (382, 95, 507, 0, 0, 1);</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A54" s="4">
+        <f t="shared" si="6"/>
+        <v>383</v>
+      </c>
+      <c r="B54" s="4">
+        <f>B50+1</f>
+        <v>96</v>
+      </c>
+      <c r="C54" s="4">
+        <v>506</v>
+      </c>
+      <c r="D54" s="4">
+        <v>2</v>
+      </c>
+      <c r="E54" s="4">
+        <v>0</v>
+      </c>
+      <c r="F54" s="4">
+        <v>2</v>
+      </c>
+      <c r="G54" s="4" t="str">
+        <f t="shared" si="5"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (383, 96, 506, 2, 0, 2);</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A55" s="4">
+        <f t="shared" si="6"/>
+        <v>384</v>
+      </c>
+      <c r="B55" s="4">
+        <f>B54</f>
+        <v>96</v>
+      </c>
+      <c r="C55" s="4">
+        <v>506</v>
+      </c>
+      <c r="D55" s="4">
+        <v>0</v>
+      </c>
+      <c r="E55" s="4">
+        <v>0</v>
+      </c>
+      <c r="F55" s="4">
+        <v>1</v>
+      </c>
+      <c r="G55" s="4" t="str">
+        <f t="shared" si="5"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (384, 96, 506, 0, 0, 1);</v>
+      </c>
+    </row>
+    <row r="56" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A56" s="4">
+        <f t="shared" si="6"/>
+        <v>385</v>
+      </c>
+      <c r="B56" s="4">
+        <f>B54</f>
+        <v>96</v>
+      </c>
+      <c r="C56" s="4">
+        <v>503</v>
+      </c>
+      <c r="D56" s="4">
+        <v>1</v>
+      </c>
+      <c r="E56" s="4">
+        <v>3</v>
+      </c>
+      <c r="F56" s="4">
+        <v>2</v>
+      </c>
+      <c r="G56" s="4" t="str">
+        <f t="shared" si="5"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (385, 96, 503, 1, 3, 2);</v>
+      </c>
+    </row>
+    <row r="57" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A57" s="4">
+        <f t="shared" si="6"/>
+        <v>386</v>
+      </c>
+      <c r="B57" s="4">
+        <f t="shared" ref="B57" si="12">B54</f>
+        <v>96</v>
+      </c>
+      <c r="C57" s="4">
+        <v>503</v>
+      </c>
+      <c r="D57" s="4">
+        <v>1</v>
+      </c>
+      <c r="E57" s="4">
+        <v>0</v>
+      </c>
+      <c r="F57" s="4">
+        <v>1</v>
+      </c>
+      <c r="G57" s="4" t="str">
+        <f t="shared" si="5"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (386, 96, 503, 1, 0, 1);</v>
+      </c>
+    </row>
+    <row r="58" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A58" s="3">
+        <f t="shared" si="6"/>
+        <v>387</v>
+      </c>
+      <c r="B58" s="3">
+        <f>B54+1</f>
+        <v>97</v>
+      </c>
+      <c r="C58" s="3">
+        <v>506</v>
+      </c>
+      <c r="D58" s="3">
+        <v>1</v>
+      </c>
+      <c r="E58" s="3">
+        <v>3</v>
+      </c>
+      <c r="F58" s="3">
+        <v>2</v>
+      </c>
+      <c r="G58" s="3" t="str">
+        <f t="shared" si="5"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (387, 97, 506, 1, 3, 2);</v>
+      </c>
+    </row>
+    <row r="59" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A59" s="3">
+        <f t="shared" si="6"/>
+        <v>388</v>
+      </c>
+      <c r="B59" s="3">
+        <f>B58</f>
+        <v>97</v>
+      </c>
+      <c r="C59" s="3">
+        <v>506</v>
+      </c>
+      <c r="D59" s="3">
+        <v>0</v>
+      </c>
+      <c r="E59" s="3">
+        <v>0</v>
+      </c>
+      <c r="F59" s="3">
+        <v>1</v>
+      </c>
+      <c r="G59" s="3" t="str">
+        <f t="shared" si="5"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (388, 97, 506, 0, 0, 1);</v>
+      </c>
+    </row>
+    <row r="60" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A60" s="3">
+        <f t="shared" si="6"/>
+        <v>389</v>
+      </c>
+      <c r="B60" s="3">
+        <f>B58</f>
+        <v>97</v>
+      </c>
+      <c r="C60" s="3">
+        <v>507</v>
+      </c>
+      <c r="D60" s="3">
+        <v>0</v>
+      </c>
+      <c r="E60" s="3">
+        <v>0</v>
+      </c>
+      <c r="F60" s="3">
+        <v>2</v>
+      </c>
+      <c r="G60" s="3" t="str">
+        <f t="shared" si="5"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (389, 97, 507, 0, 0, 2);</v>
+      </c>
+    </row>
+    <row r="61" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A61" s="3">
+        <f t="shared" si="6"/>
+        <v>390</v>
+      </c>
+      <c r="B61" s="3">
+        <f t="shared" ref="B61" si="13">B58</f>
+        <v>97</v>
+      </c>
+      <c r="C61" s="3">
+        <v>507</v>
+      </c>
+      <c r="D61" s="3">
+        <v>0</v>
+      </c>
+      <c r="E61" s="3">
+        <v>0</v>
+      </c>
+      <c r="F61" s="3">
+        <v>1</v>
+      </c>
+      <c r="G61" s="3" t="str">
+        <f t="shared" si="5"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (390, 97, 507, 0, 0, 1);</v>
+      </c>
+    </row>
+    <row r="62" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A62" s="4">
+        <f t="shared" si="6"/>
+        <v>391</v>
+      </c>
+      <c r="B62" s="4">
+        <f>B58+1</f>
+        <v>98</v>
+      </c>
+      <c r="C62" s="4">
+        <v>504</v>
+      </c>
+      <c r="D62" s="4">
+        <v>1</v>
+      </c>
+      <c r="E62" s="4">
+        <v>3</v>
+      </c>
+      <c r="F62" s="4">
+        <v>2</v>
+      </c>
+      <c r="G62" s="4" t="str">
+        <f t="shared" si="5"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (391, 98, 504, 1, 3, 2);</v>
+      </c>
+    </row>
+    <row r="63" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A63" s="4">
+        <f t="shared" si="6"/>
+        <v>392</v>
+      </c>
+      <c r="B63" s="4">
+        <f>B62</f>
+        <v>98</v>
+      </c>
+      <c r="C63" s="4">
+        <v>504</v>
+      </c>
+      <c r="D63" s="4">
+        <v>0</v>
+      </c>
+      <c r="E63" s="4">
+        <v>0</v>
+      </c>
+      <c r="F63" s="4">
+        <v>1</v>
+      </c>
+      <c r="G63" s="4" t="str">
+        <f t="shared" si="5"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (392, 98, 504, 0, 0, 1);</v>
+      </c>
+    </row>
+    <row r="64" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A64" s="4">
+        <f t="shared" si="6"/>
+        <v>393</v>
+      </c>
+      <c r="B64" s="4">
+        <f>B62</f>
+        <v>98</v>
+      </c>
+      <c r="C64" s="4">
+        <v>507</v>
+      </c>
+      <c r="D64" s="4">
+        <v>0</v>
+      </c>
+      <c r="E64" s="4">
+        <v>0</v>
+      </c>
+      <c r="F64" s="4">
+        <v>2</v>
+      </c>
+      <c r="G64" s="4" t="str">
+        <f t="shared" si="5"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (393, 98, 507, 0, 0, 2);</v>
+      </c>
+    </row>
+    <row r="65" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A65" s="4">
+        <f t="shared" si="6"/>
+        <v>394</v>
+      </c>
+      <c r="B65" s="4">
+        <f t="shared" ref="B65" si="14">B62</f>
+        <v>98</v>
+      </c>
+      <c r="C65" s="4">
+        <v>507</v>
+      </c>
+      <c r="D65" s="4">
+        <v>0</v>
+      </c>
+      <c r="E65" s="4">
+        <v>0</v>
+      </c>
+      <c r="F65" s="4">
+        <v>1</v>
+      </c>
+      <c r="G65" s="4" t="str">
+        <f t="shared" si="5"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (394, 98, 507, 0, 0, 1);</v>
+      </c>
+    </row>
+    <row r="66" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A66" s="3">
+        <f t="shared" si="6"/>
+        <v>395</v>
+      </c>
+      <c r="B66" s="3">
+        <f>B62+1</f>
+        <v>99</v>
+      </c>
+      <c r="C66" s="3">
+        <v>502</v>
+      </c>
+      <c r="D66" s="3">
+        <v>0</v>
+      </c>
+      <c r="E66" s="3">
+        <v>0</v>
+      </c>
+      <c r="F66" s="3">
+        <v>2</v>
+      </c>
+      <c r="G66" s="3" t="str">
+        <f t="shared" si="5"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (395, 99, 502, 0, 0, 2);</v>
+      </c>
+    </row>
+    <row r="67" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A67" s="3">
+        <f t="shared" si="6"/>
+        <v>396</v>
+      </c>
+      <c r="B67" s="3">
+        <f>B66</f>
+        <v>99</v>
+      </c>
+      <c r="C67" s="3">
+        <v>502</v>
+      </c>
+      <c r="D67" s="3">
+        <v>0</v>
+      </c>
+      <c r="E67" s="3">
+        <v>0</v>
+      </c>
+      <c r="F67" s="3">
+        <v>1</v>
+      </c>
+      <c r="G67" s="3" t="str">
+        <f t="shared" si="5"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (396, 99, 502, 0, 0, 1);</v>
+      </c>
+    </row>
+    <row r="68" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A68" s="3">
+        <f t="shared" si="6"/>
+        <v>397</v>
+      </c>
+      <c r="B68" s="3">
+        <f>B66</f>
+        <v>99</v>
+      </c>
+      <c r="C68" s="3">
+        <v>506</v>
+      </c>
+      <c r="D68" s="3">
+        <v>4</v>
+      </c>
+      <c r="E68" s="3">
+        <v>3</v>
+      </c>
+      <c r="F68" s="3">
+        <v>2</v>
+      </c>
+      <c r="G68" s="3" t="str">
+        <f t="shared" si="5"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (397, 99, 506, 4, 3, 2);</v>
+      </c>
+    </row>
+    <row r="69" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A69" s="3">
+        <f t="shared" si="6"/>
+        <v>398</v>
+      </c>
+      <c r="B69" s="3">
+        <f t="shared" ref="B69" si="15">B66</f>
+        <v>99</v>
+      </c>
+      <c r="C69" s="3">
+        <v>506</v>
+      </c>
+      <c r="D69" s="3">
+        <v>3</v>
+      </c>
+      <c r="E69" s="3">
+        <v>0</v>
+      </c>
+      <c r="F69" s="3">
+        <v>1</v>
+      </c>
+      <c r="G69" s="3" t="str">
+        <f t="shared" si="5"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (398, 99, 506, 3, 0, 1);</v>
+      </c>
+    </row>
+    <row r="70" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A70" s="4">
+        <f t="shared" si="6"/>
+        <v>399</v>
+      </c>
+      <c r="B70" s="4">
+        <f>B66+1</f>
+        <v>100</v>
+      </c>
+      <c r="C70" s="4">
+        <v>502</v>
+      </c>
+      <c r="D70" s="4">
+        <v>3</v>
+      </c>
+      <c r="E70" s="4">
+        <v>3</v>
+      </c>
+      <c r="F70" s="4">
+        <v>2</v>
+      </c>
+      <c r="G70" s="4" t="str">
+        <f t="shared" si="5"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (399, 100, 502, 3, 3, 2);</v>
+      </c>
+    </row>
+    <row r="71" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A71" s="4">
+        <f t="shared" si="6"/>
+        <v>400</v>
+      </c>
+      <c r="B71" s="4">
+        <f>B70</f>
+        <v>100</v>
+      </c>
+      <c r="C71" s="4">
+        <v>502</v>
+      </c>
+      <c r="D71" s="4">
+        <v>2</v>
+      </c>
+      <c r="E71" s="4">
+        <v>0</v>
+      </c>
+      <c r="F71" s="4">
+        <v>1</v>
+      </c>
+      <c r="G71" s="4" t="str">
+        <f t="shared" si="5"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (400, 100, 502, 2, 0, 1);</v>
+      </c>
+    </row>
+    <row r="72" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A72" s="4">
+        <f t="shared" si="6"/>
+        <v>401</v>
+      </c>
+      <c r="B72" s="4">
+        <f>B70</f>
+        <v>100</v>
+      </c>
+      <c r="C72" s="4">
+        <v>507</v>
+      </c>
+      <c r="D72" s="4">
+        <v>0</v>
+      </c>
+      <c r="E72" s="4">
+        <v>0</v>
+      </c>
+      <c r="F72" s="4">
+        <v>2</v>
+      </c>
+      <c r="G72" s="4" t="str">
+        <f t="shared" si="5"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (401, 100, 507, 0, 0, 2);</v>
+      </c>
+    </row>
+    <row r="73" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A73" s="4">
+        <f t="shared" si="6"/>
+        <v>402</v>
+      </c>
+      <c r="B73" s="4">
+        <f t="shared" ref="B73" si="16">B70</f>
+        <v>100</v>
+      </c>
+      <c r="C73" s="4">
+        <v>507</v>
+      </c>
+      <c r="D73" s="4">
+        <v>0</v>
+      </c>
+      <c r="E73" s="4">
+        <v>0</v>
+      </c>
+      <c r="F73" s="4">
+        <v>1</v>
+      </c>
+      <c r="G73" s="4" t="str">
+        <f t="shared" si="5"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (402, 100, 507, 0, 0, 1);</v>
+      </c>
+    </row>
+    <row r="74" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A74" s="3">
+        <f t="shared" si="6"/>
+        <v>403</v>
+      </c>
+      <c r="B74" s="3">
+        <f>B70+1</f>
+        <v>101</v>
+      </c>
+      <c r="C74" s="3">
+        <v>506</v>
+      </c>
+      <c r="D74" s="3">
+        <v>1</v>
+      </c>
+      <c r="E74" s="3">
+        <v>1</v>
+      </c>
+      <c r="F74" s="3">
+        <v>2</v>
+      </c>
+      <c r="G74" s="3" t="str">
+        <f t="shared" si="5"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (403, 101, 506, 1, 1, 2);</v>
+      </c>
+    </row>
+    <row r="75" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A75" s="3">
+        <f t="shared" si="6"/>
+        <v>404</v>
+      </c>
+      <c r="B75" s="3">
+        <f>B74</f>
+        <v>101</v>
+      </c>
+      <c r="C75" s="3">
+        <v>506</v>
+      </c>
+      <c r="D75" s="3">
+        <v>0</v>
+      </c>
+      <c r="E75" s="3">
+        <v>0</v>
+      </c>
+      <c r="F75" s="3">
+        <v>1</v>
+      </c>
+      <c r="G75" s="3" t="str">
+        <f t="shared" si="5"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (404, 101, 506, 0, 0, 1);</v>
+      </c>
+    </row>
+    <row r="76" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A76" s="3">
+        <f t="shared" si="6"/>
+        <v>405</v>
+      </c>
+      <c r="B76" s="3">
+        <f>B74</f>
+        <v>101</v>
+      </c>
+      <c r="C76" s="3">
+        <v>504</v>
+      </c>
+      <c r="D76" s="3">
+        <v>1</v>
+      </c>
+      <c r="E76" s="3">
+        <v>1</v>
+      </c>
+      <c r="F76" s="3">
+        <v>2</v>
+      </c>
+      <c r="G76" s="3" t="str">
+        <f t="shared" si="5"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (405, 101, 504, 1, 1, 2);</v>
+      </c>
+    </row>
+    <row r="77" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A77" s="3">
+        <f t="shared" si="6"/>
+        <v>406</v>
+      </c>
+      <c r="B77" s="3">
+        <f t="shared" ref="B77:B79" si="17">B74</f>
+        <v>101</v>
+      </c>
+      <c r="C77" s="3">
+        <v>504</v>
+      </c>
+      <c r="D77" s="3">
+        <v>0</v>
+      </c>
+      <c r="E77" s="3">
+        <v>0</v>
+      </c>
+      <c r="F77" s="3">
+        <v>1</v>
+      </c>
+      <c r="G77" s="3" t="str">
+        <f t="shared" si="5"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (406, 101, 504, 0, 0, 1);</v>
+      </c>
+    </row>
+    <row r="78" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A78" s="3">
+        <f t="shared" si="6"/>
+        <v>407</v>
+      </c>
+      <c r="B78" s="3">
+        <f t="shared" si="17"/>
+        <v>101</v>
+      </c>
+      <c r="C78" s="3">
+        <v>506</v>
+      </c>
+      <c r="D78" s="3">
+        <v>7</v>
+      </c>
+      <c r="E78" s="3">
+        <v>0</v>
+      </c>
+      <c r="F78" s="3">
+        <v>7</v>
+      </c>
+      <c r="G78" s="3" t="str">
+        <f t="shared" si="5"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (407, 101, 506, 7, 0, 7);</v>
+      </c>
+    </row>
+    <row r="79" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A79" s="3">
+        <f t="shared" si="6"/>
+        <v>408</v>
+      </c>
+      <c r="B79" s="3">
+        <f t="shared" si="17"/>
+        <v>101</v>
+      </c>
+      <c r="C79" s="3">
+        <v>504</v>
+      </c>
+      <c r="D79" s="3">
+        <v>6</v>
+      </c>
+      <c r="E79" s="3">
+        <v>0</v>
+      </c>
+      <c r="F79" s="3">
+        <v>7</v>
+      </c>
+      <c r="G79" s="3" t="str">
+        <f t="shared" si="5"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (408, 101, 504, 6, 0, 7);</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:H84"/>
+  <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -10495,566 +14306,495 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>8</v>
+      <c r="A1" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D1" t="s">
+        <v>2</v>
       </c>
       <c r="G1" t="str">
-        <f>"insert into game (matchid, matchdate, game_type, country) values (" &amp; A1 &amp; ", '" &amp; B1 &amp; "', " &amp; C1 &amp; ", " &amp; D1 &amp;  ");"</f>
-        <v>insert into game (matchid, matchdate, game_type, country) values (matchid, 'matchdate', game_type, country);</v>
+        <f>"insert into group_stage (id, tournament, group_code, squad) values (" &amp; A1 &amp; ", " &amp; B1 &amp; ", '" &amp; C1 &amp; "', " &amp; D1 &amp;  ");"</f>
+        <v>insert into group_stage (id, tournament, group_code, squad) values (id, tournament, 'group_code', squad);</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2">
-        <f>'2001'!A25+1</f>
-        <v>74</v>
-      </c>
-      <c r="B2" s="2" t="str">
-        <f>"2003-02-09"</f>
-        <v>2003-02-09</v>
-      </c>
-      <c r="C2">
-        <v>2</v>
+        <f>'2005'!A8+1</f>
+        <v>33</v>
+      </c>
+      <c r="B2">
+        <v>2007</v>
+      </c>
+      <c r="C2" t="s">
+        <v>12</v>
       </c>
       <c r="D2">
-        <v>507</v>
+        <v>503</v>
       </c>
       <c r="G2" t="str">
-        <f t="shared" ref="G2:G16" si="0">"insert into game (matchid, matchdate, game_type, country) values (" &amp; A2 &amp; ", '" &amp; B2 &amp; "', " &amp; C2 &amp; ", " &amp; D2 &amp;  ");"</f>
-        <v>insert into game (matchid, matchdate, game_type, country) values (74, '2003-02-09', 2, 507);</v>
+        <f t="shared" ref="G2:G8" si="0">"insert into group_stage (id, tournament, group_code, squad) values (" &amp; A2 &amp; ", " &amp; B2 &amp; ", '" &amp; C2 &amp; "', " &amp; D2 &amp;  ");"</f>
+        <v>insert into group_stage (id, tournament, group_code, squad) values (33, 2007, 'A', 503);</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3">
-        <f>A2+1</f>
-        <v>75</v>
-      </c>
-      <c r="B3" s="2" t="str">
-        <f>"2003-02-11"</f>
-        <v>2003-02-11</v>
-      </c>
-      <c r="C3">
-        <v>2</v>
+        <f t="shared" ref="A3:A8" si="1">A2+1</f>
+        <v>34</v>
+      </c>
+      <c r="B3">
+        <f t="shared" ref="B3:B8" si="2">B2</f>
+        <v>2007</v>
+      </c>
+      <c r="C3" t="s">
+        <v>12</v>
       </c>
       <c r="D3">
-        <v>507</v>
+        <v>502</v>
       </c>
       <c r="G3" t="str">
         <f t="shared" si="0"/>
-        <v>insert into game (matchid, matchdate, game_type, country) values (75, '2003-02-11', 2, 507);</v>
+        <v>insert into group_stage (id, tournament, group_code, squad) values (34, 2007, 'A', 502);</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4">
-        <f t="shared" ref="A4:A16" si="1">A3+1</f>
-        <v>76</v>
-      </c>
-      <c r="B4" s="2" t="str">
-        <f>"2003-02-11"</f>
-        <v>2003-02-11</v>
-      </c>
-      <c r="C4">
-        <v>2</v>
+        <f t="shared" si="1"/>
+        <v>35</v>
+      </c>
+      <c r="B4">
+        <f t="shared" si="2"/>
+        <v>2007</v>
+      </c>
+      <c r="C4" t="s">
+        <v>12</v>
       </c>
       <c r="D4">
-        <v>507</v>
+        <v>505</v>
       </c>
       <c r="G4" t="str">
         <f t="shared" si="0"/>
-        <v>insert into game (matchid, matchdate, game_type, country) values (76, '2003-02-11', 2, 507);</v>
+        <v>insert into group_stage (id, tournament, group_code, squad) values (35, 2007, 'A', 505);</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5">
         <f t="shared" si="1"/>
-        <v>77</v>
-      </c>
-      <c r="B5" s="2" t="str">
-        <f>"2003-02-13"</f>
-        <v>2003-02-13</v>
-      </c>
-      <c r="C5">
-        <v>2</v>
+        <v>36</v>
+      </c>
+      <c r="B5">
+        <f t="shared" si="2"/>
+        <v>2007</v>
+      </c>
+      <c r="C5" t="s">
+        <v>12</v>
       </c>
       <c r="D5">
-        <v>507</v>
+        <v>501</v>
       </c>
       <c r="G5" t="str">
         <f t="shared" si="0"/>
-        <v>insert into game (matchid, matchdate, game_type, country) values (77, '2003-02-13', 2, 507);</v>
+        <v>insert into group_stage (id, tournament, group_code, squad) values (36, 2007, 'A', 501);</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6">
         <f t="shared" si="1"/>
-        <v>78</v>
-      </c>
-      <c r="B6" s="2" t="str">
-        <f>"2003-02-13"</f>
-        <v>2003-02-13</v>
-      </c>
-      <c r="C6">
-        <v>2</v>
+        <v>37</v>
+      </c>
+      <c r="B6">
+        <f t="shared" si="2"/>
+        <v>2007</v>
+      </c>
+      <c r="C6" t="s">
+        <v>13</v>
       </c>
       <c r="D6">
         <v>507</v>
       </c>
       <c r="G6" t="str">
         <f t="shared" si="0"/>
-        <v>insert into game (matchid, matchdate, game_type, country) values (78, '2003-02-13', 2, 507);</v>
+        <v>insert into group_stage (id, tournament, group_code, squad) values (37, 2007, 'B', 507);</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7">
         <f t="shared" si="1"/>
-        <v>79</v>
-      </c>
-      <c r="B7" s="2" t="str">
-        <f>"2003-02-15"</f>
-        <v>2003-02-15</v>
-      </c>
-      <c r="C7">
-        <v>2</v>
+        <v>38</v>
+      </c>
+      <c r="B7">
+        <f t="shared" si="2"/>
+        <v>2007</v>
+      </c>
+      <c r="C7" t="s">
+        <v>13</v>
       </c>
       <c r="D7">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="G7" t="str">
         <f t="shared" si="0"/>
-        <v>insert into game (matchid, matchdate, game_type, country) values (79, '2003-02-15', 2, 507);</v>
+        <v>insert into group_stage (id, tournament, group_code, squad) values (38, 2007, 'B', 506);</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8">
         <f t="shared" si="1"/>
-        <v>80</v>
-      </c>
-      <c r="B8" s="2" t="str">
-        <f>"2003-02-15"</f>
-        <v>2003-02-15</v>
-      </c>
-      <c r="C8">
-        <v>2</v>
+        <v>39</v>
+      </c>
+      <c r="B8">
+        <f t="shared" si="2"/>
+        <v>2007</v>
+      </c>
+      <c r="C8" t="s">
+        <v>13</v>
       </c>
       <c r="D8">
-        <v>507</v>
+        <v>504</v>
       </c>
       <c r="G8" t="str">
         <f t="shared" si="0"/>
-        <v>insert into game (matchid, matchdate, game_type, country) values (80, '2003-02-15', 2, 507);</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A9">
-        <f t="shared" si="1"/>
-        <v>81</v>
-      </c>
-      <c r="B9" s="2" t="str">
-        <f>"2003-02-16"</f>
-        <v>2003-02-16</v>
-      </c>
-      <c r="C9">
-        <v>2</v>
-      </c>
-      <c r="D9">
-        <v>507</v>
-      </c>
-      <c r="G9" t="str">
-        <f t="shared" si="0"/>
-        <v>insert into game (matchid, matchdate, game_type, country) values (81, '2003-02-16', 2, 507);</v>
+        <v>insert into group_stage (id, tournament, group_code, squad) values (39, 2007, 'B', 504);</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A10">
-        <f t="shared" si="1"/>
-        <v>82</v>
-      </c>
-      <c r="B10" s="2" t="str">
-        <f>"2003-02-18"</f>
-        <v>2003-02-18</v>
-      </c>
-      <c r="C10">
-        <v>2</v>
-      </c>
-      <c r="D10">
-        <v>507</v>
+      <c r="A10" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>8</v>
       </c>
       <c r="G10" t="str">
-        <f t="shared" si="0"/>
-        <v>insert into game (matchid, matchdate, game_type, country) values (82, '2003-02-18', 2, 507);</v>
+        <f>"insert into game (matchid, matchdate, game_type, country) values (" &amp; A10 &amp; ", '" &amp; B10 &amp; "', " &amp; C10 &amp; ", " &amp; D10 &amp;  ");"</f>
+        <v>insert into game (matchid, matchdate, game_type, country) values (matchid, 'matchdate', game_type, country);</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11">
-        <f t="shared" si="1"/>
-        <v>83</v>
+        <f>'2005'!A23+1</f>
+        <v>102</v>
       </c>
       <c r="B11" s="2" t="str">
-        <f>"2003-02-18"</f>
-        <v>2003-02-18</v>
+        <f>"2007-02-08"</f>
+        <v>2007-02-08</v>
       </c>
       <c r="C11">
         <v>2</v>
       </c>
       <c r="D11">
-        <v>507</v>
+        <v>503</v>
       </c>
       <c r="G11" t="str">
-        <f t="shared" si="0"/>
-        <v>insert into game (matchid, matchdate, game_type, country) values (83, '2003-02-18', 2, 507);</v>
+        <f t="shared" ref="G11:G24" si="3">"insert into game (matchid, matchdate, game_type, country) values (" &amp; A11 &amp; ", '" &amp; B11 &amp; "', " &amp; C11 &amp; ", " &amp; D11 &amp;  ");"</f>
+        <v>insert into game (matchid, matchdate, game_type, country) values (102, '2007-02-08', 2, 503);</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12">
-        <f t="shared" si="1"/>
-        <v>84</v>
+        <f>A11+1</f>
+        <v>103</v>
       </c>
       <c r="B12" s="2" t="str">
-        <f>"2003-02-20"</f>
-        <v>2003-02-20</v>
+        <f>"2007-02-08"</f>
+        <v>2007-02-08</v>
       </c>
       <c r="C12">
         <v>2</v>
       </c>
       <c r="D12">
-        <v>507</v>
+        <v>503</v>
       </c>
       <c r="G12" t="str">
-        <f t="shared" si="0"/>
-        <v>insert into game (matchid, matchdate, game_type, country) values (84, '2003-02-20', 2, 507);</v>
+        <f t="shared" si="3"/>
+        <v>insert into game (matchid, matchdate, game_type, country) values (103, '2007-02-08', 2, 503);</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13">
-        <f t="shared" si="1"/>
-        <v>85</v>
+        <f t="shared" ref="A13:A24" si="4">A12+1</f>
+        <v>104</v>
       </c>
       <c r="B13" s="2" t="str">
-        <f>"2003-02-20"</f>
-        <v>2003-02-20</v>
+        <f>"2007-02-10"</f>
+        <v>2007-02-10</v>
       </c>
       <c r="C13">
         <v>2</v>
       </c>
       <c r="D13">
-        <v>507</v>
+        <v>503</v>
       </c>
       <c r="G13" t="str">
-        <f t="shared" si="0"/>
-        <v>insert into game (matchid, matchdate, game_type, country) values (85, '2003-02-20', 2, 507);</v>
+        <f t="shared" si="3"/>
+        <v>insert into game (matchid, matchdate, game_type, country) values (104, '2007-02-10', 2, 503);</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14">
-        <f t="shared" si="1"/>
-        <v>86</v>
+        <f t="shared" si="4"/>
+        <v>105</v>
       </c>
       <c r="B14" s="2" t="str">
-        <f>"2003-02-21"</f>
-        <v>2003-02-21</v>
+        <f>"2007-02-10"</f>
+        <v>2007-02-10</v>
       </c>
       <c r="C14">
         <v>2</v>
       </c>
       <c r="D14">
-        <v>507</v>
+        <v>503</v>
       </c>
       <c r="G14" t="str">
-        <f t="shared" si="0"/>
-        <v>insert into game (matchid, matchdate, game_type, country) values (86, '2003-02-21', 2, 507);</v>
+        <f t="shared" si="3"/>
+        <v>insert into game (matchid, matchdate, game_type, country) values (105, '2007-02-10', 2, 503);</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15">
-        <f t="shared" si="1"/>
-        <v>87</v>
+        <f t="shared" si="4"/>
+        <v>106</v>
       </c>
       <c r="B15" s="2" t="str">
-        <f>"2003-02-23"</f>
-        <v>2003-02-23</v>
+        <f>"2007-02-12"</f>
+        <v>2007-02-12</v>
       </c>
       <c r="C15">
         <v>2</v>
       </c>
       <c r="D15">
-        <v>507</v>
+        <v>503</v>
       </c>
       <c r="G15" t="str">
-        <f t="shared" si="0"/>
-        <v>insert into game (matchid, matchdate, game_type, country) values (87, '2003-02-23', 2, 507);</v>
+        <f t="shared" si="3"/>
+        <v>insert into game (matchid, matchdate, game_type, country) values (106, '2007-02-12', 2, 503);</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16">
-        <f t="shared" si="1"/>
-        <v>88</v>
+        <f t="shared" si="4"/>
+        <v>107</v>
       </c>
       <c r="B16" s="2" t="str">
-        <f>"2003-02-23"</f>
-        <v>2003-02-23</v>
+        <f>"2007-02-12"</f>
+        <v>2007-02-12</v>
       </c>
       <c r="C16">
         <v>2</v>
       </c>
       <c r="D16">
-        <v>507</v>
+        <v>503</v>
       </c>
       <c r="G16" t="str">
-        <f t="shared" si="0"/>
-        <v>insert into game (matchid, matchdate, game_type, country) values (88, '2003-02-23', 2, 507);</v>
+        <f t="shared" si="3"/>
+        <v>insert into game (matchid, matchdate, game_type, country) values (107, '2007-02-12', 2, 503);</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <f t="shared" si="4"/>
+        <v>108</v>
+      </c>
+      <c r="B17" s="2" t="str">
+        <f>"2007-02-09"</f>
+        <v>2007-02-09</v>
+      </c>
+      <c r="C17">
+        <v>2</v>
+      </c>
+      <c r="D17">
+        <v>503</v>
+      </c>
+      <c r="G17" t="str">
+        <f t="shared" si="3"/>
+        <v>insert into game (matchid, matchdate, game_type, country) values (108, '2007-02-09', 2, 503);</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A18" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B18" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C18" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D18" s="1" t="s">
+      <c r="A18">
+        <f t="shared" si="4"/>
+        <v>109</v>
+      </c>
+      <c r="B18" s="2" t="str">
+        <f>"2007-02-11"</f>
+        <v>2007-02-11</v>
+      </c>
+      <c r="C18">
+        <v>2</v>
+      </c>
+      <c r="D18">
+        <v>503</v>
+      </c>
+      <c r="G18" t="str">
+        <f t="shared" si="3"/>
+        <v>insert into game (matchid, matchdate, game_type, country) values (109, '2007-02-11', 2, 503);</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A19">
+        <f t="shared" si="4"/>
+        <v>110</v>
+      </c>
+      <c r="B19" s="2" t="str">
+        <f>"2007-02-13"</f>
+        <v>2007-02-13</v>
+      </c>
+      <c r="C19">
+        <v>2</v>
+      </c>
+      <c r="D19">
+        <v>503</v>
+      </c>
+      <c r="G19" t="str">
+        <f t="shared" si="3"/>
+        <v>insert into game (matchid, matchdate, game_type, country) values (110, '2007-02-13', 2, 503);</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A20">
+        <f t="shared" si="4"/>
+        <v>111</v>
+      </c>
+      <c r="B20" s="2" t="str">
+        <f>"2007-02-15"</f>
+        <v>2007-02-15</v>
+      </c>
+      <c r="C20">
+        <v>24</v>
+      </c>
+      <c r="D20">
+        <v>503</v>
+      </c>
+      <c r="G20" t="str">
+        <f t="shared" si="3"/>
+        <v>insert into game (matchid, matchdate, game_type, country) values (111, '2007-02-15', 24, 503);</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A21">
+        <f t="shared" si="4"/>
+        <v>112</v>
+      </c>
+      <c r="B21" s="2" t="str">
+        <f>"2007-02-16"</f>
+        <v>2007-02-16</v>
+      </c>
+      <c r="C21">
+        <v>4</v>
+      </c>
+      <c r="D21">
+        <v>503</v>
+      </c>
+      <c r="G21" t="str">
+        <f t="shared" si="3"/>
+        <v>insert into game (matchid, matchdate, game_type, country) values (112, '2007-02-16', 4, 503);</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A22">
+        <f t="shared" si="4"/>
+        <v>113</v>
+      </c>
+      <c r="B22" s="2" t="str">
+        <f>"2007-02-16"</f>
+        <v>2007-02-16</v>
+      </c>
+      <c r="C22">
+        <v>4</v>
+      </c>
+      <c r="D22">
+        <v>503</v>
+      </c>
+      <c r="G22" t="str">
+        <f t="shared" si="3"/>
+        <v>insert into game (matchid, matchdate, game_type, country) values (113, '2007-02-16', 4, 503);</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A23">
+        <f t="shared" si="4"/>
+        <v>114</v>
+      </c>
+      <c r="B23" s="2" t="str">
+        <f>"2007-02-18"</f>
+        <v>2007-02-18</v>
+      </c>
+      <c r="C23">
+        <v>5</v>
+      </c>
+      <c r="D23">
+        <v>503</v>
+      </c>
+      <c r="G23" t="str">
+        <f t="shared" si="3"/>
+        <v>insert into game (matchid, matchdate, game_type, country) values (114, '2007-02-18', 5, 503);</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A24">
+        <f t="shared" si="4"/>
+        <v>115</v>
+      </c>
+      <c r="B24" s="2" t="str">
+        <f>"2007-02-18"</f>
+        <v>2007-02-18</v>
+      </c>
+      <c r="C24">
+        <v>6</v>
+      </c>
+      <c r="D24">
+        <v>503</v>
+      </c>
+      <c r="G24" t="str">
+        <f t="shared" si="3"/>
+        <v>insert into game (matchid, matchdate, game_type, country) values (115, '2007-02-18', 6, 503);</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A26" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B26" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C26" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D26" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E18" s="1" t="s">
+      <c r="E26" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F18" s="1" t="s">
+      <c r="F26" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G18" t="str">
-        <f>"insert into game_score (id, matchid, squad, goals, points, time_type) values (" &amp; A18 &amp; ", " &amp; B18 &amp; ", " &amp; C18 &amp; ", " &amp; D18 &amp; ", " &amp; E18 &amp; ", " &amp; F18 &amp; ");"</f>
+      <c r="G26" t="str">
+        <f>"insert into game_score (id, matchid, squad, goals, points, time_type) values (" &amp; A26 &amp; ", " &amp; B26 &amp; ", " &amp; C26 &amp; ", " &amp; D26 &amp; ", " &amp; E26 &amp; ", " &amp; F26 &amp; ");"</f>
         <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (id, matchid, squad, goals, points, time_type);</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A19" s="3">
-        <f>'2001'!A87 + 1</f>
-        <v>295</v>
-      </c>
-      <c r="B19" s="3">
-        <f>A2</f>
-        <v>74</v>
-      </c>
-      <c r="C19" s="3">
-        <v>507</v>
-      </c>
-      <c r="D19" s="3">
-        <v>1</v>
-      </c>
-      <c r="E19" s="3">
-        <v>0</v>
-      </c>
-      <c r="F19" s="3">
-        <v>2</v>
-      </c>
-      <c r="G19" s="3" t="str">
-        <f t="shared" ref="G19:G78" si="2">"insert into game_score (id, matchid, squad, goals, points, time_type) values (" &amp; A19 &amp; ", " &amp; B19 &amp; ", " &amp; C19 &amp; ", " &amp; D19 &amp; ", " &amp; E19 &amp; ", " &amp; F19 &amp; ");"</f>
-        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (295, 74, 507, 1, 0, 2);</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A20" s="3">
-        <f>A19+1</f>
-        <v>296</v>
-      </c>
-      <c r="B20" s="3">
-        <f>B19</f>
-        <v>74</v>
-      </c>
-      <c r="C20" s="3">
-        <v>507</v>
-      </c>
-      <c r="D20" s="3">
-        <v>1</v>
-      </c>
-      <c r="E20" s="3">
-        <v>0</v>
-      </c>
-      <c r="F20" s="3">
-        <v>1</v>
-      </c>
-      <c r="G20" s="3" t="str">
-        <f t="shared" si="2"/>
-        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (296, 74, 507, 1, 0, 1);</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A21" s="3">
-        <f t="shared" ref="A21:A78" si="3">A20+1</f>
-        <v>297</v>
-      </c>
-      <c r="B21" s="3">
-        <f>B19</f>
-        <v>74</v>
-      </c>
-      <c r="C21" s="3">
-        <v>503</v>
-      </c>
-      <c r="D21" s="3">
-        <v>2</v>
-      </c>
-      <c r="E21" s="3">
-        <v>3</v>
-      </c>
-      <c r="F21" s="3">
-        <v>2</v>
-      </c>
-      <c r="G21" s="3" t="str">
-        <f t="shared" si="2"/>
-        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (297, 74, 503, 2, 3, 2);</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A22" s="3">
-        <f t="shared" si="3"/>
-        <v>298</v>
-      </c>
-      <c r="B22" s="3">
-        <f>B19</f>
-        <v>74</v>
-      </c>
-      <c r="C22" s="3">
-        <v>503</v>
-      </c>
-      <c r="D22" s="3">
-        <v>0</v>
-      </c>
-      <c r="E22" s="3">
-        <v>0</v>
-      </c>
-      <c r="F22" s="3">
-        <v>1</v>
-      </c>
-      <c r="G22" s="3" t="str">
-        <f t="shared" si="2"/>
-        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (298, 74, 503, 0, 0, 1);</v>
-      </c>
-    </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A23" s="4">
-        <f>A22+1</f>
-        <v>299</v>
-      </c>
-      <c r="B23" s="4">
-        <f>B19+1</f>
-        <v>75</v>
-      </c>
-      <c r="C23" s="4">
-        <v>504</v>
-      </c>
-      <c r="D23" s="4">
-        <v>2</v>
-      </c>
-      <c r="E23" s="4">
-        <v>3</v>
-      </c>
-      <c r="F23" s="4">
-        <v>2</v>
-      </c>
-      <c r="G23" t="str">
-        <f t="shared" si="2"/>
-        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (299, 75, 504, 2, 3, 2);</v>
-      </c>
-    </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A24" s="4">
-        <f t="shared" si="3"/>
-        <v>300</v>
-      </c>
-      <c r="B24" s="4">
-        <f>B23</f>
-        <v>75</v>
-      </c>
-      <c r="C24" s="4">
-        <v>504</v>
-      </c>
-      <c r="D24" s="4">
-        <v>2</v>
-      </c>
-      <c r="E24" s="4">
-        <v>0</v>
-      </c>
-      <c r="F24" s="4">
-        <v>1</v>
-      </c>
-      <c r="G24" t="str">
-        <f t="shared" si="2"/>
-        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (300, 75, 504, 2, 0, 1);</v>
-      </c>
-    </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A25" s="4">
-        <f t="shared" si="3"/>
-        <v>301</v>
-      </c>
-      <c r="B25" s="4">
-        <f>B23</f>
-        <v>75</v>
-      </c>
-      <c r="C25" s="4">
-        <v>505</v>
-      </c>
-      <c r="D25" s="4">
-        <v>0</v>
-      </c>
-      <c r="E25" s="4">
-        <v>0</v>
-      </c>
-      <c r="F25" s="4">
-        <v>2</v>
-      </c>
-      <c r="G25" t="str">
-        <f t="shared" si="2"/>
-        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (301, 75, 505, 0, 0, 2);</v>
-      </c>
-    </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A26" s="4">
-        <f t="shared" si="3"/>
-        <v>302</v>
-      </c>
-      <c r="B26" s="4">
-        <f>B23</f>
-        <v>75</v>
-      </c>
-      <c r="C26" s="4">
-        <v>505</v>
-      </c>
-      <c r="D26" s="4">
-        <v>0</v>
-      </c>
-      <c r="E26" s="4">
-        <v>0</v>
-      </c>
-      <c r="F26" s="4">
-        <v>1</v>
-      </c>
-      <c r="G26" t="str">
-        <f t="shared" si="2"/>
-        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (302, 75, 505, 0, 0, 1);</v>
       </c>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A27" s="3">
-        <f t="shared" si="3"/>
-        <v>303</v>
+        <f>'2005'!A79 + 1</f>
+        <v>409</v>
       </c>
       <c r="B27" s="3">
-        <f>B23+1</f>
-        <v>76</v>
+        <f>A11</f>
+        <v>102</v>
       </c>
       <c r="C27" s="3">
-        <v>506</v>
+        <v>502</v>
       </c>
       <c r="D27" s="3">
         <v>1</v>
@@ -11066,24 +14806,24 @@
         <v>2</v>
       </c>
       <c r="G27" s="3" t="str">
-        <f t="shared" si="2"/>
-        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (303, 76, 506, 1, 3, 2);</v>
+        <f t="shared" ref="G27:G78" si="5">"insert into game_score (id, matchid, squad, goals, points, time_type) values (" &amp; A27 &amp; ", " &amp; B27 &amp; ", " &amp; C27 &amp; ", " &amp; D27 &amp; ", " &amp; E27 &amp; ", " &amp; F27 &amp; ");"</f>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (409, 102, 502, 1, 3, 2);</v>
       </c>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A28" s="3">
-        <f t="shared" si="3"/>
-        <v>304</v>
+        <f>A27+1</f>
+        <v>410</v>
       </c>
       <c r="B28" s="3">
         <f>B27</f>
-        <v>76</v>
+        <v>102</v>
       </c>
       <c r="C28" s="3">
-        <v>506</v>
+        <v>502</v>
       </c>
       <c r="D28" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E28" s="3">
         <v>0</v>
@@ -11092,21 +14832,21 @@
         <v>1</v>
       </c>
       <c r="G28" s="3" t="str">
-        <f t="shared" si="2"/>
-        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (304, 76, 506, 0, 0, 1);</v>
+        <f t="shared" si="5"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (410, 102, 502, 1, 0, 1);</v>
       </c>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A29" s="3">
-        <f t="shared" si="3"/>
-        <v>305</v>
+        <f t="shared" ref="A29:A84" si="6">A28+1</f>
+        <v>411</v>
       </c>
       <c r="B29" s="3">
         <f>B27</f>
-        <v>76</v>
+        <v>102</v>
       </c>
       <c r="C29" s="3">
-        <v>503</v>
+        <v>505</v>
       </c>
       <c r="D29" s="3">
         <v>0</v>
@@ -11118,21 +14858,21 @@
         <v>2</v>
       </c>
       <c r="G29" s="3" t="str">
-        <f t="shared" si="2"/>
-        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (305, 76, 503, 0, 0, 2);</v>
+        <f t="shared" si="5"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (411, 102, 505, 0, 0, 2);</v>
       </c>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A30" s="3">
-        <f t="shared" si="3"/>
-        <v>306</v>
+        <f t="shared" si="6"/>
+        <v>412</v>
       </c>
       <c r="B30" s="3">
-        <f t="shared" ref="B30" si="4">B27</f>
-        <v>76</v>
+        <f>B27</f>
+        <v>102</v>
       </c>
       <c r="C30" s="3">
-        <v>503</v>
+        <v>505</v>
       </c>
       <c r="D30" s="3">
         <v>0</v>
@@ -11144,24 +14884,24 @@
         <v>1</v>
       </c>
       <c r="G30" s="3" t="str">
-        <f t="shared" si="2"/>
-        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (306, 76, 503, 0, 0, 1);</v>
+        <f t="shared" si="5"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (412, 102, 505, 0, 0, 1);</v>
       </c>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A31" s="4">
-        <f t="shared" si="3"/>
-        <v>307</v>
+        <f>A30+1</f>
+        <v>413</v>
       </c>
       <c r="B31" s="4">
         <f>B27+1</f>
-        <v>77</v>
+        <v>103</v>
       </c>
       <c r="C31" s="4">
         <v>503</v>
       </c>
       <c r="D31" s="4">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E31" s="4">
         <v>3</v>
@@ -11169,25 +14909,25 @@
       <c r="F31" s="4">
         <v>2</v>
       </c>
-      <c r="G31" s="4" t="str">
-        <f t="shared" si="2"/>
-        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (307, 77, 503, 3, 3, 2);</v>
+      <c r="G31" t="str">
+        <f t="shared" si="5"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (413, 103, 503, 2, 3, 2);</v>
       </c>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A32" s="4">
-        <f t="shared" si="3"/>
-        <v>308</v>
+        <f t="shared" si="6"/>
+        <v>414</v>
       </c>
       <c r="B32" s="4">
         <f>B31</f>
-        <v>77</v>
+        <v>103</v>
       </c>
       <c r="C32" s="4">
         <v>503</v>
       </c>
       <c r="D32" s="4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E32" s="4">
         <v>0</v>
@@ -11195,25 +14935,25 @@
       <c r="F32" s="4">
         <v>1</v>
       </c>
-      <c r="G32" s="4" t="str">
-        <f t="shared" si="2"/>
-        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (308, 77, 503, 2, 0, 1);</v>
+      <c r="G32" t="str">
+        <f t="shared" si="5"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (414, 103, 503, 1, 0, 1);</v>
       </c>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A33" s="4">
-        <f t="shared" si="3"/>
-        <v>309</v>
+        <f t="shared" si="6"/>
+        <v>415</v>
       </c>
       <c r="B33" s="4">
         <f>B31</f>
-        <v>77</v>
+        <v>103</v>
       </c>
       <c r="C33" s="4">
-        <v>505</v>
+        <v>501</v>
       </c>
       <c r="D33" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E33" s="4">
         <v>0</v>
@@ -11221,22 +14961,22 @@
       <c r="F33" s="4">
         <v>2</v>
       </c>
-      <c r="G33" s="4" t="str">
-        <f t="shared" si="2"/>
-        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (309, 77, 505, 0, 0, 2);</v>
+      <c r="G33" t="str">
+        <f t="shared" si="5"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (415, 103, 501, 1, 0, 2);</v>
       </c>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A34" s="4">
-        <f t="shared" si="3"/>
-        <v>310</v>
+        <f t="shared" si="6"/>
+        <v>416</v>
       </c>
       <c r="B34" s="4">
-        <f t="shared" ref="B34" si="5">B31</f>
-        <v>77</v>
+        <f>B31</f>
+        <v>103</v>
       </c>
       <c r="C34" s="4">
-        <v>505</v>
+        <v>501</v>
       </c>
       <c r="D34" s="4">
         <v>0</v>
@@ -11247,19 +14987,19 @@
       <c r="F34" s="4">
         <v>1</v>
       </c>
-      <c r="G34" s="4" t="str">
-        <f t="shared" si="2"/>
-        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (310, 77, 505, 0, 0, 1);</v>
+      <c r="G34" t="str">
+        <f t="shared" si="5"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (416, 103, 501, 0, 0, 1);</v>
       </c>
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A35" s="3">
-        <f t="shared" si="3"/>
-        <v>311</v>
+        <f t="shared" si="6"/>
+        <v>417</v>
       </c>
       <c r="B35" s="3">
         <f>B31+1</f>
-        <v>78</v>
+        <v>104</v>
       </c>
       <c r="C35" s="3">
         <v>502</v>
@@ -11268,24 +15008,24 @@
         <v>1</v>
       </c>
       <c r="E35" s="3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F35" s="3">
         <v>2</v>
       </c>
       <c r="G35" s="3" t="str">
-        <f t="shared" si="2"/>
-        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (311, 78, 502, 1, 1, 2);</v>
+        <f t="shared" si="5"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (417, 104, 502, 1, 3, 2);</v>
       </c>
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A36" s="3">
-        <f t="shared" si="3"/>
-        <v>312</v>
+        <f t="shared" si="6"/>
+        <v>418</v>
       </c>
       <c r="B36" s="3">
         <f>B35</f>
-        <v>78</v>
+        <v>104</v>
       </c>
       <c r="C36" s="3">
         <v>502</v>
@@ -11300,50 +15040,50 @@
         <v>1</v>
       </c>
       <c r="G36" s="3" t="str">
-        <f t="shared" si="2"/>
-        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (312, 78, 502, 1, 0, 1);</v>
+        <f t="shared" si="5"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (418, 104, 502, 1, 0, 1);</v>
       </c>
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A37" s="3">
-        <f t="shared" si="3"/>
-        <v>313</v>
+        <f t="shared" si="6"/>
+        <v>419</v>
       </c>
       <c r="B37" s="3">
         <f>B35</f>
-        <v>78</v>
+        <v>104</v>
       </c>
       <c r="C37" s="3">
-        <v>506</v>
+        <v>501</v>
       </c>
       <c r="D37" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E37" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F37" s="3">
         <v>2</v>
       </c>
       <c r="G37" s="3" t="str">
-        <f t="shared" si="2"/>
-        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (313, 78, 506, 1, 1, 2);</v>
+        <f t="shared" si="5"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (419, 104, 501, 0, 0, 2);</v>
       </c>
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A38" s="3">
-        <f t="shared" si="3"/>
-        <v>314</v>
+        <f t="shared" si="6"/>
+        <v>420</v>
       </c>
       <c r="B38" s="3">
-        <f t="shared" ref="B38" si="6">B35</f>
-        <v>78</v>
+        <f t="shared" ref="B38" si="7">B35</f>
+        <v>104</v>
       </c>
       <c r="C38" s="3">
-        <v>506</v>
+        <v>501</v>
       </c>
       <c r="D38" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E38" s="3">
         <v>0</v>
@@ -11352,24 +15092,24 @@
         <v>1</v>
       </c>
       <c r="G38" s="3" t="str">
-        <f t="shared" si="2"/>
-        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (314, 78, 506, 1, 0, 1);</v>
+        <f t="shared" si="5"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (420, 104, 501, 0, 0, 1);</v>
       </c>
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A39" s="4">
-        <f t="shared" si="3"/>
-        <v>315</v>
+        <f t="shared" si="6"/>
+        <v>421</v>
       </c>
       <c r="B39" s="4">
         <f>B35+1</f>
-        <v>79</v>
+        <v>105</v>
       </c>
       <c r="C39" s="4">
-        <v>506</v>
+        <v>503</v>
       </c>
       <c r="D39" s="4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E39" s="4">
         <v>3</v>
@@ -11378,21 +15118,21 @@
         <v>2</v>
       </c>
       <c r="G39" s="4" t="str">
-        <f t="shared" si="2"/>
-        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (315, 79, 506, 1, 3, 2);</v>
+        <f t="shared" si="5"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (421, 105, 503, 2, 3, 2);</v>
       </c>
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A40" s="4">
-        <f t="shared" si="3"/>
-        <v>316</v>
+        <f t="shared" si="6"/>
+        <v>422</v>
       </c>
       <c r="B40" s="4">
         <f>B39</f>
-        <v>79</v>
+        <v>105</v>
       </c>
       <c r="C40" s="4">
-        <v>506</v>
+        <v>503</v>
       </c>
       <c r="D40" s="4">
         <v>1</v>
@@ -11404,24 +15144,24 @@
         <v>1</v>
       </c>
       <c r="G40" s="4" t="str">
-        <f t="shared" si="2"/>
-        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (316, 79, 506, 1, 0, 1);</v>
+        <f t="shared" si="5"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (422, 105, 503, 1, 0, 1);</v>
       </c>
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A41" s="4">
-        <f t="shared" si="3"/>
-        <v>317</v>
+        <f t="shared" si="6"/>
+        <v>423</v>
       </c>
       <c r="B41" s="4">
         <f>B39</f>
-        <v>79</v>
+        <v>105</v>
       </c>
       <c r="C41" s="4">
         <v>505</v>
       </c>
       <c r="D41" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E41" s="4">
         <v>0</v>
@@ -11430,18 +15170,18 @@
         <v>2</v>
       </c>
       <c r="G41" s="4" t="str">
-        <f t="shared" si="2"/>
-        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (317, 79, 505, 0, 0, 2);</v>
+        <f t="shared" si="5"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (423, 105, 505, 1, 0, 2);</v>
       </c>
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A42" s="4">
-        <f t="shared" si="3"/>
-        <v>318</v>
+        <f t="shared" si="6"/>
+        <v>424</v>
       </c>
       <c r="B42" s="4">
-        <f t="shared" ref="B42" si="7">B39</f>
-        <v>79</v>
+        <f t="shared" ref="B42" si="8">B39</f>
+        <v>105</v>
       </c>
       <c r="C42" s="4">
         <v>505</v>
@@ -11456,24 +15196,24 @@
         <v>1</v>
       </c>
       <c r="G42" s="4" t="str">
-        <f t="shared" si="2"/>
-        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (318, 79, 505, 0, 0, 1);</v>
+        <f t="shared" si="5"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (424, 105, 505, 0, 0, 1);</v>
       </c>
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A43" s="3">
-        <f t="shared" si="3"/>
-        <v>319</v>
+        <f t="shared" si="6"/>
+        <v>425</v>
       </c>
       <c r="B43" s="3">
         <f>B39+1</f>
-        <v>80</v>
+        <v>106</v>
       </c>
       <c r="C43" s="3">
-        <v>503</v>
+        <v>505</v>
       </c>
       <c r="D43" s="3">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E43" s="3">
         <v>3</v>
@@ -11482,24 +15222,24 @@
         <v>2</v>
       </c>
       <c r="G43" s="3" t="str">
-        <f t="shared" si="2"/>
-        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (319, 80, 503, 1, 3, 2);</v>
+        <f t="shared" si="5"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (425, 106, 505, 4, 3, 2);</v>
       </c>
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A44" s="3">
-        <f t="shared" si="3"/>
-        <v>320</v>
+        <f t="shared" si="6"/>
+        <v>426</v>
       </c>
       <c r="B44" s="3">
         <f>B43</f>
-        <v>80</v>
+        <v>106</v>
       </c>
       <c r="C44" s="3">
-        <v>503</v>
+        <v>505</v>
       </c>
       <c r="D44" s="3">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E44" s="3">
         <v>0</v>
@@ -11508,24 +15248,24 @@
         <v>1</v>
       </c>
       <c r="G44" s="3" t="str">
-        <f t="shared" si="2"/>
-        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (320, 80, 503, 0, 0, 1);</v>
+        <f t="shared" si="5"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (426, 106, 505, 3, 0, 1);</v>
       </c>
     </row>
     <row r="45" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A45" s="3">
-        <f t="shared" si="3"/>
-        <v>321</v>
+        <f t="shared" si="6"/>
+        <v>427</v>
       </c>
       <c r="B45" s="3">
         <f>B43</f>
-        <v>80</v>
+        <v>106</v>
       </c>
       <c r="C45" s="3">
-        <v>504</v>
+        <v>501</v>
       </c>
       <c r="D45" s="3">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E45" s="3">
         <v>0</v>
@@ -11534,24 +15274,24 @@
         <v>2</v>
       </c>
       <c r="G45" s="3" t="str">
-        <f t="shared" si="2"/>
-        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (321, 80, 504, 0, 0, 2);</v>
+        <f t="shared" si="5"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (427, 106, 501, 2, 0, 2);</v>
       </c>
     </row>
     <row r="46" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A46" s="3">
-        <f t="shared" si="3"/>
-        <v>322</v>
+        <f t="shared" si="6"/>
+        <v>428</v>
       </c>
       <c r="B46" s="3">
-        <f t="shared" ref="B46" si="8">B43</f>
-        <v>80</v>
+        <f t="shared" ref="B46" si="9">B43</f>
+        <v>106</v>
       </c>
       <c r="C46" s="3">
-        <v>504</v>
+        <v>501</v>
       </c>
       <c r="D46" s="3">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E46" s="3">
         <v>0</v>
@@ -11560,50 +15300,50 @@
         <v>1</v>
       </c>
       <c r="G46" s="3" t="str">
-        <f t="shared" si="2"/>
-        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (322, 80, 504, 0, 0, 1);</v>
+        <f t="shared" si="5"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (428, 106, 501, 2, 0, 1);</v>
       </c>
     </row>
     <row r="47" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A47" s="4">
-        <f t="shared" si="3"/>
-        <v>323</v>
+        <f t="shared" si="6"/>
+        <v>429</v>
       </c>
       <c r="B47" s="4">
         <f>B43+1</f>
-        <v>81</v>
+        <v>107</v>
       </c>
       <c r="C47" s="4">
-        <v>507</v>
+        <v>503</v>
       </c>
       <c r="D47" s="4">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E47" s="4">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F47" s="4">
         <v>2</v>
       </c>
       <c r="G47" s="4" t="str">
-        <f t="shared" si="2"/>
-        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (323, 81, 507, 2, 3, 2);</v>
+        <f t="shared" si="5"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (429, 107, 503, 0, 1, 2);</v>
       </c>
     </row>
     <row r="48" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A48" s="4">
-        <f t="shared" si="3"/>
-        <v>324</v>
+        <f t="shared" si="6"/>
+        <v>430</v>
       </c>
       <c r="B48" s="4">
         <f>B47</f>
-        <v>81</v>
+        <v>107</v>
       </c>
       <c r="C48" s="4">
-        <v>507</v>
+        <v>503</v>
       </c>
       <c r="D48" s="4">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E48" s="4">
         <v>0</v>
@@ -11612,18 +15352,18 @@
         <v>1</v>
       </c>
       <c r="G48" s="4" t="str">
-        <f t="shared" si="2"/>
-        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (324, 81, 507, 2, 0, 1);</v>
+        <f t="shared" si="5"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (430, 107, 503, 0, 0, 1);</v>
       </c>
     </row>
     <row r="49" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A49" s="4">
-        <f t="shared" si="3"/>
-        <v>325</v>
+        <f t="shared" si="6"/>
+        <v>431</v>
       </c>
       <c r="B49" s="4">
         <f>B47</f>
-        <v>81</v>
+        <v>107</v>
       </c>
       <c r="C49" s="4">
         <v>502</v>
@@ -11632,24 +15372,24 @@
         <v>0</v>
       </c>
       <c r="E49" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F49" s="4">
         <v>2</v>
       </c>
       <c r="G49" s="4" t="str">
-        <f t="shared" si="2"/>
-        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (325, 81, 502, 0, 0, 2);</v>
+        <f t="shared" si="5"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (431, 107, 502, 0, 1, 2);</v>
       </c>
     </row>
     <row r="50" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A50" s="4">
-        <f t="shared" si="3"/>
-        <v>326</v>
+        <f t="shared" si="6"/>
+        <v>432</v>
       </c>
       <c r="B50" s="4">
-        <f t="shared" ref="B50" si="9">B47</f>
-        <v>81</v>
+        <f t="shared" ref="B50" si="10">B47</f>
+        <v>107</v>
       </c>
       <c r="C50" s="4">
         <v>502</v>
@@ -11664,24 +15404,24 @@
         <v>1</v>
       </c>
       <c r="G50" s="4" t="str">
-        <f t="shared" si="2"/>
-        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (326, 81, 502, 0, 0, 1);</v>
+        <f t="shared" si="5"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (432, 107, 502, 0, 0, 1);</v>
       </c>
     </row>
     <row r="51" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A51" s="3">
-        <f t="shared" si="3"/>
-        <v>327</v>
+        <f t="shared" si="6"/>
+        <v>433</v>
       </c>
       <c r="B51" s="3">
         <f>B47+1</f>
-        <v>82</v>
+        <v>108</v>
       </c>
       <c r="C51" s="3">
-        <v>502</v>
+        <v>506</v>
       </c>
       <c r="D51" s="3">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="E51" s="3">
         <v>3</v>
@@ -11690,24 +15430,24 @@
         <v>2</v>
       </c>
       <c r="G51" s="3" t="str">
-        <f t="shared" si="2"/>
-        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (327, 82, 502, 5, 3, 2);</v>
+        <f t="shared" si="5"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (433, 108, 506, 3, 3, 2);</v>
       </c>
     </row>
     <row r="52" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A52" s="3">
-        <f t="shared" si="3"/>
-        <v>328</v>
+        <f t="shared" si="6"/>
+        <v>434</v>
       </c>
       <c r="B52" s="3">
         <f>B51</f>
-        <v>82</v>
+        <v>108</v>
       </c>
       <c r="C52" s="3">
-        <v>502</v>
+        <v>506</v>
       </c>
       <c r="D52" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E52" s="3">
         <v>0</v>
@@ -11716,24 +15456,24 @@
         <v>1</v>
       </c>
       <c r="G52" s="3" t="str">
-        <f t="shared" si="2"/>
-        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (328, 82, 502, 2, 0, 1);</v>
+        <f t="shared" si="5"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (434, 108, 506, 1, 0, 1);</v>
       </c>
     </row>
     <row r="53" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A53" s="3">
-        <f t="shared" si="3"/>
-        <v>329</v>
+        <f t="shared" si="6"/>
+        <v>435</v>
       </c>
       <c r="B53" s="3">
         <f>B51</f>
-        <v>82</v>
+        <v>108</v>
       </c>
       <c r="C53" s="3">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="D53" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E53" s="3">
         <v>0</v>
@@ -11742,21 +15482,21 @@
         <v>2</v>
       </c>
       <c r="G53" s="3" t="str">
-        <f t="shared" si="2"/>
-        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (329, 82, 505, 0, 0, 2);</v>
+        <f t="shared" si="5"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (435, 108, 504, 1, 0, 2);</v>
       </c>
     </row>
     <row r="54" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A54" s="3">
-        <f t="shared" si="3"/>
-        <v>330</v>
+        <f t="shared" si="6"/>
+        <v>436</v>
       </c>
       <c r="B54" s="3">
-        <f t="shared" ref="B54" si="10">B51</f>
-        <v>82</v>
+        <f t="shared" ref="B54" si="11">B51</f>
+        <v>108</v>
       </c>
       <c r="C54" s="3">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="D54" s="3">
         <v>0</v>
@@ -11768,21 +15508,21 @@
         <v>1</v>
       </c>
       <c r="G54" s="3" t="str">
-        <f t="shared" si="2"/>
-        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (330, 82, 505, 0, 0, 1);</v>
+        <f t="shared" si="5"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (436, 108, 504, 0, 0, 1);</v>
       </c>
     </row>
     <row r="55" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A55" s="4">
-        <f t="shared" si="3"/>
-        <v>331</v>
+        <f t="shared" si="6"/>
+        <v>437</v>
       </c>
       <c r="B55" s="4">
         <f>B51+1</f>
-        <v>83</v>
+        <v>109</v>
       </c>
       <c r="C55" s="4">
-        <v>507</v>
+        <v>504</v>
       </c>
       <c r="D55" s="4">
         <v>1</v>
@@ -11794,21 +15534,21 @@
         <v>2</v>
       </c>
       <c r="G55" s="4" t="str">
-        <f t="shared" si="2"/>
-        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (331, 83, 507, 1, 1, 2);</v>
+        <f t="shared" si="5"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (437, 109, 504, 1, 1, 2);</v>
       </c>
     </row>
     <row r="56" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A56" s="4">
-        <f t="shared" si="3"/>
-        <v>332</v>
+        <f t="shared" si="6"/>
+        <v>438</v>
       </c>
       <c r="B56" s="4">
         <f>B55</f>
-        <v>83</v>
+        <v>109</v>
       </c>
       <c r="C56" s="4">
-        <v>507</v>
+        <v>504</v>
       </c>
       <c r="D56" s="4">
         <v>0</v>
@@ -11820,21 +15560,21 @@
         <v>1</v>
       </c>
       <c r="G56" s="4" t="str">
-        <f t="shared" si="2"/>
-        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (332, 83, 507, 0, 0, 1);</v>
+        <f t="shared" si="5"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (438, 109, 504, 0, 0, 1);</v>
       </c>
     </row>
     <row r="57" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A57" s="4">
-        <f t="shared" si="3"/>
-        <v>333</v>
+        <f t="shared" si="6"/>
+        <v>439</v>
       </c>
       <c r="B57" s="4">
         <f>B55</f>
-        <v>83</v>
+        <v>109</v>
       </c>
       <c r="C57" s="4">
-        <v>504</v>
+        <v>507</v>
       </c>
       <c r="D57" s="4">
         <v>1</v>
@@ -11846,21 +15586,21 @@
         <v>2</v>
       </c>
       <c r="G57" s="4" t="str">
-        <f t="shared" si="2"/>
-        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (333, 83, 504, 1, 1, 2);</v>
+        <f t="shared" si="5"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (439, 109, 507, 1, 1, 2);</v>
       </c>
     </row>
     <row r="58" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A58" s="4">
-        <f t="shared" si="3"/>
-        <v>334</v>
+        <f t="shared" si="6"/>
+        <v>440</v>
       </c>
       <c r="B58" s="4">
-        <f t="shared" ref="B58" si="11">B55</f>
-        <v>83</v>
+        <f t="shared" ref="B58" si="12">B55</f>
+        <v>109</v>
       </c>
       <c r="C58" s="4">
-        <v>504</v>
+        <v>507</v>
       </c>
       <c r="D58" s="4">
         <v>1</v>
@@ -11872,50 +15612,50 @@
         <v>1</v>
       </c>
       <c r="G58" s="4" t="str">
-        <f t="shared" si="2"/>
-        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (334, 83, 504, 1, 0, 1);</v>
+        <f t="shared" si="5"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (440, 109, 507, 1, 0, 1);</v>
       </c>
     </row>
     <row r="59" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A59" s="3">
-        <f t="shared" si="3"/>
-        <v>335</v>
+        <f t="shared" si="6"/>
+        <v>441</v>
       </c>
       <c r="B59" s="3">
         <f>B55+1</f>
-        <v>84</v>
+        <v>110</v>
       </c>
       <c r="C59" s="3">
-        <v>502</v>
+        <v>506</v>
       </c>
       <c r="D59" s="3">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E59" s="3">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="F59" s="3">
         <v>2</v>
       </c>
       <c r="G59" s="3" t="str">
-        <f t="shared" si="2"/>
-        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (335, 84, 502, 2, 3, 2);</v>
+        <f t="shared" si="5"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (441, 110, 506, 0, 0, 2);</v>
       </c>
     </row>
     <row r="60" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A60" s="3">
-        <f t="shared" si="3"/>
-        <v>336</v>
+        <f t="shared" si="6"/>
+        <v>442</v>
       </c>
       <c r="B60" s="3">
         <f>B59</f>
-        <v>84</v>
+        <v>110</v>
       </c>
       <c r="C60" s="3">
-        <v>502</v>
+        <v>506</v>
       </c>
       <c r="D60" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E60" s="3">
         <v>0</v>
@@ -11924,47 +15664,47 @@
         <v>1</v>
       </c>
       <c r="G60" s="3" t="str">
-        <f t="shared" si="2"/>
-        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (336, 84, 502, 1, 0, 1);</v>
+        <f t="shared" si="5"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (442, 110, 506, 0, 0, 1);</v>
       </c>
     </row>
     <row r="61" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A61" s="3">
-        <f t="shared" si="3"/>
-        <v>337</v>
+        <f t="shared" si="6"/>
+        <v>443</v>
       </c>
       <c r="B61" s="3">
         <f>B59</f>
-        <v>84</v>
+        <v>110</v>
       </c>
       <c r="C61" s="3">
-        <v>503</v>
+        <v>507</v>
       </c>
       <c r="D61" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E61" s="3">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="F61" s="3">
         <v>2</v>
       </c>
       <c r="G61" s="3" t="str">
-        <f t="shared" si="2"/>
-        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (337, 84, 503, 0, 0, 2);</v>
+        <f t="shared" si="5"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (443, 110, 507, 1, 3, 2);</v>
       </c>
     </row>
     <row r="62" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A62" s="3">
-        <f t="shared" si="3"/>
-        <v>338</v>
+        <f t="shared" si="6"/>
+        <v>444</v>
       </c>
       <c r="B62" s="3">
-        <f t="shared" ref="B62" si="12">B59</f>
-        <v>84</v>
+        <f t="shared" ref="B62" si="13">B59</f>
+        <v>110</v>
       </c>
       <c r="C62" s="3">
-        <v>503</v>
+        <v>507</v>
       </c>
       <c r="D62" s="3">
         <v>0</v>
@@ -11976,24 +15716,24 @@
         <v>1</v>
       </c>
       <c r="G62" s="3" t="str">
-        <f t="shared" si="2"/>
-        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (338, 84, 503, 0, 0, 1);</v>
+        <f t="shared" si="5"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (444, 110, 507, 0, 0, 1);</v>
       </c>
     </row>
     <row r="63" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A63" s="4">
-        <f t="shared" si="3"/>
-        <v>339</v>
+        <f t="shared" si="6"/>
+        <v>445</v>
       </c>
       <c r="B63" s="4">
         <f>B59+1</f>
-        <v>85</v>
+        <v>111</v>
       </c>
       <c r="C63" s="4">
-        <v>506</v>
+        <v>504</v>
       </c>
       <c r="D63" s="4">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="E63" s="4">
         <v>3</v>
@@ -12002,24 +15742,24 @@
         <v>2</v>
       </c>
       <c r="G63" s="4" t="str">
-        <f t="shared" si="2"/>
-        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (339, 85, 506, 1, 3, 2);</v>
+        <f t="shared" si="5"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (445, 111, 504, 9, 3, 2);</v>
       </c>
     </row>
     <row r="64" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A64" s="4">
-        <f t="shared" si="3"/>
-        <v>340</v>
+        <f t="shared" si="6"/>
+        <v>446</v>
       </c>
       <c r="B64" s="4">
         <f>B63</f>
-        <v>85</v>
+        <v>111</v>
       </c>
       <c r="C64" s="4">
-        <v>506</v>
+        <v>504</v>
       </c>
       <c r="D64" s="4">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="E64" s="4">
         <v>0</v>
@@ -12028,24 +15768,24 @@
         <v>1</v>
       </c>
       <c r="G64" s="4" t="str">
-        <f t="shared" si="2"/>
-        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (340, 85, 506, 1, 0, 1);</v>
-      </c>
-    </row>
-    <row r="65" spans="1:7" x14ac:dyDescent="0.25">
+        <f t="shared" si="5"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (446, 111, 504, 5, 0, 1);</v>
+      </c>
+    </row>
+    <row r="65" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A65" s="4">
-        <f t="shared" si="3"/>
-        <v>341</v>
+        <f t="shared" si="6"/>
+        <v>447</v>
       </c>
       <c r="B65" s="4">
         <f>B63</f>
-        <v>85</v>
+        <v>111</v>
       </c>
       <c r="C65" s="4">
-        <v>504</v>
+        <v>505</v>
       </c>
       <c r="D65" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E65" s="4">
         <v>0</v>
@@ -12054,24 +15794,24 @@
         <v>2</v>
       </c>
       <c r="G65" s="4" t="str">
-        <f t="shared" si="2"/>
-        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (341, 85, 504, 0, 0, 2);</v>
-      </c>
-    </row>
-    <row r="66" spans="1:7" x14ac:dyDescent="0.25">
+        <f t="shared" si="5"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (447, 111, 505, 1, 0, 2);</v>
+      </c>
+    </row>
+    <row r="66" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A66" s="4">
-        <f t="shared" si="3"/>
-        <v>342</v>
+        <f t="shared" si="6"/>
+        <v>448</v>
       </c>
       <c r="B66" s="4">
-        <f t="shared" ref="B66" si="13">B63</f>
-        <v>85</v>
+        <f t="shared" ref="B66" si="14">B63</f>
+        <v>111</v>
       </c>
       <c r="C66" s="4">
-        <v>504</v>
+        <v>505</v>
       </c>
       <c r="D66" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E66" s="4">
         <v>0</v>
@@ -12080,44 +15820,44 @@
         <v>1</v>
       </c>
       <c r="G66" s="4" t="str">
-        <f t="shared" si="2"/>
-        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (342, 85, 504, 0, 0, 1);</v>
-      </c>
-    </row>
-    <row r="67" spans="1:7" x14ac:dyDescent="0.25">
+        <f t="shared" si="5"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (448, 111, 505, 1, 0, 1);</v>
+      </c>
+    </row>
+    <row r="67" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A67" s="3">
-        <f t="shared" si="3"/>
-        <v>343</v>
+        <f t="shared" si="6"/>
+        <v>449</v>
       </c>
       <c r="B67" s="3">
         <f>B63+1</f>
-        <v>86</v>
+        <v>112</v>
       </c>
       <c r="C67" s="3">
         <v>507</v>
       </c>
       <c r="D67" s="3">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E67" s="3">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="F67" s="3">
         <v>2</v>
       </c>
       <c r="G67" s="3" t="str">
-        <f t="shared" si="2"/>
-        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (343, 86, 507, 0, 0, 2);</v>
-      </c>
-    </row>
-    <row r="68" spans="1:7" x14ac:dyDescent="0.25">
+        <f t="shared" si="5"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (449, 112, 507, 2, 3, 2);</v>
+      </c>
+    </row>
+    <row r="68" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A68" s="3">
-        <f t="shared" si="3"/>
-        <v>344</v>
+        <f t="shared" si="6"/>
+        <v>450</v>
       </c>
       <c r="B68" s="3">
         <f>B67</f>
-        <v>86</v>
+        <v>112</v>
       </c>
       <c r="C68" s="3">
         <v>507</v>
@@ -12132,47 +15872,47 @@
         <v>1</v>
       </c>
       <c r="G68" s="3" t="str">
-        <f t="shared" si="2"/>
-        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (344, 86, 507, 0, 0, 1);</v>
-      </c>
-    </row>
-    <row r="69" spans="1:7" x14ac:dyDescent="0.25">
+        <f t="shared" si="5"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (450, 112, 507, 0, 0, 1);</v>
+      </c>
+    </row>
+    <row r="69" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A69" s="3">
-        <f t="shared" si="3"/>
-        <v>345</v>
+        <f t="shared" si="6"/>
+        <v>451</v>
       </c>
       <c r="B69" s="3">
         <f>B67</f>
-        <v>86</v>
+        <v>112</v>
       </c>
       <c r="C69" s="3">
-        <v>505</v>
+        <v>502</v>
       </c>
       <c r="D69" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E69" s="3">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="F69" s="3">
         <v>2</v>
       </c>
       <c r="G69" s="3" t="str">
-        <f t="shared" si="2"/>
-        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (345, 86, 505, 1, 3, 2);</v>
-      </c>
-    </row>
-    <row r="70" spans="1:7" x14ac:dyDescent="0.25">
+        <f t="shared" si="5"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (451, 112, 502, 0, 0, 2);</v>
+      </c>
+    </row>
+    <row r="70" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A70" s="3">
-        <f t="shared" si="3"/>
-        <v>346</v>
+        <f t="shared" si="6"/>
+        <v>452</v>
       </c>
       <c r="B70" s="3">
-        <f t="shared" ref="B70" si="14">B67</f>
-        <v>86</v>
+        <f t="shared" ref="B70" si="15">B67</f>
+        <v>112</v>
       </c>
       <c r="C70" s="3">
-        <v>505</v>
+        <v>502</v>
       </c>
       <c r="D70" s="3">
         <v>0</v>
@@ -12184,50 +15924,50 @@
         <v>1</v>
       </c>
       <c r="G70" s="3" t="str">
-        <f t="shared" si="2"/>
-        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (346, 86, 505, 0, 0, 1);</v>
-      </c>
-    </row>
-    <row r="71" spans="1:7" x14ac:dyDescent="0.25">
+        <f t="shared" si="5"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (452, 112, 502, 0, 0, 1);</v>
+      </c>
+    </row>
+    <row r="71" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A71" s="4">
-        <f t="shared" si="3"/>
-        <v>347</v>
+        <f t="shared" si="6"/>
+        <v>453</v>
       </c>
       <c r="B71" s="4">
         <f>B67+1</f>
-        <v>87</v>
+        <v>113</v>
       </c>
       <c r="C71" s="4">
-        <v>502</v>
+        <v>503</v>
       </c>
       <c r="D71" s="4">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E71" s="4">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="F71" s="4">
         <v>2</v>
       </c>
       <c r="G71" s="4" t="str">
-        <f t="shared" si="2"/>
-        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (347, 87, 502, 2, 3, 2);</v>
-      </c>
-    </row>
-    <row r="72" spans="1:7" x14ac:dyDescent="0.25">
+        <f t="shared" si="5"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (453, 113, 503, 0, 0, 2);</v>
+      </c>
+    </row>
+    <row r="72" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A72" s="4">
-        <f t="shared" si="3"/>
-        <v>348</v>
+        <f t="shared" si="6"/>
+        <v>454</v>
       </c>
       <c r="B72" s="4">
         <f>B71</f>
-        <v>87</v>
+        <v>113</v>
       </c>
       <c r="C72" s="4">
-        <v>502</v>
+        <v>503</v>
       </c>
       <c r="D72" s="4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E72" s="4">
         <v>0</v>
@@ -12236,50 +15976,50 @@
         <v>1</v>
       </c>
       <c r="G72" s="4" t="str">
-        <f t="shared" si="2"/>
-        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (348, 87, 502, 1, 0, 1);</v>
-      </c>
-    </row>
-    <row r="73" spans="1:7" x14ac:dyDescent="0.25">
+        <f t="shared" si="5"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (454, 113, 503, 0, 0, 1);</v>
+      </c>
+    </row>
+    <row r="73" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A73" s="4">
-        <f t="shared" si="3"/>
-        <v>349</v>
+        <f t="shared" si="6"/>
+        <v>455</v>
       </c>
       <c r="B73" s="4">
         <f>B71</f>
-        <v>87</v>
+        <v>113</v>
       </c>
       <c r="C73" s="4">
-        <v>504</v>
+        <v>506</v>
       </c>
       <c r="D73" s="4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E73" s="4">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="F73" s="4">
         <v>2</v>
       </c>
       <c r="G73" s="4" t="str">
-        <f t="shared" si="2"/>
-        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (349, 87, 504, 1, 0, 2);</v>
-      </c>
-    </row>
-    <row r="74" spans="1:7" x14ac:dyDescent="0.25">
+        <f t="shared" si="5"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (455, 113, 506, 2, 3, 2);</v>
+      </c>
+    </row>
+    <row r="74" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A74" s="4">
-        <f t="shared" si="3"/>
-        <v>350</v>
+        <f t="shared" si="6"/>
+        <v>456</v>
       </c>
       <c r="B74" s="4">
-        <f t="shared" ref="B74" si="15">B71</f>
-        <v>87</v>
+        <f t="shared" ref="B74" si="16">B71</f>
+        <v>113</v>
       </c>
       <c r="C74" s="4">
-        <v>504</v>
+        <v>506</v>
       </c>
       <c r="D74" s="4">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E74" s="4">
         <v>0</v>
@@ -12288,21 +16028,21 @@
         <v>1</v>
       </c>
       <c r="G74" s="4" t="str">
-        <f t="shared" si="2"/>
-        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (350, 87, 504, 0, 0, 1);</v>
-      </c>
-    </row>
-    <row r="75" spans="1:7" x14ac:dyDescent="0.25">
+        <f t="shared" si="5"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (456, 113, 506, 2, 0, 1);</v>
+      </c>
+    </row>
+    <row r="75" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A75" s="3">
-        <f t="shared" si="3"/>
-        <v>351</v>
+        <f t="shared" si="6"/>
+        <v>457</v>
       </c>
       <c r="B75" s="3">
         <f>B71+1</f>
-        <v>88</v>
+        <v>114</v>
       </c>
       <c r="C75" s="3">
-        <v>507</v>
+        <v>503</v>
       </c>
       <c r="D75" s="3">
         <v>0</v>
@@ -12314,21 +16054,21 @@
         <v>2</v>
       </c>
       <c r="G75" s="3" t="str">
-        <f t="shared" si="2"/>
-        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (351, 88, 507, 0, 0, 2);</v>
-      </c>
-    </row>
-    <row r="76" spans="1:7" x14ac:dyDescent="0.25">
+        <f t="shared" si="5"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (457, 114, 503, 0, 0, 2);</v>
+      </c>
+    </row>
+    <row r="76" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A76" s="3">
-        <f t="shared" si="3"/>
-        <v>352</v>
+        <f t="shared" si="6"/>
+        <v>458</v>
       </c>
       <c r="B76" s="3">
         <f>B75</f>
-        <v>88</v>
+        <v>114</v>
       </c>
       <c r="C76" s="3">
-        <v>507</v>
+        <v>503</v>
       </c>
       <c r="D76" s="3">
         <v>0</v>
@@ -12340,21 +16080,21 @@
         <v>1</v>
       </c>
       <c r="G76" s="3" t="str">
-        <f t="shared" si="2"/>
-        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (352, 88, 507, 0, 0, 1);</v>
-      </c>
-    </row>
-    <row r="77" spans="1:7" x14ac:dyDescent="0.25">
+        <f t="shared" si="5"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (458, 114, 503, 0, 0, 1);</v>
+      </c>
+    </row>
+    <row r="77" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A77" s="3">
-        <f t="shared" si="3"/>
-        <v>353</v>
+        <f t="shared" si="6"/>
+        <v>459</v>
       </c>
       <c r="B77" s="3">
         <f>B75</f>
-        <v>88</v>
+        <v>114</v>
       </c>
       <c r="C77" s="3">
-        <v>506</v>
+        <v>502</v>
       </c>
       <c r="D77" s="3">
         <v>1</v>
@@ -12366,35 +16106,197 @@
         <v>2</v>
       </c>
       <c r="G77" s="3" t="str">
-        <f t="shared" si="2"/>
-        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (353, 88, 506, 1, 3, 2);</v>
-      </c>
-    </row>
-    <row r="78" spans="1:7" x14ac:dyDescent="0.25">
+        <f t="shared" si="5"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (459, 114, 502, 1, 3, 2);</v>
+      </c>
+    </row>
+    <row r="78" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A78" s="3">
-        <f t="shared" si="3"/>
-        <v>354</v>
+        <f t="shared" si="6"/>
+        <v>460</v>
       </c>
       <c r="B78" s="3">
-        <f t="shared" ref="B78" si="16">B75</f>
-        <v>88</v>
+        <f t="shared" ref="B78" si="17">B75</f>
+        <v>114</v>
       </c>
       <c r="C78" s="3">
+        <v>502</v>
+      </c>
+      <c r="D78" s="3">
+        <v>0</v>
+      </c>
+      <c r="E78" s="3">
+        <v>0</v>
+      </c>
+      <c r="F78" s="3">
+        <v>1</v>
+      </c>
+      <c r="G78" s="3" t="str">
+        <f t="shared" si="5"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (460, 114, 502, 0, 0, 1);</v>
+      </c>
+    </row>
+    <row r="79" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A79" s="4">
+        <f t="shared" si="6"/>
+        <v>461</v>
+      </c>
+      <c r="B79" s="4">
+        <f>B77+1</f>
+        <v>115</v>
+      </c>
+      <c r="C79" s="4">
         <v>506</v>
       </c>
-      <c r="D78" s="3">
-        <v>0</v>
-      </c>
-      <c r="E78" s="3">
-        <v>0</v>
-      </c>
-      <c r="F78" s="3">
-        <v>1</v>
-      </c>
-      <c r="G78" s="3" t="str">
-        <f t="shared" si="2"/>
-        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (354, 88, 506, 0, 0, 1);</v>
-      </c>
+      <c r="D79" s="4">
+        <v>1</v>
+      </c>
+      <c r="E79" s="4">
+        <v>1</v>
+      </c>
+      <c r="F79" s="4">
+        <v>2</v>
+      </c>
+      <c r="G79" s="4" t="str">
+        <f t="shared" ref="G79:G82" si="18">"insert into game_score (id, matchid, squad, goals, points, time_type) values (" &amp; A79 &amp; ", " &amp; B79 &amp; ", " &amp; C79 &amp; ", " &amp; D79 &amp; ", " &amp; E79 &amp; ", " &amp; F79 &amp; ");"</f>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (461, 115, 506, 1, 1, 2);</v>
+      </c>
+      <c r="H79" s="4"/>
+    </row>
+    <row r="80" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A80" s="4">
+        <f t="shared" si="6"/>
+        <v>462</v>
+      </c>
+      <c r="B80" s="4">
+        <f>B79</f>
+        <v>115</v>
+      </c>
+      <c r="C80" s="4">
+        <v>506</v>
+      </c>
+      <c r="D80" s="4">
+        <v>0</v>
+      </c>
+      <c r="E80" s="4">
+        <v>0</v>
+      </c>
+      <c r="F80" s="4">
+        <v>1</v>
+      </c>
+      <c r="G80" s="4" t="str">
+        <f t="shared" si="18"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (462, 115, 506, 0, 0, 1);</v>
+      </c>
+      <c r="H80" s="4"/>
+    </row>
+    <row r="81" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A81" s="4">
+        <f t="shared" si="6"/>
+        <v>463</v>
+      </c>
+      <c r="B81" s="4">
+        <f>B79</f>
+        <v>115</v>
+      </c>
+      <c r="C81" s="4">
+        <v>507</v>
+      </c>
+      <c r="D81" s="4">
+        <v>1</v>
+      </c>
+      <c r="E81" s="4">
+        <v>1</v>
+      </c>
+      <c r="F81" s="4">
+        <v>2</v>
+      </c>
+      <c r="G81" s="4" t="str">
+        <f t="shared" si="18"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (463, 115, 507, 1, 1, 2);</v>
+      </c>
+      <c r="H81" s="4"/>
+    </row>
+    <row r="82" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A82" s="4">
+        <f t="shared" si="6"/>
+        <v>464</v>
+      </c>
+      <c r="B82" s="4">
+        <f t="shared" ref="B82" si="19">B79</f>
+        <v>115</v>
+      </c>
+      <c r="C82" s="4">
+        <v>507</v>
+      </c>
+      <c r="D82" s="4">
+        <v>1</v>
+      </c>
+      <c r="E82" s="4">
+        <v>0</v>
+      </c>
+      <c r="F82" s="4">
+        <v>1</v>
+      </c>
+      <c r="G82" s="4" t="str">
+        <f t="shared" si="18"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (464, 115, 507, 1, 0, 1);</v>
+      </c>
+      <c r="H82" s="4"/>
+    </row>
+    <row r="83" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A83" s="4">
+        <f t="shared" si="6"/>
+        <v>465</v>
+      </c>
+      <c r="B83" s="4">
+        <f>B82</f>
+        <v>115</v>
+      </c>
+      <c r="C83" s="4">
+        <v>506</v>
+      </c>
+      <c r="D83" s="4">
+        <v>4</v>
+      </c>
+      <c r="E83" s="4">
+        <v>0</v>
+      </c>
+      <c r="F83" s="4">
+        <v>7</v>
+      </c>
+      <c r="G83" s="4" t="str">
+        <f t="shared" ref="G83:G84" si="20">"insert into game_score (id, matchid, squad, goals, points, time_type) values (" &amp; A83 &amp; ", " &amp; B83 &amp; ", " &amp; C83 &amp; ", " &amp; D83 &amp; ", " &amp; E83 &amp; ", " &amp; F83 &amp; ");"</f>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (465, 115, 506, 4, 0, 7);</v>
+      </c>
+      <c r="H83" s="4"/>
+    </row>
+    <row r="84" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A84" s="4">
+        <f t="shared" si="6"/>
+        <v>466</v>
+      </c>
+      <c r="B84" s="4">
+        <f>B83</f>
+        <v>115</v>
+      </c>
+      <c r="C84" s="4">
+        <v>507</v>
+      </c>
+      <c r="D84" s="4">
+        <v>1</v>
+      </c>
+      <c r="E84" s="4">
+        <v>0</v>
+      </c>
+      <c r="F84" s="4">
+        <v>7</v>
+      </c>
+      <c r="G84" s="4" t="str">
+        <f t="shared" si="20"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (466, 115, 507, 1, 0, 7);</v>
+      </c>
+      <c r="H84" s="4"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Scripts/copacentroamericana/copacentroamericana.xlsx
+++ b/Scripts/copacentroamericana/copacentroamericana.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" tabRatio="666" activeTab="8"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" tabRatio="666" activeTab="13"/>
   </bookViews>
   <sheets>
     <sheet name="1991" sheetId="1" r:id="rId1"/>
@@ -16,13 +16,18 @@
     <sheet name="2003" sheetId="93" r:id="rId7"/>
     <sheet name="2005" sheetId="94" r:id="rId8"/>
     <sheet name="2007" sheetId="95" r:id="rId9"/>
+    <sheet name="2009" sheetId="96" r:id="rId10"/>
+    <sheet name="2011" sheetId="97" r:id="rId11"/>
+    <sheet name="2013" sheetId="98" r:id="rId12"/>
+    <sheet name="2014" sheetId="99" r:id="rId13"/>
+    <sheet name="2017" sheetId="100" r:id="rId14"/>
   </sheets>
   <calcPr calcId="145621"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="161" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="375" uniqueCount="14">
   <si>
     <t>id</t>
   </si>
@@ -1976,6 +1981,9730 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:H84"/>
+  <sheetViews>
+    <sheetView zoomScaleNormal="100" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="9.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.85546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="7.42578125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="6.5703125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="111.140625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D1" t="s">
+        <v>2</v>
+      </c>
+      <c r="G1" t="str">
+        <f>"insert into group_stage (id, tournament, group_code, squad) values (" &amp; A1 &amp; ", " &amp; B1 &amp; ", '" &amp; C1 &amp; "', " &amp; D1 &amp;  ");"</f>
+        <v>insert into group_stage (id, tournament, group_code, squad) values (id, tournament, 'group_code', squad);</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <f>'2007'!A8+1</f>
+        <v>40</v>
+      </c>
+      <c r="B2">
+        <v>2009</v>
+      </c>
+      <c r="C2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D2">
+        <v>504</v>
+      </c>
+      <c r="G2" t="str">
+        <f t="shared" ref="G2:G8" si="0">"insert into group_stage (id, tournament, group_code, squad) values (" &amp; A2 &amp; ", " &amp; B2 &amp; ", '" &amp; C2 &amp; "', " &amp; D2 &amp;  ");"</f>
+        <v>insert into group_stage (id, tournament, group_code, squad) values (40, 2009, 'A', 504);</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <f t="shared" ref="A3:A8" si="1">A2+1</f>
+        <v>41</v>
+      </c>
+      <c r="B3">
+        <f t="shared" ref="B3:B8" si="2">B2</f>
+        <v>2009</v>
+      </c>
+      <c r="C3" t="s">
+        <v>12</v>
+      </c>
+      <c r="D3">
+        <v>503</v>
+      </c>
+      <c r="G3" t="str">
+        <f t="shared" si="0"/>
+        <v>insert into group_stage (id, tournament, group_code, squad) values (41, 2009, 'A', 503);</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <f t="shared" si="1"/>
+        <v>42</v>
+      </c>
+      <c r="B4">
+        <f t="shared" si="2"/>
+        <v>2009</v>
+      </c>
+      <c r="C4" t="s">
+        <v>12</v>
+      </c>
+      <c r="D4">
+        <v>505</v>
+      </c>
+      <c r="G4" t="str">
+        <f t="shared" si="0"/>
+        <v>insert into group_stage (id, tournament, group_code, squad) values (42, 2009, 'A', 505);</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <f t="shared" si="1"/>
+        <v>43</v>
+      </c>
+      <c r="B5">
+        <f t="shared" si="2"/>
+        <v>2009</v>
+      </c>
+      <c r="C5" t="s">
+        <v>12</v>
+      </c>
+      <c r="D5">
+        <v>501</v>
+      </c>
+      <c r="G5" t="str">
+        <f t="shared" si="0"/>
+        <v>insert into group_stage (id, tournament, group_code, squad) values (43, 2009, 'A', 501);</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <f t="shared" si="1"/>
+        <v>44</v>
+      </c>
+      <c r="B6">
+        <f t="shared" si="2"/>
+        <v>2009</v>
+      </c>
+      <c r="C6" t="s">
+        <v>13</v>
+      </c>
+      <c r="D6">
+        <v>506</v>
+      </c>
+      <c r="G6" t="str">
+        <f t="shared" si="0"/>
+        <v>insert into group_stage (id, tournament, group_code, squad) values (44, 2009, 'B', 506);</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <f t="shared" si="1"/>
+        <v>45</v>
+      </c>
+      <c r="B7">
+        <f t="shared" si="2"/>
+        <v>2009</v>
+      </c>
+      <c r="C7" t="s">
+        <v>13</v>
+      </c>
+      <c r="D7">
+        <v>507</v>
+      </c>
+      <c r="G7" t="str">
+        <f t="shared" si="0"/>
+        <v>insert into group_stage (id, tournament, group_code, squad) values (45, 2009, 'B', 507);</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <f t="shared" si="1"/>
+        <v>46</v>
+      </c>
+      <c r="B8">
+        <f t="shared" si="2"/>
+        <v>2009</v>
+      </c>
+      <c r="C8" t="s">
+        <v>13</v>
+      </c>
+      <c r="D8">
+        <v>502</v>
+      </c>
+      <c r="G8" t="str">
+        <f t="shared" si="0"/>
+        <v>insert into group_stage (id, tournament, group_code, squad) values (46, 2009, 'B', 502);</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A10" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="G10" t="str">
+        <f>"insert into game (matchid, matchdate, game_type, country) values (" &amp; A10 &amp; ", '" &amp; B10 &amp; "', " &amp; C10 &amp; ", " &amp; D10 &amp;  ");"</f>
+        <v>insert into game (matchid, matchdate, game_type, country) values (matchid, 'matchdate', game_type, country);</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <f>'2007'!A24+1</f>
+        <v>116</v>
+      </c>
+      <c r="B11" s="2" t="str">
+        <f>"2009-01-22"</f>
+        <v>2009-01-22</v>
+      </c>
+      <c r="C11">
+        <v>2</v>
+      </c>
+      <c r="D11">
+        <v>504</v>
+      </c>
+      <c r="G11" t="str">
+        <f t="shared" ref="G11:G24" si="3">"insert into game (matchid, matchdate, game_type, country) values (" &amp; A11 &amp; ", '" &amp; B11 &amp; "', " &amp; C11 &amp; ", " &amp; D11 &amp;  ");"</f>
+        <v>insert into game (matchid, matchdate, game_type, country) values (116, '2009-01-22', 2, 504);</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <f>A11+1</f>
+        <v>117</v>
+      </c>
+      <c r="B12" s="2" t="str">
+        <f>"2009-01-22"</f>
+        <v>2009-01-22</v>
+      </c>
+      <c r="C12">
+        <v>2</v>
+      </c>
+      <c r="D12">
+        <v>504</v>
+      </c>
+      <c r="G12" t="str">
+        <f t="shared" si="3"/>
+        <v>insert into game (matchid, matchdate, game_type, country) values (117, '2009-01-22', 2, 504);</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <f t="shared" ref="A13:A24" si="4">A12+1</f>
+        <v>118</v>
+      </c>
+      <c r="B13" s="2" t="str">
+        <f>"2009-01-24"</f>
+        <v>2009-01-24</v>
+      </c>
+      <c r="C13">
+        <v>2</v>
+      </c>
+      <c r="D13">
+        <v>504</v>
+      </c>
+      <c r="G13" t="str">
+        <f t="shared" si="3"/>
+        <v>insert into game (matchid, matchdate, game_type, country) values (118, '2009-01-24', 2, 504);</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <f t="shared" si="4"/>
+        <v>119</v>
+      </c>
+      <c r="B14" s="2" t="str">
+        <f>"2009-01-24"</f>
+        <v>2009-01-24</v>
+      </c>
+      <c r="C14">
+        <v>2</v>
+      </c>
+      <c r="D14">
+        <v>504</v>
+      </c>
+      <c r="G14" t="str">
+        <f t="shared" si="3"/>
+        <v>insert into game (matchid, matchdate, game_type, country) values (119, '2009-01-24', 2, 504);</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <f t="shared" si="4"/>
+        <v>120</v>
+      </c>
+      <c r="B15" s="2" t="str">
+        <f>"2009-01-26"</f>
+        <v>2009-01-26</v>
+      </c>
+      <c r="C15">
+        <v>2</v>
+      </c>
+      <c r="D15">
+        <v>504</v>
+      </c>
+      <c r="G15" t="str">
+        <f t="shared" si="3"/>
+        <v>insert into game (matchid, matchdate, game_type, country) values (120, '2009-01-26', 2, 504);</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <f t="shared" si="4"/>
+        <v>121</v>
+      </c>
+      <c r="B16" s="2" t="str">
+        <f>"2009-01-26"</f>
+        <v>2009-01-26</v>
+      </c>
+      <c r="C16">
+        <v>2</v>
+      </c>
+      <c r="D16">
+        <v>504</v>
+      </c>
+      <c r="G16" t="str">
+        <f t="shared" si="3"/>
+        <v>insert into game (matchid, matchdate, game_type, country) values (121, '2009-01-26', 2, 504);</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <f t="shared" si="4"/>
+        <v>122</v>
+      </c>
+      <c r="B17" s="2" t="str">
+        <f>"2009-01-23"</f>
+        <v>2009-01-23</v>
+      </c>
+      <c r="C17">
+        <v>2</v>
+      </c>
+      <c r="D17">
+        <v>504</v>
+      </c>
+      <c r="G17" t="str">
+        <f t="shared" si="3"/>
+        <v>insert into game (matchid, matchdate, game_type, country) values (122, '2009-01-23', 2, 504);</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A18">
+        <f t="shared" si="4"/>
+        <v>123</v>
+      </c>
+      <c r="B18" s="2" t="str">
+        <f>"2009-01-25"</f>
+        <v>2009-01-25</v>
+      </c>
+      <c r="C18">
+        <v>2</v>
+      </c>
+      <c r="D18">
+        <v>504</v>
+      </c>
+      <c r="G18" t="str">
+        <f t="shared" si="3"/>
+        <v>insert into game (matchid, matchdate, game_type, country) values (123, '2009-01-25', 2, 504);</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A19">
+        <f t="shared" si="4"/>
+        <v>124</v>
+      </c>
+      <c r="B19" s="2" t="str">
+        <f>"2009-01-27"</f>
+        <v>2009-01-27</v>
+      </c>
+      <c r="C19">
+        <v>2</v>
+      </c>
+      <c r="D19">
+        <v>504</v>
+      </c>
+      <c r="G19" t="str">
+        <f t="shared" si="3"/>
+        <v>insert into game (matchid, matchdate, game_type, country) values (124, '2009-01-27', 2, 504);</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A20">
+        <f t="shared" si="4"/>
+        <v>125</v>
+      </c>
+      <c r="B20" s="2" t="str">
+        <f>"2009-01-29"</f>
+        <v>2009-01-29</v>
+      </c>
+      <c r="C20">
+        <v>24</v>
+      </c>
+      <c r="D20">
+        <v>504</v>
+      </c>
+      <c r="G20" t="str">
+        <f t="shared" si="3"/>
+        <v>insert into game (matchid, matchdate, game_type, country) values (125, '2009-01-29', 24, 504);</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A21">
+        <f t="shared" si="4"/>
+        <v>126</v>
+      </c>
+      <c r="B21" s="2" t="str">
+        <f>"2009-01-30"</f>
+        <v>2009-01-30</v>
+      </c>
+      <c r="C21">
+        <v>4</v>
+      </c>
+      <c r="D21">
+        <v>504</v>
+      </c>
+      <c r="G21" t="str">
+        <f t="shared" si="3"/>
+        <v>insert into game (matchid, matchdate, game_type, country) values (126, '2009-01-30', 4, 504);</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A22">
+        <f t="shared" si="4"/>
+        <v>127</v>
+      </c>
+      <c r="B22" s="2" t="str">
+        <f>"2009-01-30"</f>
+        <v>2009-01-30</v>
+      </c>
+      <c r="C22">
+        <v>4</v>
+      </c>
+      <c r="D22">
+        <v>504</v>
+      </c>
+      <c r="G22" t="str">
+        <f t="shared" si="3"/>
+        <v>insert into game (matchid, matchdate, game_type, country) values (127, '2009-01-30', 4, 504);</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A23">
+        <f t="shared" si="4"/>
+        <v>128</v>
+      </c>
+      <c r="B23" s="2" t="str">
+        <f>"2009-02-01"</f>
+        <v>2009-02-01</v>
+      </c>
+      <c r="C23">
+        <v>5</v>
+      </c>
+      <c r="D23">
+        <v>504</v>
+      </c>
+      <c r="G23" t="str">
+        <f t="shared" si="3"/>
+        <v>insert into game (matchid, matchdate, game_type, country) values (128, '2009-02-01', 5, 504);</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A24">
+        <f t="shared" si="4"/>
+        <v>129</v>
+      </c>
+      <c r="B24" s="2" t="str">
+        <f>"2009-02-01"</f>
+        <v>2009-02-01</v>
+      </c>
+      <c r="C24">
+        <v>6</v>
+      </c>
+      <c r="D24">
+        <v>504</v>
+      </c>
+      <c r="G24" t="str">
+        <f t="shared" si="3"/>
+        <v>insert into game (matchid, matchdate, game_type, country) values (129, '2009-02-01', 6, 504);</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A26" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B26" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C26" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D26" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E26" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F26" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G26" t="str">
+        <f>"insert into game_score (id, matchid, squad, goals, points, time_type) values (" &amp; A26 &amp; ", " &amp; B26 &amp; ", " &amp; C26 &amp; ", " &amp; D26 &amp; ", " &amp; E26 &amp; ", " &amp; F26 &amp; ");"</f>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (id, matchid, squad, goals, points, time_type);</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A27" s="3">
+        <f>'2007'!A84 + 1</f>
+        <v>467</v>
+      </c>
+      <c r="B27" s="3">
+        <f>A11</f>
+        <v>116</v>
+      </c>
+      <c r="C27" s="3">
+        <v>503</v>
+      </c>
+      <c r="D27" s="3">
+        <v>1</v>
+      </c>
+      <c r="E27" s="3">
+        <v>1</v>
+      </c>
+      <c r="F27" s="3">
+        <v>2</v>
+      </c>
+      <c r="G27" s="3" t="str">
+        <f t="shared" ref="G27:G84" si="5">"insert into game_score (id, matchid, squad, goals, points, time_type) values (" &amp; A27 &amp; ", " &amp; B27 &amp; ", " &amp; C27 &amp; ", " &amp; D27 &amp; ", " &amp; E27 &amp; ", " &amp; F27 &amp; ");"</f>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (467, 116, 503, 1, 1, 2);</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A28" s="3">
+        <f>A27+1</f>
+        <v>468</v>
+      </c>
+      <c r="B28" s="3">
+        <f>B27</f>
+        <v>116</v>
+      </c>
+      <c r="C28" s="3">
+        <v>503</v>
+      </c>
+      <c r="D28" s="3">
+        <v>1</v>
+      </c>
+      <c r="E28" s="3">
+        <v>0</v>
+      </c>
+      <c r="F28" s="3">
+        <v>1</v>
+      </c>
+      <c r="G28" s="3" t="str">
+        <f t="shared" si="5"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (468, 116, 503, 1, 0, 1);</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A29" s="3">
+        <f t="shared" ref="A29:A84" si="6">A28+1</f>
+        <v>469</v>
+      </c>
+      <c r="B29" s="3">
+        <f>B27</f>
+        <v>116</v>
+      </c>
+      <c r="C29" s="3">
+        <v>505</v>
+      </c>
+      <c r="D29" s="3">
+        <v>1</v>
+      </c>
+      <c r="E29" s="3">
+        <v>1</v>
+      </c>
+      <c r="F29" s="3">
+        <v>2</v>
+      </c>
+      <c r="G29" s="3" t="str">
+        <f t="shared" si="5"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (469, 116, 505, 1, 1, 2);</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A30" s="3">
+        <f t="shared" si="6"/>
+        <v>470</v>
+      </c>
+      <c r="B30" s="3">
+        <f>B27</f>
+        <v>116</v>
+      </c>
+      <c r="C30" s="3">
+        <v>505</v>
+      </c>
+      <c r="D30" s="3">
+        <v>0</v>
+      </c>
+      <c r="E30" s="3">
+        <v>0</v>
+      </c>
+      <c r="F30" s="3">
+        <v>1</v>
+      </c>
+      <c r="G30" s="3" t="str">
+        <f t="shared" si="5"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (470, 116, 505, 0, 0, 1);</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A31" s="4">
+        <f>A30+1</f>
+        <v>471</v>
+      </c>
+      <c r="B31" s="4">
+        <f>B27+1</f>
+        <v>117</v>
+      </c>
+      <c r="C31" s="4">
+        <v>504</v>
+      </c>
+      <c r="D31" s="4">
+        <v>2</v>
+      </c>
+      <c r="E31" s="4">
+        <v>3</v>
+      </c>
+      <c r="F31" s="4">
+        <v>2</v>
+      </c>
+      <c r="G31" t="str">
+        <f t="shared" si="5"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (471, 117, 504, 2, 3, 2);</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A32" s="4">
+        <f t="shared" si="6"/>
+        <v>472</v>
+      </c>
+      <c r="B32" s="4">
+        <f>B31</f>
+        <v>117</v>
+      </c>
+      <c r="C32" s="4">
+        <v>504</v>
+      </c>
+      <c r="D32" s="4">
+        <v>1</v>
+      </c>
+      <c r="E32" s="4">
+        <v>0</v>
+      </c>
+      <c r="F32" s="4">
+        <v>1</v>
+      </c>
+      <c r="G32" t="str">
+        <f t="shared" si="5"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (472, 117, 504, 1, 0, 1);</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A33" s="4">
+        <f t="shared" si="6"/>
+        <v>473</v>
+      </c>
+      <c r="B33" s="4">
+        <f>B31</f>
+        <v>117</v>
+      </c>
+      <c r="C33" s="4">
+        <v>501</v>
+      </c>
+      <c r="D33" s="4">
+        <v>1</v>
+      </c>
+      <c r="E33" s="4">
+        <v>0</v>
+      </c>
+      <c r="F33" s="4">
+        <v>2</v>
+      </c>
+      <c r="G33" t="str">
+        <f t="shared" si="5"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (473, 117, 501, 1, 0, 2);</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A34" s="4">
+        <f t="shared" si="6"/>
+        <v>474</v>
+      </c>
+      <c r="B34" s="4">
+        <f>B31</f>
+        <v>117</v>
+      </c>
+      <c r="C34" s="4">
+        <v>501</v>
+      </c>
+      <c r="D34" s="4">
+        <v>0</v>
+      </c>
+      <c r="E34" s="4">
+        <v>0</v>
+      </c>
+      <c r="F34" s="4">
+        <v>1</v>
+      </c>
+      <c r="G34" t="str">
+        <f t="shared" si="5"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (474, 117, 501, 0, 0, 1);</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A35" s="3">
+        <f t="shared" si="6"/>
+        <v>475</v>
+      </c>
+      <c r="B35" s="3">
+        <f>B31+1</f>
+        <v>118</v>
+      </c>
+      <c r="C35" s="3">
+        <v>501</v>
+      </c>
+      <c r="D35" s="3">
+        <v>1</v>
+      </c>
+      <c r="E35" s="3">
+        <v>0</v>
+      </c>
+      <c r="F35" s="3">
+        <v>2</v>
+      </c>
+      <c r="G35" s="3" t="str">
+        <f t="shared" si="5"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (475, 118, 501, 1, 0, 2);</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A36" s="3">
+        <f t="shared" si="6"/>
+        <v>476</v>
+      </c>
+      <c r="B36" s="3">
+        <f>B35</f>
+        <v>118</v>
+      </c>
+      <c r="C36" s="3">
+        <v>501</v>
+      </c>
+      <c r="D36" s="3">
+        <v>0</v>
+      </c>
+      <c r="E36" s="3">
+        <v>0</v>
+      </c>
+      <c r="F36" s="3">
+        <v>1</v>
+      </c>
+      <c r="G36" s="3" t="str">
+        <f t="shared" si="5"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (476, 118, 501, 0, 0, 1);</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A37" s="3">
+        <f t="shared" si="6"/>
+        <v>477</v>
+      </c>
+      <c r="B37" s="3">
+        <f>B35</f>
+        <v>118</v>
+      </c>
+      <c r="C37" s="3">
+        <v>503</v>
+      </c>
+      <c r="D37" s="3">
+        <v>4</v>
+      </c>
+      <c r="E37" s="3">
+        <v>3</v>
+      </c>
+      <c r="F37" s="3">
+        <v>2</v>
+      </c>
+      <c r="G37" s="3" t="str">
+        <f t="shared" si="5"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (477, 118, 503, 4, 3, 2);</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A38" s="3">
+        <f t="shared" si="6"/>
+        <v>478</v>
+      </c>
+      <c r="B38" s="3">
+        <f t="shared" ref="B38" si="7">B35</f>
+        <v>118</v>
+      </c>
+      <c r="C38" s="3">
+        <v>503</v>
+      </c>
+      <c r="D38" s="3">
+        <v>2</v>
+      </c>
+      <c r="E38" s="3">
+        <v>0</v>
+      </c>
+      <c r="F38" s="3">
+        <v>1</v>
+      </c>
+      <c r="G38" s="3" t="str">
+        <f t="shared" si="5"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (478, 118, 503, 2, 0, 1);</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A39" s="4">
+        <f t="shared" si="6"/>
+        <v>479</v>
+      </c>
+      <c r="B39" s="4">
+        <f>B35+1</f>
+        <v>119</v>
+      </c>
+      <c r="C39" s="4">
+        <v>504</v>
+      </c>
+      <c r="D39" s="4">
+        <v>4</v>
+      </c>
+      <c r="E39" s="4">
+        <v>3</v>
+      </c>
+      <c r="F39" s="4">
+        <v>2</v>
+      </c>
+      <c r="G39" s="4" t="str">
+        <f t="shared" si="5"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (479, 119, 504, 4, 3, 2);</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A40" s="4">
+        <f t="shared" si="6"/>
+        <v>480</v>
+      </c>
+      <c r="B40" s="4">
+        <f>B39</f>
+        <v>119</v>
+      </c>
+      <c r="C40" s="4">
+        <v>504</v>
+      </c>
+      <c r="D40" s="4">
+        <v>1</v>
+      </c>
+      <c r="E40" s="4">
+        <v>0</v>
+      </c>
+      <c r="F40" s="4">
+        <v>1</v>
+      </c>
+      <c r="G40" s="4" t="str">
+        <f t="shared" si="5"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (480, 119, 504, 1, 0, 1);</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A41" s="4">
+        <f t="shared" si="6"/>
+        <v>481</v>
+      </c>
+      <c r="B41" s="4">
+        <f>B39</f>
+        <v>119</v>
+      </c>
+      <c r="C41" s="4">
+        <v>505</v>
+      </c>
+      <c r="D41" s="4">
+        <v>1</v>
+      </c>
+      <c r="E41" s="4">
+        <v>0</v>
+      </c>
+      <c r="F41" s="4">
+        <v>2</v>
+      </c>
+      <c r="G41" s="4" t="str">
+        <f t="shared" si="5"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (481, 119, 505, 1, 0, 2);</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A42" s="4">
+        <f t="shared" si="6"/>
+        <v>482</v>
+      </c>
+      <c r="B42" s="4">
+        <f t="shared" ref="B42" si="8">B39</f>
+        <v>119</v>
+      </c>
+      <c r="C42" s="4">
+        <v>505</v>
+      </c>
+      <c r="D42" s="4">
+        <v>1</v>
+      </c>
+      <c r="E42" s="4">
+        <v>0</v>
+      </c>
+      <c r="F42" s="4">
+        <v>1</v>
+      </c>
+      <c r="G42" s="4" t="str">
+        <f t="shared" si="5"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (482, 119, 505, 1, 0, 1);</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A43" s="3">
+        <f t="shared" si="6"/>
+        <v>483</v>
+      </c>
+      <c r="B43" s="3">
+        <f>B39+1</f>
+        <v>120</v>
+      </c>
+      <c r="C43" s="3">
+        <v>505</v>
+      </c>
+      <c r="D43" s="3">
+        <v>1</v>
+      </c>
+      <c r="E43" s="3">
+        <v>1</v>
+      </c>
+      <c r="F43" s="3">
+        <v>2</v>
+      </c>
+      <c r="G43" s="3" t="str">
+        <f t="shared" si="5"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (483, 120, 505, 1, 1, 2);</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A44" s="3">
+        <f t="shared" si="6"/>
+        <v>484</v>
+      </c>
+      <c r="B44" s="3">
+        <f>B43</f>
+        <v>120</v>
+      </c>
+      <c r="C44" s="3">
+        <v>505</v>
+      </c>
+      <c r="D44" s="3">
+        <v>0</v>
+      </c>
+      <c r="E44" s="3">
+        <v>0</v>
+      </c>
+      <c r="F44" s="3">
+        <v>1</v>
+      </c>
+      <c r="G44" s="3" t="str">
+        <f t="shared" si="5"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (484, 120, 505, 0, 0, 1);</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A45" s="3">
+        <f t="shared" si="6"/>
+        <v>485</v>
+      </c>
+      <c r="B45" s="3">
+        <f>B43</f>
+        <v>120</v>
+      </c>
+      <c r="C45" s="3">
+        <v>501</v>
+      </c>
+      <c r="D45" s="3">
+        <v>1</v>
+      </c>
+      <c r="E45" s="3">
+        <v>1</v>
+      </c>
+      <c r="F45" s="3">
+        <v>2</v>
+      </c>
+      <c r="G45" s="3" t="str">
+        <f t="shared" si="5"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (485, 120, 501, 1, 1, 2);</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A46" s="3">
+        <f t="shared" si="6"/>
+        <v>486</v>
+      </c>
+      <c r="B46" s="3">
+        <f t="shared" ref="B46" si="9">B43</f>
+        <v>120</v>
+      </c>
+      <c r="C46" s="3">
+        <v>501</v>
+      </c>
+      <c r="D46" s="3">
+        <v>1</v>
+      </c>
+      <c r="E46" s="3">
+        <v>0</v>
+      </c>
+      <c r="F46" s="3">
+        <v>1</v>
+      </c>
+      <c r="G46" s="3" t="str">
+        <f t="shared" si="5"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (486, 120, 501, 1, 0, 1);</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A47" s="4">
+        <f t="shared" si="6"/>
+        <v>487</v>
+      </c>
+      <c r="B47" s="4">
+        <f>B43+1</f>
+        <v>121</v>
+      </c>
+      <c r="C47" s="4">
+        <v>504</v>
+      </c>
+      <c r="D47" s="4">
+        <v>2</v>
+      </c>
+      <c r="E47" s="4">
+        <v>3</v>
+      </c>
+      <c r="F47" s="4">
+        <v>2</v>
+      </c>
+      <c r="G47" s="4" t="str">
+        <f t="shared" si="5"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (487, 121, 504, 2, 3, 2);</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A48" s="4">
+        <f t="shared" si="6"/>
+        <v>488</v>
+      </c>
+      <c r="B48" s="4">
+        <f>B47</f>
+        <v>121</v>
+      </c>
+      <c r="C48" s="4">
+        <v>504</v>
+      </c>
+      <c r="D48" s="4">
+        <v>1</v>
+      </c>
+      <c r="E48" s="4">
+        <v>0</v>
+      </c>
+      <c r="F48" s="4">
+        <v>1</v>
+      </c>
+      <c r="G48" s="4" t="str">
+        <f t="shared" si="5"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (488, 121, 504, 1, 0, 1);</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A49" s="4">
+        <f t="shared" si="6"/>
+        <v>489</v>
+      </c>
+      <c r="B49" s="4">
+        <f>B47</f>
+        <v>121</v>
+      </c>
+      <c r="C49" s="4">
+        <v>503</v>
+      </c>
+      <c r="D49" s="4">
+        <v>0</v>
+      </c>
+      <c r="E49" s="4">
+        <v>0</v>
+      </c>
+      <c r="F49" s="4">
+        <v>2</v>
+      </c>
+      <c r="G49" s="4" t="str">
+        <f t="shared" si="5"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (489, 121, 503, 0, 0, 2);</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A50" s="4">
+        <f t="shared" si="6"/>
+        <v>490</v>
+      </c>
+      <c r="B50" s="4">
+        <f t="shared" ref="B50" si="10">B47</f>
+        <v>121</v>
+      </c>
+      <c r="C50" s="4">
+        <v>503</v>
+      </c>
+      <c r="D50" s="4">
+        <v>0</v>
+      </c>
+      <c r="E50" s="4">
+        <v>0</v>
+      </c>
+      <c r="F50" s="4">
+        <v>1</v>
+      </c>
+      <c r="G50" s="4" t="str">
+        <f t="shared" si="5"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (490, 121, 503, 0, 0, 1);</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A51" s="3">
+        <f t="shared" si="6"/>
+        <v>491</v>
+      </c>
+      <c r="B51" s="3">
+        <f>B47+1</f>
+        <v>122</v>
+      </c>
+      <c r="C51" s="3">
+        <v>506</v>
+      </c>
+      <c r="D51" s="3">
+        <v>3</v>
+      </c>
+      <c r="E51" s="3">
+        <v>3</v>
+      </c>
+      <c r="F51" s="3">
+        <v>2</v>
+      </c>
+      <c r="G51" s="3" t="str">
+        <f t="shared" si="5"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (491, 122, 506, 3, 3, 2);</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A52" s="3">
+        <f t="shared" si="6"/>
+        <v>492</v>
+      </c>
+      <c r="B52" s="3">
+        <f>B51</f>
+        <v>122</v>
+      </c>
+      <c r="C52" s="3">
+        <v>506</v>
+      </c>
+      <c r="D52" s="3">
+        <v>2</v>
+      </c>
+      <c r="E52" s="3">
+        <v>0</v>
+      </c>
+      <c r="F52" s="3">
+        <v>1</v>
+      </c>
+      <c r="G52" s="3" t="str">
+        <f t="shared" si="5"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (492, 122, 506, 2, 0, 1);</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A53" s="3">
+        <f t="shared" si="6"/>
+        <v>493</v>
+      </c>
+      <c r="B53" s="3">
+        <f>B51</f>
+        <v>122</v>
+      </c>
+      <c r="C53" s="3">
+        <v>507</v>
+      </c>
+      <c r="D53" s="3">
+        <v>0</v>
+      </c>
+      <c r="E53" s="3">
+        <v>0</v>
+      </c>
+      <c r="F53" s="3">
+        <v>2</v>
+      </c>
+      <c r="G53" s="3" t="str">
+        <f t="shared" si="5"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (493, 122, 507, 0, 0, 2);</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A54" s="3">
+        <f t="shared" si="6"/>
+        <v>494</v>
+      </c>
+      <c r="B54" s="3">
+        <f t="shared" ref="B54" si="11">B51</f>
+        <v>122</v>
+      </c>
+      <c r="C54" s="3">
+        <v>507</v>
+      </c>
+      <c r="D54" s="3">
+        <v>0</v>
+      </c>
+      <c r="E54" s="3">
+        <v>0</v>
+      </c>
+      <c r="F54" s="3">
+        <v>1</v>
+      </c>
+      <c r="G54" s="3" t="str">
+        <f t="shared" si="5"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (494, 122, 507, 0, 0, 1);</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A55" s="4">
+        <f t="shared" si="6"/>
+        <v>495</v>
+      </c>
+      <c r="B55" s="4">
+        <f>B51+1</f>
+        <v>123</v>
+      </c>
+      <c r="C55" s="4">
+        <v>502</v>
+      </c>
+      <c r="D55" s="4">
+        <v>1</v>
+      </c>
+      <c r="E55" s="4">
+        <v>0</v>
+      </c>
+      <c r="F55" s="4">
+        <v>2</v>
+      </c>
+      <c r="G55" s="4" t="str">
+        <f t="shared" si="5"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (495, 123, 502, 1, 0, 2);</v>
+      </c>
+    </row>
+    <row r="56" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A56" s="4">
+        <f t="shared" si="6"/>
+        <v>496</v>
+      </c>
+      <c r="B56" s="4">
+        <f>B55</f>
+        <v>123</v>
+      </c>
+      <c r="C56" s="4">
+        <v>502</v>
+      </c>
+      <c r="D56" s="4">
+        <v>0</v>
+      </c>
+      <c r="E56" s="4">
+        <v>0</v>
+      </c>
+      <c r="F56" s="4">
+        <v>1</v>
+      </c>
+      <c r="G56" s="4" t="str">
+        <f t="shared" si="5"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (496, 123, 502, 0, 0, 1);</v>
+      </c>
+    </row>
+    <row r="57" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A57" s="4">
+        <f t="shared" si="6"/>
+        <v>497</v>
+      </c>
+      <c r="B57" s="4">
+        <f>B55</f>
+        <v>123</v>
+      </c>
+      <c r="C57" s="4">
+        <v>506</v>
+      </c>
+      <c r="D57" s="4">
+        <v>3</v>
+      </c>
+      <c r="E57" s="4">
+        <v>3</v>
+      </c>
+      <c r="F57" s="4">
+        <v>2</v>
+      </c>
+      <c r="G57" s="4" t="str">
+        <f t="shared" si="5"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (497, 123, 506, 3, 3, 2);</v>
+      </c>
+    </row>
+    <row r="58" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A58" s="4">
+        <f t="shared" si="6"/>
+        <v>498</v>
+      </c>
+      <c r="B58" s="4">
+        <f t="shared" ref="B58" si="12">B55</f>
+        <v>123</v>
+      </c>
+      <c r="C58" s="4">
+        <v>506</v>
+      </c>
+      <c r="D58" s="4">
+        <v>1</v>
+      </c>
+      <c r="E58" s="4">
+        <v>0</v>
+      </c>
+      <c r="F58" s="4">
+        <v>1</v>
+      </c>
+      <c r="G58" s="4" t="str">
+        <f t="shared" si="5"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (498, 123, 506, 1, 0, 1);</v>
+      </c>
+    </row>
+    <row r="59" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A59" s="3">
+        <f t="shared" si="6"/>
+        <v>499</v>
+      </c>
+      <c r="B59" s="3">
+        <f>B55+1</f>
+        <v>124</v>
+      </c>
+      <c r="C59" s="3">
+        <v>507</v>
+      </c>
+      <c r="D59" s="3">
+        <v>1</v>
+      </c>
+      <c r="E59" s="3">
+        <v>3</v>
+      </c>
+      <c r="F59" s="3">
+        <v>2</v>
+      </c>
+      <c r="G59" s="3" t="str">
+        <f t="shared" si="5"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (499, 124, 507, 1, 3, 2);</v>
+      </c>
+    </row>
+    <row r="60" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A60" s="3">
+        <f t="shared" si="6"/>
+        <v>500</v>
+      </c>
+      <c r="B60" s="3">
+        <f>B59</f>
+        <v>124</v>
+      </c>
+      <c r="C60" s="3">
+        <v>507</v>
+      </c>
+      <c r="D60" s="3">
+        <v>1</v>
+      </c>
+      <c r="E60" s="3">
+        <v>0</v>
+      </c>
+      <c r="F60" s="3">
+        <v>1</v>
+      </c>
+      <c r="G60" s="3" t="str">
+        <f t="shared" si="5"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (500, 124, 507, 1, 0, 1);</v>
+      </c>
+    </row>
+    <row r="61" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A61" s="3">
+        <f t="shared" si="6"/>
+        <v>501</v>
+      </c>
+      <c r="B61" s="3">
+        <f>B59</f>
+        <v>124</v>
+      </c>
+      <c r="C61" s="3">
+        <v>502</v>
+      </c>
+      <c r="D61" s="3">
+        <v>0</v>
+      </c>
+      <c r="E61" s="3">
+        <v>0</v>
+      </c>
+      <c r="F61" s="3">
+        <v>2</v>
+      </c>
+      <c r="G61" s="3" t="str">
+        <f t="shared" si="5"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (501, 124, 502, 0, 0, 2);</v>
+      </c>
+    </row>
+    <row r="62" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A62" s="3">
+        <f t="shared" si="6"/>
+        <v>502</v>
+      </c>
+      <c r="B62" s="3">
+        <f t="shared" ref="B62" si="13">B59</f>
+        <v>124</v>
+      </c>
+      <c r="C62" s="3">
+        <v>502</v>
+      </c>
+      <c r="D62" s="3">
+        <v>0</v>
+      </c>
+      <c r="E62" s="3">
+        <v>0</v>
+      </c>
+      <c r="F62" s="3">
+        <v>1</v>
+      </c>
+      <c r="G62" s="3" t="str">
+        <f t="shared" si="5"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (502, 124, 502, 0, 0, 1);</v>
+      </c>
+    </row>
+    <row r="63" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A63" s="4">
+        <f t="shared" si="6"/>
+        <v>503</v>
+      </c>
+      <c r="B63" s="4">
+        <f>B59+1</f>
+        <v>125</v>
+      </c>
+      <c r="C63" s="4">
+        <v>505</v>
+      </c>
+      <c r="D63" s="4">
+        <v>2</v>
+      </c>
+      <c r="E63" s="4">
+        <v>3</v>
+      </c>
+      <c r="F63" s="4">
+        <v>2</v>
+      </c>
+      <c r="G63" s="4" t="str">
+        <f t="shared" si="5"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (503, 125, 505, 2, 3, 2);</v>
+      </c>
+    </row>
+    <row r="64" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A64" s="4">
+        <f t="shared" si="6"/>
+        <v>504</v>
+      </c>
+      <c r="B64" s="4">
+        <f>B63</f>
+        <v>125</v>
+      </c>
+      <c r="C64" s="4">
+        <v>505</v>
+      </c>
+      <c r="D64" s="4">
+        <v>1</v>
+      </c>
+      <c r="E64" s="4">
+        <v>0</v>
+      </c>
+      <c r="F64" s="4">
+        <v>1</v>
+      </c>
+      <c r="G64" s="4" t="str">
+        <f t="shared" si="5"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (504, 125, 505, 1, 0, 1);</v>
+      </c>
+    </row>
+    <row r="65" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A65" s="4">
+        <f t="shared" si="6"/>
+        <v>505</v>
+      </c>
+      <c r="B65" s="4">
+        <f>B63</f>
+        <v>125</v>
+      </c>
+      <c r="C65" s="4">
+        <v>502</v>
+      </c>
+      <c r="D65" s="4">
+        <v>0</v>
+      </c>
+      <c r="E65" s="4">
+        <v>0</v>
+      </c>
+      <c r="F65" s="4">
+        <v>2</v>
+      </c>
+      <c r="G65" s="4" t="str">
+        <f t="shared" si="5"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (505, 125, 502, 0, 0, 2);</v>
+      </c>
+    </row>
+    <row r="66" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A66" s="4">
+        <f t="shared" si="6"/>
+        <v>506</v>
+      </c>
+      <c r="B66" s="4">
+        <f t="shared" ref="B66" si="14">B63</f>
+        <v>125</v>
+      </c>
+      <c r="C66" s="4">
+        <v>502</v>
+      </c>
+      <c r="D66" s="4">
+        <v>0</v>
+      </c>
+      <c r="E66" s="4">
+        <v>0</v>
+      </c>
+      <c r="F66" s="4">
+        <v>1</v>
+      </c>
+      <c r="G66" s="4" t="str">
+        <f t="shared" si="5"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (506, 125, 502, 0, 0, 1);</v>
+      </c>
+    </row>
+    <row r="67" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A67" s="3">
+        <f t="shared" si="6"/>
+        <v>507</v>
+      </c>
+      <c r="B67" s="3">
+        <f>B63+1</f>
+        <v>126</v>
+      </c>
+      <c r="C67" s="3">
+        <v>506</v>
+      </c>
+      <c r="D67" s="3">
+        <v>1</v>
+      </c>
+      <c r="E67" s="3">
+        <v>3</v>
+      </c>
+      <c r="F67" s="3">
+        <v>2</v>
+      </c>
+      <c r="G67" s="3" t="str">
+        <f t="shared" si="5"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (507, 126, 506, 1, 3, 2);</v>
+      </c>
+    </row>
+    <row r="68" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A68" s="3">
+        <f t="shared" si="6"/>
+        <v>508</v>
+      </c>
+      <c r="B68" s="3">
+        <f>B67</f>
+        <v>126</v>
+      </c>
+      <c r="C68" s="3">
+        <v>506</v>
+      </c>
+      <c r="D68" s="3">
+        <v>1</v>
+      </c>
+      <c r="E68" s="3">
+        <v>0</v>
+      </c>
+      <c r="F68" s="3">
+        <v>1</v>
+      </c>
+      <c r="G68" s="3" t="str">
+        <f t="shared" si="5"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (508, 126, 506, 1, 0, 1);</v>
+      </c>
+    </row>
+    <row r="69" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A69" s="3">
+        <f t="shared" si="6"/>
+        <v>509</v>
+      </c>
+      <c r="B69" s="3">
+        <f>B67</f>
+        <v>126</v>
+      </c>
+      <c r="C69" s="3">
+        <v>503</v>
+      </c>
+      <c r="D69" s="3">
+        <v>0</v>
+      </c>
+      <c r="E69" s="3">
+        <v>0</v>
+      </c>
+      <c r="F69" s="3">
+        <v>2</v>
+      </c>
+      <c r="G69" s="3" t="str">
+        <f t="shared" si="5"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (509, 126, 503, 0, 0, 2);</v>
+      </c>
+    </row>
+    <row r="70" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A70" s="3">
+        <f t="shared" si="6"/>
+        <v>510</v>
+      </c>
+      <c r="B70" s="3">
+        <f t="shared" ref="B70" si="15">B67</f>
+        <v>126</v>
+      </c>
+      <c r="C70" s="3">
+        <v>503</v>
+      </c>
+      <c r="D70" s="3">
+        <v>0</v>
+      </c>
+      <c r="E70" s="3">
+        <v>0</v>
+      </c>
+      <c r="F70" s="3">
+        <v>1</v>
+      </c>
+      <c r="G70" s="3" t="str">
+        <f t="shared" si="5"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (510, 126, 503, 0, 0, 1);</v>
+      </c>
+    </row>
+    <row r="71" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A71" s="4">
+        <f t="shared" si="6"/>
+        <v>511</v>
+      </c>
+      <c r="B71" s="4">
+        <f>B67+1</f>
+        <v>127</v>
+      </c>
+      <c r="C71" s="4">
+        <v>504</v>
+      </c>
+      <c r="D71" s="4">
+        <v>0</v>
+      </c>
+      <c r="E71" s="4">
+        <v>0</v>
+      </c>
+      <c r="F71" s="4">
+        <v>2</v>
+      </c>
+      <c r="G71" s="4" t="str">
+        <f t="shared" si="5"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (511, 127, 504, 0, 0, 2);</v>
+      </c>
+    </row>
+    <row r="72" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A72" s="4">
+        <f t="shared" si="6"/>
+        <v>512</v>
+      </c>
+      <c r="B72" s="4">
+        <f>B71</f>
+        <v>127</v>
+      </c>
+      <c r="C72" s="4">
+        <v>504</v>
+      </c>
+      <c r="D72" s="4">
+        <v>0</v>
+      </c>
+      <c r="E72" s="4">
+        <v>0</v>
+      </c>
+      <c r="F72" s="4">
+        <v>1</v>
+      </c>
+      <c r="G72" s="4" t="str">
+        <f t="shared" si="5"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (512, 127, 504, 0, 0, 1);</v>
+      </c>
+    </row>
+    <row r="73" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A73" s="4">
+        <f t="shared" si="6"/>
+        <v>513</v>
+      </c>
+      <c r="B73" s="4">
+        <f>B71</f>
+        <v>127</v>
+      </c>
+      <c r="C73" s="4">
+        <v>507</v>
+      </c>
+      <c r="D73" s="4">
+        <v>1</v>
+      </c>
+      <c r="E73" s="4">
+        <v>3</v>
+      </c>
+      <c r="F73" s="4">
+        <v>2</v>
+      </c>
+      <c r="G73" s="4" t="str">
+        <f t="shared" si="5"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (513, 127, 507, 1, 3, 2);</v>
+      </c>
+    </row>
+    <row r="74" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A74" s="4">
+        <f t="shared" si="6"/>
+        <v>514</v>
+      </c>
+      <c r="B74" s="4">
+        <f t="shared" ref="B74" si="16">B71</f>
+        <v>127</v>
+      </c>
+      <c r="C74" s="4">
+        <v>507</v>
+      </c>
+      <c r="D74" s="4">
+        <v>1</v>
+      </c>
+      <c r="E74" s="4">
+        <v>0</v>
+      </c>
+      <c r="F74" s="4">
+        <v>1</v>
+      </c>
+      <c r="G74" s="4" t="str">
+        <f t="shared" si="5"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (514, 127, 507, 1, 0, 1);</v>
+      </c>
+    </row>
+    <row r="75" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A75" s="3">
+        <f t="shared" si="6"/>
+        <v>515</v>
+      </c>
+      <c r="B75" s="3">
+        <f>B71+1</f>
+        <v>128</v>
+      </c>
+      <c r="C75" s="3">
+        <v>504</v>
+      </c>
+      <c r="D75" s="3">
+        <v>1</v>
+      </c>
+      <c r="E75" s="3">
+        <v>3</v>
+      </c>
+      <c r="F75" s="3">
+        <v>2</v>
+      </c>
+      <c r="G75" s="3" t="str">
+        <f t="shared" si="5"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (515, 128, 504, 1, 3, 2);</v>
+      </c>
+    </row>
+    <row r="76" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A76" s="3">
+        <f t="shared" si="6"/>
+        <v>516</v>
+      </c>
+      <c r="B76" s="3">
+        <f>B75</f>
+        <v>128</v>
+      </c>
+      <c r="C76" s="3">
+        <v>504</v>
+      </c>
+      <c r="D76" s="3">
+        <v>1</v>
+      </c>
+      <c r="E76" s="3">
+        <v>0</v>
+      </c>
+      <c r="F76" s="3">
+        <v>1</v>
+      </c>
+      <c r="G76" s="3" t="str">
+        <f t="shared" si="5"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (516, 128, 504, 1, 0, 1);</v>
+      </c>
+    </row>
+    <row r="77" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A77" s="3">
+        <f t="shared" si="6"/>
+        <v>517</v>
+      </c>
+      <c r="B77" s="3">
+        <f>B75</f>
+        <v>128</v>
+      </c>
+      <c r="C77" s="3">
+        <v>503</v>
+      </c>
+      <c r="D77" s="3">
+        <v>0</v>
+      </c>
+      <c r="E77" s="3">
+        <v>0</v>
+      </c>
+      <c r="F77" s="3">
+        <v>2</v>
+      </c>
+      <c r="G77" s="3" t="str">
+        <f t="shared" si="5"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (517, 128, 503, 0, 0, 2);</v>
+      </c>
+    </row>
+    <row r="78" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A78" s="3">
+        <f t="shared" si="6"/>
+        <v>518</v>
+      </c>
+      <c r="B78" s="3">
+        <f t="shared" ref="B78" si="17">B75</f>
+        <v>128</v>
+      </c>
+      <c r="C78" s="3">
+        <v>503</v>
+      </c>
+      <c r="D78" s="3">
+        <v>0</v>
+      </c>
+      <c r="E78" s="3">
+        <v>0</v>
+      </c>
+      <c r="F78" s="3">
+        <v>1</v>
+      </c>
+      <c r="G78" s="3" t="str">
+        <f t="shared" si="5"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (518, 128, 503, 0, 0, 1);</v>
+      </c>
+    </row>
+    <row r="79" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A79" s="4">
+        <f t="shared" si="6"/>
+        <v>519</v>
+      </c>
+      <c r="B79" s="4">
+        <f>B77+1</f>
+        <v>129</v>
+      </c>
+      <c r="C79" s="4">
+        <v>506</v>
+      </c>
+      <c r="D79" s="4">
+        <v>0</v>
+      </c>
+      <c r="E79" s="4">
+        <v>1</v>
+      </c>
+      <c r="F79" s="4">
+        <v>2</v>
+      </c>
+      <c r="G79" s="4" t="str">
+        <f t="shared" si="5"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (519, 129, 506, 0, 1, 2);</v>
+      </c>
+      <c r="H79" s="4"/>
+    </row>
+    <row r="80" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A80" s="4">
+        <f t="shared" si="6"/>
+        <v>520</v>
+      </c>
+      <c r="B80" s="4">
+        <f>B79</f>
+        <v>129</v>
+      </c>
+      <c r="C80" s="4">
+        <v>506</v>
+      </c>
+      <c r="D80" s="4">
+        <v>0</v>
+      </c>
+      <c r="E80" s="4">
+        <v>0</v>
+      </c>
+      <c r="F80" s="4">
+        <v>1</v>
+      </c>
+      <c r="G80" s="4" t="str">
+        <f t="shared" si="5"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (520, 129, 506, 0, 0, 1);</v>
+      </c>
+      <c r="H80" s="4"/>
+    </row>
+    <row r="81" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A81" s="4">
+        <f t="shared" si="6"/>
+        <v>521</v>
+      </c>
+      <c r="B81" s="4">
+        <f>B79</f>
+        <v>129</v>
+      </c>
+      <c r="C81" s="4">
+        <v>507</v>
+      </c>
+      <c r="D81" s="4">
+        <v>0</v>
+      </c>
+      <c r="E81" s="4">
+        <v>1</v>
+      </c>
+      <c r="F81" s="4">
+        <v>2</v>
+      </c>
+      <c r="G81" s="4" t="str">
+        <f t="shared" si="5"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (521, 129, 507, 0, 1, 2);</v>
+      </c>
+      <c r="H81" s="4"/>
+    </row>
+    <row r="82" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A82" s="4">
+        <f t="shared" si="6"/>
+        <v>522</v>
+      </c>
+      <c r="B82" s="4">
+        <f t="shared" ref="B82" si="18">B79</f>
+        <v>129</v>
+      </c>
+      <c r="C82" s="4">
+        <v>507</v>
+      </c>
+      <c r="D82" s="4">
+        <v>0</v>
+      </c>
+      <c r="E82" s="4">
+        <v>0</v>
+      </c>
+      <c r="F82" s="4">
+        <v>1</v>
+      </c>
+      <c r="G82" s="4" t="str">
+        <f t="shared" si="5"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (522, 129, 507, 0, 0, 1);</v>
+      </c>
+      <c r="H82" s="4"/>
+    </row>
+    <row r="83" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A83" s="4">
+        <f t="shared" si="6"/>
+        <v>523</v>
+      </c>
+      <c r="B83" s="4">
+        <f>B82</f>
+        <v>129</v>
+      </c>
+      <c r="C83" s="4">
+        <v>506</v>
+      </c>
+      <c r="D83" s="4">
+        <v>3</v>
+      </c>
+      <c r="E83" s="4">
+        <v>0</v>
+      </c>
+      <c r="F83" s="4">
+        <v>7</v>
+      </c>
+      <c r="G83" s="4" t="str">
+        <f t="shared" si="5"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (523, 129, 506, 3, 0, 7);</v>
+      </c>
+      <c r="H83" s="4"/>
+    </row>
+    <row r="84" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A84" s="4">
+        <f t="shared" si="6"/>
+        <v>524</v>
+      </c>
+      <c r="B84" s="4">
+        <f>B83</f>
+        <v>129</v>
+      </c>
+      <c r="C84" s="4">
+        <v>507</v>
+      </c>
+      <c r="D84" s="4">
+        <v>5</v>
+      </c>
+      <c r="E84" s="4">
+        <v>0</v>
+      </c>
+      <c r="F84" s="4">
+        <v>7</v>
+      </c>
+      <c r="G84" s="4" t="str">
+        <f t="shared" si="5"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (524, 129, 507, 5, 0, 7);</v>
+      </c>
+      <c r="H84" s="4"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:H88"/>
+  <sheetViews>
+    <sheetView zoomScaleNormal="100" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="9.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.85546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="7.42578125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="6.5703125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="111.140625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D1" t="s">
+        <v>2</v>
+      </c>
+      <c r="G1" t="str">
+        <f>"insert into group_stage (id, tournament, group_code, squad) values (" &amp; A1 &amp; ", " &amp; B1 &amp; ", '" &amp; C1 &amp; "', " &amp; D1 &amp;  ");"</f>
+        <v>insert into group_stage (id, tournament, group_code, squad) values (id, tournament, 'group_code', squad);</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <f>'2009'!A8+1</f>
+        <v>47</v>
+      </c>
+      <c r="B2">
+        <v>2011</v>
+      </c>
+      <c r="C2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D2">
+        <v>507</v>
+      </c>
+      <c r="G2" t="str">
+        <f t="shared" ref="G2:G8" si="0">"insert into group_stage (id, tournament, group_code, squad) values (" &amp; A2 &amp; ", " &amp; B2 &amp; ", '" &amp; C2 &amp; "', " &amp; D2 &amp;  ");"</f>
+        <v>insert into group_stage (id, tournament, group_code, squad) values (47, 2011, 'A', 507);</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <f t="shared" ref="A3:A8" si="1">A2+1</f>
+        <v>48</v>
+      </c>
+      <c r="B3">
+        <f t="shared" ref="B3:B8" si="2">B2</f>
+        <v>2011</v>
+      </c>
+      <c r="C3" t="s">
+        <v>12</v>
+      </c>
+      <c r="D3">
+        <v>503</v>
+      </c>
+      <c r="G3" t="str">
+        <f t="shared" si="0"/>
+        <v>insert into group_stage (id, tournament, group_code, squad) values (48, 2011, 'A', 503);</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <f t="shared" si="1"/>
+        <v>49</v>
+      </c>
+      <c r="B4">
+        <f t="shared" si="2"/>
+        <v>2011</v>
+      </c>
+      <c r="C4" t="s">
+        <v>12</v>
+      </c>
+      <c r="D4">
+        <v>505</v>
+      </c>
+      <c r="G4" t="str">
+        <f t="shared" si="0"/>
+        <v>insert into group_stage (id, tournament, group_code, squad) values (49, 2011, 'A', 505);</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <f t="shared" si="1"/>
+        <v>50</v>
+      </c>
+      <c r="B5">
+        <f t="shared" si="2"/>
+        <v>2011</v>
+      </c>
+      <c r="C5" t="s">
+        <v>12</v>
+      </c>
+      <c r="D5">
+        <v>501</v>
+      </c>
+      <c r="G5" t="str">
+        <f t="shared" si="0"/>
+        <v>insert into group_stage (id, tournament, group_code, squad) values (50, 2011, 'A', 501);</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <f t="shared" si="1"/>
+        <v>51</v>
+      </c>
+      <c r="B6">
+        <f t="shared" si="2"/>
+        <v>2011</v>
+      </c>
+      <c r="C6" t="s">
+        <v>13</v>
+      </c>
+      <c r="D6">
+        <v>504</v>
+      </c>
+      <c r="G6" t="str">
+        <f t="shared" si="0"/>
+        <v>insert into group_stage (id, tournament, group_code, squad) values (51, 2011, 'B', 504);</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <f t="shared" si="1"/>
+        <v>52</v>
+      </c>
+      <c r="B7">
+        <f t="shared" si="2"/>
+        <v>2011</v>
+      </c>
+      <c r="C7" t="s">
+        <v>13</v>
+      </c>
+      <c r="D7">
+        <v>506</v>
+      </c>
+      <c r="G7" t="str">
+        <f t="shared" si="0"/>
+        <v>insert into group_stage (id, tournament, group_code, squad) values (52, 2011, 'B', 506);</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <f t="shared" si="1"/>
+        <v>53</v>
+      </c>
+      <c r="B8">
+        <f t="shared" si="2"/>
+        <v>2011</v>
+      </c>
+      <c r="C8" t="s">
+        <v>13</v>
+      </c>
+      <c r="D8">
+        <v>502</v>
+      </c>
+      <c r="G8" t="str">
+        <f t="shared" si="0"/>
+        <v>insert into group_stage (id, tournament, group_code, squad) values (53, 2011, 'B', 502);</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A10" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="G10" t="str">
+        <f>"insert into game (matchid, matchdate, game_type, country) values (" &amp; A10 &amp; ", '" &amp; B10 &amp; "', " &amp; C10 &amp; ", " &amp; D10 &amp;  ");"</f>
+        <v>insert into game (matchid, matchdate, game_type, country) values (matchid, 'matchdate', game_type, country);</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <f>'2009'!A24+1</f>
+        <v>130</v>
+      </c>
+      <c r="B11" s="2" t="str">
+        <f>"2011-01-14"</f>
+        <v>2011-01-14</v>
+      </c>
+      <c r="C11">
+        <v>2</v>
+      </c>
+      <c r="D11">
+        <v>507</v>
+      </c>
+      <c r="G11" t="str">
+        <f t="shared" ref="G11:G24" si="3">"insert into game (matchid, matchdate, game_type, country) values (" &amp; A11 &amp; ", '" &amp; B11 &amp; "', " &amp; C11 &amp; ", " &amp; D11 &amp;  ");"</f>
+        <v>insert into game (matchid, matchdate, game_type, country) values (130, '2011-01-14', 2, 507);</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <f>A11+1</f>
+        <v>131</v>
+      </c>
+      <c r="B12" s="2" t="str">
+        <f>"2011-01-14"</f>
+        <v>2011-01-14</v>
+      </c>
+      <c r="C12">
+        <v>2</v>
+      </c>
+      <c r="D12">
+        <v>507</v>
+      </c>
+      <c r="G12" t="str">
+        <f t="shared" si="3"/>
+        <v>insert into game (matchid, matchdate, game_type, country) values (131, '2011-01-14', 2, 507);</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <f t="shared" ref="A13:A24" si="4">A12+1</f>
+        <v>132</v>
+      </c>
+      <c r="B13" s="2" t="str">
+        <f>"2011-01-16"</f>
+        <v>2011-01-16</v>
+      </c>
+      <c r="C13">
+        <v>2</v>
+      </c>
+      <c r="D13">
+        <v>507</v>
+      </c>
+      <c r="G13" t="str">
+        <f t="shared" si="3"/>
+        <v>insert into game (matchid, matchdate, game_type, country) values (132, '2011-01-16', 2, 507);</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <f t="shared" si="4"/>
+        <v>133</v>
+      </c>
+      <c r="B14" s="2" t="str">
+        <f>"2011-01-16"</f>
+        <v>2011-01-16</v>
+      </c>
+      <c r="C14">
+        <v>2</v>
+      </c>
+      <c r="D14">
+        <v>507</v>
+      </c>
+      <c r="G14" t="str">
+        <f t="shared" si="3"/>
+        <v>insert into game (matchid, matchdate, game_type, country) values (133, '2011-01-16', 2, 507);</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <f t="shared" si="4"/>
+        <v>134</v>
+      </c>
+      <c r="B15" s="2" t="str">
+        <f>"2011-01-18"</f>
+        <v>2011-01-18</v>
+      </c>
+      <c r="C15">
+        <v>2</v>
+      </c>
+      <c r="D15">
+        <v>507</v>
+      </c>
+      <c r="G15" t="str">
+        <f t="shared" si="3"/>
+        <v>insert into game (matchid, matchdate, game_type, country) values (134, '2011-01-18', 2, 507);</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <f t="shared" si="4"/>
+        <v>135</v>
+      </c>
+      <c r="B16" s="2" t="str">
+        <f>"2011-01-18"</f>
+        <v>2011-01-18</v>
+      </c>
+      <c r="C16">
+        <v>2</v>
+      </c>
+      <c r="D16">
+        <v>507</v>
+      </c>
+      <c r="G16" t="str">
+        <f t="shared" si="3"/>
+        <v>insert into game (matchid, matchdate, game_type, country) values (135, '2011-01-18', 2, 507);</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <f t="shared" si="4"/>
+        <v>136</v>
+      </c>
+      <c r="B17" s="2" t="str">
+        <f>"2011-01-14"</f>
+        <v>2011-01-14</v>
+      </c>
+      <c r="C17">
+        <v>2</v>
+      </c>
+      <c r="D17">
+        <v>507</v>
+      </c>
+      <c r="G17" t="str">
+        <f t="shared" si="3"/>
+        <v>insert into game (matchid, matchdate, game_type, country) values (136, '2011-01-14', 2, 507);</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A18">
+        <f t="shared" si="4"/>
+        <v>137</v>
+      </c>
+      <c r="B18" s="2" t="str">
+        <f>"2011-01-16"</f>
+        <v>2011-01-16</v>
+      </c>
+      <c r="C18">
+        <v>2</v>
+      </c>
+      <c r="D18">
+        <v>507</v>
+      </c>
+      <c r="G18" t="str">
+        <f t="shared" si="3"/>
+        <v>insert into game (matchid, matchdate, game_type, country) values (137, '2011-01-16', 2, 507);</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A19">
+        <f t="shared" si="4"/>
+        <v>138</v>
+      </c>
+      <c r="B19" s="2" t="str">
+        <f>"2011-01-18"</f>
+        <v>2011-01-18</v>
+      </c>
+      <c r="C19">
+        <v>2</v>
+      </c>
+      <c r="D19">
+        <v>507</v>
+      </c>
+      <c r="G19" t="str">
+        <f t="shared" si="3"/>
+        <v>insert into game (matchid, matchdate, game_type, country) values (138, '2011-01-18', 2, 507);</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A20">
+        <f t="shared" si="4"/>
+        <v>139</v>
+      </c>
+      <c r="B20" s="2" t="str">
+        <f>"2011-01-21"</f>
+        <v>2011-01-21</v>
+      </c>
+      <c r="C20">
+        <v>24</v>
+      </c>
+      <c r="D20">
+        <v>507</v>
+      </c>
+      <c r="G20" t="str">
+        <f t="shared" si="3"/>
+        <v>insert into game (matchid, matchdate, game_type, country) values (139, '2011-01-21', 24, 507);</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A21">
+        <f t="shared" si="4"/>
+        <v>140</v>
+      </c>
+      <c r="B21" s="2" t="str">
+        <f>"2011-01-21"</f>
+        <v>2011-01-21</v>
+      </c>
+      <c r="C21">
+        <v>4</v>
+      </c>
+      <c r="D21">
+        <v>507</v>
+      </c>
+      <c r="G21" t="str">
+        <f t="shared" si="3"/>
+        <v>insert into game (matchid, matchdate, game_type, country) values (140, '2011-01-21', 4, 507);</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A22">
+        <f t="shared" si="4"/>
+        <v>141</v>
+      </c>
+      <c r="B22" s="2" t="str">
+        <f>"2011-01-21"</f>
+        <v>2011-01-21</v>
+      </c>
+      <c r="C22">
+        <v>4</v>
+      </c>
+      <c r="D22">
+        <v>507</v>
+      </c>
+      <c r="G22" t="str">
+        <f t="shared" si="3"/>
+        <v>insert into game (matchid, matchdate, game_type, country) values (141, '2011-01-21', 4, 507);</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A23">
+        <f t="shared" si="4"/>
+        <v>142</v>
+      </c>
+      <c r="B23" s="2" t="str">
+        <f>"2011-01-23"</f>
+        <v>2011-01-23</v>
+      </c>
+      <c r="C23">
+        <v>5</v>
+      </c>
+      <c r="D23">
+        <v>507</v>
+      </c>
+      <c r="G23" t="str">
+        <f t="shared" si="3"/>
+        <v>insert into game (matchid, matchdate, game_type, country) values (142, '2011-01-23', 5, 507);</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A24">
+        <f t="shared" si="4"/>
+        <v>143</v>
+      </c>
+      <c r="B24" s="2" t="str">
+        <f>"2011-01-23"</f>
+        <v>2011-01-23</v>
+      </c>
+      <c r="C24">
+        <v>6</v>
+      </c>
+      <c r="D24">
+        <v>507</v>
+      </c>
+      <c r="G24" t="str">
+        <f t="shared" si="3"/>
+        <v>insert into game (matchid, matchdate, game_type, country) values (143, '2011-01-23', 6, 507);</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A26" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B26" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C26" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D26" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E26" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F26" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G26" t="str">
+        <f>"insert into game_score (id, matchid, squad, goals, points, time_type) values (" &amp; A26 &amp; ", " &amp; B26 &amp; ", " &amp; C26 &amp; ", " &amp; D26 &amp; ", " &amp; E26 &amp; ", " &amp; F26 &amp; ");"</f>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (id, matchid, squad, goals, points, time_type);</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A27" s="3">
+        <f>'2009'!A84 + 1</f>
+        <v>525</v>
+      </c>
+      <c r="B27" s="3">
+        <f>A11</f>
+        <v>130</v>
+      </c>
+      <c r="C27" s="3">
+        <v>503</v>
+      </c>
+      <c r="D27" s="3">
+        <v>2</v>
+      </c>
+      <c r="E27" s="3">
+        <v>3</v>
+      </c>
+      <c r="F27" s="3">
+        <v>2</v>
+      </c>
+      <c r="G27" s="3" t="str">
+        <f t="shared" ref="G27:G88" si="5">"insert into game_score (id, matchid, squad, goals, points, time_type) values (" &amp; A27 &amp; ", " &amp; B27 &amp; ", " &amp; C27 &amp; ", " &amp; D27 &amp; ", " &amp; E27 &amp; ", " &amp; F27 &amp; ");"</f>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (525, 130, 503, 2, 3, 2);</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A28" s="3">
+        <f>A27+1</f>
+        <v>526</v>
+      </c>
+      <c r="B28" s="3">
+        <f>B27</f>
+        <v>130</v>
+      </c>
+      <c r="C28" s="3">
+        <v>503</v>
+      </c>
+      <c r="D28" s="3">
+        <v>0</v>
+      </c>
+      <c r="E28" s="3">
+        <v>0</v>
+      </c>
+      <c r="F28" s="3">
+        <v>1</v>
+      </c>
+      <c r="G28" s="3" t="str">
+        <f t="shared" si="5"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (526, 130, 503, 0, 0, 1);</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A29" s="3">
+        <f t="shared" ref="A29:A88" si="6">A28+1</f>
+        <v>527</v>
+      </c>
+      <c r="B29" s="3">
+        <f>B27</f>
+        <v>130</v>
+      </c>
+      <c r="C29" s="3">
+        <v>505</v>
+      </c>
+      <c r="D29" s="3">
+        <v>0</v>
+      </c>
+      <c r="E29" s="3">
+        <v>0</v>
+      </c>
+      <c r="F29" s="3">
+        <v>2</v>
+      </c>
+      <c r="G29" s="3" t="str">
+        <f t="shared" si="5"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (527, 130, 505, 0, 0, 2);</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A30" s="3">
+        <f t="shared" si="6"/>
+        <v>528</v>
+      </c>
+      <c r="B30" s="3">
+        <f>B27</f>
+        <v>130</v>
+      </c>
+      <c r="C30" s="3">
+        <v>505</v>
+      </c>
+      <c r="D30" s="3">
+        <v>0</v>
+      </c>
+      <c r="E30" s="3">
+        <v>0</v>
+      </c>
+      <c r="F30" s="3">
+        <v>1</v>
+      </c>
+      <c r="G30" s="3" t="str">
+        <f t="shared" si="5"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (528, 130, 505, 0, 0, 1);</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A31" s="4">
+        <f>A30+1</f>
+        <v>529</v>
+      </c>
+      <c r="B31" s="4">
+        <f>B27+1</f>
+        <v>131</v>
+      </c>
+      <c r="C31" s="4">
+        <v>507</v>
+      </c>
+      <c r="D31" s="4">
+        <v>2</v>
+      </c>
+      <c r="E31" s="4">
+        <v>3</v>
+      </c>
+      <c r="F31" s="4">
+        <v>2</v>
+      </c>
+      <c r="G31" t="str">
+        <f t="shared" si="5"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (529, 131, 507, 2, 3, 2);</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A32" s="4">
+        <f t="shared" si="6"/>
+        <v>530</v>
+      </c>
+      <c r="B32" s="4">
+        <f>B31</f>
+        <v>131</v>
+      </c>
+      <c r="C32" s="4">
+        <v>507</v>
+      </c>
+      <c r="D32" s="4">
+        <v>2</v>
+      </c>
+      <c r="E32" s="4">
+        <v>0</v>
+      </c>
+      <c r="F32" s="4">
+        <v>1</v>
+      </c>
+      <c r="G32" t="str">
+        <f t="shared" si="5"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (530, 131, 507, 2, 0, 1);</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A33" s="4">
+        <f t="shared" si="6"/>
+        <v>531</v>
+      </c>
+      <c r="B33" s="4">
+        <f>B31</f>
+        <v>131</v>
+      </c>
+      <c r="C33" s="4">
+        <v>501</v>
+      </c>
+      <c r="D33" s="4">
+        <v>0</v>
+      </c>
+      <c r="E33" s="4">
+        <v>0</v>
+      </c>
+      <c r="F33" s="4">
+        <v>2</v>
+      </c>
+      <c r="G33" t="str">
+        <f t="shared" si="5"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (531, 131, 501, 0, 0, 2);</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A34" s="4">
+        <f t="shared" si="6"/>
+        <v>532</v>
+      </c>
+      <c r="B34" s="4">
+        <f>B31</f>
+        <v>131</v>
+      </c>
+      <c r="C34" s="4">
+        <v>501</v>
+      </c>
+      <c r="D34" s="4">
+        <v>0</v>
+      </c>
+      <c r="E34" s="4">
+        <v>0</v>
+      </c>
+      <c r="F34" s="4">
+        <v>1</v>
+      </c>
+      <c r="G34" t="str">
+        <f t="shared" si="5"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (532, 131, 501, 0, 0, 1);</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A35" s="3">
+        <f t="shared" si="6"/>
+        <v>533</v>
+      </c>
+      <c r="B35" s="3">
+        <f>B31+1</f>
+        <v>132</v>
+      </c>
+      <c r="C35" s="3">
+        <v>501</v>
+      </c>
+      <c r="D35" s="3">
+        <v>2</v>
+      </c>
+      <c r="E35" s="3">
+        <v>0</v>
+      </c>
+      <c r="F35" s="3">
+        <v>2</v>
+      </c>
+      <c r="G35" s="3" t="str">
+        <f t="shared" si="5"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (533, 132, 501, 2, 0, 2);</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A36" s="3">
+        <f t="shared" si="6"/>
+        <v>534</v>
+      </c>
+      <c r="B36" s="3">
+        <f>B35</f>
+        <v>132</v>
+      </c>
+      <c r="C36" s="3">
+        <v>501</v>
+      </c>
+      <c r="D36" s="3">
+        <v>1</v>
+      </c>
+      <c r="E36" s="3">
+        <v>0</v>
+      </c>
+      <c r="F36" s="3">
+        <v>1</v>
+      </c>
+      <c r="G36" s="3" t="str">
+        <f t="shared" si="5"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (534, 132, 501, 1, 0, 1);</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A37" s="3">
+        <f t="shared" si="6"/>
+        <v>535</v>
+      </c>
+      <c r="B37" s="3">
+        <f>B35</f>
+        <v>132</v>
+      </c>
+      <c r="C37" s="3">
+        <v>503</v>
+      </c>
+      <c r="D37" s="3">
+        <v>5</v>
+      </c>
+      <c r="E37" s="3">
+        <v>3</v>
+      </c>
+      <c r="F37" s="3">
+        <v>2</v>
+      </c>
+      <c r="G37" s="3" t="str">
+        <f t="shared" si="5"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (535, 132, 503, 5, 3, 2);</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A38" s="3">
+        <f t="shared" si="6"/>
+        <v>536</v>
+      </c>
+      <c r="B38" s="3">
+        <f t="shared" ref="B38" si="7">B35</f>
+        <v>132</v>
+      </c>
+      <c r="C38" s="3">
+        <v>503</v>
+      </c>
+      <c r="D38" s="3">
+        <v>2</v>
+      </c>
+      <c r="E38" s="3">
+        <v>0</v>
+      </c>
+      <c r="F38" s="3">
+        <v>1</v>
+      </c>
+      <c r="G38" s="3" t="str">
+        <f t="shared" si="5"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (536, 132, 503, 2, 0, 1);</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A39" s="4">
+        <f t="shared" si="6"/>
+        <v>537</v>
+      </c>
+      <c r="B39" s="4">
+        <f>B35+1</f>
+        <v>133</v>
+      </c>
+      <c r="C39" s="4">
+        <v>507</v>
+      </c>
+      <c r="D39" s="4">
+        <v>2</v>
+      </c>
+      <c r="E39" s="4">
+        <v>3</v>
+      </c>
+      <c r="F39" s="4">
+        <v>2</v>
+      </c>
+      <c r="G39" s="4" t="str">
+        <f t="shared" si="5"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (537, 133, 507, 2, 3, 2);</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A40" s="4">
+        <f t="shared" si="6"/>
+        <v>538</v>
+      </c>
+      <c r="B40" s="4">
+        <f>B39</f>
+        <v>133</v>
+      </c>
+      <c r="C40" s="4">
+        <v>507</v>
+      </c>
+      <c r="D40" s="4">
+        <v>1</v>
+      </c>
+      <c r="E40" s="4">
+        <v>0</v>
+      </c>
+      <c r="F40" s="4">
+        <v>1</v>
+      </c>
+      <c r="G40" s="4" t="str">
+        <f t="shared" si="5"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (538, 133, 507, 1, 0, 1);</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A41" s="4">
+        <f t="shared" si="6"/>
+        <v>539</v>
+      </c>
+      <c r="B41" s="4">
+        <f>B39</f>
+        <v>133</v>
+      </c>
+      <c r="C41" s="4">
+        <v>505</v>
+      </c>
+      <c r="D41" s="4">
+        <v>0</v>
+      </c>
+      <c r="E41" s="4">
+        <v>0</v>
+      </c>
+      <c r="F41" s="4">
+        <v>2</v>
+      </c>
+      <c r="G41" s="4" t="str">
+        <f t="shared" si="5"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (539, 133, 505, 0, 0, 2);</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A42" s="4">
+        <f t="shared" si="6"/>
+        <v>540</v>
+      </c>
+      <c r="B42" s="4">
+        <f t="shared" ref="B42" si="8">B39</f>
+        <v>133</v>
+      </c>
+      <c r="C42" s="4">
+        <v>505</v>
+      </c>
+      <c r="D42" s="4">
+        <v>0</v>
+      </c>
+      <c r="E42" s="4">
+        <v>0</v>
+      </c>
+      <c r="F42" s="4">
+        <v>1</v>
+      </c>
+      <c r="G42" s="4" t="str">
+        <f t="shared" si="5"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (540, 133, 505, 0, 0, 1);</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A43" s="3">
+        <f t="shared" si="6"/>
+        <v>541</v>
+      </c>
+      <c r="B43" s="3">
+        <f>B39+1</f>
+        <v>134</v>
+      </c>
+      <c r="C43" s="3">
+        <v>505</v>
+      </c>
+      <c r="D43" s="3">
+        <v>1</v>
+      </c>
+      <c r="E43" s="3">
+        <v>1</v>
+      </c>
+      <c r="F43" s="3">
+        <v>2</v>
+      </c>
+      <c r="G43" s="3" t="str">
+        <f t="shared" si="5"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (541, 134, 505, 1, 1, 2);</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A44" s="3">
+        <f t="shared" si="6"/>
+        <v>542</v>
+      </c>
+      <c r="B44" s="3">
+        <f>B43</f>
+        <v>134</v>
+      </c>
+      <c r="C44" s="3">
+        <v>505</v>
+      </c>
+      <c r="D44" s="3">
+        <v>1</v>
+      </c>
+      <c r="E44" s="3">
+        <v>0</v>
+      </c>
+      <c r="F44" s="3">
+        <v>1</v>
+      </c>
+      <c r="G44" s="3" t="str">
+        <f t="shared" si="5"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (542, 134, 505, 1, 0, 1);</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A45" s="3">
+        <f t="shared" si="6"/>
+        <v>543</v>
+      </c>
+      <c r="B45" s="3">
+        <f>B43</f>
+        <v>134</v>
+      </c>
+      <c r="C45" s="3">
+        <v>501</v>
+      </c>
+      <c r="D45" s="3">
+        <v>1</v>
+      </c>
+      <c r="E45" s="3">
+        <v>1</v>
+      </c>
+      <c r="F45" s="3">
+        <v>2</v>
+      </c>
+      <c r="G45" s="3" t="str">
+        <f t="shared" si="5"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (543, 134, 501, 1, 1, 2);</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A46" s="3">
+        <f t="shared" si="6"/>
+        <v>544</v>
+      </c>
+      <c r="B46" s="3">
+        <f t="shared" ref="B46" si="9">B43</f>
+        <v>134</v>
+      </c>
+      <c r="C46" s="3">
+        <v>501</v>
+      </c>
+      <c r="D46" s="3">
+        <v>0</v>
+      </c>
+      <c r="E46" s="3">
+        <v>0</v>
+      </c>
+      <c r="F46" s="3">
+        <v>1</v>
+      </c>
+      <c r="G46" s="3" t="str">
+        <f t="shared" si="5"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (544, 134, 501, 0, 0, 1);</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A47" s="4">
+        <f t="shared" si="6"/>
+        <v>545</v>
+      </c>
+      <c r="B47" s="4">
+        <f>B43+1</f>
+        <v>135</v>
+      </c>
+      <c r="C47" s="4">
+        <v>507</v>
+      </c>
+      <c r="D47" s="4">
+        <v>2</v>
+      </c>
+      <c r="E47" s="4">
+        <v>3</v>
+      </c>
+      <c r="F47" s="4">
+        <v>2</v>
+      </c>
+      <c r="G47" s="4" t="str">
+        <f t="shared" si="5"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (545, 135, 507, 2, 3, 2);</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A48" s="4">
+        <f t="shared" si="6"/>
+        <v>546</v>
+      </c>
+      <c r="B48" s="4">
+        <f>B47</f>
+        <v>135</v>
+      </c>
+      <c r="C48" s="4">
+        <v>507</v>
+      </c>
+      <c r="D48" s="4">
+        <v>1</v>
+      </c>
+      <c r="E48" s="4">
+        <v>0</v>
+      </c>
+      <c r="F48" s="4">
+        <v>1</v>
+      </c>
+      <c r="G48" s="4" t="str">
+        <f t="shared" si="5"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (546, 135, 507, 1, 0, 1);</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A49" s="4">
+        <f t="shared" si="6"/>
+        <v>547</v>
+      </c>
+      <c r="B49" s="4">
+        <f>B47</f>
+        <v>135</v>
+      </c>
+      <c r="C49" s="4">
+        <v>503</v>
+      </c>
+      <c r="D49" s="4">
+        <v>0</v>
+      </c>
+      <c r="E49" s="4">
+        <v>0</v>
+      </c>
+      <c r="F49" s="4">
+        <v>2</v>
+      </c>
+      <c r="G49" s="4" t="str">
+        <f t="shared" si="5"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (547, 135, 503, 0, 0, 2);</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A50" s="4">
+        <f t="shared" si="6"/>
+        <v>548</v>
+      </c>
+      <c r="B50" s="4">
+        <f t="shared" ref="B50" si="10">B47</f>
+        <v>135</v>
+      </c>
+      <c r="C50" s="4">
+        <v>503</v>
+      </c>
+      <c r="D50" s="4">
+        <v>0</v>
+      </c>
+      <c r="E50" s="4">
+        <v>0</v>
+      </c>
+      <c r="F50" s="4">
+        <v>1</v>
+      </c>
+      <c r="G50" s="4" t="str">
+        <f t="shared" si="5"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (548, 135, 503, 0, 0, 1);</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A51" s="3">
+        <f t="shared" si="6"/>
+        <v>549</v>
+      </c>
+      <c r="B51" s="3">
+        <f>B47+1</f>
+        <v>136</v>
+      </c>
+      <c r="C51" s="3">
+        <v>506</v>
+      </c>
+      <c r="D51" s="3">
+        <v>1</v>
+      </c>
+      <c r="E51" s="3">
+        <v>1</v>
+      </c>
+      <c r="F51" s="3">
+        <v>2</v>
+      </c>
+      <c r="G51" s="3" t="str">
+        <f t="shared" si="5"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (549, 136, 506, 1, 1, 2);</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A52" s="3">
+        <f t="shared" si="6"/>
+        <v>550</v>
+      </c>
+      <c r="B52" s="3">
+        <f>B51</f>
+        <v>136</v>
+      </c>
+      <c r="C52" s="3">
+        <v>506</v>
+      </c>
+      <c r="D52" s="3">
+        <v>1</v>
+      </c>
+      <c r="E52" s="3">
+        <v>0</v>
+      </c>
+      <c r="F52" s="3">
+        <v>1</v>
+      </c>
+      <c r="G52" s="3" t="str">
+        <f t="shared" si="5"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (550, 136, 506, 1, 0, 1);</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A53" s="3">
+        <f t="shared" si="6"/>
+        <v>551</v>
+      </c>
+      <c r="B53" s="3">
+        <f>B51</f>
+        <v>136</v>
+      </c>
+      <c r="C53" s="3">
+        <v>504</v>
+      </c>
+      <c r="D53" s="3">
+        <v>1</v>
+      </c>
+      <c r="E53" s="3">
+        <v>1</v>
+      </c>
+      <c r="F53" s="3">
+        <v>2</v>
+      </c>
+      <c r="G53" s="3" t="str">
+        <f t="shared" si="5"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (551, 136, 504, 1, 1, 2);</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A54" s="3">
+        <f t="shared" si="6"/>
+        <v>552</v>
+      </c>
+      <c r="B54" s="3">
+        <f t="shared" ref="B54" si="11">B51</f>
+        <v>136</v>
+      </c>
+      <c r="C54" s="3">
+        <v>504</v>
+      </c>
+      <c r="D54" s="3">
+        <v>0</v>
+      </c>
+      <c r="E54" s="3">
+        <v>0</v>
+      </c>
+      <c r="F54" s="3">
+        <v>1</v>
+      </c>
+      <c r="G54" s="3" t="str">
+        <f t="shared" si="5"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (552, 136, 504, 0, 0, 1);</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A55" s="4">
+        <f t="shared" si="6"/>
+        <v>553</v>
+      </c>
+      <c r="B55" s="4">
+        <f>B51+1</f>
+        <v>137</v>
+      </c>
+      <c r="C55" s="4">
+        <v>502</v>
+      </c>
+      <c r="D55" s="4">
+        <v>0</v>
+      </c>
+      <c r="E55" s="4">
+        <v>0</v>
+      </c>
+      <c r="F55" s="4">
+        <v>2</v>
+      </c>
+      <c r="G55" s="4" t="str">
+        <f t="shared" si="5"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (553, 137, 502, 0, 0, 2);</v>
+      </c>
+    </row>
+    <row r="56" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A56" s="4">
+        <f t="shared" si="6"/>
+        <v>554</v>
+      </c>
+      <c r="B56" s="4">
+        <f>B55</f>
+        <v>137</v>
+      </c>
+      <c r="C56" s="4">
+        <v>502</v>
+      </c>
+      <c r="D56" s="4">
+        <v>0</v>
+      </c>
+      <c r="E56" s="4">
+        <v>0</v>
+      </c>
+      <c r="F56" s="4">
+        <v>1</v>
+      </c>
+      <c r="G56" s="4" t="str">
+        <f t="shared" si="5"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (554, 137, 502, 0, 0, 1);</v>
+      </c>
+    </row>
+    <row r="57" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A57" s="4">
+        <f t="shared" si="6"/>
+        <v>555</v>
+      </c>
+      <c r="B57" s="4">
+        <f>B55</f>
+        <v>137</v>
+      </c>
+      <c r="C57" s="4">
+        <v>506</v>
+      </c>
+      <c r="D57" s="4">
+        <v>2</v>
+      </c>
+      <c r="E57" s="4">
+        <v>3</v>
+      </c>
+      <c r="F57" s="4">
+        <v>2</v>
+      </c>
+      <c r="G57" s="4" t="str">
+        <f t="shared" si="5"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (555, 137, 506, 2, 3, 2);</v>
+      </c>
+    </row>
+    <row r="58" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A58" s="4">
+        <f t="shared" si="6"/>
+        <v>556</v>
+      </c>
+      <c r="B58" s="4">
+        <f t="shared" ref="B58" si="12">B55</f>
+        <v>137</v>
+      </c>
+      <c r="C58" s="4">
+        <v>506</v>
+      </c>
+      <c r="D58" s="4">
+        <v>0</v>
+      </c>
+      <c r="E58" s="4">
+        <v>0</v>
+      </c>
+      <c r="F58" s="4">
+        <v>1</v>
+      </c>
+      <c r="G58" s="4" t="str">
+        <f t="shared" si="5"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (556, 137, 506, 0, 0, 1);</v>
+      </c>
+    </row>
+    <row r="59" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A59" s="3">
+        <f t="shared" si="6"/>
+        <v>557</v>
+      </c>
+      <c r="B59" s="3">
+        <f>B55+1</f>
+        <v>138</v>
+      </c>
+      <c r="C59" s="3">
+        <v>504</v>
+      </c>
+      <c r="D59" s="3">
+        <v>3</v>
+      </c>
+      <c r="E59" s="3">
+        <v>3</v>
+      </c>
+      <c r="F59" s="3">
+        <v>2</v>
+      </c>
+      <c r="G59" s="3" t="str">
+        <f t="shared" si="5"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (557, 138, 504, 3, 3, 2);</v>
+      </c>
+    </row>
+    <row r="60" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A60" s="3">
+        <f t="shared" si="6"/>
+        <v>558</v>
+      </c>
+      <c r="B60" s="3">
+        <f>B59</f>
+        <v>138</v>
+      </c>
+      <c r="C60" s="3">
+        <v>504</v>
+      </c>
+      <c r="D60" s="3">
+        <v>2</v>
+      </c>
+      <c r="E60" s="3">
+        <v>0</v>
+      </c>
+      <c r="F60" s="3">
+        <v>1</v>
+      </c>
+      <c r="G60" s="3" t="str">
+        <f t="shared" si="5"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (558, 138, 504, 2, 0, 1);</v>
+      </c>
+    </row>
+    <row r="61" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A61" s="3">
+        <f t="shared" si="6"/>
+        <v>559</v>
+      </c>
+      <c r="B61" s="3">
+        <f>B59</f>
+        <v>138</v>
+      </c>
+      <c r="C61" s="3">
+        <v>502</v>
+      </c>
+      <c r="D61" s="3">
+        <v>1</v>
+      </c>
+      <c r="E61" s="3">
+        <v>0</v>
+      </c>
+      <c r="F61" s="3">
+        <v>2</v>
+      </c>
+      <c r="G61" s="3" t="str">
+        <f t="shared" si="5"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (559, 138, 502, 1, 0, 2);</v>
+      </c>
+    </row>
+    <row r="62" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A62" s="3">
+        <f t="shared" si="6"/>
+        <v>560</v>
+      </c>
+      <c r="B62" s="3">
+        <f t="shared" ref="B62" si="13">B59</f>
+        <v>138</v>
+      </c>
+      <c r="C62" s="3">
+        <v>502</v>
+      </c>
+      <c r="D62" s="3">
+        <v>1</v>
+      </c>
+      <c r="E62" s="3">
+        <v>0</v>
+      </c>
+      <c r="F62" s="3">
+        <v>1</v>
+      </c>
+      <c r="G62" s="3" t="str">
+        <f t="shared" si="5"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (560, 138, 502, 1, 0, 1);</v>
+      </c>
+    </row>
+    <row r="63" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A63" s="4">
+        <f t="shared" si="6"/>
+        <v>561</v>
+      </c>
+      <c r="B63" s="4">
+        <f>B59+1</f>
+        <v>139</v>
+      </c>
+      <c r="C63" s="4">
+        <v>505</v>
+      </c>
+      <c r="D63" s="4">
+        <v>1</v>
+      </c>
+      <c r="E63" s="4">
+        <v>0</v>
+      </c>
+      <c r="F63" s="4">
+        <v>2</v>
+      </c>
+      <c r="G63" s="4" t="str">
+        <f t="shared" si="5"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (561, 139, 505, 1, 0, 2);</v>
+      </c>
+    </row>
+    <row r="64" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A64" s="4">
+        <f t="shared" si="6"/>
+        <v>562</v>
+      </c>
+      <c r="B64" s="4">
+        <f>B63</f>
+        <v>139</v>
+      </c>
+      <c r="C64" s="4">
+        <v>505</v>
+      </c>
+      <c r="D64" s="4">
+        <v>1</v>
+      </c>
+      <c r="E64" s="4">
+        <v>0</v>
+      </c>
+      <c r="F64" s="4">
+        <v>1</v>
+      </c>
+      <c r="G64" s="4" t="str">
+        <f t="shared" si="5"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (562, 139, 505, 1, 0, 1);</v>
+      </c>
+    </row>
+    <row r="65" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A65" s="4">
+        <f t="shared" si="6"/>
+        <v>563</v>
+      </c>
+      <c r="B65" s="4">
+        <f>B63</f>
+        <v>139</v>
+      </c>
+      <c r="C65" s="4">
+        <v>502</v>
+      </c>
+      <c r="D65" s="4">
+        <v>2</v>
+      </c>
+      <c r="E65" s="4">
+        <v>3</v>
+      </c>
+      <c r="F65" s="4">
+        <v>2</v>
+      </c>
+      <c r="G65" s="4" t="str">
+        <f t="shared" si="5"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (563, 139, 502, 2, 3, 2);</v>
+      </c>
+    </row>
+    <row r="66" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A66" s="4">
+        <f t="shared" si="6"/>
+        <v>564</v>
+      </c>
+      <c r="B66" s="4">
+        <f t="shared" ref="B66" si="14">B63</f>
+        <v>139</v>
+      </c>
+      <c r="C66" s="4">
+        <v>502</v>
+      </c>
+      <c r="D66" s="4">
+        <v>1</v>
+      </c>
+      <c r="E66" s="4">
+        <v>0</v>
+      </c>
+      <c r="F66" s="4">
+        <v>1</v>
+      </c>
+      <c r="G66" s="4" t="str">
+        <f t="shared" si="5"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (564, 139, 502, 1, 0, 1);</v>
+      </c>
+    </row>
+    <row r="67" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A67" s="3">
+        <f t="shared" si="6"/>
+        <v>565</v>
+      </c>
+      <c r="B67" s="3">
+        <f>B63+1</f>
+        <v>140</v>
+      </c>
+      <c r="C67" s="3">
+        <v>504</v>
+      </c>
+      <c r="D67" s="3">
+        <v>2</v>
+      </c>
+      <c r="E67" s="3">
+        <v>3</v>
+      </c>
+      <c r="F67" s="3">
+        <v>2</v>
+      </c>
+      <c r="G67" s="3" t="str">
+        <f t="shared" si="5"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (565, 140, 504, 2, 3, 2);</v>
+      </c>
+    </row>
+    <row r="68" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A68" s="3">
+        <f t="shared" si="6"/>
+        <v>566</v>
+      </c>
+      <c r="B68" s="3">
+        <f>B67</f>
+        <v>140</v>
+      </c>
+      <c r="C68" s="3">
+        <v>504</v>
+      </c>
+      <c r="D68" s="3">
+        <v>0</v>
+      </c>
+      <c r="E68" s="3">
+        <v>0</v>
+      </c>
+      <c r="F68" s="3">
+        <v>1</v>
+      </c>
+      <c r="G68" s="3" t="str">
+        <f t="shared" si="5"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (566, 140, 504, 0, 0, 1);</v>
+      </c>
+    </row>
+    <row r="69" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A69" s="3">
+        <f t="shared" si="6"/>
+        <v>567</v>
+      </c>
+      <c r="B69" s="3">
+        <f>B67</f>
+        <v>140</v>
+      </c>
+      <c r="C69" s="3">
+        <v>503</v>
+      </c>
+      <c r="D69" s="3">
+        <v>0</v>
+      </c>
+      <c r="E69" s="3">
+        <v>0</v>
+      </c>
+      <c r="F69" s="3">
+        <v>2</v>
+      </c>
+      <c r="G69" s="3" t="str">
+        <f t="shared" si="5"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (567, 140, 503, 0, 0, 2);</v>
+      </c>
+    </row>
+    <row r="70" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A70" s="3">
+        <f t="shared" si="6"/>
+        <v>568</v>
+      </c>
+      <c r="B70" s="3">
+        <f t="shared" ref="B70" si="15">B67</f>
+        <v>140</v>
+      </c>
+      <c r="C70" s="3">
+        <v>503</v>
+      </c>
+      <c r="D70" s="3">
+        <v>0</v>
+      </c>
+      <c r="E70" s="3">
+        <v>0</v>
+      </c>
+      <c r="F70" s="3">
+        <v>1</v>
+      </c>
+      <c r="G70" s="3" t="str">
+        <f t="shared" si="5"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (568, 140, 503, 0, 0, 1);</v>
+      </c>
+    </row>
+    <row r="71" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A71" s="4">
+        <f t="shared" si="6"/>
+        <v>569</v>
+      </c>
+      <c r="B71" s="4">
+        <f>B67+1</f>
+        <v>141</v>
+      </c>
+      <c r="C71" s="4">
+        <v>507</v>
+      </c>
+      <c r="D71" s="4">
+        <v>1</v>
+      </c>
+      <c r="E71" s="4">
+        <v>1</v>
+      </c>
+      <c r="F71" s="4">
+        <v>2</v>
+      </c>
+      <c r="G71" s="4" t="str">
+        <f t="shared" si="5"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (569, 141, 507, 1, 1, 2);</v>
+      </c>
+    </row>
+    <row r="72" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A72" s="4">
+        <f t="shared" si="6"/>
+        <v>570</v>
+      </c>
+      <c r="B72" s="4">
+        <f>B71</f>
+        <v>141</v>
+      </c>
+      <c r="C72" s="4">
+        <v>507</v>
+      </c>
+      <c r="D72" s="4">
+        <v>0</v>
+      </c>
+      <c r="E72" s="4">
+        <v>0</v>
+      </c>
+      <c r="F72" s="4">
+        <v>1</v>
+      </c>
+      <c r="G72" s="4" t="str">
+        <f t="shared" si="5"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (570, 141, 507, 0, 0, 1);</v>
+      </c>
+    </row>
+    <row r="73" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A73" s="4">
+        <f t="shared" si="6"/>
+        <v>571</v>
+      </c>
+      <c r="B73" s="4">
+        <f>B71</f>
+        <v>141</v>
+      </c>
+      <c r="C73" s="4">
+        <v>506</v>
+      </c>
+      <c r="D73" s="4">
+        <v>1</v>
+      </c>
+      <c r="E73" s="4">
+        <v>1</v>
+      </c>
+      <c r="F73" s="4">
+        <v>2</v>
+      </c>
+      <c r="G73" s="4" t="str">
+        <f t="shared" si="5"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (571, 141, 506, 1, 1, 2);</v>
+      </c>
+    </row>
+    <row r="74" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A74" s="4">
+        <f t="shared" si="6"/>
+        <v>572</v>
+      </c>
+      <c r="B74" s="4">
+        <f t="shared" ref="B74:B76" si="16">B71</f>
+        <v>141</v>
+      </c>
+      <c r="C74" s="4">
+        <v>506</v>
+      </c>
+      <c r="D74" s="4">
+        <v>0</v>
+      </c>
+      <c r="E74" s="4">
+        <v>0</v>
+      </c>
+      <c r="F74" s="4">
+        <v>1</v>
+      </c>
+      <c r="G74" s="4" t="str">
+        <f t="shared" si="5"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (572, 141, 506, 0, 0, 1);</v>
+      </c>
+    </row>
+    <row r="75" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A75" s="4">
+        <f t="shared" si="6"/>
+        <v>573</v>
+      </c>
+      <c r="B75" s="4">
+        <f t="shared" si="16"/>
+        <v>141</v>
+      </c>
+      <c r="C75" s="4">
+        <v>507</v>
+      </c>
+      <c r="D75" s="4">
+        <v>2</v>
+      </c>
+      <c r="E75" s="4">
+        <v>0</v>
+      </c>
+      <c r="F75" s="4">
+        <v>7</v>
+      </c>
+      <c r="G75" s="4" t="str">
+        <f t="shared" si="5"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (573, 141, 507, 2, 0, 7);</v>
+      </c>
+    </row>
+    <row r="76" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A76" s="4">
+        <f t="shared" si="6"/>
+        <v>574</v>
+      </c>
+      <c r="B76" s="4">
+        <f t="shared" si="16"/>
+        <v>141</v>
+      </c>
+      <c r="C76" s="4">
+        <v>506</v>
+      </c>
+      <c r="D76" s="4">
+        <v>4</v>
+      </c>
+      <c r="E76" s="4">
+        <v>0</v>
+      </c>
+      <c r="F76" s="4">
+        <v>7</v>
+      </c>
+      <c r="G76" s="4" t="str">
+        <f t="shared" si="5"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (574, 141, 506, 4, 0, 7);</v>
+      </c>
+    </row>
+    <row r="77" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A77" s="3">
+        <f t="shared" si="6"/>
+        <v>575</v>
+      </c>
+      <c r="B77" s="3">
+        <f>B71+1</f>
+        <v>142</v>
+      </c>
+      <c r="C77" s="3">
+        <v>507</v>
+      </c>
+      <c r="D77" s="3">
+        <v>0</v>
+      </c>
+      <c r="E77" s="3">
+        <v>1</v>
+      </c>
+      <c r="F77" s="3">
+        <v>2</v>
+      </c>
+      <c r="G77" s="3" t="str">
+        <f t="shared" si="5"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (575, 142, 507, 0, 1, 2);</v>
+      </c>
+    </row>
+    <row r="78" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A78" s="3">
+        <f t="shared" si="6"/>
+        <v>576</v>
+      </c>
+      <c r="B78" s="3">
+        <f>B77</f>
+        <v>142</v>
+      </c>
+      <c r="C78" s="3">
+        <v>507</v>
+      </c>
+      <c r="D78" s="3">
+        <v>0</v>
+      </c>
+      <c r="E78" s="3">
+        <v>0</v>
+      </c>
+      <c r="F78" s="3">
+        <v>1</v>
+      </c>
+      <c r="G78" s="3" t="str">
+        <f t="shared" si="5"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (576, 142, 507, 0, 0, 1);</v>
+      </c>
+    </row>
+    <row r="79" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A79" s="3">
+        <f t="shared" si="6"/>
+        <v>577</v>
+      </c>
+      <c r="B79" s="3">
+        <f>B77</f>
+        <v>142</v>
+      </c>
+      <c r="C79" s="3">
+        <v>503</v>
+      </c>
+      <c r="D79" s="3">
+        <v>0</v>
+      </c>
+      <c r="E79" s="3">
+        <v>1</v>
+      </c>
+      <c r="F79" s="3">
+        <v>2</v>
+      </c>
+      <c r="G79" s="3" t="str">
+        <f t="shared" si="5"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (577, 142, 503, 0, 1, 2);</v>
+      </c>
+    </row>
+    <row r="80" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A80" s="3">
+        <f t="shared" si="6"/>
+        <v>578</v>
+      </c>
+      <c r="B80" s="3">
+        <f t="shared" ref="B80:B82" si="17">B77</f>
+        <v>142</v>
+      </c>
+      <c r="C80" s="3">
+        <v>503</v>
+      </c>
+      <c r="D80" s="3">
+        <v>0</v>
+      </c>
+      <c r="E80" s="3">
+        <v>0</v>
+      </c>
+      <c r="F80" s="3">
+        <v>1</v>
+      </c>
+      <c r="G80" s="3" t="str">
+        <f t="shared" si="5"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (578, 142, 503, 0, 0, 1);</v>
+      </c>
+    </row>
+    <row r="81" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A81" s="3">
+        <f t="shared" si="6"/>
+        <v>579</v>
+      </c>
+      <c r="B81" s="3">
+        <f t="shared" si="17"/>
+        <v>142</v>
+      </c>
+      <c r="C81" s="3">
+        <v>507</v>
+      </c>
+      <c r="D81" s="3">
+        <v>5</v>
+      </c>
+      <c r="E81" s="3">
+        <v>0</v>
+      </c>
+      <c r="F81" s="3">
+        <v>7</v>
+      </c>
+      <c r="G81" s="3" t="str">
+        <f t="shared" si="5"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (579, 142, 507, 5, 0, 7);</v>
+      </c>
+    </row>
+    <row r="82" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A82" s="3">
+        <f t="shared" si="6"/>
+        <v>580</v>
+      </c>
+      <c r="B82" s="3">
+        <f t="shared" si="17"/>
+        <v>142</v>
+      </c>
+      <c r="C82" s="3">
+        <v>503</v>
+      </c>
+      <c r="D82" s="3">
+        <v>4</v>
+      </c>
+      <c r="E82" s="3">
+        <v>0</v>
+      </c>
+      <c r="F82" s="3">
+        <v>7</v>
+      </c>
+      <c r="G82" s="3" t="str">
+        <f t="shared" si="5"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (580, 142, 503, 4, 0, 7);</v>
+      </c>
+    </row>
+    <row r="83" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A83" s="4">
+        <f t="shared" si="6"/>
+        <v>581</v>
+      </c>
+      <c r="B83" s="4">
+        <f>B79+1</f>
+        <v>143</v>
+      </c>
+      <c r="C83" s="4">
+        <v>504</v>
+      </c>
+      <c r="D83" s="4">
+        <v>2</v>
+      </c>
+      <c r="E83" s="4">
+        <v>3</v>
+      </c>
+      <c r="F83" s="4">
+        <v>2</v>
+      </c>
+      <c r="G83" s="4" t="str">
+        <f t="shared" si="5"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (581, 143, 504, 2, 3, 2);</v>
+      </c>
+      <c r="H83" s="4"/>
+    </row>
+    <row r="84" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A84" s="4">
+        <f t="shared" si="6"/>
+        <v>582</v>
+      </c>
+      <c r="B84" s="4">
+        <f>B83</f>
+        <v>143</v>
+      </c>
+      <c r="C84" s="4">
+        <v>504</v>
+      </c>
+      <c r="D84" s="4">
+        <v>1</v>
+      </c>
+      <c r="E84" s="4">
+        <v>0</v>
+      </c>
+      <c r="F84" s="4">
+        <v>1</v>
+      </c>
+      <c r="G84" s="4" t="str">
+        <f t="shared" si="5"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (582, 143, 504, 1, 0, 1);</v>
+      </c>
+      <c r="H84" s="4"/>
+    </row>
+    <row r="85" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A85" s="4">
+        <f t="shared" si="6"/>
+        <v>583</v>
+      </c>
+      <c r="B85" s="4">
+        <f>B83</f>
+        <v>143</v>
+      </c>
+      <c r="C85" s="4">
+        <v>506</v>
+      </c>
+      <c r="D85" s="4">
+        <v>1</v>
+      </c>
+      <c r="E85" s="4">
+        <v>0</v>
+      </c>
+      <c r="F85" s="4">
+        <v>2</v>
+      </c>
+      <c r="G85" s="4" t="str">
+        <f t="shared" si="5"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (583, 143, 506, 1, 0, 2);</v>
+      </c>
+      <c r="H85" s="4"/>
+    </row>
+    <row r="86" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A86" s="4">
+        <f t="shared" si="6"/>
+        <v>584</v>
+      </c>
+      <c r="B86" s="4">
+        <f t="shared" ref="B86" si="18">B83</f>
+        <v>143</v>
+      </c>
+      <c r="C86" s="4">
+        <v>506</v>
+      </c>
+      <c r="D86" s="4">
+        <v>0</v>
+      </c>
+      <c r="E86" s="4">
+        <v>0</v>
+      </c>
+      <c r="F86" s="4">
+        <v>1</v>
+      </c>
+      <c r="G86" s="4" t="str">
+        <f t="shared" si="5"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (584, 143, 506, 0, 0, 1);</v>
+      </c>
+      <c r="H86" s="4"/>
+    </row>
+    <row r="87" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A87" s="4"/>
+      <c r="B87" s="4"/>
+      <c r="C87" s="4"/>
+      <c r="D87" s="4"/>
+      <c r="E87" s="4"/>
+      <c r="F87" s="4"/>
+      <c r="G87" s="4"/>
+      <c r="H87" s="4"/>
+    </row>
+    <row r="88" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A88" s="4"/>
+      <c r="B88" s="4"/>
+      <c r="C88" s="4"/>
+      <c r="D88" s="4"/>
+      <c r="E88" s="4"/>
+      <c r="F88" s="4"/>
+      <c r="G88" s="4"/>
+      <c r="H88" s="4"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:H84"/>
+  <sheetViews>
+    <sheetView zoomScaleNormal="100" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="9.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.85546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="7.42578125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="6.5703125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="111.140625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D1" t="s">
+        <v>2</v>
+      </c>
+      <c r="G1" t="str">
+        <f>"insert into group_stage (id, tournament, group_code, squad) values (" &amp; A1 &amp; ", " &amp; B1 &amp; ", '" &amp; C1 &amp; "', " &amp; D1 &amp;  ");"</f>
+        <v>insert into group_stage (id, tournament, group_code, squad) values (id, tournament, 'group_code', squad);</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <f>'2011'!A8+1</f>
+        <v>54</v>
+      </c>
+      <c r="B2">
+        <v>2013</v>
+      </c>
+      <c r="C2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D2">
+        <v>506</v>
+      </c>
+      <c r="G2" t="str">
+        <f t="shared" ref="G2:G8" si="0">"insert into group_stage (id, tournament, group_code, squad) values (" &amp; A2 &amp; ", " &amp; B2 &amp; ", '" &amp; C2 &amp; "', " &amp; D2 &amp;  ");"</f>
+        <v>insert into group_stage (id, tournament, group_code, squad) values (54, 2013, 'A', 506);</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <f t="shared" ref="A3:A8" si="1">A2+1</f>
+        <v>55</v>
+      </c>
+      <c r="B3">
+        <f t="shared" ref="B3:B8" si="2">B2</f>
+        <v>2013</v>
+      </c>
+      <c r="C3" t="s">
+        <v>12</v>
+      </c>
+      <c r="D3">
+        <v>501</v>
+      </c>
+      <c r="G3" t="str">
+        <f t="shared" si="0"/>
+        <v>insert into group_stage (id, tournament, group_code, squad) values (55, 2013, 'A', 501);</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <f t="shared" si="1"/>
+        <v>56</v>
+      </c>
+      <c r="B4">
+        <f t="shared" si="2"/>
+        <v>2013</v>
+      </c>
+      <c r="C4" t="s">
+        <v>12</v>
+      </c>
+      <c r="D4">
+        <v>502</v>
+      </c>
+      <c r="G4" t="str">
+        <f t="shared" si="0"/>
+        <v>insert into group_stage (id, tournament, group_code, squad) values (56, 2013, 'A', 502);</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <f t="shared" si="1"/>
+        <v>57</v>
+      </c>
+      <c r="B5">
+        <f t="shared" si="2"/>
+        <v>2013</v>
+      </c>
+      <c r="C5" t="s">
+        <v>12</v>
+      </c>
+      <c r="D5">
+        <v>505</v>
+      </c>
+      <c r="G5" t="str">
+        <f t="shared" si="0"/>
+        <v>insert into group_stage (id, tournament, group_code, squad) values (57, 2013, 'A', 505);</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <f t="shared" si="1"/>
+        <v>58</v>
+      </c>
+      <c r="B6">
+        <f t="shared" si="2"/>
+        <v>2013</v>
+      </c>
+      <c r="C6" t="s">
+        <v>13</v>
+      </c>
+      <c r="D6">
+        <v>504</v>
+      </c>
+      <c r="G6" t="str">
+        <f t="shared" si="0"/>
+        <v>insert into group_stage (id, tournament, group_code, squad) values (58, 2013, 'B', 504);</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <f t="shared" si="1"/>
+        <v>59</v>
+      </c>
+      <c r="B7">
+        <f t="shared" si="2"/>
+        <v>2013</v>
+      </c>
+      <c r="C7" t="s">
+        <v>13</v>
+      </c>
+      <c r="D7">
+        <v>503</v>
+      </c>
+      <c r="G7" t="str">
+        <f t="shared" si="0"/>
+        <v>insert into group_stage (id, tournament, group_code, squad) values (59, 2013, 'B', 503);</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <f t="shared" si="1"/>
+        <v>60</v>
+      </c>
+      <c r="B8">
+        <f t="shared" si="2"/>
+        <v>2013</v>
+      </c>
+      <c r="C8" t="s">
+        <v>13</v>
+      </c>
+      <c r="D8">
+        <v>507</v>
+      </c>
+      <c r="G8" t="str">
+        <f t="shared" si="0"/>
+        <v>insert into group_stage (id, tournament, group_code, squad) values (60, 2013, 'B', 507);</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A10" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="G10" t="str">
+        <f>"insert into game (matchid, matchdate, game_type, country) values (" &amp; A10 &amp; ", '" &amp; B10 &amp; "', " &amp; C10 &amp; ", " &amp; D10 &amp;  ");"</f>
+        <v>insert into game (matchid, matchdate, game_type, country) values (matchid, 'matchdate', game_type, country);</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <f>'2011'!A24+1</f>
+        <v>144</v>
+      </c>
+      <c r="B11" s="2" t="str">
+        <f>"2013-01-18"</f>
+        <v>2013-01-18</v>
+      </c>
+      <c r="C11">
+        <v>2</v>
+      </c>
+      <c r="D11">
+        <v>506</v>
+      </c>
+      <c r="G11" t="str">
+        <f t="shared" ref="G11:G24" si="3">"insert into game (matchid, matchdate, game_type, country) values (" &amp; A11 &amp; ", '" &amp; B11 &amp; "', " &amp; C11 &amp; ", " &amp; D11 &amp;  ");"</f>
+        <v>insert into game (matchid, matchdate, game_type, country) values (144, '2013-01-18', 2, 506);</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <f>A11+1</f>
+        <v>145</v>
+      </c>
+      <c r="B12" s="2" t="str">
+        <f>"2013-01-18"</f>
+        <v>2013-01-18</v>
+      </c>
+      <c r="C12">
+        <v>2</v>
+      </c>
+      <c r="D12">
+        <v>506</v>
+      </c>
+      <c r="G12" t="str">
+        <f t="shared" si="3"/>
+        <v>insert into game (matchid, matchdate, game_type, country) values (145, '2013-01-18', 2, 506);</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <f t="shared" ref="A13:A24" si="4">A12+1</f>
+        <v>146</v>
+      </c>
+      <c r="B13" s="2" t="str">
+        <f>"2013-01-20"</f>
+        <v>2013-01-20</v>
+      </c>
+      <c r="C13">
+        <v>2</v>
+      </c>
+      <c r="D13">
+        <v>506</v>
+      </c>
+      <c r="G13" t="str">
+        <f t="shared" si="3"/>
+        <v>insert into game (matchid, matchdate, game_type, country) values (146, '2013-01-20', 2, 506);</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <f t="shared" si="4"/>
+        <v>147</v>
+      </c>
+      <c r="B14" s="2" t="str">
+        <f>"2013-01-20"</f>
+        <v>2013-01-20</v>
+      </c>
+      <c r="C14">
+        <v>2</v>
+      </c>
+      <c r="D14">
+        <v>506</v>
+      </c>
+      <c r="G14" t="str">
+        <f t="shared" si="3"/>
+        <v>insert into game (matchid, matchdate, game_type, country) values (147, '2013-01-20', 2, 506);</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <f t="shared" si="4"/>
+        <v>148</v>
+      </c>
+      <c r="B15" s="2" t="str">
+        <f>"2013-01-22"</f>
+        <v>2013-01-22</v>
+      </c>
+      <c r="C15">
+        <v>2</v>
+      </c>
+      <c r="D15">
+        <v>506</v>
+      </c>
+      <c r="G15" t="str">
+        <f t="shared" si="3"/>
+        <v>insert into game (matchid, matchdate, game_type, country) values (148, '2013-01-22', 2, 506);</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <f t="shared" si="4"/>
+        <v>149</v>
+      </c>
+      <c r="B16" s="2" t="str">
+        <f>"2013-01-22"</f>
+        <v>2013-01-22</v>
+      </c>
+      <c r="C16">
+        <v>2</v>
+      </c>
+      <c r="D16">
+        <v>506</v>
+      </c>
+      <c r="G16" t="str">
+        <f t="shared" si="3"/>
+        <v>insert into game (matchid, matchdate, game_type, country) values (149, '2013-01-22', 2, 506);</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <f t="shared" si="4"/>
+        <v>150</v>
+      </c>
+      <c r="B17" s="2" t="str">
+        <f>"2013-01-18"</f>
+        <v>2013-01-18</v>
+      </c>
+      <c r="C17">
+        <v>2</v>
+      </c>
+      <c r="D17">
+        <v>506</v>
+      </c>
+      <c r="G17" t="str">
+        <f t="shared" si="3"/>
+        <v>insert into game (matchid, matchdate, game_type, country) values (150, '2013-01-18', 2, 506);</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A18">
+        <f t="shared" si="4"/>
+        <v>151</v>
+      </c>
+      <c r="B18" s="2" t="str">
+        <f>"2013-01-20"</f>
+        <v>2013-01-20</v>
+      </c>
+      <c r="C18">
+        <v>2</v>
+      </c>
+      <c r="D18">
+        <v>506</v>
+      </c>
+      <c r="G18" t="str">
+        <f t="shared" si="3"/>
+        <v>insert into game (matchid, matchdate, game_type, country) values (151, '2013-01-20', 2, 506);</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A19">
+        <f t="shared" si="4"/>
+        <v>152</v>
+      </c>
+      <c r="B19" s="2" t="str">
+        <f>"2013-01-22"</f>
+        <v>2013-01-22</v>
+      </c>
+      <c r="C19">
+        <v>2</v>
+      </c>
+      <c r="D19">
+        <v>506</v>
+      </c>
+      <c r="G19" t="str">
+        <f t="shared" si="3"/>
+        <v>insert into game (matchid, matchdate, game_type, country) values (152, '2013-01-22', 2, 506);</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A20">
+        <f t="shared" si="4"/>
+        <v>153</v>
+      </c>
+      <c r="B20" s="2" t="str">
+        <f>"2013-01-25"</f>
+        <v>2013-01-25</v>
+      </c>
+      <c r="C20">
+        <v>24</v>
+      </c>
+      <c r="D20">
+        <v>506</v>
+      </c>
+      <c r="G20" t="str">
+        <f t="shared" si="3"/>
+        <v>insert into game (matchid, matchdate, game_type, country) values (153, '2013-01-25', 24, 506);</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A21">
+        <f t="shared" si="4"/>
+        <v>154</v>
+      </c>
+      <c r="B21" s="2" t="str">
+        <f>"2013-01-25"</f>
+        <v>2013-01-25</v>
+      </c>
+      <c r="C21">
+        <v>4</v>
+      </c>
+      <c r="D21">
+        <v>506</v>
+      </c>
+      <c r="G21" t="str">
+        <f t="shared" si="3"/>
+        <v>insert into game (matchid, matchdate, game_type, country) values (154, '2013-01-25', 4, 506);</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A22">
+        <f t="shared" si="4"/>
+        <v>155</v>
+      </c>
+      <c r="B22" s="2" t="str">
+        <f>"2013-01-25"</f>
+        <v>2013-01-25</v>
+      </c>
+      <c r="C22">
+        <v>4</v>
+      </c>
+      <c r="D22">
+        <v>506</v>
+      </c>
+      <c r="G22" t="str">
+        <f t="shared" si="3"/>
+        <v>insert into game (matchid, matchdate, game_type, country) values (155, '2013-01-25', 4, 506);</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A23">
+        <f t="shared" si="4"/>
+        <v>156</v>
+      </c>
+      <c r="B23" s="2" t="str">
+        <f>"2013-01-27"</f>
+        <v>2013-01-27</v>
+      </c>
+      <c r="C23">
+        <v>5</v>
+      </c>
+      <c r="D23">
+        <v>506</v>
+      </c>
+      <c r="G23" t="str">
+        <f t="shared" si="3"/>
+        <v>insert into game (matchid, matchdate, game_type, country) values (156, '2013-01-27', 5, 506);</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A24">
+        <f t="shared" si="4"/>
+        <v>157</v>
+      </c>
+      <c r="B24" s="2" t="str">
+        <f>"2013-01-27"</f>
+        <v>2013-01-27</v>
+      </c>
+      <c r="C24">
+        <v>6</v>
+      </c>
+      <c r="D24">
+        <v>506</v>
+      </c>
+      <c r="G24" t="str">
+        <f t="shared" si="3"/>
+        <v>insert into game (matchid, matchdate, game_type, country) values (157, '2013-01-27', 6, 506);</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A26" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B26" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C26" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D26" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E26" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F26" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G26" t="str">
+        <f>"insert into game_score (id, matchid, squad, goals, points, time_type) values (" &amp; A26 &amp; ", " &amp; B26 &amp; ", " &amp; C26 &amp; ", " &amp; D26 &amp; ", " &amp; E26 &amp; ", " &amp; F26 &amp; ");"</f>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (id, matchid, squad, goals, points, time_type);</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A27" s="3">
+        <f>'2011'!A86 + 1</f>
+        <v>585</v>
+      </c>
+      <c r="B27" s="3">
+        <f>A11</f>
+        <v>144</v>
+      </c>
+      <c r="C27" s="3">
+        <v>502</v>
+      </c>
+      <c r="D27" s="3">
+        <v>1</v>
+      </c>
+      <c r="E27" s="3">
+        <v>1</v>
+      </c>
+      <c r="F27" s="3">
+        <v>2</v>
+      </c>
+      <c r="G27" s="3" t="str">
+        <f t="shared" ref="G27:G82" si="5">"insert into game_score (id, matchid, squad, goals, points, time_type) values (" &amp; A27 &amp; ", " &amp; B27 &amp; ", " &amp; C27 &amp; ", " &amp; D27 &amp; ", " &amp; E27 &amp; ", " &amp; F27 &amp; ");"</f>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (585, 144, 502, 1, 1, 2);</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A28" s="3">
+        <f>A27+1</f>
+        <v>586</v>
+      </c>
+      <c r="B28" s="3">
+        <f>B27</f>
+        <v>144</v>
+      </c>
+      <c r="C28" s="3">
+        <v>502</v>
+      </c>
+      <c r="D28" s="3">
+        <v>0</v>
+      </c>
+      <c r="E28" s="3">
+        <v>0</v>
+      </c>
+      <c r="F28" s="3">
+        <v>1</v>
+      </c>
+      <c r="G28" s="3" t="str">
+        <f t="shared" si="5"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (586, 144, 502, 0, 0, 1);</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A29" s="3">
+        <f t="shared" ref="A29:A82" si="6">A28+1</f>
+        <v>587</v>
+      </c>
+      <c r="B29" s="3">
+        <f>B27</f>
+        <v>144</v>
+      </c>
+      <c r="C29" s="3">
+        <v>505</v>
+      </c>
+      <c r="D29" s="3">
+        <v>1</v>
+      </c>
+      <c r="E29" s="3">
+        <v>1</v>
+      </c>
+      <c r="F29" s="3">
+        <v>2</v>
+      </c>
+      <c r="G29" s="3" t="str">
+        <f t="shared" si="5"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (587, 144, 505, 1, 1, 2);</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A30" s="3">
+        <f t="shared" si="6"/>
+        <v>588</v>
+      </c>
+      <c r="B30" s="3">
+        <f>B27</f>
+        <v>144</v>
+      </c>
+      <c r="C30" s="3">
+        <v>505</v>
+      </c>
+      <c r="D30" s="3">
+        <v>1</v>
+      </c>
+      <c r="E30" s="3">
+        <v>0</v>
+      </c>
+      <c r="F30" s="3">
+        <v>1</v>
+      </c>
+      <c r="G30" s="3" t="str">
+        <f t="shared" si="5"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (588, 144, 505, 1, 0, 1);</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A31" s="4">
+        <f>A30+1</f>
+        <v>589</v>
+      </c>
+      <c r="B31" s="4">
+        <f>B27+1</f>
+        <v>145</v>
+      </c>
+      <c r="C31" s="4">
+        <v>506</v>
+      </c>
+      <c r="D31" s="4">
+        <v>1</v>
+      </c>
+      <c r="E31" s="4">
+        <v>3</v>
+      </c>
+      <c r="F31" s="4">
+        <v>2</v>
+      </c>
+      <c r="G31" t="str">
+        <f t="shared" si="5"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (589, 145, 506, 1, 3, 2);</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A32" s="4">
+        <f t="shared" si="6"/>
+        <v>590</v>
+      </c>
+      <c r="B32" s="4">
+        <f>B31</f>
+        <v>145</v>
+      </c>
+      <c r="C32" s="4">
+        <v>506</v>
+      </c>
+      <c r="D32" s="4">
+        <v>0</v>
+      </c>
+      <c r="E32" s="4">
+        <v>0</v>
+      </c>
+      <c r="F32" s="4">
+        <v>1</v>
+      </c>
+      <c r="G32" t="str">
+        <f t="shared" si="5"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (590, 145, 506, 0, 0, 1);</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A33" s="4">
+        <f t="shared" si="6"/>
+        <v>591</v>
+      </c>
+      <c r="B33" s="4">
+        <f>B31</f>
+        <v>145</v>
+      </c>
+      <c r="C33" s="4">
+        <v>501</v>
+      </c>
+      <c r="D33" s="4">
+        <v>0</v>
+      </c>
+      <c r="E33" s="4">
+        <v>0</v>
+      </c>
+      <c r="F33" s="4">
+        <v>2</v>
+      </c>
+      <c r="G33" t="str">
+        <f t="shared" si="5"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (591, 145, 501, 0, 0, 2);</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A34" s="4">
+        <f t="shared" si="6"/>
+        <v>592</v>
+      </c>
+      <c r="B34" s="4">
+        <f>B31</f>
+        <v>145</v>
+      </c>
+      <c r="C34" s="4">
+        <v>501</v>
+      </c>
+      <c r="D34" s="4">
+        <v>0</v>
+      </c>
+      <c r="E34" s="4">
+        <v>0</v>
+      </c>
+      <c r="F34" s="4">
+        <v>1</v>
+      </c>
+      <c r="G34" t="str">
+        <f t="shared" si="5"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (592, 145, 501, 0, 0, 1);</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A35" s="3">
+        <f t="shared" si="6"/>
+        <v>593</v>
+      </c>
+      <c r="B35" s="3">
+        <f>B31+1</f>
+        <v>146</v>
+      </c>
+      <c r="C35" s="3">
+        <v>501</v>
+      </c>
+      <c r="D35" s="3">
+        <v>0</v>
+      </c>
+      <c r="E35" s="3">
+        <v>1</v>
+      </c>
+      <c r="F35" s="3">
+        <v>2</v>
+      </c>
+      <c r="G35" s="3" t="str">
+        <f t="shared" si="5"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (593, 146, 501, 0, 1, 2);</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A36" s="3">
+        <f t="shared" si="6"/>
+        <v>594</v>
+      </c>
+      <c r="B36" s="3">
+        <f>B35</f>
+        <v>146</v>
+      </c>
+      <c r="C36" s="3">
+        <v>501</v>
+      </c>
+      <c r="D36" s="3">
+        <v>0</v>
+      </c>
+      <c r="E36" s="3">
+        <v>0</v>
+      </c>
+      <c r="F36" s="3">
+        <v>1</v>
+      </c>
+      <c r="G36" s="3" t="str">
+        <f t="shared" si="5"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (594, 146, 501, 0, 0, 1);</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A37" s="3">
+        <f t="shared" si="6"/>
+        <v>595</v>
+      </c>
+      <c r="B37" s="3">
+        <f>B35</f>
+        <v>146</v>
+      </c>
+      <c r="C37" s="3">
+        <v>502</v>
+      </c>
+      <c r="D37" s="3">
+        <v>0</v>
+      </c>
+      <c r="E37" s="3">
+        <v>1</v>
+      </c>
+      <c r="F37" s="3">
+        <v>2</v>
+      </c>
+      <c r="G37" s="3" t="str">
+        <f t="shared" si="5"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (595, 146, 502, 0, 1, 2);</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A38" s="3">
+        <f t="shared" si="6"/>
+        <v>596</v>
+      </c>
+      <c r="B38" s="3">
+        <f t="shared" ref="B38" si="7">B35</f>
+        <v>146</v>
+      </c>
+      <c r="C38" s="3">
+        <v>502</v>
+      </c>
+      <c r="D38" s="3">
+        <v>0</v>
+      </c>
+      <c r="E38" s="3">
+        <v>0</v>
+      </c>
+      <c r="F38" s="3">
+        <v>1</v>
+      </c>
+      <c r="G38" s="3" t="str">
+        <f t="shared" si="5"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (596, 146, 502, 0, 0, 1);</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A39" s="4">
+        <f t="shared" si="6"/>
+        <v>597</v>
+      </c>
+      <c r="B39" s="4">
+        <f>B35+1</f>
+        <v>147</v>
+      </c>
+      <c r="C39" s="4">
+        <v>506</v>
+      </c>
+      <c r="D39" s="4">
+        <v>2</v>
+      </c>
+      <c r="E39" s="4">
+        <v>3</v>
+      </c>
+      <c r="F39" s="4">
+        <v>2</v>
+      </c>
+      <c r="G39" s="4" t="str">
+        <f t="shared" si="5"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (597, 147, 506, 2, 3, 2);</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A40" s="4">
+        <f t="shared" si="6"/>
+        <v>598</v>
+      </c>
+      <c r="B40" s="4">
+        <f>B39</f>
+        <v>147</v>
+      </c>
+      <c r="C40" s="4">
+        <v>506</v>
+      </c>
+      <c r="D40" s="4">
+        <v>1</v>
+      </c>
+      <c r="E40" s="4">
+        <v>0</v>
+      </c>
+      <c r="F40" s="4">
+        <v>1</v>
+      </c>
+      <c r="G40" s="4" t="str">
+        <f t="shared" si="5"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (598, 147, 506, 1, 0, 1);</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A41" s="4">
+        <f t="shared" si="6"/>
+        <v>599</v>
+      </c>
+      <c r="B41" s="4">
+        <f>B39</f>
+        <v>147</v>
+      </c>
+      <c r="C41" s="4">
+        <v>505</v>
+      </c>
+      <c r="D41" s="4">
+        <v>0</v>
+      </c>
+      <c r="E41" s="4">
+        <v>0</v>
+      </c>
+      <c r="F41" s="4">
+        <v>2</v>
+      </c>
+      <c r="G41" s="4" t="str">
+        <f t="shared" si="5"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (599, 147, 505, 0, 0, 2);</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A42" s="4">
+        <f t="shared" si="6"/>
+        <v>600</v>
+      </c>
+      <c r="B42" s="4">
+        <f t="shared" ref="B42" si="8">B39</f>
+        <v>147</v>
+      </c>
+      <c r="C42" s="4">
+        <v>505</v>
+      </c>
+      <c r="D42" s="4">
+        <v>0</v>
+      </c>
+      <c r="E42" s="4">
+        <v>0</v>
+      </c>
+      <c r="F42" s="4">
+        <v>1</v>
+      </c>
+      <c r="G42" s="4" t="str">
+        <f t="shared" si="5"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (600, 147, 505, 0, 0, 1);</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A43" s="3">
+        <f t="shared" si="6"/>
+        <v>601</v>
+      </c>
+      <c r="B43" s="3">
+        <f>B39+1</f>
+        <v>148</v>
+      </c>
+      <c r="C43" s="3">
+        <v>505</v>
+      </c>
+      <c r="D43" s="3">
+        <v>1</v>
+      </c>
+      <c r="E43" s="3">
+        <v>0</v>
+      </c>
+      <c r="F43" s="3">
+        <v>2</v>
+      </c>
+      <c r="G43" s="3" t="str">
+        <f t="shared" si="5"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (601, 148, 505, 1, 0, 2);</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A44" s="3">
+        <f t="shared" si="6"/>
+        <v>602</v>
+      </c>
+      <c r="B44" s="3">
+        <f>B43</f>
+        <v>148</v>
+      </c>
+      <c r="C44" s="3">
+        <v>505</v>
+      </c>
+      <c r="D44" s="3">
+        <v>0</v>
+      </c>
+      <c r="E44" s="3">
+        <v>0</v>
+      </c>
+      <c r="F44" s="3">
+        <v>1</v>
+      </c>
+      <c r="G44" s="3" t="str">
+        <f t="shared" si="5"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (602, 148, 505, 0, 0, 1);</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A45" s="3">
+        <f t="shared" si="6"/>
+        <v>603</v>
+      </c>
+      <c r="B45" s="3">
+        <f>B43</f>
+        <v>148</v>
+      </c>
+      <c r="C45" s="3">
+        <v>501</v>
+      </c>
+      <c r="D45" s="3">
+        <v>2</v>
+      </c>
+      <c r="E45" s="3">
+        <v>3</v>
+      </c>
+      <c r="F45" s="3">
+        <v>2</v>
+      </c>
+      <c r="G45" s="3" t="str">
+        <f t="shared" si="5"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (603, 148, 501, 2, 3, 2);</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A46" s="3">
+        <f t="shared" si="6"/>
+        <v>604</v>
+      </c>
+      <c r="B46" s="3">
+        <f t="shared" ref="B46" si="9">B43</f>
+        <v>148</v>
+      </c>
+      <c r="C46" s="3">
+        <v>501</v>
+      </c>
+      <c r="D46" s="3">
+        <v>1</v>
+      </c>
+      <c r="E46" s="3">
+        <v>0</v>
+      </c>
+      <c r="F46" s="3">
+        <v>1</v>
+      </c>
+      <c r="G46" s="3" t="str">
+        <f t="shared" si="5"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (604, 148, 501, 1, 0, 1);</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A47" s="4">
+        <f t="shared" si="6"/>
+        <v>605</v>
+      </c>
+      <c r="B47" s="4">
+        <f>B43+1</f>
+        <v>149</v>
+      </c>
+      <c r="C47" s="4">
+        <v>506</v>
+      </c>
+      <c r="D47" s="4">
+        <v>1</v>
+      </c>
+      <c r="E47" s="4">
+        <v>1</v>
+      </c>
+      <c r="F47" s="4">
+        <v>2</v>
+      </c>
+      <c r="G47" s="4" t="str">
+        <f t="shared" si="5"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (605, 149, 506, 1, 1, 2);</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A48" s="4">
+        <f t="shared" si="6"/>
+        <v>606</v>
+      </c>
+      <c r="B48" s="4">
+        <f>B47</f>
+        <v>149</v>
+      </c>
+      <c r="C48" s="4">
+        <v>506</v>
+      </c>
+      <c r="D48" s="4">
+        <v>1</v>
+      </c>
+      <c r="E48" s="4">
+        <v>0</v>
+      </c>
+      <c r="F48" s="4">
+        <v>1</v>
+      </c>
+      <c r="G48" s="4" t="str">
+        <f t="shared" si="5"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (606, 149, 506, 1, 0, 1);</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A49" s="4">
+        <f t="shared" si="6"/>
+        <v>607</v>
+      </c>
+      <c r="B49" s="4">
+        <f>B47</f>
+        <v>149</v>
+      </c>
+      <c r="C49" s="4">
+        <v>502</v>
+      </c>
+      <c r="D49" s="4">
+        <v>1</v>
+      </c>
+      <c r="E49" s="4">
+        <v>1</v>
+      </c>
+      <c r="F49" s="4">
+        <v>2</v>
+      </c>
+      <c r="G49" s="4" t="str">
+        <f t="shared" si="5"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (607, 149, 502, 1, 1, 2);</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A50" s="4">
+        <f t="shared" si="6"/>
+        <v>608</v>
+      </c>
+      <c r="B50" s="4">
+        <f t="shared" ref="B50" si="10">B47</f>
+        <v>149</v>
+      </c>
+      <c r="C50" s="4">
+        <v>502</v>
+      </c>
+      <c r="D50" s="4">
+        <v>0</v>
+      </c>
+      <c r="E50" s="4">
+        <v>0</v>
+      </c>
+      <c r="F50" s="4">
+        <v>1</v>
+      </c>
+      <c r="G50" s="4" t="str">
+        <f t="shared" si="5"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (608, 149, 502, 0, 0, 1);</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A51" s="3">
+        <f t="shared" si="6"/>
+        <v>609</v>
+      </c>
+      <c r="B51" s="3">
+        <f>B47+1</f>
+        <v>150</v>
+      </c>
+      <c r="C51" s="3">
+        <v>504</v>
+      </c>
+      <c r="D51" s="3">
+        <v>1</v>
+      </c>
+      <c r="E51" s="3">
+        <v>1</v>
+      </c>
+      <c r="F51" s="3">
+        <v>2</v>
+      </c>
+      <c r="G51" s="3" t="str">
+        <f t="shared" si="5"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (609, 150, 504, 1, 1, 2);</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A52" s="3">
+        <f t="shared" si="6"/>
+        <v>610</v>
+      </c>
+      <c r="B52" s="3">
+        <f>B51</f>
+        <v>150</v>
+      </c>
+      <c r="C52" s="3">
+        <v>504</v>
+      </c>
+      <c r="D52" s="3">
+        <v>0</v>
+      </c>
+      <c r="E52" s="3">
+        <v>0</v>
+      </c>
+      <c r="F52" s="3">
+        <v>1</v>
+      </c>
+      <c r="G52" s="3" t="str">
+        <f t="shared" si="5"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (610, 150, 504, 0, 0, 1);</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A53" s="3">
+        <f t="shared" si="6"/>
+        <v>611</v>
+      </c>
+      <c r="B53" s="3">
+        <f>B51</f>
+        <v>150</v>
+      </c>
+      <c r="C53" s="3">
+        <v>503</v>
+      </c>
+      <c r="D53" s="3">
+        <v>1</v>
+      </c>
+      <c r="E53" s="3">
+        <v>1</v>
+      </c>
+      <c r="F53" s="3">
+        <v>2</v>
+      </c>
+      <c r="G53" s="3" t="str">
+        <f t="shared" si="5"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (611, 150, 503, 1, 1, 2);</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A54" s="3">
+        <f t="shared" si="6"/>
+        <v>612</v>
+      </c>
+      <c r="B54" s="3">
+        <f t="shared" ref="B54" si="11">B51</f>
+        <v>150</v>
+      </c>
+      <c r="C54" s="3">
+        <v>503</v>
+      </c>
+      <c r="D54" s="3">
+        <v>0</v>
+      </c>
+      <c r="E54" s="3">
+        <v>0</v>
+      </c>
+      <c r="F54" s="3">
+        <v>1</v>
+      </c>
+      <c r="G54" s="3" t="str">
+        <f t="shared" si="5"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (612, 150, 503, 0, 0, 1);</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A55" s="4">
+        <f t="shared" si="6"/>
+        <v>613</v>
+      </c>
+      <c r="B55" s="4">
+        <f>B51+1</f>
+        <v>151</v>
+      </c>
+      <c r="C55" s="4">
+        <v>503</v>
+      </c>
+      <c r="D55" s="4">
+        <v>0</v>
+      </c>
+      <c r="E55" s="4">
+        <v>1</v>
+      </c>
+      <c r="F55" s="4">
+        <v>2</v>
+      </c>
+      <c r="G55" s="4" t="str">
+        <f t="shared" si="5"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (613, 151, 503, 0, 1, 2);</v>
+      </c>
+    </row>
+    <row r="56" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A56" s="4">
+        <f t="shared" si="6"/>
+        <v>614</v>
+      </c>
+      <c r="B56" s="4">
+        <f>B55</f>
+        <v>151</v>
+      </c>
+      <c r="C56" s="4">
+        <v>503</v>
+      </c>
+      <c r="D56" s="4">
+        <v>0</v>
+      </c>
+      <c r="E56" s="4">
+        <v>0</v>
+      </c>
+      <c r="F56" s="4">
+        <v>1</v>
+      </c>
+      <c r="G56" s="4" t="str">
+        <f t="shared" si="5"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (614, 151, 503, 0, 0, 1);</v>
+      </c>
+    </row>
+    <row r="57" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A57" s="4">
+        <f t="shared" si="6"/>
+        <v>615</v>
+      </c>
+      <c r="B57" s="4">
+        <f>B55</f>
+        <v>151</v>
+      </c>
+      <c r="C57" s="4">
+        <v>507</v>
+      </c>
+      <c r="D57" s="4">
+        <v>0</v>
+      </c>
+      <c r="E57" s="4">
+        <v>1</v>
+      </c>
+      <c r="F57" s="4">
+        <v>2</v>
+      </c>
+      <c r="G57" s="4" t="str">
+        <f t="shared" si="5"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (615, 151, 507, 0, 1, 2);</v>
+      </c>
+    </row>
+    <row r="58" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A58" s="4">
+        <f t="shared" si="6"/>
+        <v>616</v>
+      </c>
+      <c r="B58" s="4">
+        <f t="shared" ref="B58" si="12">B55</f>
+        <v>151</v>
+      </c>
+      <c r="C58" s="4">
+        <v>507</v>
+      </c>
+      <c r="D58" s="4">
+        <v>0</v>
+      </c>
+      <c r="E58" s="4">
+        <v>0</v>
+      </c>
+      <c r="F58" s="4">
+        <v>1</v>
+      </c>
+      <c r="G58" s="4" t="str">
+        <f t="shared" si="5"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (616, 151, 507, 0, 0, 1);</v>
+      </c>
+    </row>
+    <row r="59" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A59" s="3">
+        <f t="shared" si="6"/>
+        <v>617</v>
+      </c>
+      <c r="B59" s="3">
+        <f>B55+1</f>
+        <v>152</v>
+      </c>
+      <c r="C59" s="3">
+        <v>507</v>
+      </c>
+      <c r="D59" s="3">
+        <v>1</v>
+      </c>
+      <c r="E59" s="3">
+        <v>1</v>
+      </c>
+      <c r="F59" s="3">
+        <v>2</v>
+      </c>
+      <c r="G59" s="3" t="str">
+        <f t="shared" si="5"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (617, 152, 507, 1, 1, 2);</v>
+      </c>
+    </row>
+    <row r="60" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A60" s="3">
+        <f t="shared" si="6"/>
+        <v>618</v>
+      </c>
+      <c r="B60" s="3">
+        <f>B59</f>
+        <v>152</v>
+      </c>
+      <c r="C60" s="3">
+        <v>507</v>
+      </c>
+      <c r="D60" s="3">
+        <v>1</v>
+      </c>
+      <c r="E60" s="3">
+        <v>0</v>
+      </c>
+      <c r="F60" s="3">
+        <v>1</v>
+      </c>
+      <c r="G60" s="3" t="str">
+        <f t="shared" si="5"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (618, 152, 507, 1, 0, 1);</v>
+      </c>
+    </row>
+    <row r="61" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A61" s="3">
+        <f t="shared" si="6"/>
+        <v>619</v>
+      </c>
+      <c r="B61" s="3">
+        <f>B59</f>
+        <v>152</v>
+      </c>
+      <c r="C61" s="3">
+        <v>504</v>
+      </c>
+      <c r="D61" s="3">
+        <v>1</v>
+      </c>
+      <c r="E61" s="3">
+        <v>1</v>
+      </c>
+      <c r="F61" s="3">
+        <v>2</v>
+      </c>
+      <c r="G61" s="3" t="str">
+        <f t="shared" si="5"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (619, 152, 504, 1, 1, 2);</v>
+      </c>
+    </row>
+    <row r="62" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A62" s="3">
+        <f t="shared" si="6"/>
+        <v>620</v>
+      </c>
+      <c r="B62" s="3">
+        <f t="shared" ref="B62" si="13">B59</f>
+        <v>152</v>
+      </c>
+      <c r="C62" s="3">
+        <v>504</v>
+      </c>
+      <c r="D62" s="3">
+        <v>1</v>
+      </c>
+      <c r="E62" s="3">
+        <v>0</v>
+      </c>
+      <c r="F62" s="3">
+        <v>1</v>
+      </c>
+      <c r="G62" s="3" t="str">
+        <f t="shared" si="5"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (620, 152, 504, 1, 0, 1);</v>
+      </c>
+    </row>
+    <row r="63" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A63" s="4">
+        <f t="shared" si="6"/>
+        <v>621</v>
+      </c>
+      <c r="B63" s="4">
+        <f>B59+1</f>
+        <v>153</v>
+      </c>
+      <c r="C63" s="4">
+        <v>502</v>
+      </c>
+      <c r="D63" s="4">
+        <v>1</v>
+      </c>
+      <c r="E63" s="4">
+        <v>0</v>
+      </c>
+      <c r="F63" s="4">
+        <v>2</v>
+      </c>
+      <c r="G63" s="4" t="str">
+        <f t="shared" si="5"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (621, 153, 502, 1, 0, 2);</v>
+      </c>
+    </row>
+    <row r="64" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A64" s="4">
+        <f t="shared" si="6"/>
+        <v>622</v>
+      </c>
+      <c r="B64" s="4">
+        <f>B63</f>
+        <v>153</v>
+      </c>
+      <c r="C64" s="4">
+        <v>502</v>
+      </c>
+      <c r="D64" s="4">
+        <v>0</v>
+      </c>
+      <c r="E64" s="4">
+        <v>0</v>
+      </c>
+      <c r="F64" s="4">
+        <v>1</v>
+      </c>
+      <c r="G64" s="4" t="str">
+        <f t="shared" si="5"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (622, 153, 502, 0, 0, 1);</v>
+      </c>
+    </row>
+    <row r="65" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A65" s="4">
+        <f t="shared" si="6"/>
+        <v>623</v>
+      </c>
+      <c r="B65" s="4">
+        <f>B63</f>
+        <v>153</v>
+      </c>
+      <c r="C65" s="4">
+        <v>507</v>
+      </c>
+      <c r="D65" s="4">
+        <v>3</v>
+      </c>
+      <c r="E65" s="4">
+        <v>3</v>
+      </c>
+      <c r="F65" s="4">
+        <v>2</v>
+      </c>
+      <c r="G65" s="4" t="str">
+        <f t="shared" si="5"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (623, 153, 507, 3, 3, 2);</v>
+      </c>
+    </row>
+    <row r="66" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A66" s="4">
+        <f t="shared" si="6"/>
+        <v>624</v>
+      </c>
+      <c r="B66" s="4">
+        <f t="shared" ref="B66" si="14">B63</f>
+        <v>153</v>
+      </c>
+      <c r="C66" s="4">
+        <v>507</v>
+      </c>
+      <c r="D66" s="4">
+        <v>1</v>
+      </c>
+      <c r="E66" s="4">
+        <v>0</v>
+      </c>
+      <c r="F66" s="4">
+        <v>1</v>
+      </c>
+      <c r="G66" s="4" t="str">
+        <f t="shared" si="5"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (624, 153, 507, 1, 0, 1);</v>
+      </c>
+    </row>
+    <row r="67" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A67" s="3">
+        <f t="shared" si="6"/>
+        <v>625</v>
+      </c>
+      <c r="B67" s="3">
+        <f>B63+1</f>
+        <v>154</v>
+      </c>
+      <c r="C67" s="3">
+        <v>504</v>
+      </c>
+      <c r="D67" s="3">
+        <v>1</v>
+      </c>
+      <c r="E67" s="3">
+        <v>3</v>
+      </c>
+      <c r="F67" s="3">
+        <v>2</v>
+      </c>
+      <c r="G67" s="3" t="str">
+        <f t="shared" si="5"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (625, 154, 504, 1, 3, 2);</v>
+      </c>
+    </row>
+    <row r="68" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A68" s="3">
+        <f t="shared" si="6"/>
+        <v>626</v>
+      </c>
+      <c r="B68" s="3">
+        <f>B67</f>
+        <v>154</v>
+      </c>
+      <c r="C68" s="3">
+        <v>504</v>
+      </c>
+      <c r="D68" s="3">
+        <v>0</v>
+      </c>
+      <c r="E68" s="3">
+        <v>0</v>
+      </c>
+      <c r="F68" s="3">
+        <v>1</v>
+      </c>
+      <c r="G68" s="3" t="str">
+        <f t="shared" si="5"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (626, 154, 504, 0, 0, 1);</v>
+      </c>
+    </row>
+    <row r="69" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A69" s="3">
+        <f t="shared" si="6"/>
+        <v>627</v>
+      </c>
+      <c r="B69" s="3">
+        <f>B67</f>
+        <v>154</v>
+      </c>
+      <c r="C69" s="3">
+        <v>501</v>
+      </c>
+      <c r="D69" s="3">
+        <v>0</v>
+      </c>
+      <c r="E69" s="3">
+        <v>0</v>
+      </c>
+      <c r="F69" s="3">
+        <v>2</v>
+      </c>
+      <c r="G69" s="3" t="str">
+        <f t="shared" si="5"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (627, 154, 501, 0, 0, 2);</v>
+      </c>
+    </row>
+    <row r="70" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A70" s="3">
+        <f t="shared" si="6"/>
+        <v>628</v>
+      </c>
+      <c r="B70" s="3">
+        <f t="shared" ref="B70" si="15">B67</f>
+        <v>154</v>
+      </c>
+      <c r="C70" s="3">
+        <v>501</v>
+      </c>
+      <c r="D70" s="3">
+        <v>0</v>
+      </c>
+      <c r="E70" s="3">
+        <v>0</v>
+      </c>
+      <c r="F70" s="3">
+        <v>1</v>
+      </c>
+      <c r="G70" s="3" t="str">
+        <f t="shared" si="5"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (628, 154, 501, 0, 0, 1);</v>
+      </c>
+    </row>
+    <row r="71" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A71" s="4">
+        <f t="shared" si="6"/>
+        <v>629</v>
+      </c>
+      <c r="B71" s="4">
+        <f>B67+1</f>
+        <v>155</v>
+      </c>
+      <c r="C71" s="4">
+        <v>506</v>
+      </c>
+      <c r="D71" s="4">
+        <v>1</v>
+      </c>
+      <c r="E71" s="4">
+        <v>3</v>
+      </c>
+      <c r="F71" s="4">
+        <v>2</v>
+      </c>
+      <c r="G71" s="4" t="str">
+        <f t="shared" si="5"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (629, 155, 506, 1, 3, 2);</v>
+      </c>
+    </row>
+    <row r="72" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A72" s="4">
+        <f t="shared" si="6"/>
+        <v>630</v>
+      </c>
+      <c r="B72" s="4">
+        <f>B71</f>
+        <v>155</v>
+      </c>
+      <c r="C72" s="4">
+        <v>506</v>
+      </c>
+      <c r="D72" s="4">
+        <v>0</v>
+      </c>
+      <c r="E72" s="4">
+        <v>0</v>
+      </c>
+      <c r="F72" s="4">
+        <v>1</v>
+      </c>
+      <c r="G72" s="4" t="str">
+        <f t="shared" si="5"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (630, 155, 506, 0, 0, 1);</v>
+      </c>
+    </row>
+    <row r="73" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A73" s="4">
+        <f t="shared" si="6"/>
+        <v>631</v>
+      </c>
+      <c r="B73" s="4">
+        <f>B71</f>
+        <v>155</v>
+      </c>
+      <c r="C73" s="4">
+        <v>503</v>
+      </c>
+      <c r="D73" s="4">
+        <v>0</v>
+      </c>
+      <c r="E73" s="4">
+        <v>0</v>
+      </c>
+      <c r="F73" s="4">
+        <v>2</v>
+      </c>
+      <c r="G73" s="4" t="str">
+        <f t="shared" si="5"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (631, 155, 503, 0, 0, 2);</v>
+      </c>
+    </row>
+    <row r="74" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A74" s="4">
+        <f t="shared" si="6"/>
+        <v>632</v>
+      </c>
+      <c r="B74" s="4">
+        <f t="shared" ref="B74" si="16">B71</f>
+        <v>155</v>
+      </c>
+      <c r="C74" s="4">
+        <v>503</v>
+      </c>
+      <c r="D74" s="4">
+        <v>0</v>
+      </c>
+      <c r="E74" s="4">
+        <v>0</v>
+      </c>
+      <c r="F74" s="4">
+        <v>1</v>
+      </c>
+      <c r="G74" s="4" t="str">
+        <f t="shared" si="5"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (632, 155, 503, 0, 0, 1);</v>
+      </c>
+    </row>
+    <row r="75" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A75" s="3">
+        <f t="shared" si="6"/>
+        <v>633</v>
+      </c>
+      <c r="B75" s="3">
+        <f>B71+1</f>
+        <v>156</v>
+      </c>
+      <c r="C75" s="3">
+        <v>501</v>
+      </c>
+      <c r="D75" s="3">
+        <v>0</v>
+      </c>
+      <c r="E75" s="3">
+        <v>0</v>
+      </c>
+      <c r="F75" s="3">
+        <v>2</v>
+      </c>
+      <c r="G75" s="3" t="str">
+        <f t="shared" si="5"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (633, 156, 501, 0, 0, 2);</v>
+      </c>
+    </row>
+    <row r="76" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A76" s="3">
+        <f t="shared" si="6"/>
+        <v>634</v>
+      </c>
+      <c r="B76" s="3">
+        <f>B75</f>
+        <v>156</v>
+      </c>
+      <c r="C76" s="3">
+        <v>501</v>
+      </c>
+      <c r="D76" s="3">
+        <v>0</v>
+      </c>
+      <c r="E76" s="3">
+        <v>0</v>
+      </c>
+      <c r="F76" s="3">
+        <v>1</v>
+      </c>
+      <c r="G76" s="3" t="str">
+        <f t="shared" si="5"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (634, 156, 501, 0, 0, 1);</v>
+      </c>
+    </row>
+    <row r="77" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A77" s="3">
+        <f t="shared" si="6"/>
+        <v>635</v>
+      </c>
+      <c r="B77" s="3">
+        <f>B75</f>
+        <v>156</v>
+      </c>
+      <c r="C77" s="3">
+        <v>503</v>
+      </c>
+      <c r="D77" s="3">
+        <v>1</v>
+      </c>
+      <c r="E77" s="3">
+        <v>3</v>
+      </c>
+      <c r="F77" s="3">
+        <v>2</v>
+      </c>
+      <c r="G77" s="3" t="str">
+        <f t="shared" si="5"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (635, 156, 503, 1, 3, 2);</v>
+      </c>
+    </row>
+    <row r="78" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A78" s="3">
+        <f t="shared" si="6"/>
+        <v>636</v>
+      </c>
+      <c r="B78" s="3">
+        <f t="shared" ref="B78" si="17">B75</f>
+        <v>156</v>
+      </c>
+      <c r="C78" s="3">
+        <v>503</v>
+      </c>
+      <c r="D78" s="3">
+        <v>0</v>
+      </c>
+      <c r="E78" s="3">
+        <v>0</v>
+      </c>
+      <c r="F78" s="3">
+        <v>1</v>
+      </c>
+      <c r="G78" s="3" t="str">
+        <f t="shared" si="5"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (636, 156, 503, 0, 0, 1);</v>
+      </c>
+    </row>
+    <row r="79" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A79" s="4">
+        <f t="shared" si="6"/>
+        <v>637</v>
+      </c>
+      <c r="B79" s="4">
+        <f>B77+1</f>
+        <v>157</v>
+      </c>
+      <c r="C79" s="4">
+        <v>504</v>
+      </c>
+      <c r="D79" s="4">
+        <v>0</v>
+      </c>
+      <c r="E79" s="4">
+        <v>0</v>
+      </c>
+      <c r="F79" s="4">
+        <v>2</v>
+      </c>
+      <c r="G79" s="4" t="str">
+        <f t="shared" si="5"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (637, 157, 504, 0, 0, 2);</v>
+      </c>
+      <c r="H79" s="4"/>
+    </row>
+    <row r="80" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A80" s="4">
+        <f t="shared" si="6"/>
+        <v>638</v>
+      </c>
+      <c r="B80" s="4">
+        <f>B79</f>
+        <v>157</v>
+      </c>
+      <c r="C80" s="4">
+        <v>504</v>
+      </c>
+      <c r="D80" s="4">
+        <v>0</v>
+      </c>
+      <c r="E80" s="4">
+        <v>0</v>
+      </c>
+      <c r="F80" s="4">
+        <v>1</v>
+      </c>
+      <c r="G80" s="4" t="str">
+        <f t="shared" si="5"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (638, 157, 504, 0, 0, 1);</v>
+      </c>
+      <c r="H80" s="4"/>
+    </row>
+    <row r="81" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A81" s="4">
+        <f t="shared" si="6"/>
+        <v>639</v>
+      </c>
+      <c r="B81" s="4">
+        <f>B79</f>
+        <v>157</v>
+      </c>
+      <c r="C81" s="4">
+        <v>506</v>
+      </c>
+      <c r="D81" s="4">
+        <v>1</v>
+      </c>
+      <c r="E81" s="4">
+        <v>3</v>
+      </c>
+      <c r="F81" s="4">
+        <v>2</v>
+      </c>
+      <c r="G81" s="4" t="str">
+        <f t="shared" si="5"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (639, 157, 506, 1, 3, 2);</v>
+      </c>
+      <c r="H81" s="4"/>
+    </row>
+    <row r="82" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A82" s="4">
+        <f t="shared" si="6"/>
+        <v>640</v>
+      </c>
+      <c r="B82" s="4">
+        <f t="shared" ref="B82" si="18">B79</f>
+        <v>157</v>
+      </c>
+      <c r="C82" s="4">
+        <v>506</v>
+      </c>
+      <c r="D82" s="4">
+        <v>1</v>
+      </c>
+      <c r="E82" s="4">
+        <v>0</v>
+      </c>
+      <c r="F82" s="4">
+        <v>1</v>
+      </c>
+      <c r="G82" s="4" t="str">
+        <f t="shared" si="5"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (640, 157, 506, 1, 0, 1);</v>
+      </c>
+      <c r="H82" s="4"/>
+    </row>
+    <row r="83" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A83" s="4"/>
+      <c r="B83" s="4"/>
+      <c r="C83" s="4"/>
+      <c r="D83" s="4"/>
+      <c r="E83" s="4"/>
+      <c r="F83" s="4"/>
+      <c r="G83" s="4"/>
+      <c r="H83" s="4"/>
+    </row>
+    <row r="84" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A84" s="4"/>
+      <c r="B84" s="4"/>
+      <c r="C84" s="4"/>
+      <c r="D84" s="4"/>
+      <c r="E84" s="4"/>
+      <c r="F84" s="4"/>
+      <c r="G84" s="4"/>
+      <c r="H84" s="4"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:H73"/>
+  <sheetViews>
+    <sheetView zoomScaleNormal="100" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="9.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.85546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="7.42578125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="6.5703125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="111.140625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D1" t="s">
+        <v>2</v>
+      </c>
+      <c r="G1" t="str">
+        <f>"insert into group_stage (id, tournament, group_code, squad) values (" &amp; A1 &amp; ", " &amp; B1 &amp; ", '" &amp; C1 &amp; "', " &amp; D1 &amp;  ");"</f>
+        <v>insert into group_stage (id, tournament, group_code, squad) values (id, tournament, 'group_code', squad);</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <f>'2013'!A8+1</f>
+        <v>61</v>
+      </c>
+      <c r="B2">
+        <v>2014</v>
+      </c>
+      <c r="C2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D2">
+        <v>502</v>
+      </c>
+      <c r="G2" t="str">
+        <f t="shared" ref="G2:G8" si="0">"insert into group_stage (id, tournament, group_code, squad) values (" &amp; A2 &amp; ", " &amp; B2 &amp; ", '" &amp; C2 &amp; "', " &amp; D2 &amp;  ");"</f>
+        <v>insert into group_stage (id, tournament, group_code, squad) values (61, 2014, 'A', 502);</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <f t="shared" ref="A3:A8" si="1">A2+1</f>
+        <v>62</v>
+      </c>
+      <c r="B3">
+        <f t="shared" ref="B3:B8" si="2">B2</f>
+        <v>2014</v>
+      </c>
+      <c r="C3" t="s">
+        <v>12</v>
+      </c>
+      <c r="D3">
+        <v>503</v>
+      </c>
+      <c r="G3" t="str">
+        <f t="shared" si="0"/>
+        <v>insert into group_stage (id, tournament, group_code, squad) values (62, 2014, 'A', 503);</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <f t="shared" si="1"/>
+        <v>63</v>
+      </c>
+      <c r="B4">
+        <f t="shared" si="2"/>
+        <v>2014</v>
+      </c>
+      <c r="C4" t="s">
+        <v>12</v>
+      </c>
+      <c r="D4">
+        <v>504</v>
+      </c>
+      <c r="G4" t="str">
+        <f t="shared" si="0"/>
+        <v>insert into group_stage (id, tournament, group_code, squad) values (63, 2014, 'A', 504);</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <f t="shared" si="1"/>
+        <v>64</v>
+      </c>
+      <c r="B5">
+        <f t="shared" si="2"/>
+        <v>2014</v>
+      </c>
+      <c r="C5" t="s">
+        <v>12</v>
+      </c>
+      <c r="D5">
+        <v>501</v>
+      </c>
+      <c r="G5" t="str">
+        <f t="shared" si="0"/>
+        <v>insert into group_stage (id, tournament, group_code, squad) values (64, 2014, 'A', 501);</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <f t="shared" si="1"/>
+        <v>65</v>
+      </c>
+      <c r="B6">
+        <f t="shared" si="2"/>
+        <v>2014</v>
+      </c>
+      <c r="C6" t="s">
+        <v>13</v>
+      </c>
+      <c r="D6">
+        <v>506</v>
+      </c>
+      <c r="G6" t="str">
+        <f t="shared" si="0"/>
+        <v>insert into group_stage (id, tournament, group_code, squad) values (65, 2014, 'B', 506);</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <f t="shared" si="1"/>
+        <v>66</v>
+      </c>
+      <c r="B7">
+        <f t="shared" si="2"/>
+        <v>2014</v>
+      </c>
+      <c r="C7" t="s">
+        <v>13</v>
+      </c>
+      <c r="D7">
+        <v>507</v>
+      </c>
+      <c r="G7" t="str">
+        <f t="shared" si="0"/>
+        <v>insert into group_stage (id, tournament, group_code, squad) values (66, 2014, 'B', 507);</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <f t="shared" si="1"/>
+        <v>67</v>
+      </c>
+      <c r="B8">
+        <f t="shared" si="2"/>
+        <v>2014</v>
+      </c>
+      <c r="C8" t="s">
+        <v>13</v>
+      </c>
+      <c r="D8">
+        <v>505</v>
+      </c>
+      <c r="G8" t="str">
+        <f t="shared" si="0"/>
+        <v>insert into group_stage (id, tournament, group_code, squad) values (67, 2014, 'B', 505);</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A10" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="G10" t="str">
+        <f>"insert into game (matchid, matchdate, game_type, country) values (" &amp; A10 &amp; ", '" &amp; B10 &amp; "', " &amp; C10 &amp; ", " &amp; D10 &amp;  ");"</f>
+        <v>insert into game (matchid, matchdate, game_type, country) values (matchid, 'matchdate', game_type, country);</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <f>'2013'!A24+1</f>
+        <v>158</v>
+      </c>
+      <c r="B11" s="2" t="str">
+        <f>"2014-09-03"</f>
+        <v>2014-09-03</v>
+      </c>
+      <c r="C11">
+        <v>2</v>
+      </c>
+      <c r="D11">
+        <v>1</v>
+      </c>
+      <c r="G11" t="str">
+        <f t="shared" ref="G11:G22" si="3">"insert into game (matchid, matchdate, game_type, country) values (" &amp; A11 &amp; ", '" &amp; B11 &amp; "', " &amp; C11 &amp; ", " &amp; D11 &amp;  ");"</f>
+        <v>insert into game (matchid, matchdate, game_type, country) values (158, '2014-09-03', 2, 1);</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <f>A11+1</f>
+        <v>159</v>
+      </c>
+      <c r="B12" s="2" t="str">
+        <f>"2014-09-03"</f>
+        <v>2014-09-03</v>
+      </c>
+      <c r="C12">
+        <v>2</v>
+      </c>
+      <c r="D12">
+        <v>1</v>
+      </c>
+      <c r="G12" t="str">
+        <f t="shared" si="3"/>
+        <v>insert into game (matchid, matchdate, game_type, country) values (159, '2014-09-03', 2, 1);</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <f t="shared" ref="A13:A22" si="4">A12+1</f>
+        <v>160</v>
+      </c>
+      <c r="B13" s="2" t="str">
+        <f>"2014-09-07"</f>
+        <v>2014-09-07</v>
+      </c>
+      <c r="C13">
+        <v>2</v>
+      </c>
+      <c r="D13">
+        <v>1</v>
+      </c>
+      <c r="G13" t="str">
+        <f t="shared" si="3"/>
+        <v>insert into game (matchid, matchdate, game_type, country) values (160, '2014-09-07', 2, 1);</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <f t="shared" si="4"/>
+        <v>161</v>
+      </c>
+      <c r="B14" s="2" t="str">
+        <f>"2014-09-07"</f>
+        <v>2014-09-07</v>
+      </c>
+      <c r="C14">
+        <v>2</v>
+      </c>
+      <c r="D14">
+        <v>1</v>
+      </c>
+      <c r="G14" t="str">
+        <f t="shared" si="3"/>
+        <v>insert into game (matchid, matchdate, game_type, country) values (161, '2014-09-07', 2, 1);</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <f t="shared" si="4"/>
+        <v>162</v>
+      </c>
+      <c r="B15" s="2" t="str">
+        <f>"2014-09-10"</f>
+        <v>2014-09-10</v>
+      </c>
+      <c r="C15">
+        <v>2</v>
+      </c>
+      <c r="D15">
+        <v>1</v>
+      </c>
+      <c r="G15" t="str">
+        <f t="shared" si="3"/>
+        <v>insert into game (matchid, matchdate, game_type, country) values (162, '2014-09-10', 2, 1);</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <f t="shared" si="4"/>
+        <v>163</v>
+      </c>
+      <c r="B16" s="2" t="str">
+        <f>"2014-09-10"</f>
+        <v>2014-09-10</v>
+      </c>
+      <c r="C16">
+        <v>2</v>
+      </c>
+      <c r="D16">
+        <v>1</v>
+      </c>
+      <c r="G16" t="str">
+        <f t="shared" si="3"/>
+        <v>insert into game (matchid, matchdate, game_type, country) values (163, '2014-09-10', 2, 1);</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <f t="shared" si="4"/>
+        <v>164</v>
+      </c>
+      <c r="B17" s="2" t="str">
+        <f>"2014-09-03"</f>
+        <v>2014-09-03</v>
+      </c>
+      <c r="C17">
+        <v>2</v>
+      </c>
+      <c r="D17">
+        <v>1</v>
+      </c>
+      <c r="G17" t="str">
+        <f t="shared" si="3"/>
+        <v>insert into game (matchid, matchdate, game_type, country) values (164, '2014-09-03', 2, 1);</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A18">
+        <f t="shared" si="4"/>
+        <v>165</v>
+      </c>
+      <c r="B18" s="2" t="str">
+        <f>"2014-09-07"</f>
+        <v>2014-09-07</v>
+      </c>
+      <c r="C18">
+        <v>2</v>
+      </c>
+      <c r="D18">
+        <v>1</v>
+      </c>
+      <c r="G18" t="str">
+        <f t="shared" si="3"/>
+        <v>insert into game (matchid, matchdate, game_type, country) values (165, '2014-09-07', 2, 1);</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A19">
+        <f t="shared" si="4"/>
+        <v>166</v>
+      </c>
+      <c r="B19" s="2" t="str">
+        <f>"2014-09-10"</f>
+        <v>2014-09-10</v>
+      </c>
+      <c r="C19">
+        <v>2</v>
+      </c>
+      <c r="D19">
+        <v>1</v>
+      </c>
+      <c r="G19" t="str">
+        <f t="shared" si="3"/>
+        <v>insert into game (matchid, matchdate, game_type, country) values (166, '2014-09-10', 2, 1);</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A20">
+        <f t="shared" si="4"/>
+        <v>167</v>
+      </c>
+      <c r="B20" s="2" t="str">
+        <f>"2014-09-13"</f>
+        <v>2014-09-13</v>
+      </c>
+      <c r="C20">
+        <v>24</v>
+      </c>
+      <c r="D20">
+        <v>1</v>
+      </c>
+      <c r="G20" t="str">
+        <f t="shared" si="3"/>
+        <v>insert into game (matchid, matchdate, game_type, country) values (167, '2014-09-13', 24, 1);</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A21">
+        <f t="shared" si="4"/>
+        <v>168</v>
+      </c>
+      <c r="B21" s="2" t="str">
+        <f>"2014-09-13"</f>
+        <v>2014-09-13</v>
+      </c>
+      <c r="C21">
+        <v>5</v>
+      </c>
+      <c r="D21">
+        <v>1</v>
+      </c>
+      <c r="G21" t="str">
+        <f t="shared" si="3"/>
+        <v>insert into game (matchid, matchdate, game_type, country) values (168, '2014-09-13', 5, 1);</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A22">
+        <f t="shared" si="4"/>
+        <v>169</v>
+      </c>
+      <c r="B22" s="2" t="str">
+        <f>"2014-09-13"</f>
+        <v>2014-09-13</v>
+      </c>
+      <c r="C22">
+        <v>6</v>
+      </c>
+      <c r="D22">
+        <v>1</v>
+      </c>
+      <c r="G22" t="str">
+        <f t="shared" si="3"/>
+        <v>insert into game (matchid, matchdate, game_type, country) values (169, '2014-09-13', 6, 1);</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A24" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C24" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D24" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E24" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F24" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G24" t="str">
+        <f>"insert into game_score (id, matchid, squad, goals, points, time_type) values (" &amp; A24 &amp; ", " &amp; B24 &amp; ", " &amp; C24 &amp; ", " &amp; D24 &amp; ", " &amp; E24 &amp; ", " &amp; F24 &amp; ");"</f>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (id, matchid, squad, goals, points, time_type);</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A25" s="3">
+        <f>'2013'!A82 + 1</f>
+        <v>641</v>
+      </c>
+      <c r="B25" s="3">
+        <f>A11</f>
+        <v>158</v>
+      </c>
+      <c r="C25" s="3">
+        <v>504</v>
+      </c>
+      <c r="D25" s="3">
+        <v>2</v>
+      </c>
+      <c r="E25" s="3">
+        <v>3</v>
+      </c>
+      <c r="F25" s="3">
+        <v>2</v>
+      </c>
+      <c r="G25" s="3" t="str">
+        <f t="shared" ref="G25:G72" si="5">"insert into game_score (id, matchid, squad, goals, points, time_type) values (" &amp; A25 &amp; ", " &amp; B25 &amp; ", " &amp; C25 &amp; ", " &amp; D25 &amp; ", " &amp; E25 &amp; ", " &amp; F25 &amp; ");"</f>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (641, 158, 504, 2, 3, 2);</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A26" s="3">
+        <f>A25+1</f>
+        <v>642</v>
+      </c>
+      <c r="B26" s="3">
+        <f>B25</f>
+        <v>158</v>
+      </c>
+      <c r="C26" s="3">
+        <v>504</v>
+      </c>
+      <c r="D26" s="3">
+        <v>2</v>
+      </c>
+      <c r="E26" s="3">
+        <v>0</v>
+      </c>
+      <c r="F26" s="3">
+        <v>1</v>
+      </c>
+      <c r="G26" s="3" t="str">
+        <f t="shared" si="5"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (642, 158, 504, 2, 0, 1);</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A27" s="3">
+        <f t="shared" ref="A27:A72" si="6">A26+1</f>
+        <v>643</v>
+      </c>
+      <c r="B27" s="3">
+        <f>B25</f>
+        <v>158</v>
+      </c>
+      <c r="C27" s="3">
+        <v>501</v>
+      </c>
+      <c r="D27" s="3">
+        <v>0</v>
+      </c>
+      <c r="E27" s="3">
+        <v>0</v>
+      </c>
+      <c r="F27" s="3">
+        <v>2</v>
+      </c>
+      <c r="G27" s="3" t="str">
+        <f t="shared" si="5"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (643, 158, 501, 0, 0, 2);</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A28" s="3">
+        <f t="shared" si="6"/>
+        <v>644</v>
+      </c>
+      <c r="B28" s="3">
+        <f>B25</f>
+        <v>158</v>
+      </c>
+      <c r="C28" s="3">
+        <v>501</v>
+      </c>
+      <c r="D28" s="3">
+        <v>0</v>
+      </c>
+      <c r="E28" s="3">
+        <v>0</v>
+      </c>
+      <c r="F28" s="3">
+        <v>1</v>
+      </c>
+      <c r="G28" s="3" t="str">
+        <f t="shared" si="5"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (644, 158, 501, 0, 0, 1);</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A29" s="4">
+        <f>A28+1</f>
+        <v>645</v>
+      </c>
+      <c r="B29" s="4">
+        <f>B25+1</f>
+        <v>159</v>
+      </c>
+      <c r="C29" s="4">
+        <v>503</v>
+      </c>
+      <c r="D29" s="4">
+        <v>1</v>
+      </c>
+      <c r="E29" s="4">
+        <v>0</v>
+      </c>
+      <c r="F29" s="4">
+        <v>2</v>
+      </c>
+      <c r="G29" t="str">
+        <f t="shared" si="5"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (645, 159, 503, 1, 0, 2);</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A30" s="4">
+        <f t="shared" si="6"/>
+        <v>646</v>
+      </c>
+      <c r="B30" s="4">
+        <f>B29</f>
+        <v>159</v>
+      </c>
+      <c r="C30" s="4">
+        <v>503</v>
+      </c>
+      <c r="D30" s="4">
+        <v>0</v>
+      </c>
+      <c r="E30" s="4">
+        <v>0</v>
+      </c>
+      <c r="F30" s="4">
+        <v>1</v>
+      </c>
+      <c r="G30" t="str">
+        <f t="shared" si="5"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (646, 159, 503, 0, 0, 1);</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A31" s="4">
+        <f t="shared" si="6"/>
+        <v>647</v>
+      </c>
+      <c r="B31" s="4">
+        <f>B29</f>
+        <v>159</v>
+      </c>
+      <c r="C31" s="4">
+        <v>502</v>
+      </c>
+      <c r="D31" s="4">
+        <v>2</v>
+      </c>
+      <c r="E31" s="4">
+        <v>3</v>
+      </c>
+      <c r="F31" s="4">
+        <v>2</v>
+      </c>
+      <c r="G31" t="str">
+        <f t="shared" si="5"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (647, 159, 502, 2, 3, 2);</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A32" s="4">
+        <f t="shared" si="6"/>
+        <v>648</v>
+      </c>
+      <c r="B32" s="4">
+        <f>B29</f>
+        <v>159</v>
+      </c>
+      <c r="C32" s="4">
+        <v>502</v>
+      </c>
+      <c r="D32" s="4">
+        <v>1</v>
+      </c>
+      <c r="E32" s="4">
+        <v>0</v>
+      </c>
+      <c r="F32" s="4">
+        <v>1</v>
+      </c>
+      <c r="G32" t="str">
+        <f t="shared" si="5"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (648, 159, 502, 1, 0, 1);</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A33" s="3">
+        <f t="shared" si="6"/>
+        <v>649</v>
+      </c>
+      <c r="B33" s="3">
+        <f>B29+1</f>
+        <v>160</v>
+      </c>
+      <c r="C33" s="3">
+        <v>502</v>
+      </c>
+      <c r="D33" s="3">
+        <v>2</v>
+      </c>
+      <c r="E33" s="3">
+        <v>3</v>
+      </c>
+      <c r="F33" s="3">
+        <v>2</v>
+      </c>
+      <c r="G33" s="3" t="str">
+        <f t="shared" si="5"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (649, 160, 502, 2, 3, 2);</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A34" s="3">
+        <f t="shared" si="6"/>
+        <v>650</v>
+      </c>
+      <c r="B34" s="3">
+        <f>B33</f>
+        <v>160</v>
+      </c>
+      <c r="C34" s="3">
+        <v>502</v>
+      </c>
+      <c r="D34" s="3">
+        <v>1</v>
+      </c>
+      <c r="E34" s="3">
+        <v>0</v>
+      </c>
+      <c r="F34" s="3">
+        <v>1</v>
+      </c>
+      <c r="G34" s="3" t="str">
+        <f t="shared" si="5"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (650, 160, 502, 1, 0, 1);</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A35" s="3">
+        <f t="shared" si="6"/>
+        <v>651</v>
+      </c>
+      <c r="B35" s="3">
+        <f>B33</f>
+        <v>160</v>
+      </c>
+      <c r="C35" s="3">
+        <v>501</v>
+      </c>
+      <c r="D35" s="3">
+        <v>1</v>
+      </c>
+      <c r="E35" s="3">
+        <v>0</v>
+      </c>
+      <c r="F35" s="3">
+        <v>2</v>
+      </c>
+      <c r="G35" s="3" t="str">
+        <f t="shared" si="5"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (651, 160, 501, 1, 0, 2);</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A36" s="3">
+        <f t="shared" si="6"/>
+        <v>652</v>
+      </c>
+      <c r="B36" s="3">
+        <f t="shared" ref="B36" si="7">B33</f>
+        <v>160</v>
+      </c>
+      <c r="C36" s="3">
+        <v>501</v>
+      </c>
+      <c r="D36" s="3">
+        <v>0</v>
+      </c>
+      <c r="E36" s="3">
+        <v>0</v>
+      </c>
+      <c r="F36" s="3">
+        <v>1</v>
+      </c>
+      <c r="G36" s="3" t="str">
+        <f t="shared" si="5"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (652, 160, 501, 0, 0, 1);</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A37" s="4">
+        <f t="shared" si="6"/>
+        <v>653</v>
+      </c>
+      <c r="B37" s="4">
+        <f>B33+1</f>
+        <v>161</v>
+      </c>
+      <c r="C37" s="4">
+        <v>504</v>
+      </c>
+      <c r="D37" s="4">
+        <v>0</v>
+      </c>
+      <c r="E37" s="4">
+        <v>0</v>
+      </c>
+      <c r="F37" s="4">
+        <v>2</v>
+      </c>
+      <c r="G37" s="4" t="str">
+        <f t="shared" si="5"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (653, 161, 504, 0, 0, 2);</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A38" s="4">
+        <f t="shared" si="6"/>
+        <v>654</v>
+      </c>
+      <c r="B38" s="4">
+        <f>B37</f>
+        <v>161</v>
+      </c>
+      <c r="C38" s="4">
+        <v>504</v>
+      </c>
+      <c r="D38" s="4">
+        <v>0</v>
+      </c>
+      <c r="E38" s="4">
+        <v>0</v>
+      </c>
+      <c r="F38" s="4">
+        <v>1</v>
+      </c>
+      <c r="G38" s="4" t="str">
+        <f t="shared" si="5"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (654, 161, 504, 0, 0, 1);</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A39" s="4">
+        <f t="shared" si="6"/>
+        <v>655</v>
+      </c>
+      <c r="B39" s="4">
+        <f>B37</f>
+        <v>161</v>
+      </c>
+      <c r="C39" s="4">
+        <v>503</v>
+      </c>
+      <c r="D39" s="4">
+        <v>1</v>
+      </c>
+      <c r="E39" s="4">
+        <v>3</v>
+      </c>
+      <c r="F39" s="4">
+        <v>2</v>
+      </c>
+      <c r="G39" s="4" t="str">
+        <f t="shared" si="5"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (655, 161, 503, 1, 3, 2);</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A40" s="4">
+        <f t="shared" si="6"/>
+        <v>656</v>
+      </c>
+      <c r="B40" s="4">
+        <f t="shared" ref="B40" si="8">B37</f>
+        <v>161</v>
+      </c>
+      <c r="C40" s="4">
+        <v>503</v>
+      </c>
+      <c r="D40" s="4">
+        <v>0</v>
+      </c>
+      <c r="E40" s="4">
+        <v>0</v>
+      </c>
+      <c r="F40" s="4">
+        <v>1</v>
+      </c>
+      <c r="G40" s="4" t="str">
+        <f t="shared" si="5"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (656, 161, 503, 0, 0, 1);</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A41" s="3">
+        <f t="shared" si="6"/>
+        <v>657</v>
+      </c>
+      <c r="B41" s="3">
+        <f>B37+1</f>
+        <v>162</v>
+      </c>
+      <c r="C41" s="3">
+        <v>503</v>
+      </c>
+      <c r="D41" s="3">
+        <v>2</v>
+      </c>
+      <c r="E41" s="3">
+        <v>3</v>
+      </c>
+      <c r="F41" s="3">
+        <v>2</v>
+      </c>
+      <c r="G41" s="3" t="str">
+        <f t="shared" si="5"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (657, 162, 503, 2, 3, 2);</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A42" s="3">
+        <f t="shared" si="6"/>
+        <v>658</v>
+      </c>
+      <c r="B42" s="3">
+        <f>B41</f>
+        <v>162</v>
+      </c>
+      <c r="C42" s="3">
+        <v>503</v>
+      </c>
+      <c r="D42" s="3">
+        <v>0</v>
+      </c>
+      <c r="E42" s="3">
+        <v>0</v>
+      </c>
+      <c r="F42" s="3">
+        <v>1</v>
+      </c>
+      <c r="G42" s="3" t="str">
+        <f t="shared" si="5"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (658, 162, 503, 0, 0, 1);</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A43" s="3">
+        <f t="shared" si="6"/>
+        <v>659</v>
+      </c>
+      <c r="B43" s="3">
+        <f>B41</f>
+        <v>162</v>
+      </c>
+      <c r="C43" s="3">
+        <v>501</v>
+      </c>
+      <c r="D43" s="3">
+        <v>0</v>
+      </c>
+      <c r="E43" s="3">
+        <v>0</v>
+      </c>
+      <c r="F43" s="3">
+        <v>2</v>
+      </c>
+      <c r="G43" s="3" t="str">
+        <f t="shared" si="5"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (659, 162, 501, 0, 0, 2);</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A44" s="3">
+        <f t="shared" si="6"/>
+        <v>660</v>
+      </c>
+      <c r="B44" s="3">
+        <f t="shared" ref="B44" si="9">B41</f>
+        <v>162</v>
+      </c>
+      <c r="C44" s="3">
+        <v>501</v>
+      </c>
+      <c r="D44" s="3">
+        <v>0</v>
+      </c>
+      <c r="E44" s="3">
+        <v>0</v>
+      </c>
+      <c r="F44" s="3">
+        <v>1</v>
+      </c>
+      <c r="G44" s="3" t="str">
+        <f t="shared" si="5"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (660, 162, 501, 0, 0, 1);</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A45" s="4">
+        <f t="shared" si="6"/>
+        <v>661</v>
+      </c>
+      <c r="B45" s="4">
+        <f>B41+1</f>
+        <v>163</v>
+      </c>
+      <c r="C45" s="4">
+        <v>504</v>
+      </c>
+      <c r="D45" s="4">
+        <v>0</v>
+      </c>
+      <c r="E45" s="4">
+        <v>0</v>
+      </c>
+      <c r="F45" s="4">
+        <v>2</v>
+      </c>
+      <c r="G45" s="4" t="str">
+        <f t="shared" si="5"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (661, 163, 504, 0, 0, 2);</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A46" s="4">
+        <f t="shared" si="6"/>
+        <v>662</v>
+      </c>
+      <c r="B46" s="4">
+        <f>B45</f>
+        <v>163</v>
+      </c>
+      <c r="C46" s="4">
+        <v>504</v>
+      </c>
+      <c r="D46" s="4">
+        <v>0</v>
+      </c>
+      <c r="E46" s="4">
+        <v>0</v>
+      </c>
+      <c r="F46" s="4">
+        <v>1</v>
+      </c>
+      <c r="G46" s="4" t="str">
+        <f t="shared" si="5"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (662, 163, 504, 0, 0, 1);</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A47" s="4">
+        <f t="shared" si="6"/>
+        <v>663</v>
+      </c>
+      <c r="B47" s="4">
+        <f>B45</f>
+        <v>163</v>
+      </c>
+      <c r="C47" s="4">
+        <v>502</v>
+      </c>
+      <c r="D47" s="4">
+        <v>2</v>
+      </c>
+      <c r="E47" s="4">
+        <v>3</v>
+      </c>
+      <c r="F47" s="4">
+        <v>2</v>
+      </c>
+      <c r="G47" s="4" t="str">
+        <f t="shared" si="5"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (663, 163, 502, 2, 3, 2);</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A48" s="4">
+        <f t="shared" si="6"/>
+        <v>664</v>
+      </c>
+      <c r="B48" s="4">
+        <f t="shared" ref="B48" si="10">B45</f>
+        <v>163</v>
+      </c>
+      <c r="C48" s="4">
+        <v>502</v>
+      </c>
+      <c r="D48" s="4">
+        <v>1</v>
+      </c>
+      <c r="E48" s="4">
+        <v>0</v>
+      </c>
+      <c r="F48" s="4">
+        <v>1</v>
+      </c>
+      <c r="G48" s="4" t="str">
+        <f t="shared" si="5"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (664, 163, 502, 1, 0, 1);</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A49" s="3">
+        <f t="shared" si="6"/>
+        <v>665</v>
+      </c>
+      <c r="B49" s="3">
+        <f>B45+1</f>
+        <v>164</v>
+      </c>
+      <c r="C49" s="3">
+        <v>506</v>
+      </c>
+      <c r="D49" s="3">
+        <v>3</v>
+      </c>
+      <c r="E49" s="3">
+        <v>3</v>
+      </c>
+      <c r="F49" s="3">
+        <v>2</v>
+      </c>
+      <c r="G49" s="3" t="str">
+        <f t="shared" si="5"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (665, 164, 506, 3, 3, 2);</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A50" s="3">
+        <f t="shared" si="6"/>
+        <v>666</v>
+      </c>
+      <c r="B50" s="3">
+        <f>B49</f>
+        <v>164</v>
+      </c>
+      <c r="C50" s="3">
+        <v>506</v>
+      </c>
+      <c r="D50" s="3">
+        <v>1</v>
+      </c>
+      <c r="E50" s="3">
+        <v>0</v>
+      </c>
+      <c r="F50" s="3">
+        <v>1</v>
+      </c>
+      <c r="G50" s="3" t="str">
+        <f t="shared" si="5"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (666, 164, 506, 1, 0, 1);</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A51" s="3">
+        <f t="shared" si="6"/>
+        <v>667</v>
+      </c>
+      <c r="B51" s="3">
+        <f>B49</f>
+        <v>164</v>
+      </c>
+      <c r="C51" s="3">
+        <v>505</v>
+      </c>
+      <c r="D51" s="3">
+        <v>0</v>
+      </c>
+      <c r="E51" s="3">
+        <v>0</v>
+      </c>
+      <c r="F51" s="3">
+        <v>2</v>
+      </c>
+      <c r="G51" s="3" t="str">
+        <f t="shared" si="5"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (667, 164, 505, 0, 0, 2);</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A52" s="3">
+        <f t="shared" si="6"/>
+        <v>668</v>
+      </c>
+      <c r="B52" s="3">
+        <f t="shared" ref="B52" si="11">B49</f>
+        <v>164</v>
+      </c>
+      <c r="C52" s="3">
+        <v>505</v>
+      </c>
+      <c r="D52" s="3">
+        <v>0</v>
+      </c>
+      <c r="E52" s="3">
+        <v>0</v>
+      </c>
+      <c r="F52" s="3">
+        <v>1</v>
+      </c>
+      <c r="G52" s="3" t="str">
+        <f t="shared" si="5"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (668, 164, 505, 0, 0, 1);</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A53" s="4">
+        <f t="shared" si="6"/>
+        <v>669</v>
+      </c>
+      <c r="B53" s="4">
+        <f>B49+1</f>
+        <v>165</v>
+      </c>
+      <c r="C53" s="4">
+        <v>506</v>
+      </c>
+      <c r="D53" s="4">
+        <v>2</v>
+      </c>
+      <c r="E53" s="4">
+        <v>1</v>
+      </c>
+      <c r="F53" s="4">
+        <v>2</v>
+      </c>
+      <c r="G53" s="4" t="str">
+        <f t="shared" si="5"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (669, 165, 506, 2, 1, 2);</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A54" s="4">
+        <f t="shared" si="6"/>
+        <v>670</v>
+      </c>
+      <c r="B54" s="4">
+        <f>B53</f>
+        <v>165</v>
+      </c>
+      <c r="C54" s="4">
+        <v>506</v>
+      </c>
+      <c r="D54" s="4">
+        <v>0</v>
+      </c>
+      <c r="E54" s="4">
+        <v>0</v>
+      </c>
+      <c r="F54" s="4">
+        <v>1</v>
+      </c>
+      <c r="G54" s="4" t="str">
+        <f t="shared" si="5"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (670, 165, 506, 0, 0, 1);</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A55" s="4">
+        <f t="shared" si="6"/>
+        <v>671</v>
+      </c>
+      <c r="B55" s="4">
+        <f>B53</f>
+        <v>165</v>
+      </c>
+      <c r="C55" s="4">
+        <v>507</v>
+      </c>
+      <c r="D55" s="4">
+        <v>2</v>
+      </c>
+      <c r="E55" s="4">
+        <v>1</v>
+      </c>
+      <c r="F55" s="4">
+        <v>2</v>
+      </c>
+      <c r="G55" s="4" t="str">
+        <f t="shared" si="5"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (671, 165, 507, 2, 1, 2);</v>
+      </c>
+    </row>
+    <row r="56" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A56" s="4">
+        <f t="shared" si="6"/>
+        <v>672</v>
+      </c>
+      <c r="B56" s="4">
+        <f t="shared" ref="B56" si="12">B53</f>
+        <v>165</v>
+      </c>
+      <c r="C56" s="4">
+        <v>507</v>
+      </c>
+      <c r="D56" s="4">
+        <v>0</v>
+      </c>
+      <c r="E56" s="4">
+        <v>0</v>
+      </c>
+      <c r="F56" s="4">
+        <v>1</v>
+      </c>
+      <c r="G56" s="4" t="str">
+        <f t="shared" si="5"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (672, 165, 507, 0, 0, 1);</v>
+      </c>
+    </row>
+    <row r="57" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A57" s="3">
+        <f t="shared" si="6"/>
+        <v>673</v>
+      </c>
+      <c r="B57" s="3">
+        <f>B53+1</f>
+        <v>166</v>
+      </c>
+      <c r="C57" s="3">
+        <v>507</v>
+      </c>
+      <c r="D57" s="3">
+        <v>2</v>
+      </c>
+      <c r="E57" s="3">
+        <v>3</v>
+      </c>
+      <c r="F57" s="3">
+        <v>2</v>
+      </c>
+      <c r="G57" s="3" t="str">
+        <f t="shared" si="5"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (673, 166, 507, 2, 3, 2);</v>
+      </c>
+    </row>
+    <row r="58" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A58" s="3">
+        <f t="shared" si="6"/>
+        <v>674</v>
+      </c>
+      <c r="B58" s="3">
+        <f>B57</f>
+        <v>166</v>
+      </c>
+      <c r="C58" s="3">
+        <v>507</v>
+      </c>
+      <c r="D58" s="3">
+        <v>0</v>
+      </c>
+      <c r="E58" s="3">
+        <v>0</v>
+      </c>
+      <c r="F58" s="3">
+        <v>1</v>
+      </c>
+      <c r="G58" s="3" t="str">
+        <f t="shared" si="5"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (674, 166, 507, 0, 0, 1);</v>
+      </c>
+    </row>
+    <row r="59" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A59" s="3">
+        <f t="shared" si="6"/>
+        <v>675</v>
+      </c>
+      <c r="B59" s="3">
+        <f>B57</f>
+        <v>166</v>
+      </c>
+      <c r="C59" s="3">
+        <v>505</v>
+      </c>
+      <c r="D59" s="3">
+        <v>0</v>
+      </c>
+      <c r="E59" s="3">
+        <v>0</v>
+      </c>
+      <c r="F59" s="3">
+        <v>2</v>
+      </c>
+      <c r="G59" s="3" t="str">
+        <f t="shared" si="5"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (675, 166, 505, 0, 0, 2);</v>
+      </c>
+    </row>
+    <row r="60" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A60" s="3">
+        <f t="shared" si="6"/>
+        <v>676</v>
+      </c>
+      <c r="B60" s="3">
+        <f t="shared" ref="B60" si="13">B57</f>
+        <v>166</v>
+      </c>
+      <c r="C60" s="3">
+        <v>505</v>
+      </c>
+      <c r="D60" s="3">
+        <v>0</v>
+      </c>
+      <c r="E60" s="3">
+        <v>0</v>
+      </c>
+      <c r="F60" s="3">
+        <v>1</v>
+      </c>
+      <c r="G60" s="3" t="str">
+        <f t="shared" si="5"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (676, 166, 505, 0, 0, 1);</v>
+      </c>
+    </row>
+    <row r="61" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A61" s="4">
+        <f t="shared" si="6"/>
+        <v>677</v>
+      </c>
+      <c r="B61" s="4">
+        <f>B57+1</f>
+        <v>167</v>
+      </c>
+      <c r="C61" s="4">
+        <v>504</v>
+      </c>
+      <c r="D61" s="4">
+        <v>1</v>
+      </c>
+      <c r="E61" s="4">
+        <v>3</v>
+      </c>
+      <c r="F61" s="4">
+        <v>2</v>
+      </c>
+      <c r="G61" s="4" t="str">
+        <f t="shared" si="5"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (677, 167, 504, 1, 3, 2);</v>
+      </c>
+    </row>
+    <row r="62" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A62" s="4">
+        <f t="shared" si="6"/>
+        <v>678</v>
+      </c>
+      <c r="B62" s="4">
+        <f>B61</f>
+        <v>167</v>
+      </c>
+      <c r="C62" s="4">
+        <v>504</v>
+      </c>
+      <c r="D62" s="4">
+        <v>1</v>
+      </c>
+      <c r="E62" s="4">
+        <v>0</v>
+      </c>
+      <c r="F62" s="4">
+        <v>1</v>
+      </c>
+      <c r="G62" s="4" t="str">
+        <f t="shared" si="5"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (678, 167, 504, 1, 0, 1);</v>
+      </c>
+    </row>
+    <row r="63" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A63" s="4">
+        <f t="shared" si="6"/>
+        <v>679</v>
+      </c>
+      <c r="B63" s="4">
+        <f>B61</f>
+        <v>167</v>
+      </c>
+      <c r="C63" s="4">
+        <v>505</v>
+      </c>
+      <c r="D63" s="4">
+        <v>0</v>
+      </c>
+      <c r="E63" s="4">
+        <v>0</v>
+      </c>
+      <c r="F63" s="4">
+        <v>2</v>
+      </c>
+      <c r="G63" s="4" t="str">
+        <f t="shared" si="5"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (679, 167, 505, 0, 0, 2);</v>
+      </c>
+    </row>
+    <row r="64" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A64" s="4">
+        <f t="shared" si="6"/>
+        <v>680</v>
+      </c>
+      <c r="B64" s="4">
+        <f t="shared" ref="B64" si="14">B61</f>
+        <v>167</v>
+      </c>
+      <c r="C64" s="4">
+        <v>505</v>
+      </c>
+      <c r="D64" s="4">
+        <v>0</v>
+      </c>
+      <c r="E64" s="4">
+        <v>0</v>
+      </c>
+      <c r="F64" s="4">
+        <v>1</v>
+      </c>
+      <c r="G64" s="4" t="str">
+        <f t="shared" si="5"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (680, 167, 505, 0, 0, 1);</v>
+      </c>
+    </row>
+    <row r="65" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A65" s="3">
+        <f t="shared" si="6"/>
+        <v>681</v>
+      </c>
+      <c r="B65" s="3">
+        <f>B61+1</f>
+        <v>168</v>
+      </c>
+      <c r="C65" s="3">
+        <v>503</v>
+      </c>
+      <c r="D65" s="3">
+        <v>0</v>
+      </c>
+      <c r="E65" s="3">
+        <v>0</v>
+      </c>
+      <c r="F65" s="3">
+        <v>2</v>
+      </c>
+      <c r="G65" s="3" t="str">
+        <f t="shared" si="5"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (681, 168, 503, 0, 0, 2);</v>
+      </c>
+    </row>
+    <row r="66" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A66" s="3">
+        <f t="shared" si="6"/>
+        <v>682</v>
+      </c>
+      <c r="B66" s="3">
+        <f>B65</f>
+        <v>168</v>
+      </c>
+      <c r="C66" s="3">
+        <v>503</v>
+      </c>
+      <c r="D66" s="3">
+        <v>0</v>
+      </c>
+      <c r="E66" s="3">
+        <v>0</v>
+      </c>
+      <c r="F66" s="3">
+        <v>1</v>
+      </c>
+      <c r="G66" s="3" t="str">
+        <f t="shared" si="5"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (682, 168, 503, 0, 0, 1);</v>
+      </c>
+    </row>
+    <row r="67" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A67" s="3">
+        <f t="shared" si="6"/>
+        <v>683</v>
+      </c>
+      <c r="B67" s="3">
+        <f>B65</f>
+        <v>168</v>
+      </c>
+      <c r="C67" s="3">
+        <v>507</v>
+      </c>
+      <c r="D67" s="3">
+        <v>1</v>
+      </c>
+      <c r="E67" s="3">
+        <v>3</v>
+      </c>
+      <c r="F67" s="3">
+        <v>2</v>
+      </c>
+      <c r="G67" s="3" t="str">
+        <f t="shared" si="5"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (683, 168, 507, 1, 3, 2);</v>
+      </c>
+    </row>
+    <row r="68" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A68" s="3">
+        <f t="shared" si="6"/>
+        <v>684</v>
+      </c>
+      <c r="B68" s="3">
+        <f t="shared" ref="B68" si="15">B65</f>
+        <v>168</v>
+      </c>
+      <c r="C68" s="3">
+        <v>507</v>
+      </c>
+      <c r="D68" s="3">
+        <v>1</v>
+      </c>
+      <c r="E68" s="3">
+        <v>0</v>
+      </c>
+      <c r="F68" s="3">
+        <v>1</v>
+      </c>
+      <c r="G68" s="3" t="str">
+        <f t="shared" si="5"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (684, 168, 507, 1, 0, 1);</v>
+      </c>
+    </row>
+    <row r="69" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A69" s="4">
+        <f t="shared" si="6"/>
+        <v>685</v>
+      </c>
+      <c r="B69" s="4">
+        <f>B65+1</f>
+        <v>169</v>
+      </c>
+      <c r="C69" s="4">
+        <v>502</v>
+      </c>
+      <c r="D69" s="4">
+        <v>1</v>
+      </c>
+      <c r="E69" s="4">
+        <v>0</v>
+      </c>
+      <c r="F69" s="4">
+        <v>2</v>
+      </c>
+      <c r="G69" s="4" t="str">
+        <f t="shared" si="5"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (685, 169, 502, 1, 0, 2);</v>
+      </c>
+    </row>
+    <row r="70" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A70" s="4">
+        <f t="shared" si="6"/>
+        <v>686</v>
+      </c>
+      <c r="B70" s="4">
+        <f>B69</f>
+        <v>169</v>
+      </c>
+      <c r="C70" s="4">
+        <v>502</v>
+      </c>
+      <c r="D70" s="4">
+        <v>1</v>
+      </c>
+      <c r="E70" s="4">
+        <v>0</v>
+      </c>
+      <c r="F70" s="4">
+        <v>1</v>
+      </c>
+      <c r="G70" s="4" t="str">
+        <f t="shared" si="5"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (686, 169, 502, 1, 0, 1);</v>
+      </c>
+    </row>
+    <row r="71" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A71" s="4">
+        <f t="shared" si="6"/>
+        <v>687</v>
+      </c>
+      <c r="B71" s="4">
+        <f>B69</f>
+        <v>169</v>
+      </c>
+      <c r="C71" s="4">
+        <v>506</v>
+      </c>
+      <c r="D71" s="4">
+        <v>2</v>
+      </c>
+      <c r="E71" s="4">
+        <v>3</v>
+      </c>
+      <c r="F71" s="4">
+        <v>2</v>
+      </c>
+      <c r="G71" s="4" t="str">
+        <f t="shared" si="5"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (687, 169, 506, 2, 3, 2);</v>
+      </c>
+    </row>
+    <row r="72" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A72" s="4">
+        <f t="shared" si="6"/>
+        <v>688</v>
+      </c>
+      <c r="B72" s="4">
+        <f t="shared" ref="B72" si="16">B69</f>
+        <v>169</v>
+      </c>
+      <c r="C72" s="4">
+        <v>506</v>
+      </c>
+      <c r="D72" s="4">
+        <v>1</v>
+      </c>
+      <c r="E72" s="4">
+        <v>0</v>
+      </c>
+      <c r="F72" s="4">
+        <v>1</v>
+      </c>
+      <c r="G72" s="4" t="str">
+        <f t="shared" si="5"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (688, 169, 506, 1, 0, 1);</v>
+      </c>
+    </row>
+    <row r="73" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A73" s="4"/>
+      <c r="B73" s="4"/>
+      <c r="C73" s="4"/>
+      <c r="D73" s="4"/>
+      <c r="E73" s="4"/>
+      <c r="F73" s="4"/>
+      <c r="G73" s="4"/>
+      <c r="H73" s="4"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:G78"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="9.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.85546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="7.42578125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="6.5703125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="111.140625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="G1" t="str">
+        <f>"insert into game (matchid, matchdate, game_type, country) values (" &amp; A1 &amp; ", '" &amp; B1 &amp; "', " &amp; C1 &amp; ", " &amp; D1 &amp;  ");"</f>
+        <v>insert into game (matchid, matchdate, game_type, country) values (matchid, 'matchdate', game_type, country);</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <f>'2014'!A22+1</f>
+        <v>170</v>
+      </c>
+      <c r="B2" s="2" t="str">
+        <f>"2017-01-13"</f>
+        <v>2017-01-13</v>
+      </c>
+      <c r="C2">
+        <v>2</v>
+      </c>
+      <c r="D2">
+        <v>507</v>
+      </c>
+      <c r="G2" t="str">
+        <f t="shared" ref="G2:G16" si="0">"insert into game (matchid, matchdate, game_type, country) values (" &amp; A2 &amp; ", '" &amp; B2 &amp; "', " &amp; C2 &amp; ", " &amp; D2 &amp;  ");"</f>
+        <v>insert into game (matchid, matchdate, game_type, country) values (170, '2017-01-13', 2, 507);</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <f>A2+1</f>
+        <v>171</v>
+      </c>
+      <c r="B3" s="2" t="str">
+        <f>"2017-01-13"</f>
+        <v>2017-01-13</v>
+      </c>
+      <c r="C3">
+        <v>2</v>
+      </c>
+      <c r="D3">
+        <v>507</v>
+      </c>
+      <c r="G3" t="str">
+        <f t="shared" si="0"/>
+        <v>insert into game (matchid, matchdate, game_type, country) values (171, '2017-01-13', 2, 507);</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <f t="shared" ref="A4:A16" si="1">A3+1</f>
+        <v>172</v>
+      </c>
+      <c r="B4" s="2" t="str">
+        <f>"2017-01-13"</f>
+        <v>2017-01-13</v>
+      </c>
+      <c r="C4">
+        <v>2</v>
+      </c>
+      <c r="D4">
+        <v>507</v>
+      </c>
+      <c r="G4" t="str">
+        <f t="shared" si="0"/>
+        <v>insert into game (matchid, matchdate, game_type, country) values (172, '2017-01-13', 2, 507);</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <f t="shared" si="1"/>
+        <v>173</v>
+      </c>
+      <c r="B5" s="2" t="str">
+        <f>"2017-01-15"</f>
+        <v>2017-01-15</v>
+      </c>
+      <c r="C5">
+        <v>2</v>
+      </c>
+      <c r="D5">
+        <v>507</v>
+      </c>
+      <c r="G5" t="str">
+        <f t="shared" si="0"/>
+        <v>insert into game (matchid, matchdate, game_type, country) values (173, '2017-01-15', 2, 507);</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <f t="shared" si="1"/>
+        <v>174</v>
+      </c>
+      <c r="B6" s="2" t="str">
+        <f>"2017-01-15"</f>
+        <v>2017-01-15</v>
+      </c>
+      <c r="C6">
+        <v>2</v>
+      </c>
+      <c r="D6">
+        <v>507</v>
+      </c>
+      <c r="G6" t="str">
+        <f t="shared" si="0"/>
+        <v>insert into game (matchid, matchdate, game_type, country) values (174, '2017-01-15', 2, 507);</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <f t="shared" si="1"/>
+        <v>175</v>
+      </c>
+      <c r="B7" s="2" t="str">
+        <f>"2017-01-15"</f>
+        <v>2017-01-15</v>
+      </c>
+      <c r="C7">
+        <v>2</v>
+      </c>
+      <c r="D7">
+        <v>507</v>
+      </c>
+      <c r="G7" t="str">
+        <f t="shared" si="0"/>
+        <v>insert into game (matchid, matchdate, game_type, country) values (175, '2017-01-15', 2, 507);</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <f t="shared" si="1"/>
+        <v>176</v>
+      </c>
+      <c r="B8" s="2" t="str">
+        <f>"2017-01-17"</f>
+        <v>2017-01-17</v>
+      </c>
+      <c r="C8">
+        <v>2</v>
+      </c>
+      <c r="D8">
+        <v>507</v>
+      </c>
+      <c r="G8" t="str">
+        <f t="shared" si="0"/>
+        <v>insert into game (matchid, matchdate, game_type, country) values (176, '2017-01-17', 2, 507);</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <f t="shared" si="1"/>
+        <v>177</v>
+      </c>
+      <c r="B9" s="2" t="str">
+        <f>"2017-01-17"</f>
+        <v>2017-01-17</v>
+      </c>
+      <c r="C9">
+        <v>2</v>
+      </c>
+      <c r="D9">
+        <v>507</v>
+      </c>
+      <c r="G9" t="str">
+        <f t="shared" si="0"/>
+        <v>insert into game (matchid, matchdate, game_type, country) values (177, '2017-01-17', 2, 507);</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <f t="shared" si="1"/>
+        <v>178</v>
+      </c>
+      <c r="B10" s="2" t="str">
+        <f>"2017-01-17"</f>
+        <v>2017-01-17</v>
+      </c>
+      <c r="C10">
+        <v>2</v>
+      </c>
+      <c r="D10">
+        <v>507</v>
+      </c>
+      <c r="G10" t="str">
+        <f t="shared" si="0"/>
+        <v>insert into game (matchid, matchdate, game_type, country) values (178, '2017-01-17', 2, 507);</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <f t="shared" si="1"/>
+        <v>179</v>
+      </c>
+      <c r="B11" s="2" t="str">
+        <f>"2017-01-20"</f>
+        <v>2017-01-20</v>
+      </c>
+      <c r="C11">
+        <v>2</v>
+      </c>
+      <c r="D11">
+        <v>507</v>
+      </c>
+      <c r="G11" t="str">
+        <f t="shared" si="0"/>
+        <v>insert into game (matchid, matchdate, game_type, country) values (179, '2017-01-20', 2, 507);</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <f t="shared" si="1"/>
+        <v>180</v>
+      </c>
+      <c r="B12" s="2" t="str">
+        <f>"2017-01-20"</f>
+        <v>2017-01-20</v>
+      </c>
+      <c r="C12">
+        <v>2</v>
+      </c>
+      <c r="D12">
+        <v>507</v>
+      </c>
+      <c r="G12" t="str">
+        <f t="shared" si="0"/>
+        <v>insert into game (matchid, matchdate, game_type, country) values (180, '2017-01-20', 2, 507);</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <f t="shared" si="1"/>
+        <v>181</v>
+      </c>
+      <c r="B13" s="2" t="str">
+        <f>"2017-01-20"</f>
+        <v>2017-01-20</v>
+      </c>
+      <c r="C13">
+        <v>2</v>
+      </c>
+      <c r="D13">
+        <v>507</v>
+      </c>
+      <c r="G13" t="str">
+        <f t="shared" si="0"/>
+        <v>insert into game (matchid, matchdate, game_type, country) values (181, '2017-01-20', 2, 507);</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <f t="shared" si="1"/>
+        <v>182</v>
+      </c>
+      <c r="B14" s="2" t="str">
+        <f>"2017-01-22"</f>
+        <v>2017-01-22</v>
+      </c>
+      <c r="C14">
+        <v>2</v>
+      </c>
+      <c r="D14">
+        <v>507</v>
+      </c>
+      <c r="G14" t="str">
+        <f t="shared" si="0"/>
+        <v>insert into game (matchid, matchdate, game_type, country) values (182, '2017-01-22', 2, 507);</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <f t="shared" si="1"/>
+        <v>183</v>
+      </c>
+      <c r="B15" s="2" t="str">
+        <f>"2017-01-22"</f>
+        <v>2017-01-22</v>
+      </c>
+      <c r="C15">
+        <v>2</v>
+      </c>
+      <c r="D15">
+        <v>507</v>
+      </c>
+      <c r="G15" t="str">
+        <f t="shared" si="0"/>
+        <v>insert into game (matchid, matchdate, game_type, country) values (183, '2017-01-22', 2, 507);</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <f t="shared" si="1"/>
+        <v>184</v>
+      </c>
+      <c r="B16" s="2" t="str">
+        <f>"2017-01-22"</f>
+        <v>2017-01-22</v>
+      </c>
+      <c r="C16">
+        <v>2</v>
+      </c>
+      <c r="D16">
+        <v>507</v>
+      </c>
+      <c r="G16" t="str">
+        <f t="shared" si="0"/>
+        <v>insert into game (matchid, matchdate, game_type, country) values (184, '2017-01-22', 2, 507);</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A18" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E18" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F18" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G18" t="str">
+        <f>"insert into game_score (id, matchid, squad, goals, points, time_type) values (" &amp; A18 &amp; ", " &amp; B18 &amp; ", " &amp; C18 &amp; ", " &amp; D18 &amp; ", " &amp; E18 &amp; ", " &amp; F18 &amp; ");"</f>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (id, matchid, squad, goals, points, time_type);</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A19" s="3">
+        <f>'2014'!A72 + 1</f>
+        <v>689</v>
+      </c>
+      <c r="B19" s="3">
+        <f>A2</f>
+        <v>170</v>
+      </c>
+      <c r="C19" s="3">
+        <v>504</v>
+      </c>
+      <c r="D19" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="E19" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="F19" s="3">
+        <v>2</v>
+      </c>
+      <c r="G19" s="3" t="str">
+        <f t="shared" ref="G19:G78" si="2">"insert into game_score (id, matchid, squad, goals, points, time_type) values (" &amp; A19 &amp; ", " &amp; B19 &amp; ", " &amp; C19 &amp; ", " &amp; D19 &amp; ", " &amp; E19 &amp; ", " &amp; F19 &amp; ");"</f>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (689, 170, 504, null, null, 2);</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A20" s="3">
+        <f>A19+1</f>
+        <v>690</v>
+      </c>
+      <c r="B20" s="3">
+        <f>B19</f>
+        <v>170</v>
+      </c>
+      <c r="C20" s="3">
+        <v>504</v>
+      </c>
+      <c r="D20" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="E20" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="F20" s="3">
+        <v>1</v>
+      </c>
+      <c r="G20" s="3" t="str">
+        <f t="shared" si="2"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (690, 170, 504, null, null, 1);</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A21" s="3">
+        <f t="shared" ref="A21:A78" si="3">A20+1</f>
+        <v>691</v>
+      </c>
+      <c r="B21" s="3">
+        <f>B19</f>
+        <v>170</v>
+      </c>
+      <c r="C21" s="3">
+        <v>505</v>
+      </c>
+      <c r="D21" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="E21" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="F21" s="3">
+        <v>2</v>
+      </c>
+      <c r="G21" s="3" t="str">
+        <f t="shared" si="2"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (691, 170, 505, null, null, 2);</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A22" s="3">
+        <f t="shared" si="3"/>
+        <v>692</v>
+      </c>
+      <c r="B22" s="3">
+        <f>B19</f>
+        <v>170</v>
+      </c>
+      <c r="C22" s="3">
+        <v>505</v>
+      </c>
+      <c r="D22" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="E22" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="F22" s="3">
+        <v>1</v>
+      </c>
+      <c r="G22" s="3" t="str">
+        <f t="shared" si="2"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (692, 170, 505, null, null, 1);</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A23" s="4">
+        <f>A22+1</f>
+        <v>693</v>
+      </c>
+      <c r="B23" s="4">
+        <f>B19+1</f>
+        <v>171</v>
+      </c>
+      <c r="C23" s="4">
+        <v>506</v>
+      </c>
+      <c r="D23" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="E23" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="F23" s="4">
+        <v>2</v>
+      </c>
+      <c r="G23" t="str">
+        <f t="shared" si="2"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (693, 171, 506, null, null, 2);</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A24" s="4">
+        <f t="shared" si="3"/>
+        <v>694</v>
+      </c>
+      <c r="B24" s="4">
+        <f>B23</f>
+        <v>171</v>
+      </c>
+      <c r="C24" s="4">
+        <v>506</v>
+      </c>
+      <c r="D24" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="E24" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="F24" s="4">
+        <v>1</v>
+      </c>
+      <c r="G24" t="str">
+        <f t="shared" si="2"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (694, 171, 506, null, null, 1);</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A25" s="4">
+        <f t="shared" si="3"/>
+        <v>695</v>
+      </c>
+      <c r="B25" s="4">
+        <f>B23</f>
+        <v>171</v>
+      </c>
+      <c r="C25" s="4">
+        <v>503</v>
+      </c>
+      <c r="D25" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="E25" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="F25" s="4">
+        <v>2</v>
+      </c>
+      <c r="G25" t="str">
+        <f t="shared" si="2"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (695, 171, 503, null, null, 2);</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A26" s="4">
+        <f t="shared" si="3"/>
+        <v>696</v>
+      </c>
+      <c r="B26" s="4">
+        <f>B23</f>
+        <v>171</v>
+      </c>
+      <c r="C26" s="4">
+        <v>503</v>
+      </c>
+      <c r="D26" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="E26" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="F26" s="4">
+        <v>1</v>
+      </c>
+      <c r="G26" t="str">
+        <f t="shared" si="2"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (696, 171, 503, null, null, 1);</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A27" s="3">
+        <f t="shared" si="3"/>
+        <v>697</v>
+      </c>
+      <c r="B27" s="3">
+        <f>B23+1</f>
+        <v>172</v>
+      </c>
+      <c r="C27" s="3">
+        <v>507</v>
+      </c>
+      <c r="D27" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="E27" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="F27" s="3">
+        <v>2</v>
+      </c>
+      <c r="G27" s="3" t="str">
+        <f t="shared" si="2"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (697, 172, 507, null, null, 2);</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A28" s="3">
+        <f t="shared" si="3"/>
+        <v>698</v>
+      </c>
+      <c r="B28" s="3">
+        <f>B27</f>
+        <v>172</v>
+      </c>
+      <c r="C28" s="3">
+        <v>507</v>
+      </c>
+      <c r="D28" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="E28" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="F28" s="3">
+        <v>1</v>
+      </c>
+      <c r="G28" s="3" t="str">
+        <f t="shared" si="2"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (698, 172, 507, null, null, 1);</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A29" s="3">
+        <f t="shared" si="3"/>
+        <v>699</v>
+      </c>
+      <c r="B29" s="3">
+        <f>B27</f>
+        <v>172</v>
+      </c>
+      <c r="C29" s="3">
+        <v>501</v>
+      </c>
+      <c r="D29" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="E29" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="F29" s="3">
+        <v>2</v>
+      </c>
+      <c r="G29" s="3" t="str">
+        <f t="shared" si="2"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (699, 172, 501, null, null, 2);</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A30" s="3">
+        <f t="shared" si="3"/>
+        <v>700</v>
+      </c>
+      <c r="B30" s="3">
+        <f t="shared" ref="B30" si="4">B27</f>
+        <v>172</v>
+      </c>
+      <c r="C30" s="3">
+        <v>501</v>
+      </c>
+      <c r="D30" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="E30" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="F30" s="3">
+        <v>1</v>
+      </c>
+      <c r="G30" s="3" t="str">
+        <f t="shared" si="2"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (700, 172, 501, null, null, 1);</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A31" s="4">
+        <f t="shared" si="3"/>
+        <v>701</v>
+      </c>
+      <c r="B31" s="4">
+        <f>B27+1</f>
+        <v>173</v>
+      </c>
+      <c r="C31" s="4">
+        <v>501</v>
+      </c>
+      <c r="D31" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="E31" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="F31" s="4">
+        <v>2</v>
+      </c>
+      <c r="G31" s="4" t="str">
+        <f t="shared" si="2"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (701, 173, 501, null, null, 2);</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A32" s="4">
+        <f t="shared" si="3"/>
+        <v>702</v>
+      </c>
+      <c r="B32" s="4">
+        <f>B31</f>
+        <v>173</v>
+      </c>
+      <c r="C32" s="4">
+        <v>501</v>
+      </c>
+      <c r="D32" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="E32" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="F32" s="4">
+        <v>1</v>
+      </c>
+      <c r="G32" s="4" t="str">
+        <f t="shared" si="2"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (702, 173, 501, null, null, 1);</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A33" s="4">
+        <f t="shared" si="3"/>
+        <v>703</v>
+      </c>
+      <c r="B33" s="4">
+        <f>B31</f>
+        <v>173</v>
+      </c>
+      <c r="C33" s="4">
+        <v>506</v>
+      </c>
+      <c r="D33" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="E33" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="F33" s="4">
+        <v>2</v>
+      </c>
+      <c r="G33" s="4" t="str">
+        <f t="shared" si="2"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (703, 173, 506, null, null, 2);</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A34" s="4">
+        <f t="shared" si="3"/>
+        <v>704</v>
+      </c>
+      <c r="B34" s="4">
+        <f t="shared" ref="B34" si="5">B31</f>
+        <v>173</v>
+      </c>
+      <c r="C34" s="4">
+        <v>506</v>
+      </c>
+      <c r="D34" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="E34" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="F34" s="4">
+        <v>1</v>
+      </c>
+      <c r="G34" s="4" t="str">
+        <f t="shared" si="2"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (704, 173, 506, null, null, 1);</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A35" s="3">
+        <f t="shared" si="3"/>
+        <v>705</v>
+      </c>
+      <c r="B35" s="3">
+        <f>B31+1</f>
+        <v>174</v>
+      </c>
+      <c r="C35" s="3">
+        <v>503</v>
+      </c>
+      <c r="D35" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="E35" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="F35" s="3">
+        <v>2</v>
+      </c>
+      <c r="G35" s="3" t="str">
+        <f t="shared" si="2"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (705, 174, 503, null, null, 2);</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A36" s="3">
+        <f t="shared" si="3"/>
+        <v>706</v>
+      </c>
+      <c r="B36" s="3">
+        <f>B35</f>
+        <v>174</v>
+      </c>
+      <c r="C36" s="3">
+        <v>503</v>
+      </c>
+      <c r="D36" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="E36" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="F36" s="3">
+        <v>1</v>
+      </c>
+      <c r="G36" s="3" t="str">
+        <f t="shared" si="2"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (706, 174, 503, null, null, 1);</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A37" s="3">
+        <f t="shared" si="3"/>
+        <v>707</v>
+      </c>
+      <c r="B37" s="3">
+        <f>B35</f>
+        <v>174</v>
+      </c>
+      <c r="C37" s="3">
+        <v>504</v>
+      </c>
+      <c r="D37" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="E37" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="F37" s="3">
+        <v>2</v>
+      </c>
+      <c r="G37" s="3" t="str">
+        <f t="shared" si="2"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (707, 174, 504, null, null, 2);</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A38" s="3">
+        <f t="shared" si="3"/>
+        <v>708</v>
+      </c>
+      <c r="B38" s="3">
+        <f t="shared" ref="B38" si="6">B35</f>
+        <v>174</v>
+      </c>
+      <c r="C38" s="3">
+        <v>504</v>
+      </c>
+      <c r="D38" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="E38" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="F38" s="3">
+        <v>1</v>
+      </c>
+      <c r="G38" s="3" t="str">
+        <f t="shared" si="2"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (708, 174, 504, null, null, 1);</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A39" s="4">
+        <f t="shared" si="3"/>
+        <v>709</v>
+      </c>
+      <c r="B39" s="4">
+        <f>B35+1</f>
+        <v>175</v>
+      </c>
+      <c r="C39" s="4">
+        <v>507</v>
+      </c>
+      <c r="D39" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="E39" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="F39" s="4">
+        <v>2</v>
+      </c>
+      <c r="G39" s="4" t="str">
+        <f t="shared" si="2"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (709, 175, 507, null, null, 2);</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A40" s="4">
+        <f t="shared" si="3"/>
+        <v>710</v>
+      </c>
+      <c r="B40" s="4">
+        <f>B39</f>
+        <v>175</v>
+      </c>
+      <c r="C40" s="4">
+        <v>507</v>
+      </c>
+      <c r="D40" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="E40" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="F40" s="4">
+        <v>1</v>
+      </c>
+      <c r="G40" s="4" t="str">
+        <f t="shared" si="2"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (710, 175, 507, null, null, 1);</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A41" s="4">
+        <f t="shared" si="3"/>
+        <v>711</v>
+      </c>
+      <c r="B41" s="4">
+        <f>B39</f>
+        <v>175</v>
+      </c>
+      <c r="C41" s="4">
+        <v>505</v>
+      </c>
+      <c r="D41" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="E41" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="F41" s="4">
+        <v>2</v>
+      </c>
+      <c r="G41" s="4" t="str">
+        <f t="shared" si="2"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (711, 175, 505, null, null, 2);</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A42" s="4">
+        <f t="shared" si="3"/>
+        <v>712</v>
+      </c>
+      <c r="B42" s="4">
+        <f t="shared" ref="B42" si="7">B39</f>
+        <v>175</v>
+      </c>
+      <c r="C42" s="4">
+        <v>505</v>
+      </c>
+      <c r="D42" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="E42" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="F42" s="4">
+        <v>1</v>
+      </c>
+      <c r="G42" s="4" t="str">
+        <f t="shared" si="2"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (712, 175, 505, null, null, 1);</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A43" s="3">
+        <f t="shared" si="3"/>
+        <v>713</v>
+      </c>
+      <c r="B43" s="3">
+        <f>B39+1</f>
+        <v>176</v>
+      </c>
+      <c r="C43" s="3">
+        <v>503</v>
+      </c>
+      <c r="D43" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="E43" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="F43" s="3">
+        <v>2</v>
+      </c>
+      <c r="G43" s="3" t="str">
+        <f t="shared" si="2"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (713, 176, 503, null, null, 2);</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A44" s="3">
+        <f t="shared" si="3"/>
+        <v>714</v>
+      </c>
+      <c r="B44" s="3">
+        <f>B43</f>
+        <v>176</v>
+      </c>
+      <c r="C44" s="3">
+        <v>503</v>
+      </c>
+      <c r="D44" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="E44" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="F44" s="3">
+        <v>1</v>
+      </c>
+      <c r="G44" s="3" t="str">
+        <f t="shared" si="2"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (714, 176, 503, null, null, 1);</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A45" s="3">
+        <f t="shared" si="3"/>
+        <v>715</v>
+      </c>
+      <c r="B45" s="3">
+        <f>B43</f>
+        <v>176</v>
+      </c>
+      <c r="C45" s="3">
+        <v>501</v>
+      </c>
+      <c r="D45" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="E45" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="F45" s="3">
+        <v>2</v>
+      </c>
+      <c r="G45" s="3" t="str">
+        <f t="shared" si="2"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (715, 176, 501, null, null, 2);</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A46" s="3">
+        <f t="shared" si="3"/>
+        <v>716</v>
+      </c>
+      <c r="B46" s="3">
+        <f t="shared" ref="B46" si="8">B43</f>
+        <v>176</v>
+      </c>
+      <c r="C46" s="3">
+        <v>501</v>
+      </c>
+      <c r="D46" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="E46" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="F46" s="3">
+        <v>1</v>
+      </c>
+      <c r="G46" s="3" t="str">
+        <f t="shared" si="2"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (716, 176, 501, null, null, 1);</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A47" s="4">
+        <f t="shared" si="3"/>
+        <v>717</v>
+      </c>
+      <c r="B47" s="4">
+        <f>B43+1</f>
+        <v>177</v>
+      </c>
+      <c r="C47" s="4">
+        <v>506</v>
+      </c>
+      <c r="D47" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="E47" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="F47" s="4">
+        <v>2</v>
+      </c>
+      <c r="G47" s="4" t="str">
+        <f t="shared" si="2"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (717, 177, 506, null, null, 2);</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A48" s="4">
+        <f t="shared" si="3"/>
+        <v>718</v>
+      </c>
+      <c r="B48" s="4">
+        <f>B47</f>
+        <v>177</v>
+      </c>
+      <c r="C48" s="4">
+        <v>506</v>
+      </c>
+      <c r="D48" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="E48" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="F48" s="4">
+        <v>1</v>
+      </c>
+      <c r="G48" s="4" t="str">
+        <f t="shared" si="2"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (718, 177, 506, null, null, 1);</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A49" s="4">
+        <f t="shared" si="3"/>
+        <v>719</v>
+      </c>
+      <c r="B49" s="4">
+        <f>B47</f>
+        <v>177</v>
+      </c>
+      <c r="C49" s="4">
+        <v>505</v>
+      </c>
+      <c r="D49" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="E49" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="F49" s="4">
+        <v>2</v>
+      </c>
+      <c r="G49" s="4" t="str">
+        <f t="shared" si="2"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (719, 177, 505, null, null, 2);</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A50" s="4">
+        <f t="shared" si="3"/>
+        <v>720</v>
+      </c>
+      <c r="B50" s="4">
+        <f t="shared" ref="B50" si="9">B47</f>
+        <v>177</v>
+      </c>
+      <c r="C50" s="4">
+        <v>505</v>
+      </c>
+      <c r="D50" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="E50" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="F50" s="4">
+        <v>1</v>
+      </c>
+      <c r="G50" s="4" t="str">
+        <f t="shared" si="2"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (720, 177, 505, null, null, 1);</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A51" s="3">
+        <f t="shared" si="3"/>
+        <v>721</v>
+      </c>
+      <c r="B51" s="3">
+        <f>B47+1</f>
+        <v>178</v>
+      </c>
+      <c r="C51" s="3">
+        <v>507</v>
+      </c>
+      <c r="D51" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="E51" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="F51" s="3">
+        <v>2</v>
+      </c>
+      <c r="G51" s="3" t="str">
+        <f t="shared" si="2"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (721, 178, 507, null, null, 2);</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A52" s="3">
+        <f t="shared" si="3"/>
+        <v>722</v>
+      </c>
+      <c r="B52" s="3">
+        <f>B51</f>
+        <v>178</v>
+      </c>
+      <c r="C52" s="3">
+        <v>507</v>
+      </c>
+      <c r="D52" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="E52" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="F52" s="3">
+        <v>1</v>
+      </c>
+      <c r="G52" s="3" t="str">
+        <f t="shared" si="2"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (722, 178, 507, null, null, 1);</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A53" s="3">
+        <f t="shared" si="3"/>
+        <v>723</v>
+      </c>
+      <c r="B53" s="3">
+        <f>B51</f>
+        <v>178</v>
+      </c>
+      <c r="C53" s="3">
+        <v>504</v>
+      </c>
+      <c r="D53" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="E53" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="F53" s="3">
+        <v>2</v>
+      </c>
+      <c r="G53" s="3" t="str">
+        <f t="shared" si="2"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (723, 178, 504, null, null, 2);</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A54" s="3">
+        <f t="shared" si="3"/>
+        <v>724</v>
+      </c>
+      <c r="B54" s="3">
+        <f t="shared" ref="B54" si="10">B51</f>
+        <v>178</v>
+      </c>
+      <c r="C54" s="3">
+        <v>504</v>
+      </c>
+      <c r="D54" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="E54" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="F54" s="3">
+        <v>1</v>
+      </c>
+      <c r="G54" s="3" t="str">
+        <f t="shared" si="2"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (724, 178, 504, null, null, 1);</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A55" s="4">
+        <f t="shared" si="3"/>
+        <v>725</v>
+      </c>
+      <c r="B55" s="4">
+        <f>B51+1</f>
+        <v>179</v>
+      </c>
+      <c r="C55" s="4">
+        <v>505</v>
+      </c>
+      <c r="D55" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="E55" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="F55" s="4">
+        <v>2</v>
+      </c>
+      <c r="G55" s="4" t="str">
+        <f t="shared" si="2"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (725, 179, 505, null, null, 2);</v>
+      </c>
+    </row>
+    <row r="56" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A56" s="4">
+        <f t="shared" si="3"/>
+        <v>726</v>
+      </c>
+      <c r="B56" s="4">
+        <f>B55</f>
+        <v>179</v>
+      </c>
+      <c r="C56" s="4">
+        <v>505</v>
+      </c>
+      <c r="D56" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="E56" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="F56" s="4">
+        <v>1</v>
+      </c>
+      <c r="G56" s="4" t="str">
+        <f t="shared" si="2"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (726, 179, 505, null, null, 1);</v>
+      </c>
+    </row>
+    <row r="57" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A57" s="4">
+        <f t="shared" si="3"/>
+        <v>727</v>
+      </c>
+      <c r="B57" s="4">
+        <f>B55</f>
+        <v>179</v>
+      </c>
+      <c r="C57" s="4">
+        <v>501</v>
+      </c>
+      <c r="D57" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="E57" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="F57" s="4">
+        <v>2</v>
+      </c>
+      <c r="G57" s="4" t="str">
+        <f t="shared" si="2"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (727, 179, 501, null, null, 2);</v>
+      </c>
+    </row>
+    <row r="58" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A58" s="4">
+        <f t="shared" si="3"/>
+        <v>728</v>
+      </c>
+      <c r="B58" s="4">
+        <f t="shared" ref="B58" si="11">B55</f>
+        <v>179</v>
+      </c>
+      <c r="C58" s="4">
+        <v>501</v>
+      </c>
+      <c r="D58" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="E58" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="F58" s="4">
+        <v>1</v>
+      </c>
+      <c r="G58" s="4" t="str">
+        <f t="shared" si="2"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (728, 179, 501, null, null, 1);</v>
+      </c>
+    </row>
+    <row r="59" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A59" s="3">
+        <f t="shared" si="3"/>
+        <v>729</v>
+      </c>
+      <c r="B59" s="3">
+        <f>B55+1</f>
+        <v>180</v>
+      </c>
+      <c r="C59" s="3">
+        <v>504</v>
+      </c>
+      <c r="D59" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="E59" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="F59" s="3">
+        <v>2</v>
+      </c>
+      <c r="G59" s="3" t="str">
+        <f t="shared" si="2"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (729, 180, 504, null, null, 2);</v>
+      </c>
+    </row>
+    <row r="60" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A60" s="3">
+        <f t="shared" si="3"/>
+        <v>730</v>
+      </c>
+      <c r="B60" s="3">
+        <f>B59</f>
+        <v>180</v>
+      </c>
+      <c r="C60" s="3">
+        <v>504</v>
+      </c>
+      <c r="D60" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="E60" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="F60" s="3">
+        <v>1</v>
+      </c>
+      <c r="G60" s="3" t="str">
+        <f t="shared" si="2"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (730, 180, 504, null, null, 1);</v>
+      </c>
+    </row>
+    <row r="61" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A61" s="3">
+        <f t="shared" si="3"/>
+        <v>731</v>
+      </c>
+      <c r="B61" s="3">
+        <f>B59</f>
+        <v>180</v>
+      </c>
+      <c r="C61" s="3">
+        <v>506</v>
+      </c>
+      <c r="D61" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="E61" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="F61" s="3">
+        <v>2</v>
+      </c>
+      <c r="G61" s="3" t="str">
+        <f t="shared" si="2"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (731, 180, 506, null, null, 2);</v>
+      </c>
+    </row>
+    <row r="62" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A62" s="3">
+        <f t="shared" si="3"/>
+        <v>732</v>
+      </c>
+      <c r="B62" s="3">
+        <f t="shared" ref="B62" si="12">B59</f>
+        <v>180</v>
+      </c>
+      <c r="C62" s="3">
+        <v>506</v>
+      </c>
+      <c r="D62" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="E62" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="F62" s="3">
+        <v>1</v>
+      </c>
+      <c r="G62" s="3" t="str">
+        <f t="shared" si="2"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (732, 180, 506, null, null, 1);</v>
+      </c>
+    </row>
+    <row r="63" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A63" s="4">
+        <f t="shared" si="3"/>
+        <v>733</v>
+      </c>
+      <c r="B63" s="4">
+        <f>B59+1</f>
+        <v>181</v>
+      </c>
+      <c r="C63" s="4">
+        <v>507</v>
+      </c>
+      <c r="D63" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="E63" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="F63" s="4">
+        <v>2</v>
+      </c>
+      <c r="G63" s="4" t="str">
+        <f t="shared" si="2"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (733, 181, 507, null, null, 2);</v>
+      </c>
+    </row>
+    <row r="64" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A64" s="4">
+        <f t="shared" si="3"/>
+        <v>734</v>
+      </c>
+      <c r="B64" s="4">
+        <f>B63</f>
+        <v>181</v>
+      </c>
+      <c r="C64" s="4">
+        <v>507</v>
+      </c>
+      <c r="D64" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="E64" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="F64" s="4">
+        <v>1</v>
+      </c>
+      <c r="G64" s="4" t="str">
+        <f t="shared" si="2"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (734, 181, 507, null, null, 1);</v>
+      </c>
+    </row>
+    <row r="65" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A65" s="4">
+        <f t="shared" si="3"/>
+        <v>735</v>
+      </c>
+      <c r="B65" s="4">
+        <f>B63</f>
+        <v>181</v>
+      </c>
+      <c r="C65" s="4">
+        <v>503</v>
+      </c>
+      <c r="D65" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="E65" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="F65" s="4">
+        <v>2</v>
+      </c>
+      <c r="G65" s="4" t="str">
+        <f t="shared" si="2"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (735, 181, 503, null, null, 2);</v>
+      </c>
+    </row>
+    <row r="66" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A66" s="4">
+        <f t="shared" si="3"/>
+        <v>736</v>
+      </c>
+      <c r="B66" s="4">
+        <f t="shared" ref="B66" si="13">B63</f>
+        <v>181</v>
+      </c>
+      <c r="C66" s="4">
+        <v>503</v>
+      </c>
+      <c r="D66" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="E66" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="F66" s="4">
+        <v>1</v>
+      </c>
+      <c r="G66" s="4" t="str">
+        <f t="shared" si="2"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (736, 181, 503, null, null, 1);</v>
+      </c>
+    </row>
+    <row r="67" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A67" s="3">
+        <f t="shared" si="3"/>
+        <v>737</v>
+      </c>
+      <c r="B67" s="3">
+        <f>B63+1</f>
+        <v>182</v>
+      </c>
+      <c r="C67" s="3">
+        <v>501</v>
+      </c>
+      <c r="D67" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="E67" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="F67" s="3">
+        <v>2</v>
+      </c>
+      <c r="G67" s="3" t="str">
+        <f t="shared" si="2"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (737, 182, 501, null, null, 2);</v>
+      </c>
+    </row>
+    <row r="68" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A68" s="3">
+        <f t="shared" si="3"/>
+        <v>738</v>
+      </c>
+      <c r="B68" s="3">
+        <f>B67</f>
+        <v>182</v>
+      </c>
+      <c r="C68" s="3">
+        <v>501</v>
+      </c>
+      <c r="D68" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="E68" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="F68" s="3">
+        <v>1</v>
+      </c>
+      <c r="G68" s="3" t="str">
+        <f t="shared" si="2"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (738, 182, 501, null, null, 1);</v>
+      </c>
+    </row>
+    <row r="69" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A69" s="3">
+        <f t="shared" si="3"/>
+        <v>739</v>
+      </c>
+      <c r="B69" s="3">
+        <f>B67</f>
+        <v>182</v>
+      </c>
+      <c r="C69" s="3">
+        <v>504</v>
+      </c>
+      <c r="D69" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="E69" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="F69" s="3">
+        <v>2</v>
+      </c>
+      <c r="G69" s="3" t="str">
+        <f t="shared" si="2"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (739, 182, 504, null, null, 2);</v>
+      </c>
+    </row>
+    <row r="70" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A70" s="3">
+        <f t="shared" si="3"/>
+        <v>740</v>
+      </c>
+      <c r="B70" s="3">
+        <f t="shared" ref="B70" si="14">B67</f>
+        <v>182</v>
+      </c>
+      <c r="C70" s="3">
+        <v>504</v>
+      </c>
+      <c r="D70" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="E70" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="F70" s="3">
+        <v>1</v>
+      </c>
+      <c r="G70" s="3" t="str">
+        <f t="shared" si="2"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (740, 182, 504, null, null, 1);</v>
+      </c>
+    </row>
+    <row r="71" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A71" s="4">
+        <f t="shared" si="3"/>
+        <v>741</v>
+      </c>
+      <c r="B71" s="4">
+        <f>B67+1</f>
+        <v>183</v>
+      </c>
+      <c r="C71" s="4">
+        <v>503</v>
+      </c>
+      <c r="D71" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="E71" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="F71" s="4">
+        <v>2</v>
+      </c>
+      <c r="G71" s="4" t="str">
+        <f t="shared" si="2"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (741, 183, 503, null, null, 2);</v>
+      </c>
+    </row>
+    <row r="72" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A72" s="4">
+        <f t="shared" si="3"/>
+        <v>742</v>
+      </c>
+      <c r="B72" s="4">
+        <f>B71</f>
+        <v>183</v>
+      </c>
+      <c r="C72" s="4">
+        <v>503</v>
+      </c>
+      <c r="D72" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="E72" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="F72" s="4">
+        <v>1</v>
+      </c>
+      <c r="G72" s="4" t="str">
+        <f t="shared" si="2"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (742, 183, 503, null, null, 1);</v>
+      </c>
+    </row>
+    <row r="73" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A73" s="4">
+        <f t="shared" si="3"/>
+        <v>743</v>
+      </c>
+      <c r="B73" s="4">
+        <f>B71</f>
+        <v>183</v>
+      </c>
+      <c r="C73" s="4">
+        <v>505</v>
+      </c>
+      <c r="D73" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="E73" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="F73" s="4">
+        <v>2</v>
+      </c>
+      <c r="G73" s="4" t="str">
+        <f t="shared" si="2"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (743, 183, 505, null, null, 2);</v>
+      </c>
+    </row>
+    <row r="74" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A74" s="4">
+        <f t="shared" si="3"/>
+        <v>744</v>
+      </c>
+      <c r="B74" s="4">
+        <f t="shared" ref="B74" si="15">B71</f>
+        <v>183</v>
+      </c>
+      <c r="C74" s="4">
+        <v>505</v>
+      </c>
+      <c r="D74" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="E74" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="F74" s="4">
+        <v>1</v>
+      </c>
+      <c r="G74" s="4" t="str">
+        <f t="shared" si="2"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (744, 183, 505, null, null, 1);</v>
+      </c>
+    </row>
+    <row r="75" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A75" s="3">
+        <f t="shared" si="3"/>
+        <v>745</v>
+      </c>
+      <c r="B75" s="3">
+        <f>B71+1</f>
+        <v>184</v>
+      </c>
+      <c r="C75" s="3">
+        <v>507</v>
+      </c>
+      <c r="D75" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="E75" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="F75" s="3">
+        <v>2</v>
+      </c>
+      <c r="G75" s="3" t="str">
+        <f t="shared" si="2"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (745, 184, 507, null, null, 2);</v>
+      </c>
+    </row>
+    <row r="76" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A76" s="3">
+        <f t="shared" si="3"/>
+        <v>746</v>
+      </c>
+      <c r="B76" s="3">
+        <f>B75</f>
+        <v>184</v>
+      </c>
+      <c r="C76" s="3">
+        <v>507</v>
+      </c>
+      <c r="D76" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="E76" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="F76" s="3">
+        <v>1</v>
+      </c>
+      <c r="G76" s="3" t="str">
+        <f t="shared" si="2"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (746, 184, 507, null, null, 1);</v>
+      </c>
+    </row>
+    <row r="77" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A77" s="3">
+        <f t="shared" si="3"/>
+        <v>747</v>
+      </c>
+      <c r="B77" s="3">
+        <f>B75</f>
+        <v>184</v>
+      </c>
+      <c r="C77" s="3">
+        <v>506</v>
+      </c>
+      <c r="D77" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="E77" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="F77" s="3">
+        <v>2</v>
+      </c>
+      <c r="G77" s="3" t="str">
+        <f t="shared" si="2"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (747, 184, 506, null, null, 2);</v>
+      </c>
+    </row>
+    <row r="78" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A78" s="3">
+        <f t="shared" si="3"/>
+        <v>748</v>
+      </c>
+      <c r="B78" s="3">
+        <f t="shared" ref="B78" si="16">B75</f>
+        <v>184</v>
+      </c>
+      <c r="C78" s="3">
+        <v>506</v>
+      </c>
+      <c r="D78" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="E78" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="F78" s="3">
+        <v>1</v>
+      </c>
+      <c r="G78" s="3" t="str">
+        <f t="shared" si="2"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (748, 184, 506, null, null, 1);</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G43"/>
@@ -10483,7 +20212,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G78"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0"/>
+    <sheetView topLeftCell="A6" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A6" sqref="A6"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -14292,7 +24023,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H84"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>

--- a/Scripts/copacentroamericana/copacentroamericana.xlsx
+++ b/Scripts/copacentroamericana/copacentroamericana.xlsx
@@ -435,7 +435,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G63"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A3" sqref="A3"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -4514,7 +4516,7 @@
         <v>2</v>
       </c>
       <c r="G27" s="3" t="str">
-        <f t="shared" ref="G27:G88" si="5">"insert into game_score (id, matchid, squad, goals, points, time_type) values (" &amp; A27 &amp; ", " &amp; B27 &amp; ", " &amp; C27 &amp; ", " &amp; D27 &amp; ", " &amp; E27 &amp; ", " &amp; F27 &amp; ");"</f>
+        <f t="shared" ref="G27:G86" si="5">"insert into game_score (id, matchid, squad, goals, points, time_type) values (" &amp; A27 &amp; ", " &amp; B27 &amp; ", " &amp; C27 &amp; ", " &amp; D27 &amp; ", " &amp; E27 &amp; ", " &amp; F27 &amp; ");"</f>
         <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (525, 130, 503, 2, 3, 2);</v>
       </c>
     </row>
@@ -4546,7 +4548,7 @@
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A29" s="3">
-        <f t="shared" ref="A29:A88" si="6">A28+1</f>
+        <f t="shared" ref="A29:A86" si="6">A28+1</f>
         <v>527</v>
       </c>
       <c r="B29" s="3">
@@ -20212,9 +20214,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G78"/>
   <sheetViews>
-    <sheetView topLeftCell="A6" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
-    </sheetView>
+    <sheetView zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>

--- a/Scripts/copacentroamericana/copacentroamericana.xlsx
+++ b/Scripts/copacentroamericana/copacentroamericana.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="375" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="385" uniqueCount="14">
   <si>
     <t>id</t>
   </si>
@@ -9785,7 +9785,7 @@
 
 <file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G78"/>
+  <dimension ref="A1:G86"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
@@ -9801,566 +9801,498 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>8</v>
+      <c r="A1" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D1" t="s">
+        <v>2</v>
       </c>
       <c r="G1" t="str">
-        <f>"insert into game (matchid, matchdate, game_type, country) values (" &amp; A1 &amp; ", '" &amp; B1 &amp; "', " &amp; C1 &amp; ", " &amp; D1 &amp;  ");"</f>
-        <v>insert into game (matchid, matchdate, game_type, country) values (matchid, 'matchdate', game_type, country);</v>
+        <f>"insert into group_stage (id, tournament, group_code, squad) values (" &amp; A1 &amp; ", " &amp; B1 &amp; ", '" &amp; C1 &amp; "', " &amp; D1 &amp;  ");"</f>
+        <v>insert into group_stage (id, tournament, group_code, squad) values (id, tournament, 'group_code', squad);</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2">
-        <f>'2014'!A22+1</f>
-        <v>170</v>
-      </c>
-      <c r="B2" s="2" t="str">
-        <f>"2017-01-13"</f>
-        <v>2017-01-13</v>
-      </c>
-      <c r="C2">
-        <v>2</v>
+        <f>'2014'!A8+1</f>
+        <v>68</v>
+      </c>
+      <c r="B2">
+        <v>2017</v>
+      </c>
+      <c r="C2" t="s">
+        <v>12</v>
       </c>
       <c r="D2">
-        <v>507</v>
+        <v>505</v>
+      </c>
+      <c r="E2">
+        <v>1</v>
       </c>
       <c r="G2" t="str">
-        <f t="shared" ref="G2:G16" si="0">"insert into game (matchid, matchdate, game_type, country) values (" &amp; A2 &amp; ", '" &amp; B2 &amp; "', " &amp; C2 &amp; ", " &amp; D2 &amp;  ");"</f>
-        <v>insert into game (matchid, matchdate, game_type, country) values (170, '2017-01-13', 2, 507);</v>
+        <f t="shared" ref="G2:G7" si="0">"insert into group_stage (id, tournament, group_code, squad) values (" &amp; A2 &amp; ", " &amp; B2 &amp; ", '" &amp; C2 &amp; "', " &amp; D2 &amp;  ");"</f>
+        <v>insert into group_stage (id, tournament, group_code, squad) values (68, 2017, 'A', 505);</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3">
-        <f>A2+1</f>
-        <v>171</v>
-      </c>
-      <c r="B3" s="2" t="str">
-        <f>"2017-01-13"</f>
-        <v>2017-01-13</v>
-      </c>
-      <c r="C3">
-        <v>2</v>
+        <f t="shared" ref="A3:A7" si="1">A2+1</f>
+        <v>69</v>
+      </c>
+      <c r="B3">
+        <f t="shared" ref="B3:B7" si="2">B2</f>
+        <v>2017</v>
+      </c>
+      <c r="C3" t="s">
+        <v>12</v>
       </c>
       <c r="D3">
-        <v>507</v>
+        <v>503</v>
       </c>
       <c r="G3" t="str">
         <f t="shared" si="0"/>
-        <v>insert into game (matchid, matchdate, game_type, country) values (171, '2017-01-13', 2, 507);</v>
+        <v>insert into group_stage (id, tournament, group_code, squad) values (69, 2017, 'A', 503);</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4">
-        <f t="shared" ref="A4:A16" si="1">A3+1</f>
-        <v>172</v>
-      </c>
-      <c r="B4" s="2" t="str">
-        <f>"2017-01-13"</f>
-        <v>2017-01-13</v>
-      </c>
-      <c r="C4">
-        <v>2</v>
+        <f t="shared" si="1"/>
+        <v>70</v>
+      </c>
+      <c r="B4">
+        <f t="shared" si="2"/>
+        <v>2017</v>
+      </c>
+      <c r="C4" t="s">
+        <v>12</v>
       </c>
       <c r="D4">
-        <v>507</v>
+        <v>504</v>
       </c>
       <c r="G4" t="str">
         <f t="shared" si="0"/>
-        <v>insert into game (matchid, matchdate, game_type, country) values (172, '2017-01-13', 2, 507);</v>
+        <v>insert into group_stage (id, tournament, group_code, squad) values (70, 2017, 'A', 504);</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5">
         <f t="shared" si="1"/>
-        <v>173</v>
-      </c>
-      <c r="B5" s="2" t="str">
-        <f>"2017-01-15"</f>
-        <v>2017-01-15</v>
-      </c>
-      <c r="C5">
-        <v>2</v>
+        <v>71</v>
+      </c>
+      <c r="B5">
+        <f t="shared" si="2"/>
+        <v>2017</v>
+      </c>
+      <c r="C5" t="s">
+        <v>12</v>
       </c>
       <c r="D5">
-        <v>507</v>
+        <v>501</v>
       </c>
       <c r="G5" t="str">
         <f t="shared" si="0"/>
-        <v>insert into game (matchid, matchdate, game_type, country) values (173, '2017-01-15', 2, 507);</v>
+        <v>insert into group_stage (id, tournament, group_code, squad) values (71, 2017, 'A', 501);</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6">
         <f t="shared" si="1"/>
-        <v>174</v>
-      </c>
-      <c r="B6" s="2" t="str">
-        <f>"2017-01-15"</f>
-        <v>2017-01-15</v>
-      </c>
-      <c r="C6">
-        <v>2</v>
+        <v>72</v>
+      </c>
+      <c r="B6">
+        <f t="shared" si="2"/>
+        <v>2017</v>
+      </c>
+      <c r="C6" t="s">
+        <v>12</v>
       </c>
       <c r="D6">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="G6" t="str">
         <f t="shared" si="0"/>
-        <v>insert into game (matchid, matchdate, game_type, country) values (174, '2017-01-15', 2, 507);</v>
+        <v>insert into group_stage (id, tournament, group_code, squad) values (72, 2017, 'A', 506);</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7">
         <f t="shared" si="1"/>
-        <v>175</v>
-      </c>
-      <c r="B7" s="2" t="str">
+        <v>73</v>
+      </c>
+      <c r="B7">
+        <f t="shared" si="2"/>
+        <v>2017</v>
+      </c>
+      <c r="C7" t="s">
+        <v>12</v>
+      </c>
+      <c r="D7">
+        <v>507</v>
+      </c>
+      <c r="G7" t="str">
+        <f t="shared" si="0"/>
+        <v>insert into group_stage (id, tournament, group_code, squad) values (73, 2017, 'A', 507);</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A9" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="G9" t="str">
+        <f>"insert into game (matchid, matchdate, game_type, country) values (" &amp; A9 &amp; ", '" &amp; B9 &amp; "', " &amp; C9 &amp; ", " &amp; D9 &amp;  ");"</f>
+        <v>insert into game (matchid, matchdate, game_type, country) values (matchid, 'matchdate', game_type, country);</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <f>'2014'!A22+1</f>
+        <v>170</v>
+      </c>
+      <c r="B10" s="2" t="str">
+        <f>"2017-01-13"</f>
+        <v>2017-01-13</v>
+      </c>
+      <c r="C10">
+        <v>2</v>
+      </c>
+      <c r="D10">
+        <v>507</v>
+      </c>
+      <c r="G10" t="str">
+        <f t="shared" ref="G10:G24" si="3">"insert into game (matchid, matchdate, game_type, country) values (" &amp; A10 &amp; ", '" &amp; B10 &amp; "', " &amp; C10 &amp; ", " &amp; D10 &amp;  ");"</f>
+        <v>insert into game (matchid, matchdate, game_type, country) values (170, '2017-01-13', 2, 507);</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <f>A10+1</f>
+        <v>171</v>
+      </c>
+      <c r="B11" s="2" t="str">
+        <f>"2017-01-13"</f>
+        <v>2017-01-13</v>
+      </c>
+      <c r="C11">
+        <v>2</v>
+      </c>
+      <c r="D11">
+        <v>507</v>
+      </c>
+      <c r="G11" t="str">
+        <f t="shared" si="3"/>
+        <v>insert into game (matchid, matchdate, game_type, country) values (171, '2017-01-13', 2, 507);</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <f t="shared" ref="A12:A24" si="4">A11+1</f>
+        <v>172</v>
+      </c>
+      <c r="B12" s="2" t="str">
+        <f>"2017-01-13"</f>
+        <v>2017-01-13</v>
+      </c>
+      <c r="C12">
+        <v>2</v>
+      </c>
+      <c r="D12">
+        <v>507</v>
+      </c>
+      <c r="G12" t="str">
+        <f t="shared" si="3"/>
+        <v>insert into game (matchid, matchdate, game_type, country) values (172, '2017-01-13', 2, 507);</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <f t="shared" si="4"/>
+        <v>173</v>
+      </c>
+      <c r="B13" s="2" t="str">
         <f>"2017-01-15"</f>
         <v>2017-01-15</v>
       </c>
-      <c r="C7">
-        <v>2</v>
-      </c>
-      <c r="D7">
+      <c r="C13">
+        <v>2</v>
+      </c>
+      <c r="D13">
         <v>507</v>
       </c>
-      <c r="G7" t="str">
-        <f t="shared" si="0"/>
+      <c r="G13" t="str">
+        <f t="shared" si="3"/>
+        <v>insert into game (matchid, matchdate, game_type, country) values (173, '2017-01-15', 2, 507);</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <f t="shared" si="4"/>
+        <v>174</v>
+      </c>
+      <c r="B14" s="2" t="str">
+        <f>"2017-01-15"</f>
+        <v>2017-01-15</v>
+      </c>
+      <c r="C14">
+        <v>2</v>
+      </c>
+      <c r="D14">
+        <v>507</v>
+      </c>
+      <c r="G14" t="str">
+        <f t="shared" si="3"/>
+        <v>insert into game (matchid, matchdate, game_type, country) values (174, '2017-01-15', 2, 507);</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <f t="shared" si="4"/>
+        <v>175</v>
+      </c>
+      <c r="B15" s="2" t="str">
+        <f>"2017-01-15"</f>
+        <v>2017-01-15</v>
+      </c>
+      <c r="C15">
+        <v>2</v>
+      </c>
+      <c r="D15">
+        <v>507</v>
+      </c>
+      <c r="G15" t="str">
+        <f t="shared" si="3"/>
         <v>insert into game (matchid, matchdate, game_type, country) values (175, '2017-01-15', 2, 507);</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A8">
-        <f t="shared" si="1"/>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <f t="shared" si="4"/>
         <v>176</v>
       </c>
-      <c r="B8" s="2" t="str">
+      <c r="B16" s="2" t="str">
         <f>"2017-01-17"</f>
         <v>2017-01-17</v>
       </c>
-      <c r="C8">
-        <v>2</v>
-      </c>
-      <c r="D8">
+      <c r="C16">
+        <v>2</v>
+      </c>
+      <c r="D16">
         <v>507</v>
       </c>
-      <c r="G8" t="str">
-        <f t="shared" si="0"/>
+      <c r="G16" t="str">
+        <f t="shared" si="3"/>
         <v>insert into game (matchid, matchdate, game_type, country) values (176, '2017-01-17', 2, 507);</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A9">
-        <f t="shared" si="1"/>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <f t="shared" si="4"/>
         <v>177</v>
       </c>
-      <c r="B9" s="2" t="str">
+      <c r="B17" s="2" t="str">
         <f>"2017-01-17"</f>
         <v>2017-01-17</v>
       </c>
-      <c r="C9">
-        <v>2</v>
-      </c>
-      <c r="D9">
+      <c r="C17">
+        <v>2</v>
+      </c>
+      <c r="D17">
         <v>507</v>
       </c>
-      <c r="G9" t="str">
-        <f t="shared" si="0"/>
+      <c r="G17" t="str">
+        <f t="shared" si="3"/>
         <v>insert into game (matchid, matchdate, game_type, country) values (177, '2017-01-17', 2, 507);</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A10">
-        <f t="shared" si="1"/>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A18">
+        <f t="shared" si="4"/>
         <v>178</v>
       </c>
-      <c r="B10" s="2" t="str">
+      <c r="B18" s="2" t="str">
         <f>"2017-01-17"</f>
         <v>2017-01-17</v>
       </c>
-      <c r="C10">
-        <v>2</v>
-      </c>
-      <c r="D10">
+      <c r="C18">
+        <v>2</v>
+      </c>
+      <c r="D18">
         <v>507</v>
       </c>
-      <c r="G10" t="str">
-        <f t="shared" si="0"/>
+      <c r="G18" t="str">
+        <f t="shared" si="3"/>
         <v>insert into game (matchid, matchdate, game_type, country) values (178, '2017-01-17', 2, 507);</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A11">
-        <f t="shared" si="1"/>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A19">
+        <f t="shared" si="4"/>
         <v>179</v>
       </c>
-      <c r="B11" s="2" t="str">
+      <c r="B19" s="2" t="str">
         <f>"2017-01-20"</f>
         <v>2017-01-20</v>
       </c>
-      <c r="C11">
-        <v>2</v>
-      </c>
-      <c r="D11">
+      <c r="C19">
+        <v>2</v>
+      </c>
+      <c r="D19">
         <v>507</v>
       </c>
-      <c r="G11" t="str">
-        <f t="shared" si="0"/>
+      <c r="G19" t="str">
+        <f t="shared" si="3"/>
         <v>insert into game (matchid, matchdate, game_type, country) values (179, '2017-01-20', 2, 507);</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A12">
-        <f t="shared" si="1"/>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A20">
+        <f t="shared" si="4"/>
         <v>180</v>
       </c>
-      <c r="B12" s="2" t="str">
+      <c r="B20" s="2" t="str">
         <f>"2017-01-20"</f>
         <v>2017-01-20</v>
       </c>
-      <c r="C12">
-        <v>2</v>
-      </c>
-      <c r="D12">
+      <c r="C20">
+        <v>2</v>
+      </c>
+      <c r="D20">
         <v>507</v>
       </c>
-      <c r="G12" t="str">
-        <f t="shared" si="0"/>
+      <c r="G20" t="str">
+        <f t="shared" si="3"/>
         <v>insert into game (matchid, matchdate, game_type, country) values (180, '2017-01-20', 2, 507);</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A13">
-        <f t="shared" si="1"/>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A21">
+        <f t="shared" si="4"/>
         <v>181</v>
       </c>
-      <c r="B13" s="2" t="str">
+      <c r="B21" s="2" t="str">
         <f>"2017-01-20"</f>
         <v>2017-01-20</v>
       </c>
-      <c r="C13">
-        <v>2</v>
-      </c>
-      <c r="D13">
+      <c r="C21">
+        <v>2</v>
+      </c>
+      <c r="D21">
         <v>507</v>
       </c>
-      <c r="G13" t="str">
-        <f t="shared" si="0"/>
+      <c r="G21" t="str">
+        <f t="shared" si="3"/>
         <v>insert into game (matchid, matchdate, game_type, country) values (181, '2017-01-20', 2, 507);</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A14">
-        <f t="shared" si="1"/>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A22">
+        <f t="shared" si="4"/>
         <v>182</v>
       </c>
-      <c r="B14" s="2" t="str">
+      <c r="B22" s="2" t="str">
         <f>"2017-01-22"</f>
         <v>2017-01-22</v>
       </c>
-      <c r="C14">
-        <v>2</v>
-      </c>
-      <c r="D14">
+      <c r="C22">
+        <v>2</v>
+      </c>
+      <c r="D22">
         <v>507</v>
       </c>
-      <c r="G14" t="str">
-        <f t="shared" si="0"/>
+      <c r="G22" t="str">
+        <f t="shared" si="3"/>
         <v>insert into game (matchid, matchdate, game_type, country) values (182, '2017-01-22', 2, 507);</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A15">
-        <f t="shared" si="1"/>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A23">
+        <f t="shared" si="4"/>
         <v>183</v>
       </c>
-      <c r="B15" s="2" t="str">
+      <c r="B23" s="2" t="str">
         <f>"2017-01-22"</f>
         <v>2017-01-22</v>
       </c>
-      <c r="C15">
-        <v>2</v>
-      </c>
-      <c r="D15">
+      <c r="C23">
+        <v>2</v>
+      </c>
+      <c r="D23">
         <v>507</v>
       </c>
-      <c r="G15" t="str">
-        <f t="shared" si="0"/>
+      <c r="G23" t="str">
+        <f t="shared" si="3"/>
         <v>insert into game (matchid, matchdate, game_type, country) values (183, '2017-01-22', 2, 507);</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A16">
-        <f t="shared" si="1"/>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A24">
+        <f t="shared" si="4"/>
         <v>184</v>
       </c>
-      <c r="B16" s="2" t="str">
+      <c r="B24" s="2" t="str">
         <f>"2017-01-22"</f>
         <v>2017-01-22</v>
       </c>
-      <c r="C16">
-        <v>2</v>
-      </c>
-      <c r="D16">
+      <c r="C24">
+        <v>2</v>
+      </c>
+      <c r="D24">
         <v>507</v>
       </c>
-      <c r="G16" t="str">
-        <f t="shared" si="0"/>
+      <c r="G24" t="str">
+        <f t="shared" si="3"/>
         <v>insert into game (matchid, matchdate, game_type, country) values (184, '2017-01-22', 2, 507);</v>
       </c>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A18" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B18" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C18" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D18" s="1" t="s">
+    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A26" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B26" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C26" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D26" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E18" s="1" t="s">
+      <c r="E26" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F18" s="1" t="s">
+      <c r="F26" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G18" t="str">
-        <f>"insert into game_score (id, matchid, squad, goals, points, time_type) values (" &amp; A18 &amp; ", " &amp; B18 &amp; ", " &amp; C18 &amp; ", " &amp; D18 &amp; ", " &amp; E18 &amp; ", " &amp; F18 &amp; ");"</f>
+      <c r="G26" t="str">
+        <f>"insert into game_score (id, matchid, squad, goals, points, time_type) values (" &amp; A26 &amp; ", " &amp; B26 &amp; ", " &amp; C26 &amp; ", " &amp; D26 &amp; ", " &amp; E26 &amp; ", " &amp; F26 &amp; ");"</f>
         <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (id, matchid, squad, goals, points, time_type);</v>
       </c>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A19" s="3">
+    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A27" s="3">
         <f>'2014'!A72 + 1</f>
         <v>689</v>
       </c>
-      <c r="B19" s="3">
-        <f>A2</f>
+      <c r="B27" s="3">
+        <f>A10</f>
         <v>170</v>
       </c>
-      <c r="C19" s="3">
+      <c r="C27" s="3">
         <v>504</v>
-      </c>
-      <c r="D19" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="E19" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="F19" s="3">
-        <v>2</v>
-      </c>
-      <c r="G19" s="3" t="str">
-        <f t="shared" ref="G19:G78" si="2">"insert into game_score (id, matchid, squad, goals, points, time_type) values (" &amp; A19 &amp; ", " &amp; B19 &amp; ", " &amp; C19 &amp; ", " &amp; D19 &amp; ", " &amp; E19 &amp; ", " &amp; F19 &amp; ");"</f>
-        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (689, 170, 504, null, null, 2);</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A20" s="3">
-        <f>A19+1</f>
-        <v>690</v>
-      </c>
-      <c r="B20" s="3">
-        <f>B19</f>
-        <v>170</v>
-      </c>
-      <c r="C20" s="3">
-        <v>504</v>
-      </c>
-      <c r="D20" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="E20" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="F20" s="3">
-        <v>1</v>
-      </c>
-      <c r="G20" s="3" t="str">
-        <f t="shared" si="2"/>
-        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (690, 170, 504, null, null, 1);</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A21" s="3">
-        <f t="shared" ref="A21:A78" si="3">A20+1</f>
-        <v>691</v>
-      </c>
-      <c r="B21" s="3">
-        <f>B19</f>
-        <v>170</v>
-      </c>
-      <c r="C21" s="3">
-        <v>505</v>
-      </c>
-      <c r="D21" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="E21" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="F21" s="3">
-        <v>2</v>
-      </c>
-      <c r="G21" s="3" t="str">
-        <f t="shared" si="2"/>
-        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (691, 170, 505, null, null, 2);</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A22" s="3">
-        <f t="shared" si="3"/>
-        <v>692</v>
-      </c>
-      <c r="B22" s="3">
-        <f>B19</f>
-        <v>170</v>
-      </c>
-      <c r="C22" s="3">
-        <v>505</v>
-      </c>
-      <c r="D22" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="E22" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="F22" s="3">
-        <v>1</v>
-      </c>
-      <c r="G22" s="3" t="str">
-        <f t="shared" si="2"/>
-        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (692, 170, 505, null, null, 1);</v>
-      </c>
-    </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A23" s="4">
-        <f>A22+1</f>
-        <v>693</v>
-      </c>
-      <c r="B23" s="4">
-        <f>B19+1</f>
-        <v>171</v>
-      </c>
-      <c r="C23" s="4">
-        <v>506</v>
-      </c>
-      <c r="D23" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="E23" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="F23" s="4">
-        <v>2</v>
-      </c>
-      <c r="G23" t="str">
-        <f t="shared" si="2"/>
-        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (693, 171, 506, null, null, 2);</v>
-      </c>
-    </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A24" s="4">
-        <f t="shared" si="3"/>
-        <v>694</v>
-      </c>
-      <c r="B24" s="4">
-        <f>B23</f>
-        <v>171</v>
-      </c>
-      <c r="C24" s="4">
-        <v>506</v>
-      </c>
-      <c r="D24" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="E24" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="F24" s="4">
-        <v>1</v>
-      </c>
-      <c r="G24" t="str">
-        <f t="shared" si="2"/>
-        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (694, 171, 506, null, null, 1);</v>
-      </c>
-    </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A25" s="4">
-        <f t="shared" si="3"/>
-        <v>695</v>
-      </c>
-      <c r="B25" s="4">
-        <f>B23</f>
-        <v>171</v>
-      </c>
-      <c r="C25" s="4">
-        <v>503</v>
-      </c>
-      <c r="D25" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="E25" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="F25" s="4">
-        <v>2</v>
-      </c>
-      <c r="G25" t="str">
-        <f t="shared" si="2"/>
-        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (695, 171, 503, null, null, 2);</v>
-      </c>
-    </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A26" s="4">
-        <f t="shared" si="3"/>
-        <v>696</v>
-      </c>
-      <c r="B26" s="4">
-        <f>B23</f>
-        <v>171</v>
-      </c>
-      <c r="C26" s="4">
-        <v>503</v>
-      </c>
-      <c r="D26" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="E26" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="F26" s="4">
-        <v>1</v>
-      </c>
-      <c r="G26" t="str">
-        <f t="shared" si="2"/>
-        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (696, 171, 503, null, null, 1);</v>
-      </c>
-    </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A27" s="3">
-        <f t="shared" si="3"/>
-        <v>697</v>
-      </c>
-      <c r="B27" s="3">
-        <f>B23+1</f>
-        <v>172</v>
-      </c>
-      <c r="C27" s="3">
-        <v>507</v>
       </c>
       <c r="D27" s="3" t="s">
         <v>9</v>
@@ -10372,21 +10304,21 @@
         <v>2</v>
       </c>
       <c r="G27" s="3" t="str">
-        <f t="shared" si="2"/>
-        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (697, 172, 507, null, null, 2);</v>
+        <f t="shared" ref="G27:G86" si="5">"insert into game_score (id, matchid, squad, goals, points, time_type) values (" &amp; A27 &amp; ", " &amp; B27 &amp; ", " &amp; C27 &amp; ", " &amp; D27 &amp; ", " &amp; E27 &amp; ", " &amp; F27 &amp; ");"</f>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (689, 170, 504, null, null, 2);</v>
       </c>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A28" s="3">
-        <f t="shared" si="3"/>
-        <v>698</v>
+        <f>A27+1</f>
+        <v>690</v>
       </c>
       <c r="B28" s="3">
         <f>B27</f>
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="C28" s="3">
-        <v>507</v>
+        <v>504</v>
       </c>
       <c r="D28" s="3" t="s">
         <v>9</v>
@@ -10398,21 +10330,21 @@
         <v>1</v>
       </c>
       <c r="G28" s="3" t="str">
-        <f t="shared" si="2"/>
-        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (698, 172, 507, null, null, 1);</v>
+        <f t="shared" si="5"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (690, 170, 504, null, null, 1);</v>
       </c>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A29" s="3">
-        <f t="shared" si="3"/>
-        <v>699</v>
+        <f t="shared" ref="A29:A86" si="6">A28+1</f>
+        <v>691</v>
       </c>
       <c r="B29" s="3">
         <f>B27</f>
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="C29" s="3">
-        <v>501</v>
+        <v>505</v>
       </c>
       <c r="D29" s="3" t="s">
         <v>9</v>
@@ -10424,21 +10356,21 @@
         <v>2</v>
       </c>
       <c r="G29" s="3" t="str">
-        <f t="shared" si="2"/>
-        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (699, 172, 501, null, null, 2);</v>
+        <f t="shared" si="5"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (691, 170, 505, null, null, 2);</v>
       </c>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A30" s="3">
-        <f t="shared" si="3"/>
-        <v>700</v>
+        <f t="shared" si="6"/>
+        <v>692</v>
       </c>
       <c r="B30" s="3">
-        <f t="shared" ref="B30" si="4">B27</f>
-        <v>172</v>
+        <f>B27</f>
+        <v>170</v>
       </c>
       <c r="C30" s="3">
-        <v>501</v>
+        <v>505</v>
       </c>
       <c r="D30" s="3" t="s">
         <v>9</v>
@@ -10450,21 +10382,21 @@
         <v>1</v>
       </c>
       <c r="G30" s="3" t="str">
-        <f t="shared" si="2"/>
-        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (700, 172, 501, null, null, 1);</v>
+        <f t="shared" si="5"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (692, 170, 505, null, null, 1);</v>
       </c>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A31" s="4">
-        <f t="shared" si="3"/>
-        <v>701</v>
+        <f>A30+1</f>
+        <v>693</v>
       </c>
       <c r="B31" s="4">
         <f>B27+1</f>
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="C31" s="4">
-        <v>501</v>
+        <v>506</v>
       </c>
       <c r="D31" s="4" t="s">
         <v>9</v>
@@ -10475,22 +10407,22 @@
       <c r="F31" s="4">
         <v>2</v>
       </c>
-      <c r="G31" s="4" t="str">
-        <f t="shared" si="2"/>
-        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (701, 173, 501, null, null, 2);</v>
+      <c r="G31" t="str">
+        <f t="shared" si="5"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (693, 171, 506, null, null, 2);</v>
       </c>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A32" s="4">
-        <f t="shared" si="3"/>
-        <v>702</v>
+        <f t="shared" si="6"/>
+        <v>694</v>
       </c>
       <c r="B32" s="4">
         <f>B31</f>
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="C32" s="4">
-        <v>501</v>
+        <v>506</v>
       </c>
       <c r="D32" s="4" t="s">
         <v>9</v>
@@ -10501,22 +10433,22 @@
       <c r="F32" s="4">
         <v>1</v>
       </c>
-      <c r="G32" s="4" t="str">
-        <f t="shared" si="2"/>
-        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (702, 173, 501, null, null, 1);</v>
+      <c r="G32" t="str">
+        <f t="shared" si="5"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (694, 171, 506, null, null, 1);</v>
       </c>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A33" s="4">
-        <f t="shared" si="3"/>
-        <v>703</v>
+        <f t="shared" si="6"/>
+        <v>695</v>
       </c>
       <c r="B33" s="4">
         <f>B31</f>
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="C33" s="4">
-        <v>506</v>
+        <v>503</v>
       </c>
       <c r="D33" s="4" t="s">
         <v>9</v>
@@ -10527,22 +10459,22 @@
       <c r="F33" s="4">
         <v>2</v>
       </c>
-      <c r="G33" s="4" t="str">
-        <f t="shared" si="2"/>
-        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (703, 173, 506, null, null, 2);</v>
+      <c r="G33" t="str">
+        <f t="shared" si="5"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (695, 171, 503, null, null, 2);</v>
       </c>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A34" s="4">
-        <f t="shared" si="3"/>
-        <v>704</v>
+        <f t="shared" si="6"/>
+        <v>696</v>
       </c>
       <c r="B34" s="4">
-        <f t="shared" ref="B34" si="5">B31</f>
-        <v>173</v>
+        <f>B31</f>
+        <v>171</v>
       </c>
       <c r="C34" s="4">
-        <v>506</v>
+        <v>503</v>
       </c>
       <c r="D34" s="4" t="s">
         <v>9</v>
@@ -10553,22 +10485,22 @@
       <c r="F34" s="4">
         <v>1</v>
       </c>
-      <c r="G34" s="4" t="str">
-        <f t="shared" si="2"/>
-        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (704, 173, 506, null, null, 1);</v>
+      <c r="G34" t="str">
+        <f t="shared" si="5"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (696, 171, 503, null, null, 1);</v>
       </c>
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A35" s="3">
-        <f t="shared" si="3"/>
-        <v>705</v>
+        <f t="shared" si="6"/>
+        <v>697</v>
       </c>
       <c r="B35" s="3">
         <f>B31+1</f>
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="C35" s="3">
-        <v>503</v>
+        <v>507</v>
       </c>
       <c r="D35" s="3" t="s">
         <v>9</v>
@@ -10580,21 +10512,21 @@
         <v>2</v>
       </c>
       <c r="G35" s="3" t="str">
-        <f t="shared" si="2"/>
-        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (705, 174, 503, null, null, 2);</v>
+        <f t="shared" si="5"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (697, 172, 507, null, null, 2);</v>
       </c>
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A36" s="3">
-        <f t="shared" si="3"/>
-        <v>706</v>
+        <f t="shared" si="6"/>
+        <v>698</v>
       </c>
       <c r="B36" s="3">
         <f>B35</f>
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="C36" s="3">
-        <v>503</v>
+        <v>507</v>
       </c>
       <c r="D36" s="3" t="s">
         <v>9</v>
@@ -10606,21 +10538,21 @@
         <v>1</v>
       </c>
       <c r="G36" s="3" t="str">
-        <f t="shared" si="2"/>
-        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (706, 174, 503, null, null, 1);</v>
+        <f t="shared" si="5"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (698, 172, 507, null, null, 1);</v>
       </c>
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A37" s="3">
-        <f t="shared" si="3"/>
-        <v>707</v>
+        <f t="shared" si="6"/>
+        <v>699</v>
       </c>
       <c r="B37" s="3">
         <f>B35</f>
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="C37" s="3">
-        <v>504</v>
+        <v>501</v>
       </c>
       <c r="D37" s="3" t="s">
         <v>9</v>
@@ -10632,21 +10564,21 @@
         <v>2</v>
       </c>
       <c r="G37" s="3" t="str">
-        <f t="shared" si="2"/>
-        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (707, 174, 504, null, null, 2);</v>
+        <f t="shared" si="5"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (699, 172, 501, null, null, 2);</v>
       </c>
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A38" s="3">
-        <f t="shared" si="3"/>
-        <v>708</v>
+        <f t="shared" si="6"/>
+        <v>700</v>
       </c>
       <c r="B38" s="3">
-        <f t="shared" ref="B38" si="6">B35</f>
-        <v>174</v>
+        <f t="shared" ref="B38" si="7">B35</f>
+        <v>172</v>
       </c>
       <c r="C38" s="3">
-        <v>504</v>
+        <v>501</v>
       </c>
       <c r="D38" s="3" t="s">
         <v>9</v>
@@ -10658,21 +10590,21 @@
         <v>1</v>
       </c>
       <c r="G38" s="3" t="str">
-        <f t="shared" si="2"/>
-        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (708, 174, 504, null, null, 1);</v>
+        <f t="shared" si="5"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (700, 172, 501, null, null, 1);</v>
       </c>
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A39" s="4">
-        <f t="shared" si="3"/>
-        <v>709</v>
+        <f t="shared" si="6"/>
+        <v>701</v>
       </c>
       <c r="B39" s="4">
         <f>B35+1</f>
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="C39" s="4">
-        <v>507</v>
+        <v>501</v>
       </c>
       <c r="D39" s="4" t="s">
         <v>9</v>
@@ -10684,21 +10616,21 @@
         <v>2</v>
       </c>
       <c r="G39" s="4" t="str">
-        <f t="shared" si="2"/>
-        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (709, 175, 507, null, null, 2);</v>
+        <f t="shared" si="5"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (701, 173, 501, null, null, 2);</v>
       </c>
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A40" s="4">
-        <f t="shared" si="3"/>
-        <v>710</v>
+        <f t="shared" si="6"/>
+        <v>702</v>
       </c>
       <c r="B40" s="4">
         <f>B39</f>
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="C40" s="4">
-        <v>507</v>
+        <v>501</v>
       </c>
       <c r="D40" s="4" t="s">
         <v>9</v>
@@ -10710,21 +10642,21 @@
         <v>1</v>
       </c>
       <c r="G40" s="4" t="str">
-        <f t="shared" si="2"/>
-        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (710, 175, 507, null, null, 1);</v>
+        <f t="shared" si="5"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (702, 173, 501, null, null, 1);</v>
       </c>
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A41" s="4">
-        <f t="shared" si="3"/>
-        <v>711</v>
+        <f t="shared" si="6"/>
+        <v>703</v>
       </c>
       <c r="B41" s="4">
         <f>B39</f>
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="C41" s="4">
-        <v>505</v>
+        <v>506</v>
       </c>
       <c r="D41" s="4" t="s">
         <v>9</v>
@@ -10736,21 +10668,21 @@
         <v>2</v>
       </c>
       <c r="G41" s="4" t="str">
-        <f t="shared" si="2"/>
-        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (711, 175, 505, null, null, 2);</v>
+        <f t="shared" si="5"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (703, 173, 506, null, null, 2);</v>
       </c>
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A42" s="4">
-        <f t="shared" si="3"/>
-        <v>712</v>
+        <f t="shared" si="6"/>
+        <v>704</v>
       </c>
       <c r="B42" s="4">
-        <f t="shared" ref="B42" si="7">B39</f>
-        <v>175</v>
+        <f t="shared" ref="B42" si="8">B39</f>
+        <v>173</v>
       </c>
       <c r="C42" s="4">
-        <v>505</v>
+        <v>506</v>
       </c>
       <c r="D42" s="4" t="s">
         <v>9</v>
@@ -10762,18 +10694,18 @@
         <v>1</v>
       </c>
       <c r="G42" s="4" t="str">
-        <f t="shared" si="2"/>
-        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (712, 175, 505, null, null, 1);</v>
+        <f t="shared" si="5"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (704, 173, 506, null, null, 1);</v>
       </c>
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A43" s="3">
-        <f t="shared" si="3"/>
-        <v>713</v>
+        <f t="shared" si="6"/>
+        <v>705</v>
       </c>
       <c r="B43" s="3">
         <f>B39+1</f>
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="C43" s="3">
         <v>503</v>
@@ -10788,18 +10720,18 @@
         <v>2</v>
       </c>
       <c r="G43" s="3" t="str">
-        <f t="shared" si="2"/>
-        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (713, 176, 503, null, null, 2);</v>
+        <f t="shared" si="5"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (705, 174, 503, null, null, 2);</v>
       </c>
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A44" s="3">
-        <f t="shared" si="3"/>
-        <v>714</v>
+        <f t="shared" si="6"/>
+        <v>706</v>
       </c>
       <c r="B44" s="3">
         <f>B43</f>
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="C44" s="3">
         <v>503</v>
@@ -10814,21 +10746,21 @@
         <v>1</v>
       </c>
       <c r="G44" s="3" t="str">
-        <f t="shared" si="2"/>
-        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (714, 176, 503, null, null, 1);</v>
+        <f t="shared" si="5"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (706, 174, 503, null, null, 1);</v>
       </c>
     </row>
     <row r="45" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A45" s="3">
-        <f t="shared" si="3"/>
-        <v>715</v>
+        <f t="shared" si="6"/>
+        <v>707</v>
       </c>
       <c r="B45" s="3">
         <f>B43</f>
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="C45" s="3">
-        <v>501</v>
+        <v>504</v>
       </c>
       <c r="D45" s="3" t="s">
         <v>9</v>
@@ -10840,21 +10772,21 @@
         <v>2</v>
       </c>
       <c r="G45" s="3" t="str">
-        <f t="shared" si="2"/>
-        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (715, 176, 501, null, null, 2);</v>
+        <f t="shared" si="5"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (707, 174, 504, null, null, 2);</v>
       </c>
     </row>
     <row r="46" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A46" s="3">
-        <f t="shared" si="3"/>
-        <v>716</v>
+        <f t="shared" si="6"/>
+        <v>708</v>
       </c>
       <c r="B46" s="3">
-        <f t="shared" ref="B46" si="8">B43</f>
-        <v>176</v>
+        <f t="shared" ref="B46" si="9">B43</f>
+        <v>174</v>
       </c>
       <c r="C46" s="3">
-        <v>501</v>
+        <v>504</v>
       </c>
       <c r="D46" s="3" t="s">
         <v>9</v>
@@ -10866,21 +10798,21 @@
         <v>1</v>
       </c>
       <c r="G46" s="3" t="str">
-        <f t="shared" si="2"/>
-        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (716, 176, 501, null, null, 1);</v>
+        <f t="shared" si="5"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (708, 174, 504, null, null, 1);</v>
       </c>
     </row>
     <row r="47" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A47" s="4">
-        <f t="shared" si="3"/>
-        <v>717</v>
+        <f t="shared" si="6"/>
+        <v>709</v>
       </c>
       <c r="B47" s="4">
         <f>B43+1</f>
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="C47" s="4">
-        <v>506</v>
+        <v>507</v>
       </c>
       <c r="D47" s="4" t="s">
         <v>9</v>
@@ -10892,21 +10824,21 @@
         <v>2</v>
       </c>
       <c r="G47" s="4" t="str">
-        <f t="shared" si="2"/>
-        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (717, 177, 506, null, null, 2);</v>
+        <f t="shared" si="5"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (709, 175, 507, null, null, 2);</v>
       </c>
     </row>
     <row r="48" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A48" s="4">
-        <f t="shared" si="3"/>
-        <v>718</v>
+        <f t="shared" si="6"/>
+        <v>710</v>
       </c>
       <c r="B48" s="4">
         <f>B47</f>
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="C48" s="4">
-        <v>506</v>
+        <v>507</v>
       </c>
       <c r="D48" s="4" t="s">
         <v>9</v>
@@ -10918,18 +10850,18 @@
         <v>1</v>
       </c>
       <c r="G48" s="4" t="str">
-        <f t="shared" si="2"/>
-        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (718, 177, 506, null, null, 1);</v>
+        <f t="shared" si="5"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (710, 175, 507, null, null, 1);</v>
       </c>
     </row>
     <row r="49" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A49" s="4">
-        <f t="shared" si="3"/>
-        <v>719</v>
+        <f t="shared" si="6"/>
+        <v>711</v>
       </c>
       <c r="B49" s="4">
         <f>B47</f>
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="C49" s="4">
         <v>505</v>
@@ -10944,18 +10876,18 @@
         <v>2</v>
       </c>
       <c r="G49" s="4" t="str">
-        <f t="shared" si="2"/>
-        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (719, 177, 505, null, null, 2);</v>
+        <f t="shared" si="5"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (711, 175, 505, null, null, 2);</v>
       </c>
     </row>
     <row r="50" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A50" s="4">
-        <f t="shared" si="3"/>
-        <v>720</v>
+        <f t="shared" si="6"/>
+        <v>712</v>
       </c>
       <c r="B50" s="4">
-        <f t="shared" ref="B50" si="9">B47</f>
-        <v>177</v>
+        <f t="shared" ref="B50" si="10">B47</f>
+        <v>175</v>
       </c>
       <c r="C50" s="4">
         <v>505</v>
@@ -10970,21 +10902,21 @@
         <v>1</v>
       </c>
       <c r="G50" s="4" t="str">
-        <f t="shared" si="2"/>
-        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (720, 177, 505, null, null, 1);</v>
+        <f t="shared" si="5"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (712, 175, 505, null, null, 1);</v>
       </c>
     </row>
     <row r="51" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A51" s="3">
-        <f t="shared" si="3"/>
-        <v>721</v>
+        <f t="shared" si="6"/>
+        <v>713</v>
       </c>
       <c r="B51" s="3">
         <f>B47+1</f>
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="C51" s="3">
-        <v>507</v>
+        <v>503</v>
       </c>
       <c r="D51" s="3" t="s">
         <v>9</v>
@@ -10996,21 +10928,21 @@
         <v>2</v>
       </c>
       <c r="G51" s="3" t="str">
-        <f t="shared" si="2"/>
-        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (721, 178, 507, null, null, 2);</v>
+        <f t="shared" si="5"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (713, 176, 503, null, null, 2);</v>
       </c>
     </row>
     <row r="52" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A52" s="3">
-        <f t="shared" si="3"/>
-        <v>722</v>
+        <f t="shared" si="6"/>
+        <v>714</v>
       </c>
       <c r="B52" s="3">
         <f>B51</f>
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="C52" s="3">
-        <v>507</v>
+        <v>503</v>
       </c>
       <c r="D52" s="3" t="s">
         <v>9</v>
@@ -11022,21 +10954,21 @@
         <v>1</v>
       </c>
       <c r="G52" s="3" t="str">
-        <f t="shared" si="2"/>
-        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (722, 178, 507, null, null, 1);</v>
+        <f t="shared" si="5"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (714, 176, 503, null, null, 1);</v>
       </c>
     </row>
     <row r="53" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A53" s="3">
-        <f t="shared" si="3"/>
-        <v>723</v>
+        <f t="shared" si="6"/>
+        <v>715</v>
       </c>
       <c r="B53" s="3">
         <f>B51</f>
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="C53" s="3">
-        <v>504</v>
+        <v>501</v>
       </c>
       <c r="D53" s="3" t="s">
         <v>9</v>
@@ -11048,21 +10980,21 @@
         <v>2</v>
       </c>
       <c r="G53" s="3" t="str">
-        <f t="shared" si="2"/>
-        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (723, 178, 504, null, null, 2);</v>
+        <f t="shared" si="5"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (715, 176, 501, null, null, 2);</v>
       </c>
     </row>
     <row r="54" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A54" s="3">
-        <f t="shared" si="3"/>
-        <v>724</v>
+        <f t="shared" si="6"/>
+        <v>716</v>
       </c>
       <c r="B54" s="3">
-        <f t="shared" ref="B54" si="10">B51</f>
-        <v>178</v>
+        <f t="shared" ref="B54" si="11">B51</f>
+        <v>176</v>
       </c>
       <c r="C54" s="3">
-        <v>504</v>
+        <v>501</v>
       </c>
       <c r="D54" s="3" t="s">
         <v>9</v>
@@ -11074,21 +11006,21 @@
         <v>1</v>
       </c>
       <c r="G54" s="3" t="str">
-        <f t="shared" si="2"/>
-        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (724, 178, 504, null, null, 1);</v>
+        <f t="shared" si="5"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (716, 176, 501, null, null, 1);</v>
       </c>
     </row>
     <row r="55" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A55" s="4">
-        <f t="shared" si="3"/>
-        <v>725</v>
+        <f t="shared" si="6"/>
+        <v>717</v>
       </c>
       <c r="B55" s="4">
         <f>B51+1</f>
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="C55" s="4">
-        <v>505</v>
+        <v>506</v>
       </c>
       <c r="D55" s="4" t="s">
         <v>9</v>
@@ -11100,21 +11032,21 @@
         <v>2</v>
       </c>
       <c r="G55" s="4" t="str">
-        <f t="shared" si="2"/>
-        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (725, 179, 505, null, null, 2);</v>
+        <f t="shared" si="5"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (717, 177, 506, null, null, 2);</v>
       </c>
     </row>
     <row r="56" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A56" s="4">
-        <f t="shared" si="3"/>
-        <v>726</v>
+        <f t="shared" si="6"/>
+        <v>718</v>
       </c>
       <c r="B56" s="4">
         <f>B55</f>
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="C56" s="4">
-        <v>505</v>
+        <v>506</v>
       </c>
       <c r="D56" s="4" t="s">
         <v>9</v>
@@ -11126,21 +11058,21 @@
         <v>1</v>
       </c>
       <c r="G56" s="4" t="str">
-        <f t="shared" si="2"/>
-        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (726, 179, 505, null, null, 1);</v>
+        <f t="shared" si="5"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (718, 177, 506, null, null, 1);</v>
       </c>
     </row>
     <row r="57" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A57" s="4">
-        <f t="shared" si="3"/>
-        <v>727</v>
+        <f t="shared" si="6"/>
+        <v>719</v>
       </c>
       <c r="B57" s="4">
         <f>B55</f>
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="C57" s="4">
-        <v>501</v>
+        <v>505</v>
       </c>
       <c r="D57" s="4" t="s">
         <v>9</v>
@@ -11152,21 +11084,21 @@
         <v>2</v>
       </c>
       <c r="G57" s="4" t="str">
-        <f t="shared" si="2"/>
-        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (727, 179, 501, null, null, 2);</v>
+        <f t="shared" si="5"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (719, 177, 505, null, null, 2);</v>
       </c>
     </row>
     <row r="58" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A58" s="4">
-        <f t="shared" si="3"/>
-        <v>728</v>
+        <f t="shared" si="6"/>
+        <v>720</v>
       </c>
       <c r="B58" s="4">
-        <f t="shared" ref="B58" si="11">B55</f>
-        <v>179</v>
+        <f t="shared" ref="B58" si="12">B55</f>
+        <v>177</v>
       </c>
       <c r="C58" s="4">
-        <v>501</v>
+        <v>505</v>
       </c>
       <c r="D58" s="4" t="s">
         <v>9</v>
@@ -11178,21 +11110,21 @@
         <v>1</v>
       </c>
       <c r="G58" s="4" t="str">
-        <f t="shared" si="2"/>
-        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (728, 179, 501, null, null, 1);</v>
+        <f t="shared" si="5"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (720, 177, 505, null, null, 1);</v>
       </c>
     </row>
     <row r="59" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A59" s="3">
-        <f t="shared" si="3"/>
-        <v>729</v>
+        <f t="shared" si="6"/>
+        <v>721</v>
       </c>
       <c r="B59" s="3">
         <f>B55+1</f>
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="C59" s="3">
-        <v>504</v>
+        <v>507</v>
       </c>
       <c r="D59" s="3" t="s">
         <v>9</v>
@@ -11204,21 +11136,21 @@
         <v>2</v>
       </c>
       <c r="G59" s="3" t="str">
-        <f t="shared" si="2"/>
-        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (729, 180, 504, null, null, 2);</v>
+        <f t="shared" si="5"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (721, 178, 507, null, null, 2);</v>
       </c>
     </row>
     <row r="60" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A60" s="3">
-        <f t="shared" si="3"/>
-        <v>730</v>
+        <f t="shared" si="6"/>
+        <v>722</v>
       </c>
       <c r="B60" s="3">
         <f>B59</f>
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="C60" s="3">
-        <v>504</v>
+        <v>507</v>
       </c>
       <c r="D60" s="3" t="s">
         <v>9</v>
@@ -11230,21 +11162,21 @@
         <v>1</v>
       </c>
       <c r="G60" s="3" t="str">
-        <f t="shared" si="2"/>
-        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (730, 180, 504, null, null, 1);</v>
+        <f t="shared" si="5"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (722, 178, 507, null, null, 1);</v>
       </c>
     </row>
     <row r="61" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A61" s="3">
-        <f t="shared" si="3"/>
-        <v>731</v>
+        <f t="shared" si="6"/>
+        <v>723</v>
       </c>
       <c r="B61" s="3">
         <f>B59</f>
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="C61" s="3">
-        <v>506</v>
+        <v>504</v>
       </c>
       <c r="D61" s="3" t="s">
         <v>9</v>
@@ -11256,21 +11188,21 @@
         <v>2</v>
       </c>
       <c r="G61" s="3" t="str">
-        <f t="shared" si="2"/>
-        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (731, 180, 506, null, null, 2);</v>
+        <f t="shared" si="5"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (723, 178, 504, null, null, 2);</v>
       </c>
     </row>
     <row r="62" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A62" s="3">
-        <f t="shared" si="3"/>
-        <v>732</v>
+        <f t="shared" si="6"/>
+        <v>724</v>
       </c>
       <c r="B62" s="3">
-        <f t="shared" ref="B62" si="12">B59</f>
-        <v>180</v>
+        <f t="shared" ref="B62" si="13">B59</f>
+        <v>178</v>
       </c>
       <c r="C62" s="3">
-        <v>506</v>
+        <v>504</v>
       </c>
       <c r="D62" s="3" t="s">
         <v>9</v>
@@ -11282,21 +11214,21 @@
         <v>1</v>
       </c>
       <c r="G62" s="3" t="str">
-        <f t="shared" si="2"/>
-        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (732, 180, 506, null, null, 1);</v>
+        <f t="shared" si="5"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (724, 178, 504, null, null, 1);</v>
       </c>
     </row>
     <row r="63" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A63" s="4">
-        <f t="shared" si="3"/>
-        <v>733</v>
+        <f t="shared" si="6"/>
+        <v>725</v>
       </c>
       <c r="B63" s="4">
         <f>B59+1</f>
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="C63" s="4">
-        <v>507</v>
+        <v>505</v>
       </c>
       <c r="D63" s="4" t="s">
         <v>9</v>
@@ -11308,21 +11240,21 @@
         <v>2</v>
       </c>
       <c r="G63" s="4" t="str">
-        <f t="shared" si="2"/>
-        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (733, 181, 507, null, null, 2);</v>
+        <f t="shared" si="5"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (725, 179, 505, null, null, 2);</v>
       </c>
     </row>
     <row r="64" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A64" s="4">
-        <f t="shared" si="3"/>
-        <v>734</v>
+        <f t="shared" si="6"/>
+        <v>726</v>
       </c>
       <c r="B64" s="4">
         <f>B63</f>
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="C64" s="4">
-        <v>507</v>
+        <v>505</v>
       </c>
       <c r="D64" s="4" t="s">
         <v>9</v>
@@ -11334,21 +11266,21 @@
         <v>1</v>
       </c>
       <c r="G64" s="4" t="str">
-        <f t="shared" si="2"/>
-        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (734, 181, 507, null, null, 1);</v>
+        <f t="shared" si="5"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (726, 179, 505, null, null, 1);</v>
       </c>
     </row>
     <row r="65" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A65" s="4">
-        <f t="shared" si="3"/>
-        <v>735</v>
+        <f t="shared" si="6"/>
+        <v>727</v>
       </c>
       <c r="B65" s="4">
         <f>B63</f>
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="C65" s="4">
-        <v>503</v>
+        <v>501</v>
       </c>
       <c r="D65" s="4" t="s">
         <v>9</v>
@@ -11360,21 +11292,21 @@
         <v>2</v>
       </c>
       <c r="G65" s="4" t="str">
-        <f t="shared" si="2"/>
-        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (735, 181, 503, null, null, 2);</v>
+        <f t="shared" si="5"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (727, 179, 501, null, null, 2);</v>
       </c>
     </row>
     <row r="66" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A66" s="4">
-        <f t="shared" si="3"/>
-        <v>736</v>
+        <f t="shared" si="6"/>
+        <v>728</v>
       </c>
       <c r="B66" s="4">
-        <f t="shared" ref="B66" si="13">B63</f>
-        <v>181</v>
+        <f t="shared" ref="B66" si="14">B63</f>
+        <v>179</v>
       </c>
       <c r="C66" s="4">
-        <v>503</v>
+        <v>501</v>
       </c>
       <c r="D66" s="4" t="s">
         <v>9</v>
@@ -11386,21 +11318,21 @@
         <v>1</v>
       </c>
       <c r="G66" s="4" t="str">
-        <f t="shared" si="2"/>
-        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (736, 181, 503, null, null, 1);</v>
+        <f t="shared" si="5"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (728, 179, 501, null, null, 1);</v>
       </c>
     </row>
     <row r="67" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A67" s="3">
-        <f t="shared" si="3"/>
-        <v>737</v>
+        <f t="shared" si="6"/>
+        <v>729</v>
       </c>
       <c r="B67" s="3">
         <f>B63+1</f>
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="C67" s="3">
-        <v>501</v>
+        <v>504</v>
       </c>
       <c r="D67" s="3" t="s">
         <v>9</v>
@@ -11412,21 +11344,21 @@
         <v>2</v>
       </c>
       <c r="G67" s="3" t="str">
-        <f t="shared" si="2"/>
-        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (737, 182, 501, null, null, 2);</v>
+        <f t="shared" si="5"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (729, 180, 504, null, null, 2);</v>
       </c>
     </row>
     <row r="68" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A68" s="3">
-        <f t="shared" si="3"/>
-        <v>738</v>
+        <f t="shared" si="6"/>
+        <v>730</v>
       </c>
       <c r="B68" s="3">
         <f>B67</f>
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="C68" s="3">
-        <v>501</v>
+        <v>504</v>
       </c>
       <c r="D68" s="3" t="s">
         <v>9</v>
@@ -11438,21 +11370,21 @@
         <v>1</v>
       </c>
       <c r="G68" s="3" t="str">
-        <f t="shared" si="2"/>
-        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (738, 182, 501, null, null, 1);</v>
+        <f t="shared" si="5"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (730, 180, 504, null, null, 1);</v>
       </c>
     </row>
     <row r="69" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A69" s="3">
-        <f t="shared" si="3"/>
-        <v>739</v>
+        <f t="shared" si="6"/>
+        <v>731</v>
       </c>
       <c r="B69" s="3">
         <f>B67</f>
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="C69" s="3">
-        <v>504</v>
+        <v>506</v>
       </c>
       <c r="D69" s="3" t="s">
         <v>9</v>
@@ -11464,21 +11396,21 @@
         <v>2</v>
       </c>
       <c r="G69" s="3" t="str">
-        <f t="shared" si="2"/>
-        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (739, 182, 504, null, null, 2);</v>
+        <f t="shared" si="5"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (731, 180, 506, null, null, 2);</v>
       </c>
     </row>
     <row r="70" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A70" s="3">
-        <f t="shared" si="3"/>
-        <v>740</v>
+        <f t="shared" si="6"/>
+        <v>732</v>
       </c>
       <c r="B70" s="3">
-        <f t="shared" ref="B70" si="14">B67</f>
-        <v>182</v>
+        <f t="shared" ref="B70" si="15">B67</f>
+        <v>180</v>
       </c>
       <c r="C70" s="3">
-        <v>504</v>
+        <v>506</v>
       </c>
       <c r="D70" s="3" t="s">
         <v>9</v>
@@ -11490,21 +11422,21 @@
         <v>1</v>
       </c>
       <c r="G70" s="3" t="str">
-        <f t="shared" si="2"/>
-        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (740, 182, 504, null, null, 1);</v>
+        <f t="shared" si="5"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (732, 180, 506, null, null, 1);</v>
       </c>
     </row>
     <row r="71" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A71" s="4">
-        <f t="shared" si="3"/>
-        <v>741</v>
+        <f t="shared" si="6"/>
+        <v>733</v>
       </c>
       <c r="B71" s="4">
         <f>B67+1</f>
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="C71" s="4">
-        <v>503</v>
+        <v>507</v>
       </c>
       <c r="D71" s="4" t="s">
         <v>9</v>
@@ -11516,21 +11448,21 @@
         <v>2</v>
       </c>
       <c r="G71" s="4" t="str">
-        <f t="shared" si="2"/>
-        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (741, 183, 503, null, null, 2);</v>
+        <f t="shared" si="5"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (733, 181, 507, null, null, 2);</v>
       </c>
     </row>
     <row r="72" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A72" s="4">
-        <f t="shared" si="3"/>
-        <v>742</v>
+        <f t="shared" si="6"/>
+        <v>734</v>
       </c>
       <c r="B72" s="4">
         <f>B71</f>
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="C72" s="4">
-        <v>503</v>
+        <v>507</v>
       </c>
       <c r="D72" s="4" t="s">
         <v>9</v>
@@ -11542,21 +11474,21 @@
         <v>1</v>
       </c>
       <c r="G72" s="4" t="str">
-        <f t="shared" si="2"/>
-        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (742, 183, 503, null, null, 1);</v>
+        <f t="shared" si="5"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (734, 181, 507, null, null, 1);</v>
       </c>
     </row>
     <row r="73" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A73" s="4">
-        <f t="shared" si="3"/>
-        <v>743</v>
+        <f t="shared" si="6"/>
+        <v>735</v>
       </c>
       <c r="B73" s="4">
         <f>B71</f>
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="C73" s="4">
-        <v>505</v>
+        <v>503</v>
       </c>
       <c r="D73" s="4" t="s">
         <v>9</v>
@@ -11568,21 +11500,21 @@
         <v>2</v>
       </c>
       <c r="G73" s="4" t="str">
-        <f t="shared" si="2"/>
-        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (743, 183, 505, null, null, 2);</v>
+        <f t="shared" si="5"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (735, 181, 503, null, null, 2);</v>
       </c>
     </row>
     <row r="74" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A74" s="4">
-        <f t="shared" si="3"/>
-        <v>744</v>
+        <f t="shared" si="6"/>
+        <v>736</v>
       </c>
       <c r="B74" s="4">
-        <f t="shared" ref="B74" si="15">B71</f>
-        <v>183</v>
+        <f t="shared" ref="B74" si="16">B71</f>
+        <v>181</v>
       </c>
       <c r="C74" s="4">
-        <v>505</v>
+        <v>503</v>
       </c>
       <c r="D74" s="4" t="s">
         <v>9</v>
@@ -11594,21 +11526,21 @@
         <v>1</v>
       </c>
       <c r="G74" s="4" t="str">
-        <f t="shared" si="2"/>
-        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (744, 183, 505, null, null, 1);</v>
+        <f t="shared" si="5"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (736, 181, 503, null, null, 1);</v>
       </c>
     </row>
     <row r="75" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A75" s="3">
-        <f t="shared" si="3"/>
-        <v>745</v>
+        <f t="shared" si="6"/>
+        <v>737</v>
       </c>
       <c r="B75" s="3">
         <f>B71+1</f>
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="C75" s="3">
-        <v>507</v>
+        <v>501</v>
       </c>
       <c r="D75" s="3" t="s">
         <v>9</v>
@@ -11620,21 +11552,21 @@
         <v>2</v>
       </c>
       <c r="G75" s="3" t="str">
-        <f t="shared" si="2"/>
-        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (745, 184, 507, null, null, 2);</v>
+        <f t="shared" si="5"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (737, 182, 501, null, null, 2);</v>
       </c>
     </row>
     <row r="76" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A76" s="3">
-        <f t="shared" si="3"/>
-        <v>746</v>
+        <f t="shared" si="6"/>
+        <v>738</v>
       </c>
       <c r="B76" s="3">
         <f>B75</f>
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="C76" s="3">
-        <v>507</v>
+        <v>501</v>
       </c>
       <c r="D76" s="3" t="s">
         <v>9</v>
@@ -11646,21 +11578,21 @@
         <v>1</v>
       </c>
       <c r="G76" s="3" t="str">
-        <f t="shared" si="2"/>
-        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (746, 184, 507, null, null, 1);</v>
+        <f t="shared" si="5"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (738, 182, 501, null, null, 1);</v>
       </c>
     </row>
     <row r="77" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A77" s="3">
-        <f t="shared" si="3"/>
-        <v>747</v>
+        <f t="shared" si="6"/>
+        <v>739</v>
       </c>
       <c r="B77" s="3">
         <f>B75</f>
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="C77" s="3">
-        <v>506</v>
+        <v>504</v>
       </c>
       <c r="D77" s="3" t="s">
         <v>9</v>
@@ -11672,21 +11604,21 @@
         <v>2</v>
       </c>
       <c r="G77" s="3" t="str">
-        <f t="shared" si="2"/>
-        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (747, 184, 506, null, null, 2);</v>
+        <f t="shared" si="5"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (739, 182, 504, null, null, 2);</v>
       </c>
     </row>
     <row r="78" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A78" s="3">
-        <f t="shared" si="3"/>
-        <v>748</v>
+        <f t="shared" si="6"/>
+        <v>740</v>
       </c>
       <c r="B78" s="3">
-        <f t="shared" ref="B78" si="16">B75</f>
-        <v>184</v>
+        <f t="shared" ref="B78" si="17">B75</f>
+        <v>182</v>
       </c>
       <c r="C78" s="3">
-        <v>506</v>
+        <v>504</v>
       </c>
       <c r="D78" s="3" t="s">
         <v>9</v>
@@ -11698,7 +11630,215 @@
         <v>1</v>
       </c>
       <c r="G78" s="3" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (740, 182, 504, null, null, 1);</v>
+      </c>
+    </row>
+    <row r="79" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A79" s="4">
+        <f t="shared" si="6"/>
+        <v>741</v>
+      </c>
+      <c r="B79" s="4">
+        <f>B75+1</f>
+        <v>183</v>
+      </c>
+      <c r="C79" s="4">
+        <v>503</v>
+      </c>
+      <c r="D79" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="E79" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="F79" s="4">
+        <v>2</v>
+      </c>
+      <c r="G79" s="4" t="str">
+        <f t="shared" si="5"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (741, 183, 503, null, null, 2);</v>
+      </c>
+    </row>
+    <row r="80" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A80" s="4">
+        <f t="shared" si="6"/>
+        <v>742</v>
+      </c>
+      <c r="B80" s="4">
+        <f>B79</f>
+        <v>183</v>
+      </c>
+      <c r="C80" s="4">
+        <v>503</v>
+      </c>
+      <c r="D80" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="E80" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="F80" s="4">
+        <v>1</v>
+      </c>
+      <c r="G80" s="4" t="str">
+        <f t="shared" si="5"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (742, 183, 503, null, null, 1);</v>
+      </c>
+    </row>
+    <row r="81" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A81" s="4">
+        <f t="shared" si="6"/>
+        <v>743</v>
+      </c>
+      <c r="B81" s="4">
+        <f>B79</f>
+        <v>183</v>
+      </c>
+      <c r="C81" s="4">
+        <v>505</v>
+      </c>
+      <c r="D81" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="E81" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="F81" s="4">
+        <v>2</v>
+      </c>
+      <c r="G81" s="4" t="str">
+        <f t="shared" si="5"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (743, 183, 505, null, null, 2);</v>
+      </c>
+    </row>
+    <row r="82" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A82" s="4">
+        <f t="shared" si="6"/>
+        <v>744</v>
+      </c>
+      <c r="B82" s="4">
+        <f t="shared" ref="B82" si="18">B79</f>
+        <v>183</v>
+      </c>
+      <c r="C82" s="4">
+        <v>505</v>
+      </c>
+      <c r="D82" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="E82" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="F82" s="4">
+        <v>1</v>
+      </c>
+      <c r="G82" s="4" t="str">
+        <f t="shared" si="5"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (744, 183, 505, null, null, 1);</v>
+      </c>
+    </row>
+    <row r="83" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A83" s="3">
+        <f t="shared" si="6"/>
+        <v>745</v>
+      </c>
+      <c r="B83" s="3">
+        <f>B79+1</f>
+        <v>184</v>
+      </c>
+      <c r="C83" s="3">
+        <v>507</v>
+      </c>
+      <c r="D83" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="E83" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="F83" s="3">
+        <v>2</v>
+      </c>
+      <c r="G83" s="3" t="str">
+        <f t="shared" si="5"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (745, 184, 507, null, null, 2);</v>
+      </c>
+    </row>
+    <row r="84" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A84" s="3">
+        <f t="shared" si="6"/>
+        <v>746</v>
+      </c>
+      <c r="B84" s="3">
+        <f>B83</f>
+        <v>184</v>
+      </c>
+      <c r="C84" s="3">
+        <v>507</v>
+      </c>
+      <c r="D84" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="E84" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="F84" s="3">
+        <v>1</v>
+      </c>
+      <c r="G84" s="3" t="str">
+        <f t="shared" si="5"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (746, 184, 507, null, null, 1);</v>
+      </c>
+    </row>
+    <row r="85" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A85" s="3">
+        <f t="shared" si="6"/>
+        <v>747</v>
+      </c>
+      <c r="B85" s="3">
+        <f>B83</f>
+        <v>184</v>
+      </c>
+      <c r="C85" s="3">
+        <v>506</v>
+      </c>
+      <c r="D85" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="E85" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="F85" s="3">
+        <v>2</v>
+      </c>
+      <c r="G85" s="3" t="str">
+        <f t="shared" si="5"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (747, 184, 506, null, null, 2);</v>
+      </c>
+    </row>
+    <row r="86" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A86" s="3">
+        <f t="shared" si="6"/>
+        <v>748</v>
+      </c>
+      <c r="B86" s="3">
+        <f t="shared" ref="B86" si="19">B83</f>
+        <v>184</v>
+      </c>
+      <c r="C86" s="3">
+        <v>506</v>
+      </c>
+      <c r="D86" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="E86" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="F86" s="3">
+        <v>1</v>
+      </c>
+      <c r="G86" s="3" t="str">
+        <f t="shared" si="5"/>
         <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (748, 184, 506, null, null, 1);</v>
       </c>
     </row>

--- a/Scripts/copacentroamericana/copacentroamericana.xlsx
+++ b/Scripts/copacentroamericana/copacentroamericana.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="385" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="363" uniqueCount="14">
   <si>
     <t>id</t>
   </si>
@@ -9832,9 +9832,6 @@
       <c r="D2">
         <v>505</v>
       </c>
-      <c r="E2">
-        <v>1</v>
-      </c>
       <c r="G2" t="str">
         <f t="shared" ref="G2:G7" si="0">"insert into group_stage (id, tournament, group_code, squad) values (" &amp; A2 &amp; ", " &amp; B2 &amp; ", '" &amp; C2 &amp; "', " &amp; D2 &amp;  ");"</f>
         <v>insert into group_stage (id, tournament, group_code, squad) values (68, 2017, 'A', 505);</v>
@@ -10294,18 +10291,18 @@
       <c r="C27" s="3">
         <v>504</v>
       </c>
-      <c r="D27" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="E27" s="3" t="s">
-        <v>9</v>
+      <c r="D27" s="3">
+        <v>2</v>
+      </c>
+      <c r="E27" s="3">
+        <v>3</v>
       </c>
       <c r="F27" s="3">
         <v>2</v>
       </c>
       <c r="G27" s="3" t="str">
         <f t="shared" ref="G27:G86" si="5">"insert into game_score (id, matchid, squad, goals, points, time_type) values (" &amp; A27 &amp; ", " &amp; B27 &amp; ", " &amp; C27 &amp; ", " &amp; D27 &amp; ", " &amp; E27 &amp; ", " &amp; F27 &amp; ");"</f>
-        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (689, 170, 504, null, null, 2);</v>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (689, 170, 504, 2, 3, 2);</v>
       </c>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.25">
@@ -10320,18 +10317,18 @@
       <c r="C28" s="3">
         <v>504</v>
       </c>
-      <c r="D28" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="E28" s="3" t="s">
-        <v>9</v>
+      <c r="D28" s="3">
+        <v>1</v>
+      </c>
+      <c r="E28" s="3">
+        <v>0</v>
       </c>
       <c r="F28" s="3">
         <v>1</v>
       </c>
       <c r="G28" s="3" t="str">
         <f t="shared" si="5"/>
-        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (690, 170, 504, null, null, 1);</v>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (690, 170, 504, 1, 0, 1);</v>
       </c>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.25">
@@ -10346,18 +10343,18 @@
       <c r="C29" s="3">
         <v>505</v>
       </c>
-      <c r="D29" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="E29" s="3" t="s">
-        <v>9</v>
+      <c r="D29" s="3">
+        <v>1</v>
+      </c>
+      <c r="E29" s="3">
+        <v>0</v>
       </c>
       <c r="F29" s="3">
         <v>2</v>
       </c>
       <c r="G29" s="3" t="str">
         <f t="shared" si="5"/>
-        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (691, 170, 505, null, null, 2);</v>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (691, 170, 505, 1, 0, 2);</v>
       </c>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.25">
@@ -10372,18 +10369,18 @@
       <c r="C30" s="3">
         <v>505</v>
       </c>
-      <c r="D30" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="E30" s="3" t="s">
-        <v>9</v>
+      <c r="D30" s="3">
+        <v>1</v>
+      </c>
+      <c r="E30" s="3">
+        <v>0</v>
       </c>
       <c r="F30" s="3">
         <v>1</v>
       </c>
       <c r="G30" s="3" t="str">
         <f t="shared" si="5"/>
-        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (692, 170, 505, null, null, 1);</v>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (692, 170, 505, 1, 0, 1);</v>
       </c>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.25">
@@ -10398,18 +10395,18 @@
       <c r="C31" s="4">
         <v>506</v>
       </c>
-      <c r="D31" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="E31" s="4" t="s">
-        <v>9</v>
+      <c r="D31" s="4">
+        <v>1</v>
+      </c>
+      <c r="E31" s="4">
+        <v>1</v>
       </c>
       <c r="F31" s="4">
         <v>2</v>
       </c>
       <c r="G31" t="str">
         <f t="shared" si="5"/>
-        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (693, 171, 506, null, null, 2);</v>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (693, 171, 506, 1, 1, 2);</v>
       </c>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.25">
@@ -10424,18 +10421,18 @@
       <c r="C32" s="4">
         <v>506</v>
       </c>
-      <c r="D32" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="E32" s="4" t="s">
-        <v>9</v>
+      <c r="D32" s="4">
+        <v>0</v>
+      </c>
+      <c r="E32" s="4">
+        <v>0</v>
       </c>
       <c r="F32" s="4">
         <v>1</v>
       </c>
       <c r="G32" t="str">
         <f t="shared" si="5"/>
-        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (694, 171, 506, null, null, 1);</v>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (694, 171, 506, 0, 0, 1);</v>
       </c>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.25">
@@ -10450,18 +10447,18 @@
       <c r="C33" s="4">
         <v>503</v>
       </c>
-      <c r="D33" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="E33" s="4" t="s">
-        <v>9</v>
+      <c r="D33" s="4">
+        <v>1</v>
+      </c>
+      <c r="E33" s="4">
+        <v>1</v>
       </c>
       <c r="F33" s="4">
         <v>2</v>
       </c>
       <c r="G33" t="str">
         <f t="shared" si="5"/>
-        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (695, 171, 503, null, null, 2);</v>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (695, 171, 503, 1, 1, 2);</v>
       </c>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.25">
@@ -10476,18 +10473,18 @@
       <c r="C34" s="4">
         <v>503</v>
       </c>
-      <c r="D34" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="E34" s="4" t="s">
-        <v>9</v>
+      <c r="D34" s="4">
+        <v>0</v>
+      </c>
+      <c r="E34" s="4">
+        <v>0</v>
       </c>
       <c r="F34" s="4">
         <v>1</v>
       </c>
       <c r="G34" t="str">
         <f t="shared" si="5"/>
-        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (696, 171, 503, null, null, 1);</v>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (696, 171, 503, 0, 0, 1);</v>
       </c>
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.25">
@@ -10505,15 +10502,15 @@
       <c r="D35" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="E35" s="3" t="s">
-        <v>9</v>
+      <c r="E35" s="3">
+        <v>0</v>
       </c>
       <c r="F35" s="3">
         <v>2</v>
       </c>
       <c r="G35" s="3" t="str">
         <f t="shared" si="5"/>
-        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (697, 172, 507, null, null, 2);</v>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (697, 172, 507, null, 0, 2);</v>
       </c>
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.25">
@@ -10528,18 +10525,18 @@
       <c r="C36" s="3">
         <v>507</v>
       </c>
-      <c r="D36" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="E36" s="3" t="s">
-        <v>9</v>
+      <c r="D36" s="3">
+        <v>0</v>
+      </c>
+      <c r="E36" s="3">
+        <v>0</v>
       </c>
       <c r="F36" s="3">
         <v>1</v>
       </c>
       <c r="G36" s="3" t="str">
         <f t="shared" si="5"/>
-        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (698, 172, 507, null, null, 1);</v>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (698, 172, 507, 0, 0, 1);</v>
       </c>
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.25">
@@ -10557,15 +10554,15 @@
       <c r="D37" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="E37" s="3" t="s">
-        <v>9</v>
+      <c r="E37" s="3">
+        <v>0</v>
       </c>
       <c r="F37" s="3">
         <v>2</v>
       </c>
       <c r="G37" s="3" t="str">
         <f t="shared" si="5"/>
-        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (699, 172, 501, null, null, 2);</v>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (699, 172, 501, null, 0, 2);</v>
       </c>
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.25">
@@ -10580,18 +10577,18 @@
       <c r="C38" s="3">
         <v>501</v>
       </c>
-      <c r="D38" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="E38" s="3" t="s">
-        <v>9</v>
+      <c r="D38" s="3">
+        <v>0</v>
+      </c>
+      <c r="E38" s="3">
+        <v>0</v>
       </c>
       <c r="F38" s="3">
         <v>1</v>
       </c>
       <c r="G38" s="3" t="str">
         <f t="shared" si="5"/>
-        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (700, 172, 501, null, null, 1);</v>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (700, 172, 501, 0, 0, 1);</v>
       </c>
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.25">

--- a/Scripts/copacentroamericana/copacentroamericana.xlsx
+++ b/Scripts/copacentroamericana/copacentroamericana.xlsx
@@ -435,9 +435,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G63"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -23491,14 +23489,14 @@
         <v>2</v>
       </c>
       <c r="E54" s="4">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="F54" s="4">
         <v>2</v>
       </c>
       <c r="G54" s="4" t="str">
         <f t="shared" si="5"/>
-        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (383, 96, 506, 2, 0, 2);</v>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (383, 96, 506, 2, 3, 2);</v>
       </c>
     </row>
     <row r="55" spans="1:7" x14ac:dyDescent="0.25">
@@ -23543,14 +23541,14 @@
         <v>1</v>
       </c>
       <c r="E56" s="4">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="F56" s="4">
         <v>2</v>
       </c>
       <c r="G56" s="4" t="str">
         <f t="shared" si="5"/>
-        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (385, 96, 503, 1, 3, 2);</v>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (385, 96, 503, 1, 0, 2);</v>
       </c>
     </row>
     <row r="57" spans="1:7" x14ac:dyDescent="0.25">

--- a/Scripts/copacentroamericana/copacentroamericana.xlsx
+++ b/Scripts/copacentroamericana/copacentroamericana.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="363" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="361" uniqueCount="14">
   <si>
     <t>id</t>
   </si>
@@ -10394,7 +10394,7 @@
         <v>506</v>
       </c>
       <c r="D31" s="4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E31" s="4">
         <v>1</v>
@@ -10404,7 +10404,7 @@
       </c>
       <c r="G31" t="str">
         <f t="shared" si="5"/>
-        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (693, 171, 506, 1, 1, 2);</v>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (693, 171, 506, 0, 1, 2);</v>
       </c>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.25">
@@ -10446,7 +10446,7 @@
         <v>503</v>
       </c>
       <c r="D33" s="4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E33" s="4">
         <v>1</v>
@@ -10456,7 +10456,7 @@
       </c>
       <c r="G33" t="str">
         <f t="shared" si="5"/>
-        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (695, 171, 503, 1, 1, 2);</v>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (695, 171, 503, 0, 1, 2);</v>
       </c>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.25">
@@ -10497,8 +10497,8 @@
       <c r="C35" s="3">
         <v>507</v>
       </c>
-      <c r="D35" s="3" t="s">
-        <v>9</v>
+      <c r="D35" s="3">
+        <v>0</v>
       </c>
       <c r="E35" s="3">
         <v>0</v>
@@ -10508,7 +10508,7 @@
       </c>
       <c r="G35" s="3" t="str">
         <f t="shared" si="5"/>
-        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (697, 172, 507, null, 0, 2);</v>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (697, 172, 507, 0, 0, 2);</v>
       </c>
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.25">
@@ -10549,8 +10549,8 @@
       <c r="C37" s="3">
         <v>501</v>
       </c>
-      <c r="D37" s="3" t="s">
-        <v>9</v>
+      <c r="D37" s="3">
+        <v>0</v>
       </c>
       <c r="E37" s="3">
         <v>0</v>
@@ -10560,7 +10560,7 @@
       </c>
       <c r="G37" s="3" t="str">
         <f t="shared" si="5"/>
-        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (699, 172, 501, null, 0, 2);</v>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (699, 172, 501, 0, 0, 2);</v>
       </c>
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.25">

--- a/Scripts/copacentroamericana/copacentroamericana.xlsx
+++ b/Scripts/copacentroamericana/copacentroamericana.xlsx
@@ -10501,14 +10501,14 @@
         <v>0</v>
       </c>
       <c r="E35" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F35" s="3">
         <v>2</v>
       </c>
       <c r="G35" s="3" t="str">
         <f t="shared" si="5"/>
-        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (697, 172, 507, 0, 0, 2);</v>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (697, 172, 507, 0, 1, 2);</v>
       </c>
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.25">
@@ -10553,14 +10553,14 @@
         <v>0</v>
       </c>
       <c r="E37" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F37" s="3">
         <v>2</v>
       </c>
       <c r="G37" s="3" t="str">
         <f t="shared" si="5"/>
-        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (699, 172, 501, 0, 0, 2);</v>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (699, 172, 501, 0, 1, 2);</v>
       </c>
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.25">
